--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -204,16 +204,7 @@
     </r>
   </si>
   <si>
-    <t>Текущий забой от 05.10.2019г. по ГИС</t>
-  </si>
-  <si>
     <t>Результат предыдущей опрес-и ЭК</t>
-  </si>
-  <si>
-    <t>Тек. забой перед ГРП</t>
-  </si>
-  <si>
-    <t>пакер ГРП</t>
   </si>
   <si>
     <t>Тек.забой</t>
@@ -284,6 +275,12 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>необходимы забой забой</t>
+  </si>
+  <si>
+    <t>Тек. Забой по ПЗ</t>
+  </si>
 </sst>
 </file>
 
@@ -298,30 +295,30 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _d_._-;\-* #,##0.00\ _d_._-;_-* &quot;-&quot;??\ _d_._-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="General&quot; º/10м&quot;"/>
     <numFmt numFmtId="171" formatCode="General&quot; º&quot;"/>
-    <numFmt numFmtId="173" formatCode="0&quot;м&quot;"/>
-    <numFmt numFmtId="174" formatCode="General&quot; атм&quot;"/>
-    <numFmt numFmtId="175" formatCode="General&quot; м3/т&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.0&quot; м&quot;"/>
-    <numFmt numFmtId="177" formatCode="0&quot; м&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.0&quot;м&quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot;ЭК &quot;0&quot;мм&quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot;0-&quot;0&quot;м&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;на гл.&quot;0&quot;м&quot;"/>
-    <numFmt numFmtId="182" formatCode="0&quot;м от устья&quot;"/>
-    <numFmt numFmtId="183" formatCode="&quot;на гл.&quot;0.0&quot;м&quot;"/>
-    <numFmt numFmtId="184" formatCode="General&quot; м3/сут&quot;"/>
-    <numFmt numFmtId="185" formatCode="General&quot; т/сут&quot;"/>
-    <numFmt numFmtId="186" formatCode="0.00&quot; г/см3&quot;"/>
-    <numFmt numFmtId="187" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="188" formatCode="0&quot;ая&quot;"/>
-    <numFmt numFmtId="189" formatCode="0&quot; атм&quot;"/>
-    <numFmt numFmtId="190" formatCode="@&quot;м&quot;"/>
-    <numFmt numFmtId="192" formatCode="0&quot;-&quot;"/>
-    <numFmt numFmtId="193" formatCode="0&quot;мм&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.0_ ;\-0.0\ "/>
-    <numFmt numFmtId="195" formatCode="0.0&quot; м3&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.0&quot;-&quot;"/>
-    <numFmt numFmtId="197" formatCode="0.0&quot; мг/дм3&quot;"/>
+    <numFmt numFmtId="172" formatCode="0&quot;м&quot;"/>
+    <numFmt numFmtId="173" formatCode="General&quot; атм&quot;"/>
+    <numFmt numFmtId="174" formatCode="General&quot; м3/т&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.0&quot; м&quot;"/>
+    <numFmt numFmtId="176" formatCode="0&quot; м&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0&quot;м&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;ЭК &quot;0&quot;мм&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;0-&quot;0&quot;м&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;на гл.&quot;0&quot;м&quot;"/>
+    <numFmt numFmtId="181" formatCode="0&quot;м от устья&quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;на гл.&quot;0.0&quot;м&quot;"/>
+    <numFmt numFmtId="183" formatCode="General&quot; м3/сут&quot;"/>
+    <numFmt numFmtId="184" formatCode="General&quot; т/сут&quot;"/>
+    <numFmt numFmtId="185" formatCode="0.00&quot; г/см3&quot;"/>
+    <numFmt numFmtId="186" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="187" formatCode="0&quot;ая&quot;"/>
+    <numFmt numFmtId="188" formatCode="0&quot; атм&quot;"/>
+    <numFmt numFmtId="189" formatCode="@&quot;м&quot;"/>
+    <numFmt numFmtId="190" formatCode="0&quot;-&quot;"/>
+    <numFmt numFmtId="191" formatCode="0&quot;мм&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="193" formatCode="0.0&quot; м3&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.0&quot;-&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.0&quot; мг/дм3&quot;"/>
   </numFmts>
   <fonts count="64" x14ac:knownFonts="1">
     <font>
@@ -2432,7 +2429,7 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2484,10 +2481,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2527,19 +2524,19 @@
     <xf numFmtId="1" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="44" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="44" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2551,16 +2548,16 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,16 +2566,16 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="44" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="44" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="44" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="44" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="44" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="44" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2662,43 +2659,40 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="42" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2707,11 +2701,11 @@
     <xf numFmtId="164" fontId="35" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2720,8 +2714,8 @@
     <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2737,7 +2731,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="42" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="42" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2747,26 +2741,14 @@
     <xf numFmtId="2" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="175" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2809,13 +2791,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2836,7 +2818,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2914,23 +2914,23 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="196" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="196" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2998,10 +2998,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3052,22 +3052,22 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3127,7 +3127,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3136,13 +3136,13 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3157,7 +3157,7 @@
     <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3169,10 +3169,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3182,51 +3182,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3250,16 +3247,16 @@
     <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3289,28 +3286,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3354,12 +3351,6 @@
     </xf>
     <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4232,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4279,10 +4270,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4313,28 +4304,28 @@
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="191"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4351,19 +4342,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="195" t="s">
+      <c r="M4" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4378,24 +4369,24 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="196"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="196"/>
-      <c r="S5" s="196"/>
-      <c r="T5" s="196"/>
-      <c r="U5" s="196"/>
-      <c r="V5" s="196"/>
-      <c r="W5" s="196"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="73"/>
       <c r="G6" s="74"/>
       <c r="H6" s="77"/>
@@ -4403,26 +4394,26 @@
       <c r="J6" s="87"/>
       <c r="K6" s="88"/>
       <c r="L6" s="88"/>
-      <c r="M6" s="201" t="s">
+      <c r="M6" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="203"/>
-      <c r="V6" s="203"/>
-      <c r="W6" s="204"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="205"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
       <c r="F7" s="81"/>
       <c r="G7" s="80"/>
       <c r="H7" s="78"/>
@@ -4430,26 +4421,26 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
       <c r="L7" s="88"/>
-      <c r="M7" s="205" t="s">
+      <c r="M7" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="198"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="198"/>
+      <c r="R7" s="198"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="199"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
       <c r="F8" s="81"/>
       <c r="G8" s="80"/>
       <c r="H8" s="78"/>
@@ -4457,65 +4448,65 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
       <c r="L8" s="88"/>
-      <c r="M8" s="207" t="s">
+      <c r="M8" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="199"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="199"/>
-      <c r="T8" s="199"/>
-      <c r="U8" s="199"/>
-      <c r="V8" s="199"/>
-      <c r="W8" s="200"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="201"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
       <c r="F9" s="81"/>
       <c r="G9" s="80"/>
       <c r="H9" s="78"/>
       <c r="I9" s="78"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
       <c r="L9" s="89"/>
-      <c r="M9" s="213" t="s">
+      <c r="M9" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="214"/>
+      <c r="N9" s="215"/>
       <c r="O9" s="47"/>
-      <c r="P9" s="211" t="s">
+      <c r="P9" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="211" t="s">
+      <c r="Q9" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="209" t="s">
+      <c r="S9" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="209"/>
-      <c r="U9" s="211" t="s">
+      <c r="T9" s="210"/>
+      <c r="U9" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="211" t="s">
+      <c r="V9" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="215"/>
+      <c r="W9" s="216"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
       <c r="F10" s="81"/>
       <c r="G10" s="80"/>
       <c r="H10" s="78"/>
@@ -4523,17 +4514,17 @@
       <c r="J10" s="90"/>
       <c r="K10" s="91"/>
       <c r="L10" s="90"/>
-      <c r="M10" s="216" t="s">
+      <c r="M10" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="217"/>
+      <c r="N10" s="218"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="210"/>
-      <c r="U10" s="212"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="213"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="213"/>
       <c r="V10" s="82" t="s">
         <v>33</v>
       </c>
@@ -4545,8 +4536,8 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
       <c r="F11" s="81"/>
       <c r="G11" s="80"/>
       <c r="H11" s="78"/>
@@ -4554,15 +4545,15 @@
       <c r="J11" s="92"/>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
-      <c r="M11" s="181" t="s">
+      <c r="M11" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="182"/>
-      <c r="O11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="184"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
-      <c r="S11" s="121"/>
+      <c r="S11" s="146"/>
       <c r="T11" s="36"/>
       <c r="U11" s="83"/>
       <c r="V11" s="38"/>
@@ -4572,24 +4563,24 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160"/>
       <c r="F12" s="81"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
       <c r="L12" s="94"/>
-      <c r="M12" s="181" t="s">
+      <c r="M12" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="182"/>
-      <c r="O12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="184"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="121"/>
+      <c r="S12" s="146"/>
       <c r="T12" s="36"/>
       <c r="U12" s="83"/>
       <c r="V12" s="38"/>
@@ -4607,15 +4598,15 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
-      <c r="M13" s="181" t="s">
+      <c r="M13" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="182"/>
-      <c r="O13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="184"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="121"/>
+      <c r="S13" s="146"/>
       <c r="T13" s="36"/>
       <c r="U13" s="83"/>
       <c r="V13" s="38"/>
@@ -4633,17 +4624,17 @@
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
-      <c r="M14" s="150" t="s">
+      <c r="M14" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="151"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="172"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="149"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="179"/>
+      <c r="U14" s="150"/>
       <c r="V14" s="302"/>
       <c r="W14" s="305"/>
     </row>
@@ -4659,15 +4650,15 @@
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="149"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="180"/>
+      <c r="U15" s="150"/>
       <c r="V15" s="303"/>
       <c r="W15" s="306"/>
     </row>
@@ -4683,15 +4674,15 @@
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="176"/>
-      <c r="T16" s="179"/>
-      <c r="U16" s="149"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="180"/>
+      <c r="U16" s="150"/>
       <c r="V16" s="303"/>
       <c r="W16" s="306"/>
     </row>
@@ -4707,15 +4698,15 @@
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="177"/>
-      <c r="T17" s="180"/>
-      <c r="U17" s="149"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="150"/>
       <c r="V17" s="304"/>
       <c r="W17" s="307"/>
     </row>
@@ -4731,16 +4722,16 @@
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
-      <c r="M18" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="192"/>
-      <c r="O18" s="193"/>
+      <c r="M18" s="192" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="193"/>
+      <c r="O18" s="194"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="115"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="114"/>
       <c r="U18" s="52"/>
       <c r="V18" s="53"/>
       <c r="W18" s="54">
@@ -4760,15 +4751,15 @@
       <c r="J19" s="93"/>
       <c r="K19" s="93"/>
       <c r="L19" s="93"/>
-      <c r="M19" s="187" t="s">
+      <c r="M19" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="188"/>
-      <c r="O19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="190"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="43"/>
-      <c r="S19" s="123"/>
+      <c r="S19" s="148"/>
       <c r="T19" s="45"/>
       <c r="U19" s="46"/>
       <c r="V19" s="85"/>
@@ -4782,20 +4773,18 @@
       <c r="E20" s="3"/>
       <c r="F20" s="75"/>
       <c r="G20" s="76"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="150" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="152"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="153"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="121"/>
+      <c r="S20" s="146"/>
       <c r="T20" s="36"/>
       <c r="U20" s="40"/>
       <c r="V20" s="38"/>
@@ -4807,19 +4796,19 @@
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="75"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="185"/>
-      <c r="O21" s="186"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="185"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="187"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="124"/>
+      <c r="S21" s="149"/>
       <c r="T21" s="37"/>
       <c r="U21" s="41"/>
       <c r="V21" s="39"/>
@@ -4832,25 +4821,25 @@
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="75"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="323"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="160" t="s">
+      <c r="G22" s="143"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="161"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="116"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="115"/>
       <c r="S22" s="300"/>
       <c r="T22" s="301"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="120"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="119"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
@@ -4860,24 +4849,24 @@
       <c r="E23" s="3"/>
       <c r="F23" s="69"/>
       <c r="G23" s="70"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="168" t="s">
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="168"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="168"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="169"/>
+      <c r="U23" s="169"/>
+      <c r="V23" s="169"/>
+      <c r="W23" s="169"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4886,23 +4875,23 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="69"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="168"/>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="168"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="169"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="169"/>
+      <c r="T24" s="169"/>
+      <c r="U24" s="169"/>
+      <c r="V24" s="169"/>
+      <c r="W24" s="169"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4912,33 +4901,33 @@
       <c r="E25" s="3"/>
       <c r="F25" s="69"/>
       <c r="G25" s="70"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="322"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="231" t="s">
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="232"/>
-      <c r="O25" s="227" t="s">
+      <c r="N25" s="233"/>
+      <c r="O25" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="227"/>
-      <c r="Q25" s="227" t="s">
+      <c r="P25" s="228"/>
+      <c r="Q25" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="227"/>
-      <c r="S25" s="227"/>
-      <c r="T25" s="227"/>
-      <c r="U25" s="227" t="s">
-        <v>63</v>
+      <c r="R25" s="228"/>
+      <c r="S25" s="228"/>
+      <c r="T25" s="228"/>
+      <c r="U25" s="228" t="s">
+        <v>60</v>
       </c>
       <c r="V25" s="309" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W25" s="310" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4949,25 +4938,25 @@
       <c r="E26" s="3"/>
       <c r="F26" s="69"/>
       <c r="G26" s="70"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
-      <c r="L26" s="226"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="228"/>
-      <c r="P26" s="228"/>
-      <c r="Q26" s="222" t="s">
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="226"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="235"/>
+      <c r="O26" s="229"/>
+      <c r="P26" s="229"/>
+      <c r="Q26" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="222"/>
-      <c r="S26" s="222" t="s">
+      <c r="R26" s="223"/>
+      <c r="S26" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="222"/>
-      <c r="U26" s="228"/>
-      <c r="V26" s="228"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="229"/>
+      <c r="V26" s="229"/>
       <c r="W26" s="311"/>
     </row>
     <row r="27" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4978,19 +4967,19 @@
       <c r="E27" s="3"/>
       <c r="F27" s="69"/>
       <c r="G27" s="70"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="171"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="171"/>
+      <c r="T27" s="171"/>
       <c r="U27" s="60"/>
       <c r="V27" s="65"/>
       <c r="W27" s="66"/>
@@ -5008,14 +4997,14 @@
       <c r="J28" s="93"/>
       <c r="K28" s="93"/>
       <c r="L28" s="93"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
       <c r="U28" s="60"/>
       <c r="V28" s="65"/>
       <c r="W28" s="66"/>
@@ -5030,17 +5019,17 @@
       <c r="G29" s="70"/>
       <c r="H29" s="3"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="169"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="171"/>
       <c r="U29" s="60"/>
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
@@ -5055,17 +5044,17 @@
       <c r="G30" s="70"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="223"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="169"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
       <c r="U30" s="60"/>
       <c r="V30" s="65"/>
       <c r="W30" s="66"/>
@@ -5080,17 +5069,17 @@
       <c r="G31" s="70"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="225"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
       <c r="U31" s="60"/>
       <c r="V31" s="65"/>
       <c r="W31" s="66"/>
@@ -5104,18 +5093,18 @@
       <c r="F32" s="69"/>
       <c r="G32" s="70"/>
       <c r="H32" s="87"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="223"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="224"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="171"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="171"/>
+      <c r="T32" s="171"/>
       <c r="U32" s="60"/>
       <c r="V32" s="65"/>
       <c r="W32" s="66"/>
@@ -5129,18 +5118,18 @@
       <c r="F33" s="69"/>
       <c r="G33" s="70"/>
       <c r="H33" s="87"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="223"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="169"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="225"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="171"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="171"/>
       <c r="U33" s="60"/>
       <c r="V33" s="65"/>
       <c r="W33" s="66"/>
@@ -5154,18 +5143,18 @@
       <c r="F34" s="69"/>
       <c r="G34" s="70"/>
       <c r="H34" s="87"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="223"/>
-      <c r="L34" s="224"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="169"/>
-      <c r="O34" s="169"/>
-      <c r="P34" s="169"/>
-      <c r="Q34" s="170"/>
-      <c r="R34" s="170"/>
-      <c r="S34" s="170"/>
-      <c r="T34" s="170"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="172"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
+      <c r="P34" s="170"/>
+      <c r="Q34" s="171"/>
+      <c r="R34" s="171"/>
+      <c r="S34" s="171"/>
+      <c r="T34" s="171"/>
       <c r="U34" s="60"/>
       <c r="V34" s="65"/>
       <c r="W34" s="66"/>
@@ -5179,18 +5168,18 @@
       <c r="F35" s="69"/>
       <c r="G35" s="70"/>
       <c r="H35" s="87"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="223"/>
-      <c r="L35" s="224"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="169"/>
-      <c r="O35" s="169"/>
-      <c r="P35" s="169"/>
-      <c r="Q35" s="170"/>
-      <c r="R35" s="170"/>
-      <c r="S35" s="170"/>
-      <c r="T35" s="170"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="224"/>
+      <c r="L35" s="225"/>
+      <c r="M35" s="172"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="170"/>
+      <c r="Q35" s="171"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="171"/>
+      <c r="T35" s="171"/>
       <c r="U35" s="60"/>
       <c r="V35" s="65"/>
       <c r="W35" s="66"/>
@@ -5204,18 +5193,18 @@
       <c r="F36" s="69"/>
       <c r="G36" s="70"/>
       <c r="H36" s="87"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="223"/>
-      <c r="K36" s="223"/>
-      <c r="L36" s="224"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="169"/>
-      <c r="P36" s="169"/>
-      <c r="Q36" s="170"/>
-      <c r="R36" s="170"/>
-      <c r="S36" s="170"/>
-      <c r="T36" s="170"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="224"/>
+      <c r="L36" s="225"/>
+      <c r="M36" s="172"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="170"/>
+      <c r="Q36" s="171"/>
+      <c r="R36" s="171"/>
+      <c r="S36" s="171"/>
+      <c r="T36" s="171"/>
       <c r="U36" s="60"/>
       <c r="V36" s="65"/>
       <c r="W36" s="66"/>
@@ -5229,18 +5218,18 @@
       <c r="F37" s="69"/>
       <c r="G37" s="70"/>
       <c r="H37" s="87"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="223"/>
-      <c r="L37" s="224"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="169"/>
-      <c r="P37" s="169"/>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="170"/>
-      <c r="T37" s="170"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="225"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="170"/>
+      <c r="Q37" s="171"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="171"/>
+      <c r="T37" s="171"/>
       <c r="U37" s="60"/>
       <c r="V37" s="65"/>
       <c r="W37" s="66"/>
@@ -5254,18 +5243,18 @@
       <c r="F38" s="69"/>
       <c r="G38" s="70"/>
       <c r="H38" s="87"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="223"/>
-      <c r="K38" s="223"/>
-      <c r="L38" s="224"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="169"/>
-      <c r="O38" s="169"/>
-      <c r="P38" s="169"/>
-      <c r="Q38" s="170"/>
-      <c r="R38" s="170"/>
-      <c r="S38" s="170"/>
-      <c r="T38" s="170"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="225"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="170"/>
+      <c r="O38" s="170"/>
+      <c r="P38" s="170"/>
+      <c r="Q38" s="171"/>
+      <c r="R38" s="171"/>
+      <c r="S38" s="171"/>
+      <c r="T38" s="171"/>
       <c r="U38" s="60"/>
       <c r="V38" s="65"/>
       <c r="W38" s="66"/>
@@ -5279,18 +5268,18 @@
       <c r="F39" s="69"/>
       <c r="G39" s="70"/>
       <c r="H39" s="87"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="223"/>
-      <c r="L39" s="224"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="169"/>
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
-      <c r="T39" s="170"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="224"/>
+      <c r="L39" s="225"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="170"/>
+      <c r="Q39" s="171"/>
+      <c r="R39" s="171"/>
+      <c r="S39" s="171"/>
+      <c r="T39" s="171"/>
       <c r="U39" s="60"/>
       <c r="V39" s="65"/>
       <c r="W39" s="66"/>
@@ -5304,10 +5293,10 @@
       <c r="F40" s="69"/>
       <c r="G40" s="70"/>
       <c r="H40" s="87"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="223"/>
-      <c r="K40" s="223"/>
-      <c r="L40" s="224"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224"/>
+      <c r="L40" s="225"/>
       <c r="M40" s="319"/>
       <c r="N40" s="320"/>
       <c r="O40" s="320"/>
@@ -5333,19 +5322,19 @@
       <c r="J41" s="93"/>
       <c r="K41" s="93"/>
       <c r="L41" s="93"/>
-      <c r="M41" s="168" t="s">
+      <c r="M41" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="168"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="168"/>
-      <c r="S41" s="168"/>
-      <c r="T41" s="168"/>
-      <c r="U41" s="168"/>
-      <c r="V41" s="168"/>
-      <c r="W41" s="168"/>
+      <c r="N41" s="169"/>
+      <c r="O41" s="169"/>
+      <c r="P41" s="169"/>
+      <c r="Q41" s="169"/>
+      <c r="R41" s="169"/>
+      <c r="S41" s="169"/>
+      <c r="T41" s="169"/>
+      <c r="U41" s="169"/>
+      <c r="V41" s="169"/>
+      <c r="W41" s="169"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5358,19 +5347,19 @@
       <c r="H42" s="97"/>
       <c r="I42" s="97"/>
       <c r="J42" s="97"/>
-      <c r="K42" s="100"/>
+      <c r="K42" s="99"/>
       <c r="L42" s="88"/>
-      <c r="M42" s="230"/>
-      <c r="N42" s="230"/>
-      <c r="O42" s="230"/>
-      <c r="P42" s="230"/>
-      <c r="Q42" s="230"/>
-      <c r="R42" s="230"/>
-      <c r="S42" s="230"/>
-      <c r="T42" s="230"/>
-      <c r="U42" s="230"/>
-      <c r="V42" s="230"/>
-      <c r="W42" s="230"/>
+      <c r="M42" s="231"/>
+      <c r="N42" s="231"/>
+      <c r="O42" s="231"/>
+      <c r="P42" s="231"/>
+      <c r="Q42" s="231"/>
+      <c r="R42" s="231"/>
+      <c r="S42" s="231"/>
+      <c r="T42" s="231"/>
+      <c r="U42" s="231"/>
+      <c r="V42" s="231"/>
+      <c r="W42" s="231"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5383,19 +5372,19 @@
       <c r="H43" s="97"/>
       <c r="I43" s="97"/>
       <c r="J43" s="97"/>
-      <c r="K43" s="100"/>
+      <c r="K43" s="99"/>
       <c r="L43" s="88"/>
-      <c r="M43" s="235" t="s">
-        <v>49</v>
-      </c>
-      <c r="N43" s="236"/>
-      <c r="O43" s="236"/>
-      <c r="P43" s="236"/>
-      <c r="Q43" s="236"/>
-      <c r="R43" s="236"/>
-      <c r="S43" s="236"/>
-      <c r="T43" s="236"/>
-      <c r="U43" s="236"/>
+      <c r="M43" s="236" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" s="237"/>
+      <c r="O43" s="237"/>
+      <c r="P43" s="237"/>
+      <c r="Q43" s="237"/>
+      <c r="R43" s="237"/>
+      <c r="S43" s="237"/>
+      <c r="T43" s="237"/>
+      <c r="U43" s="237"/>
       <c r="V43" s="276"/>
       <c r="W43" s="277"/>
     </row>
@@ -5410,10 +5399,10 @@
       <c r="H44" s="97"/>
       <c r="I44" s="97"/>
       <c r="J44" s="97"/>
-      <c r="K44" s="100"/>
+      <c r="K44" s="99"/>
       <c r="L44" s="88"/>
       <c r="M44" s="284" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="N44" s="285"/>
       <c r="O44" s="285"/>
@@ -5439,17 +5428,17 @@
       <c r="J45" s="97"/>
       <c r="K45" s="88"/>
       <c r="L45" s="88"/>
-      <c r="M45" s="219" t="s">
+      <c r="M45" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="220"/>
-      <c r="O45" s="220"/>
-      <c r="P45" s="220"/>
-      <c r="Q45" s="220"/>
-      <c r="R45" s="220"/>
-      <c r="S45" s="220"/>
-      <c r="T45" s="220"/>
-      <c r="U45" s="220"/>
+      <c r="N45" s="221"/>
+      <c r="O45" s="221"/>
+      <c r="P45" s="221"/>
+      <c r="Q45" s="221"/>
+      <c r="R45" s="221"/>
+      <c r="S45" s="221"/>
+      <c r="T45" s="221"/>
+      <c r="U45" s="221"/>
       <c r="V45" s="287"/>
       <c r="W45" s="288"/>
     </row>
@@ -5466,19 +5455,19 @@
       <c r="J46" s="93"/>
       <c r="K46" s="93"/>
       <c r="L46" s="93"/>
-      <c r="M46" s="262" t="s">
+      <c r="M46" s="263" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="262"/>
-      <c r="O46" s="262"/>
-      <c r="P46" s="262"/>
-      <c r="Q46" s="262"/>
-      <c r="R46" s="262"/>
-      <c r="S46" s="262"/>
-      <c r="T46" s="262"/>
-      <c r="U46" s="262"/>
-      <c r="V46" s="262"/>
-      <c r="W46" s="262"/>
+      <c r="N46" s="263"/>
+      <c r="O46" s="263"/>
+      <c r="P46" s="263"/>
+      <c r="Q46" s="263"/>
+      <c r="R46" s="263"/>
+      <c r="S46" s="263"/>
+      <c r="T46" s="263"/>
+      <c r="U46" s="263"/>
+      <c r="V46" s="263"/>
+      <c r="W46" s="263"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5493,17 +5482,17 @@
       <c r="J47" s="93"/>
       <c r="K47" s="93"/>
       <c r="L47" s="93"/>
-      <c r="M47" s="263"/>
-      <c r="N47" s="263"/>
-      <c r="O47" s="263"/>
-      <c r="P47" s="263"/>
-      <c r="Q47" s="263"/>
-      <c r="R47" s="263"/>
-      <c r="S47" s="263"/>
-      <c r="T47" s="263"/>
-      <c r="U47" s="263"/>
-      <c r="V47" s="263"/>
-      <c r="W47" s="263"/>
+      <c r="M47" s="264"/>
+      <c r="N47" s="264"/>
+      <c r="O47" s="264"/>
+      <c r="P47" s="264"/>
+      <c r="Q47" s="264"/>
+      <c r="R47" s="264"/>
+      <c r="S47" s="264"/>
+      <c r="T47" s="264"/>
+      <c r="U47" s="264"/>
+      <c r="V47" s="264"/>
+      <c r="W47" s="264"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5525,12 +5514,12 @@
       <c r="O48" s="283"/>
       <c r="P48" s="283"/>
       <c r="Q48" s="283"/>
-      <c r="R48" s="270"/>
-      <c r="S48" s="270"/>
-      <c r="T48" s="229"/>
-      <c r="U48" s="229"/>
-      <c r="V48" s="166"/>
-      <c r="W48" s="167"/>
+      <c r="R48" s="271"/>
+      <c r="S48" s="271"/>
+      <c r="T48" s="230"/>
+      <c r="U48" s="230"/>
+      <c r="V48" s="167"/>
+      <c r="W48" s="168"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5540,22 +5529,22 @@
       <c r="E49" s="3"/>
       <c r="F49" s="69"/>
       <c r="G49" s="70"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
       <c r="K49" s="26"/>
       <c r="L49" s="87"/>
-      <c r="M49" s="252" t="s">
+      <c r="M49" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="253"/>
-      <c r="O49" s="253"/>
-      <c r="P49" s="253"/>
-      <c r="Q49" s="253"/>
-      <c r="R49" s="271"/>
-      <c r="S49" s="271"/>
-      <c r="T49" s="264"/>
-      <c r="U49" s="264"/>
+      <c r="N49" s="254"/>
+      <c r="O49" s="254"/>
+      <c r="P49" s="254"/>
+      <c r="Q49" s="254"/>
+      <c r="R49" s="272"/>
+      <c r="S49" s="272"/>
+      <c r="T49" s="265"/>
+      <c r="U49" s="265"/>
       <c r="V49" s="280"/>
       <c r="W49" s="281"/>
     </row>
@@ -5567,24 +5556,24 @@
       <c r="E50" s="3"/>
       <c r="F50" s="69"/>
       <c r="G50" s="70"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
       <c r="K50" s="26"/>
       <c r="L50" s="87"/>
-      <c r="M50" s="252" t="s">
+      <c r="M50" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="253"/>
-      <c r="O50" s="253"/>
-      <c r="P50" s="253"/>
-      <c r="Q50" s="253"/>
-      <c r="R50" s="221"/>
-      <c r="S50" s="221"/>
-      <c r="T50" s="163"/>
-      <c r="U50" s="163"/>
-      <c r="V50" s="164"/>
-      <c r="W50" s="165"/>
+      <c r="N50" s="254"/>
+      <c r="O50" s="254"/>
+      <c r="P50" s="254"/>
+      <c r="Q50" s="254"/>
+      <c r="R50" s="222"/>
+      <c r="S50" s="222"/>
+      <c r="T50" s="164"/>
+      <c r="U50" s="164"/>
+      <c r="V50" s="165"/>
+      <c r="W50" s="166"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5594,24 +5583,24 @@
       <c r="E51" s="3"/>
       <c r="F51" s="69"/>
       <c r="G51" s="70"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="104"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="103"/>
       <c r="J51" s="87"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="252" t="s">
+      <c r="M51" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="253"/>
-      <c r="O51" s="253"/>
-      <c r="P51" s="253"/>
-      <c r="Q51" s="253"/>
-      <c r="R51" s="268"/>
-      <c r="S51" s="268"/>
-      <c r="T51" s="259"/>
-      <c r="U51" s="259"/>
-      <c r="V51" s="164"/>
-      <c r="W51" s="165"/>
+      <c r="N51" s="254"/>
+      <c r="O51" s="254"/>
+      <c r="P51" s="254"/>
+      <c r="Q51" s="254"/>
+      <c r="R51" s="269"/>
+      <c r="S51" s="269"/>
+      <c r="T51" s="260"/>
+      <c r="U51" s="260"/>
+      <c r="V51" s="165"/>
+      <c r="W51" s="166"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5623,22 +5612,22 @@
       <c r="G52" s="70"/>
       <c r="H52" s="93"/>
       <c r="I52" s="93"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="205" t="s">
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="206"/>
-      <c r="O52" s="206"/>
-      <c r="P52" s="206"/>
-      <c r="Q52" s="206"/>
-      <c r="R52" s="261"/>
-      <c r="S52" s="261"/>
-      <c r="T52" s="260" t="s">
+      <c r="N52" s="207"/>
+      <c r="O52" s="207"/>
+      <c r="P52" s="207"/>
+      <c r="Q52" s="207"/>
+      <c r="R52" s="262"/>
+      <c r="S52" s="262"/>
+      <c r="T52" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="260"/>
+      <c r="U52" s="261"/>
       <c r="V52" s="289"/>
       <c r="W52" s="290"/>
     </row>
@@ -5650,22 +5639,21 @@
       <c r="E53" s="3"/>
       <c r="F53" s="69"/>
       <c r="G53" s="70"/>
-      <c r="H53" s="275"/>
-      <c r="I53" s="275"/>
-      <c r="J53" s="275"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="205" t="s">
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="206"/>
-      <c r="O53" s="206"/>
-      <c r="P53" s="206"/>
-      <c r="Q53" s="206"/>
-      <c r="R53" s="272"/>
-      <c r="S53" s="272"/>
-      <c r="T53" s="265"/>
-      <c r="U53" s="265"/>
+      <c r="N53" s="207"/>
+      <c r="O53" s="207"/>
+      <c r="P53" s="207"/>
+      <c r="Q53" s="207"/>
+      <c r="R53" s="273"/>
+      <c r="S53" s="273"/>
+      <c r="T53" s="266"/>
+      <c r="U53" s="266"/>
       <c r="V53" s="291"/>
       <c r="W53" s="292"/>
     </row>
@@ -5677,26 +5665,26 @@
       <c r="E54" s="3"/>
       <c r="F54" s="69"/>
       <c r="G54" s="70"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="107"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="106"/>
       <c r="L54" s="98"/>
-      <c r="M54" s="252" t="s">
+      <c r="M54" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="253"/>
-      <c r="O54" s="253"/>
-      <c r="P54" s="253"/>
-      <c r="Q54" s="253"/>
+      <c r="N54" s="254"/>
+      <c r="O54" s="254"/>
+      <c r="P54" s="254"/>
+      <c r="Q54" s="254"/>
       <c r="R54" s="286"/>
       <c r="S54" s="286"/>
-      <c r="T54" s="259" t="s">
+      <c r="T54" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="259"/>
-      <c r="V54" s="266"/>
-      <c r="W54" s="267"/>
+      <c r="U54" s="260"/>
+      <c r="V54" s="267"/>
+      <c r="W54" s="268"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -5710,22 +5698,22 @@
       <c r="I55" s="97"/>
       <c r="J55" s="97"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="252" t="s">
+      <c r="L55" s="107"/>
+      <c r="M55" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="253"/>
-      <c r="O55" s="253"/>
-      <c r="P55" s="253"/>
-      <c r="Q55" s="253"/>
-      <c r="R55" s="243"/>
-      <c r="S55" s="243"/>
-      <c r="T55" s="259" t="s">
+      <c r="N55" s="254"/>
+      <c r="O55" s="254"/>
+      <c r="P55" s="254"/>
+      <c r="Q55" s="254"/>
+      <c r="R55" s="244"/>
+      <c r="S55" s="244"/>
+      <c r="T55" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="259"/>
-      <c r="V55" s="273"/>
-      <c r="W55" s="274"/>
+      <c r="U55" s="260"/>
+      <c r="V55" s="274"/>
+      <c r="W55" s="275"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5736,23 +5724,23 @@
       <c r="F56" s="69"/>
       <c r="G56" s="70"/>
       <c r="H56" s="87"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
       <c r="K56" s="87"/>
-      <c r="L56" s="110"/>
-      <c r="M56" s="205" t="s">
+      <c r="L56" s="109"/>
+      <c r="M56" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="206"/>
-      <c r="O56" s="206"/>
-      <c r="P56" s="206"/>
-      <c r="Q56" s="206"/>
-      <c r="R56" s="238"/>
-      <c r="S56" s="238"/>
-      <c r="T56" s="239"/>
-      <c r="U56" s="239"/>
-      <c r="V56" s="239"/>
-      <c r="W56" s="240"/>
+      <c r="N56" s="207"/>
+      <c r="O56" s="207"/>
+      <c r="P56" s="207"/>
+      <c r="Q56" s="207"/>
+      <c r="R56" s="239"/>
+      <c r="S56" s="239"/>
+      <c r="T56" s="240"/>
+      <c r="U56" s="240"/>
+      <c r="V56" s="240"/>
+      <c r="W56" s="241"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5763,23 +5751,23 @@
       <c r="F57" s="69"/>
       <c r="G57" s="70"/>
       <c r="H57" s="87"/>
-      <c r="I57" s="99"/>
+      <c r="I57" s="98"/>
       <c r="J57" s="87"/>
       <c r="K57" s="87"/>
-      <c r="L57" s="111"/>
-      <c r="M57" s="205" t="s">
+      <c r="L57" s="110"/>
+      <c r="M57" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="206"/>
-      <c r="O57" s="206"/>
-      <c r="P57" s="206"/>
-      <c r="Q57" s="206"/>
-      <c r="R57" s="238"/>
-      <c r="S57" s="238"/>
-      <c r="T57" s="239"/>
-      <c r="U57" s="239"/>
-      <c r="V57" s="239"/>
-      <c r="W57" s="240"/>
+      <c r="N57" s="207"/>
+      <c r="O57" s="207"/>
+      <c r="P57" s="207"/>
+      <c r="Q57" s="207"/>
+      <c r="R57" s="239"/>
+      <c r="S57" s="239"/>
+      <c r="T57" s="240"/>
+      <c r="U57" s="240"/>
+      <c r="V57" s="240"/>
+      <c r="W57" s="241"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5789,26 +5777,26 @@
       <c r="E58" s="3"/>
       <c r="F58" s="69"/>
       <c r="G58" s="70"/>
-      <c r="H58" s="112"/>
+      <c r="H58" s="111"/>
       <c r="I58" s="88"/>
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
       <c r="L58" s="88"/>
-      <c r="M58" s="205" t="s">
+      <c r="M58" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="206"/>
-      <c r="O58" s="206"/>
-      <c r="P58" s="206"/>
-      <c r="Q58" s="206"/>
-      <c r="R58" s="246"/>
-      <c r="S58" s="246"/>
-      <c r="T58" s="238" t="s">
+      <c r="N58" s="207"/>
+      <c r="O58" s="207"/>
+      <c r="P58" s="207"/>
+      <c r="Q58" s="207"/>
+      <c r="R58" s="247"/>
+      <c r="S58" s="247"/>
+      <c r="T58" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="238"/>
-      <c r="V58" s="241"/>
-      <c r="W58" s="242"/>
+      <c r="U58" s="239"/>
+      <c r="V58" s="242"/>
+      <c r="W58" s="243"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5819,23 +5807,23 @@
       <c r="F59" s="69"/>
       <c r="G59" s="70"/>
       <c r="H59" s="87"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="252" t="s">
+      <c r="I59" s="112"/>
+      <c r="J59" s="112"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="112"/>
+      <c r="M59" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="253"/>
-      <c r="O59" s="253"/>
-      <c r="P59" s="253"/>
-      <c r="Q59" s="253"/>
-      <c r="R59" s="251"/>
-      <c r="S59" s="251"/>
-      <c r="T59" s="238"/>
-      <c r="U59" s="238"/>
-      <c r="V59" s="249"/>
-      <c r="W59" s="250"/>
+      <c r="N59" s="254"/>
+      <c r="O59" s="254"/>
+      <c r="P59" s="254"/>
+      <c r="Q59" s="254"/>
+      <c r="R59" s="252"/>
+      <c r="S59" s="252"/>
+      <c r="T59" s="239"/>
+      <c r="U59" s="239"/>
+      <c r="V59" s="250"/>
+      <c r="W59" s="251"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5846,23 +5834,23 @@
       <c r="F60" s="69"/>
       <c r="G60" s="70"/>
       <c r="H60" s="87"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="252" t="s">
-        <v>48</v>
-      </c>
-      <c r="N60" s="253"/>
-      <c r="O60" s="253"/>
-      <c r="P60" s="253"/>
-      <c r="Q60" s="253"/>
-      <c r="R60" s="251"/>
-      <c r="S60" s="251"/>
-      <c r="T60" s="238"/>
-      <c r="U60" s="238"/>
-      <c r="V60" s="249"/>
-      <c r="W60" s="250"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="253" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" s="254"/>
+      <c r="O60" s="254"/>
+      <c r="P60" s="254"/>
+      <c r="Q60" s="254"/>
+      <c r="R60" s="252"/>
+      <c r="S60" s="252"/>
+      <c r="T60" s="239"/>
+      <c r="U60" s="239"/>
+      <c r="V60" s="250"/>
+      <c r="W60" s="251"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5873,25 +5861,25 @@
       <c r="F61" s="69"/>
       <c r="G61" s="70"/>
       <c r="H61" s="87"/>
-      <c r="I61" s="237" t="s">
-        <v>51</v>
-      </c>
-      <c r="J61" s="237"/>
-      <c r="K61" s="237"/>
-      <c r="L61" s="237"/>
-      <c r="M61" s="252" t="s">
+      <c r="I61" s="238" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" s="238"/>
+      <c r="K61" s="238"/>
+      <c r="L61" s="238"/>
+      <c r="M61" s="253" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="253"/>
-      <c r="O61" s="253"/>
-      <c r="P61" s="253"/>
-      <c r="Q61" s="253"/>
-      <c r="R61" s="269"/>
-      <c r="S61" s="269"/>
-      <c r="T61" s="247"/>
-      <c r="U61" s="247"/>
-      <c r="V61" s="244"/>
-      <c r="W61" s="245"/>
+      <c r="N61" s="254"/>
+      <c r="O61" s="254"/>
+      <c r="P61" s="254"/>
+      <c r="Q61" s="254"/>
+      <c r="R61" s="270"/>
+      <c r="S61" s="270"/>
+      <c r="T61" s="248"/>
+      <c r="U61" s="248"/>
+      <c r="V61" s="245"/>
+      <c r="W61" s="246"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5902,23 +5890,23 @@
       <c r="F62" s="71"/>
       <c r="G62" s="72"/>
       <c r="H62" s="87"/>
-      <c r="I62" s="223"/>
-      <c r="J62" s="223"/>
-      <c r="K62" s="223"/>
-      <c r="L62" s="224"/>
-      <c r="M62" s="254" t="s">
+      <c r="I62" s="224"/>
+      <c r="J62" s="224"/>
+      <c r="K62" s="224"/>
+      <c r="L62" s="225"/>
+      <c r="M62" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="255"/>
-      <c r="O62" s="255"/>
-      <c r="P62" s="255"/>
-      <c r="Q62" s="255"/>
-      <c r="R62" s="256"/>
-      <c r="S62" s="256"/>
-      <c r="T62" s="248"/>
-      <c r="U62" s="248"/>
-      <c r="V62" s="257"/>
-      <c r="W62" s="258"/>
+      <c r="N62" s="256"/>
+      <c r="O62" s="256"/>
+      <c r="P62" s="256"/>
+      <c r="Q62" s="256"/>
+      <c r="R62" s="257"/>
+      <c r="S62" s="257"/>
+      <c r="T62" s="249"/>
+      <c r="U62" s="249"/>
+      <c r="V62" s="258"/>
+      <c r="W62" s="259"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5932,7 +5920,7 @@
       <c r="J63" s="8"/>
       <c r="M63" s="58"/>
       <c r="N63" s="59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O63" s="58"/>
       <c r="P63" s="58"/>
@@ -5946,7 +5934,7 @@
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L64" s="308" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M64" s="293"/>
       <c r="N64" s="293"/>
@@ -5963,7 +5951,7 @@
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="L65" s="315" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M65" s="295" t="s">
         <v>27</v>
@@ -5981,11 +5969,11 @@
       <c r="R65" s="295"/>
       <c r="S65" s="295"/>
       <c r="T65" s="295" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U65" s="295"/>
       <c r="V65" s="295" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W65" s="296"/>
     </row>
@@ -6004,11 +5992,11 @@
       </c>
       <c r="S66" s="295"/>
       <c r="T66" s="295" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U66" s="295"/>
       <c r="V66" s="295" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W66" s="296"/>
     </row>
@@ -6043,15 +6031,15 @@
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L69" s="308" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M69" s="293"/>
       <c r="N69" s="293" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O69" s="293"/>
       <c r="P69" s="293" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q69" s="294"/>
       <c r="R69" s="316"/>
@@ -6086,12 +6074,7 @@
     <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="211">
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
+  <mergeCells count="210">
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="P65:S65"/>
@@ -6104,12 +6087,28 @@
     <mergeCell ref="N70:O70"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="R70:S70"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="L64:W64"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="Q40:R40"/>
     <mergeCell ref="S40:T40"/>
     <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
     <mergeCell ref="V14:V17"/>
     <mergeCell ref="W14:W17"/>
     <mergeCell ref="M20:Q20"/>
@@ -6129,22 +6128,6 @@
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="S31:T31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="O31:P31"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:P29"/>
@@ -6156,6 +6139,11 @@
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
     <mergeCell ref="N69:O69"/>
     <mergeCell ref="P69:Q69"/>
     <mergeCell ref="T65:U65"/>
@@ -6167,7 +6155,6 @@
     <mergeCell ref="P67:Q67"/>
     <mergeCell ref="P68:Q68"/>
     <mergeCell ref="O65:O66"/>
-    <mergeCell ref="H53:J53"/>
     <mergeCell ref="V43:W43"/>
     <mergeCell ref="V44:W44"/>
     <mergeCell ref="V49:W49"/>
@@ -6254,10 +6241,6 @@
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="M31:N31"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
@@ -6298,6 +6281,10 @@
     <mergeCell ref="Q14:Q17"/>
     <mergeCell ref="R14:R17"/>
     <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -28,12 +28,12 @@
     <definedName name="пакер">СХЕМА!$U$19</definedName>
     <definedName name="раствор_глушения">СХЕМА!$R$52</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>м</t>
-  </si>
-  <si>
-    <t>dfsdfef</t>
   </si>
   <si>
     <t>вскрытия/
@@ -2836,6 +2833,180 @@
     <xf numFmtId="190" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2869,180 +3040,6 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3265,12 +3262,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3286,33 +3277,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3320,27 +3317,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,6 +3327,27 @@
     </xf>
     <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4223,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4270,10 +4267,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4304,28 +4301,28 @@
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4342,19 +4339,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="196" t="s">
+      <c r="M4" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="196"/>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4369,24 +4366,24 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="214"/>
       <c r="F6" s="73"/>
       <c r="G6" s="74"/>
       <c r="H6" s="77"/>
@@ -4394,26 +4391,26 @@
       <c r="J6" s="87"/>
       <c r="K6" s="88"/>
       <c r="L6" s="88"/>
-      <c r="M6" s="202" t="s">
+      <c r="M6" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="205"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="194"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="158"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="81"/>
       <c r="G7" s="80"/>
       <c r="H7" s="78"/>
@@ -4421,26 +4418,26 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
       <c r="L7" s="88"/>
-      <c r="M7" s="206" t="s">
+      <c r="M7" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="199"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="188"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="81"/>
       <c r="G8" s="80"/>
       <c r="H8" s="78"/>
@@ -4448,26 +4445,26 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
       <c r="L8" s="88"/>
-      <c r="M8" s="208" t="s">
+      <c r="M8" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="209"/>
-      <c r="O8" s="209"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="200"/>
-      <c r="W8" s="201"/>
+      <c r="N8" s="198"/>
+      <c r="O8" s="198"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="189"/>
+      <c r="S8" s="189"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="190"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="216"/>
       <c r="F9" s="81"/>
       <c r="G9" s="80"/>
       <c r="H9" s="78"/>
@@ -4475,38 +4472,38 @@
       <c r="J9" s="113"/>
       <c r="K9" s="113"/>
       <c r="L9" s="89"/>
-      <c r="M9" s="214" t="s">
+      <c r="M9" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="215"/>
+      <c r="N9" s="204"/>
       <c r="O9" s="47"/>
-      <c r="P9" s="212" t="s">
+      <c r="P9" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="212" t="s">
+      <c r="Q9" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="212" t="s">
+      <c r="R9" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="210" t="s">
+      <c r="S9" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="210"/>
-      <c r="U9" s="212" t="s">
+      <c r="T9" s="199"/>
+      <c r="U9" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="212" t="s">
+      <c r="V9" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="216"/>
+      <c r="W9" s="205"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="216"/>
       <c r="F10" s="81"/>
       <c r="G10" s="80"/>
       <c r="H10" s="78"/>
@@ -4514,17 +4511,17 @@
       <c r="J10" s="90"/>
       <c r="K10" s="91"/>
       <c r="L10" s="90"/>
-      <c r="M10" s="217" t="s">
+      <c r="M10" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="218"/>
+      <c r="N10" s="207"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="213"/>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="213"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="213"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="202"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="200"/>
+      <c r="T10" s="200"/>
+      <c r="U10" s="202"/>
       <c r="V10" s="82" t="s">
         <v>33</v>
       </c>
@@ -4536,8 +4533,8 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="216"/>
       <c r="F11" s="81"/>
       <c r="G11" s="80"/>
       <c r="H11" s="78"/>
@@ -4545,11 +4542,11 @@
       <c r="J11" s="92"/>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
-      <c r="M11" s="182" t="s">
+      <c r="M11" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="183"/>
-      <c r="O11" s="184"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="161"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
@@ -4563,8 +4560,8 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="218"/>
       <c r="F12" s="81"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
@@ -4572,11 +4569,11 @@
       <c r="J12" s="123"/>
       <c r="K12" s="124"/>
       <c r="L12" s="94"/>
-      <c r="M12" s="182" t="s">
+      <c r="M12" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="183"/>
-      <c r="O12" s="184"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="161"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
@@ -4598,11 +4595,11 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
-      <c r="M13" s="182" t="s">
+      <c r="M13" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="183"/>
-      <c r="O13" s="184"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="161"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
@@ -4624,19 +4621,19 @@
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
-      <c r="M14" s="151" t="s">
+      <c r="M14" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="152"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="179"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="302"/>
-      <c r="W14" s="305"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="208"/>
+      <c r="V14" s="298"/>
+      <c r="W14" s="301"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4650,17 +4647,17 @@
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="180"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="303"/>
-      <c r="W15" s="306"/>
+      <c r="M15" s="209"/>
+      <c r="N15" s="210"/>
+      <c r="O15" s="211"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="157"/>
+      <c r="U15" s="208"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="302"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4674,17 +4671,17 @@
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="180"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="303"/>
-      <c r="W16" s="306"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="211"/>
+      <c r="P16" s="212"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="208"/>
+      <c r="V16" s="299"/>
+      <c r="W16" s="302"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
@@ -4698,17 +4695,17 @@
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="181"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="304"/>
-      <c r="W17" s="307"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="208"/>
+      <c r="V17" s="300"/>
+      <c r="W17" s="303"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4722,11 +4719,11 @@
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
-      <c r="M18" s="192" t="s">
+      <c r="M18" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="193"/>
-      <c r="O18" s="194"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="183"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
@@ -4751,11 +4748,11 @@
       <c r="J19" s="93"/>
       <c r="K19" s="93"/>
       <c r="L19" s="93"/>
-      <c r="M19" s="188" t="s">
+      <c r="M19" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="189"/>
-      <c r="O19" s="190"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="167"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="43"/>
@@ -4778,11 +4775,11 @@
       <c r="J20" s="129"/>
       <c r="K20" s="129"/>
       <c r="L20" s="129"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="153"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="210"/>
+      <c r="Q20" s="211"/>
       <c r="R20" s="32"/>
       <c r="S20" s="146"/>
       <c r="T20" s="36"/>
@@ -4802,9 +4799,9 @@
       <c r="J21" s="132"/>
       <c r="K21" s="133"/>
       <c r="L21" s="133"/>
-      <c r="M21" s="185"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="187"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="164"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
@@ -4827,16 +4824,16 @@
       <c r="J22" s="145"/>
       <c r="K22" s="134"/>
       <c r="L22" s="134"/>
-      <c r="M22" s="161" t="s">
+      <c r="M22" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="162"/>
-      <c r="O22" s="163"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="170"/>
       <c r="P22" s="115"/>
       <c r="Q22" s="116"/>
       <c r="R22" s="115"/>
-      <c r="S22" s="300"/>
-      <c r="T22" s="301"/>
+      <c r="S22" s="304"/>
+      <c r="T22" s="305"/>
       <c r="U22" s="117"/>
       <c r="V22" s="118"/>
       <c r="W22" s="119"/>
@@ -4854,19 +4851,19 @@
       <c r="J23" s="135"/>
       <c r="K23" s="136"/>
       <c r="L23" s="137"/>
-      <c r="M23" s="169" t="s">
+      <c r="M23" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="169"/>
-      <c r="U23" s="169"/>
-      <c r="V23" s="169"/>
-      <c r="W23" s="169"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4881,17 +4878,17 @@
       <c r="J24" s="139"/>
       <c r="K24" s="129"/>
       <c r="L24" s="129"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="169"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
-      <c r="T24" s="169"/>
-      <c r="U24" s="169"/>
-      <c r="V24" s="169"/>
-      <c r="W24" s="169"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="176"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="176"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4921,13 +4918,13 @@
       <c r="S25" s="228"/>
       <c r="T25" s="228"/>
       <c r="U25" s="228" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" s="309" t="s">
+        <v>61</v>
+      </c>
+      <c r="W25" s="310" t="s">
         <v>60</v>
-      </c>
-      <c r="V25" s="309" t="s">
-        <v>62</v>
-      </c>
-      <c r="W25" s="310" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4959,7 +4956,7 @@
       <c r="V26" s="229"/>
       <c r="W26" s="311"/>
     </row>
-    <row r="27" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4972,14 +4969,14 @@
       <c r="J27" s="129"/>
       <c r="K27" s="129"/>
       <c r="L27" s="129"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="171"/>
-      <c r="S27" s="171"/>
-      <c r="T27" s="171"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
       <c r="U27" s="60"/>
       <c r="V27" s="65"/>
       <c r="W27" s="66"/>
@@ -4997,14 +4994,14 @@
       <c r="J28" s="93"/>
       <c r="K28" s="93"/>
       <c r="L28" s="93"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="171"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
       <c r="U28" s="60"/>
       <c r="V28" s="65"/>
       <c r="W28" s="66"/>
@@ -5022,14 +5019,14 @@
       <c r="J29" s="219"/>
       <c r="K29" s="219"/>
       <c r="L29" s="219"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="171"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
       <c r="U29" s="60"/>
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
@@ -5047,14 +5044,14 @@
       <c r="J30" s="224"/>
       <c r="K30" s="224"/>
       <c r="L30" s="225"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178"/>
       <c r="U30" s="60"/>
       <c r="V30" s="65"/>
       <c r="W30" s="66"/>
@@ -5072,14 +5069,14 @@
       <c r="J31" s="224"/>
       <c r="K31" s="224"/>
       <c r="L31" s="225"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="178"/>
+      <c r="T31" s="178"/>
       <c r="U31" s="60"/>
       <c r="V31" s="65"/>
       <c r="W31" s="66"/>
@@ -5097,14 +5094,14 @@
       <c r="J32" s="224"/>
       <c r="K32" s="224"/>
       <c r="L32" s="225"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="171"/>
-      <c r="R32" s="171"/>
-      <c r="S32" s="171"/>
-      <c r="T32" s="171"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="178"/>
       <c r="U32" s="60"/>
       <c r="V32" s="65"/>
       <c r="W32" s="66"/>
@@ -5122,14 +5119,14 @@
       <c r="J33" s="224"/>
       <c r="K33" s="224"/>
       <c r="L33" s="225"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="171"/>
-      <c r="T33" s="171"/>
+      <c r="M33" s="179"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="178"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="178"/>
+      <c r="T33" s="178"/>
       <c r="U33" s="60"/>
       <c r="V33" s="65"/>
       <c r="W33" s="66"/>
@@ -5147,14 +5144,14 @@
       <c r="J34" s="224"/>
       <c r="K34" s="224"/>
       <c r="L34" s="225"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
-      <c r="P34" s="170"/>
-      <c r="Q34" s="171"/>
-      <c r="R34" s="171"/>
-      <c r="S34" s="171"/>
-      <c r="T34" s="171"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="178"/>
       <c r="U34" s="60"/>
       <c r="V34" s="65"/>
       <c r="W34" s="66"/>
@@ -5172,14 +5169,14 @@
       <c r="J35" s="224"/>
       <c r="K35" s="224"/>
       <c r="L35" s="225"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="170"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="170"/>
-      <c r="Q35" s="171"/>
-      <c r="R35" s="171"/>
-      <c r="S35" s="171"/>
-      <c r="T35" s="171"/>
+      <c r="M35" s="179"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="178"/>
+      <c r="R35" s="178"/>
+      <c r="S35" s="178"/>
+      <c r="T35" s="178"/>
       <c r="U35" s="60"/>
       <c r="V35" s="65"/>
       <c r="W35" s="66"/>
@@ -5197,14 +5194,14 @@
       <c r="J36" s="224"/>
       <c r="K36" s="224"/>
       <c r="L36" s="225"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="170"/>
-      <c r="O36" s="170"/>
-      <c r="P36" s="170"/>
-      <c r="Q36" s="171"/>
-      <c r="R36" s="171"/>
-      <c r="S36" s="171"/>
-      <c r="T36" s="171"/>
+      <c r="M36" s="179"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="178"/>
       <c r="U36" s="60"/>
       <c r="V36" s="65"/>
       <c r="W36" s="66"/>
@@ -5222,14 +5219,14 @@
       <c r="J37" s="224"/>
       <c r="K37" s="224"/>
       <c r="L37" s="225"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="170"/>
-      <c r="Q37" s="171"/>
-      <c r="R37" s="171"/>
-      <c r="S37" s="171"/>
-      <c r="T37" s="171"/>
+      <c r="M37" s="179"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
+      <c r="S37" s="178"/>
+      <c r="T37" s="178"/>
       <c r="U37" s="60"/>
       <c r="V37" s="65"/>
       <c r="W37" s="66"/>
@@ -5247,14 +5244,14 @@
       <c r="J38" s="224"/>
       <c r="K38" s="224"/>
       <c r="L38" s="225"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="170"/>
-      <c r="O38" s="170"/>
-      <c r="P38" s="170"/>
-      <c r="Q38" s="171"/>
-      <c r="R38" s="171"/>
-      <c r="S38" s="171"/>
-      <c r="T38" s="171"/>
+      <c r="M38" s="179"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
+      <c r="S38" s="178"/>
+      <c r="T38" s="178"/>
       <c r="U38" s="60"/>
       <c r="V38" s="65"/>
       <c r="W38" s="66"/>
@@ -5272,14 +5269,14 @@
       <c r="J39" s="224"/>
       <c r="K39" s="224"/>
       <c r="L39" s="225"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="171"/>
-      <c r="R39" s="171"/>
-      <c r="S39" s="171"/>
-      <c r="T39" s="171"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="178"/>
+      <c r="T39" s="178"/>
       <c r="U39" s="60"/>
       <c r="V39" s="65"/>
       <c r="W39" s="66"/>
@@ -5297,14 +5294,14 @@
       <c r="J40" s="224"/>
       <c r="K40" s="224"/>
       <c r="L40" s="225"/>
-      <c r="M40" s="319"/>
-      <c r="N40" s="320"/>
-      <c r="O40" s="320"/>
-      <c r="P40" s="320"/>
-      <c r="Q40" s="321"/>
-      <c r="R40" s="321"/>
-      <c r="S40" s="321"/>
-      <c r="T40" s="321"/>
+      <c r="M40" s="312"/>
+      <c r="N40" s="313"/>
+      <c r="O40" s="313"/>
+      <c r="P40" s="313"/>
+      <c r="Q40" s="314"/>
+      <c r="R40" s="314"/>
+      <c r="S40" s="314"/>
+      <c r="T40" s="314"/>
       <c r="U40" s="61"/>
       <c r="V40" s="67"/>
       <c r="W40" s="68"/>
@@ -5322,19 +5319,19 @@
       <c r="J41" s="93"/>
       <c r="K41" s="93"/>
       <c r="L41" s="93"/>
-      <c r="M41" s="169" t="s">
+      <c r="M41" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="169"/>
-      <c r="O41" s="169"/>
-      <c r="P41" s="169"/>
-      <c r="Q41" s="169"/>
-      <c r="R41" s="169"/>
-      <c r="S41" s="169"/>
-      <c r="T41" s="169"/>
-      <c r="U41" s="169"/>
-      <c r="V41" s="169"/>
-      <c r="W41" s="169"/>
+      <c r="N41" s="176"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="176"/>
+      <c r="U41" s="176"/>
+      <c r="V41" s="176"/>
+      <c r="W41" s="176"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5375,7 +5372,7 @@
       <c r="K43" s="99"/>
       <c r="L43" s="88"/>
       <c r="M43" s="236" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N43" s="237"/>
       <c r="O43" s="237"/>
@@ -5402,7 +5399,7 @@
       <c r="K44" s="99"/>
       <c r="L44" s="88"/>
       <c r="M44" s="284" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N44" s="285"/>
       <c r="O44" s="285"/>
@@ -5518,8 +5515,8 @@
       <c r="S48" s="271"/>
       <c r="T48" s="230"/>
       <c r="U48" s="230"/>
-      <c r="V48" s="167"/>
-      <c r="W48" s="168"/>
+      <c r="V48" s="174"/>
+      <c r="W48" s="175"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5570,10 +5567,10 @@
       <c r="Q50" s="254"/>
       <c r="R50" s="222"/>
       <c r="S50" s="222"/>
-      <c r="T50" s="164"/>
-      <c r="U50" s="164"/>
-      <c r="V50" s="165"/>
-      <c r="W50" s="166"/>
+      <c r="T50" s="171"/>
+      <c r="U50" s="171"/>
+      <c r="V50" s="172"/>
+      <c r="W50" s="173"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5599,8 +5596,8 @@
       <c r="S51" s="269"/>
       <c r="T51" s="260"/>
       <c r="U51" s="260"/>
-      <c r="V51" s="165"/>
-      <c r="W51" s="166"/>
+      <c r="V51" s="172"/>
+      <c r="W51" s="173"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5615,13 +5612,13 @@
       <c r="J52" s="104"/>
       <c r="K52" s="104"/>
       <c r="L52" s="104"/>
-      <c r="M52" s="206" t="s">
+      <c r="M52" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="207"/>
-      <c r="O52" s="207"/>
-      <c r="P52" s="207"/>
-      <c r="Q52" s="207"/>
+      <c r="N52" s="196"/>
+      <c r="O52" s="196"/>
+      <c r="P52" s="196"/>
+      <c r="Q52" s="196"/>
       <c r="R52" s="262"/>
       <c r="S52" s="262"/>
       <c r="T52" s="261" t="s">
@@ -5643,13 +5640,13 @@
       <c r="I53" s="101"/>
       <c r="J53" s="101"/>
       <c r="L53" s="105"/>
-      <c r="M53" s="206" t="s">
+      <c r="M53" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="207"/>
-      <c r="O53" s="207"/>
-      <c r="P53" s="207"/>
-      <c r="Q53" s="207"/>
+      <c r="N53" s="196"/>
+      <c r="O53" s="196"/>
+      <c r="P53" s="196"/>
+      <c r="Q53" s="196"/>
       <c r="R53" s="273"/>
       <c r="S53" s="273"/>
       <c r="T53" s="266"/>
@@ -5728,13 +5725,13 @@
       <c r="J56" s="108"/>
       <c r="K56" s="87"/>
       <c r="L56" s="109"/>
-      <c r="M56" s="206" t="s">
+      <c r="M56" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="207"/>
-      <c r="O56" s="207"/>
-      <c r="P56" s="207"/>
-      <c r="Q56" s="207"/>
+      <c r="N56" s="196"/>
+      <c r="O56" s="196"/>
+      <c r="P56" s="196"/>
+      <c r="Q56" s="196"/>
       <c r="R56" s="239"/>
       <c r="S56" s="239"/>
       <c r="T56" s="240"/>
@@ -5755,13 +5752,13 @@
       <c r="J57" s="87"/>
       <c r="K57" s="87"/>
       <c r="L57" s="110"/>
-      <c r="M57" s="206" t="s">
+      <c r="M57" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="207"/>
-      <c r="O57" s="207"/>
-      <c r="P57" s="207"/>
-      <c r="Q57" s="207"/>
+      <c r="N57" s="196"/>
+      <c r="O57" s="196"/>
+      <c r="P57" s="196"/>
+      <c r="Q57" s="196"/>
       <c r="R57" s="239"/>
       <c r="S57" s="239"/>
       <c r="T57" s="240"/>
@@ -5782,13 +5779,13 @@
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
       <c r="L58" s="88"/>
-      <c r="M58" s="206" t="s">
+      <c r="M58" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="207"/>
-      <c r="O58" s="207"/>
-      <c r="P58" s="207"/>
-      <c r="Q58" s="207"/>
+      <c r="N58" s="196"/>
+      <c r="O58" s="196"/>
+      <c r="P58" s="196"/>
+      <c r="Q58" s="196"/>
       <c r="R58" s="247"/>
       <c r="S58" s="247"/>
       <c r="T58" s="239" t="s">
@@ -5919,9 +5916,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="M63" s="58"/>
-      <c r="N63" s="59" t="s">
-        <v>59</v>
-      </c>
+      <c r="N63" s="59"/>
       <c r="O63" s="58"/>
       <c r="P63" s="58"/>
       <c r="Q63" s="58"/>
@@ -5933,72 +5928,72 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="308" t="s">
+      <c r="L64" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="293"/>
-      <c r="N64" s="293"/>
-      <c r="O64" s="293"/>
-      <c r="P64" s="293"/>
-      <c r="Q64" s="293"/>
-      <c r="R64" s="293"/>
-      <c r="S64" s="293"/>
-      <c r="T64" s="293"/>
-      <c r="U64" s="293"/>
-      <c r="V64" s="293"/>
-      <c r="W64" s="294"/>
+      <c r="M64" s="307"/>
+      <c r="N64" s="307"/>
+      <c r="O64" s="307"/>
+      <c r="P64" s="307"/>
+      <c r="Q64" s="307"/>
+      <c r="R64" s="307"/>
+      <c r="S64" s="307"/>
+      <c r="T64" s="307"/>
+      <c r="U64" s="307"/>
+      <c r="V64" s="307"/>
+      <c r="W64" s="308"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="315" t="s">
+      <c r="L65" s="318" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="295" t="s">
+      <c r="M65" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="295" t="s">
+      <c r="N65" s="293" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="295" t="s">
+      <c r="O65" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="295" t="s">
+      <c r="P65" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="295"/>
-      <c r="R65" s="295"/>
-      <c r="S65" s="295"/>
-      <c r="T65" s="295" t="s">
+      <c r="Q65" s="293"/>
+      <c r="R65" s="293"/>
+      <c r="S65" s="293"/>
+      <c r="T65" s="293" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="295"/>
-      <c r="V65" s="295" t="s">
+      <c r="U65" s="293"/>
+      <c r="V65" s="293" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="296"/>
+      <c r="W65" s="294"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="315"/>
-      <c r="M66" s="295"/>
-      <c r="N66" s="295"/>
-      <c r="O66" s="295"/>
-      <c r="P66" s="314" t="s">
+      <c r="L66" s="318"/>
+      <c r="M66" s="293"/>
+      <c r="N66" s="293"/>
+      <c r="O66" s="293"/>
+      <c r="P66" s="317" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="314"/>
-      <c r="R66" s="295" t="s">
+      <c r="Q66" s="317"/>
+      <c r="R66" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="295"/>
-      <c r="T66" s="295" t="s">
+      <c r="S66" s="293"/>
+      <c r="T66" s="293" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="295"/>
-      <c r="V66" s="295" t="s">
+      <c r="U66" s="293"/>
+      <c r="V66" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="296"/>
+      <c r="W66" s="294"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -6006,22 +6001,22 @@
       <c r="M67" s="64"/>
       <c r="N67" s="64"/>
       <c r="O67" s="62"/>
-      <c r="P67" s="297"/>
-      <c r="Q67" s="297"/>
-      <c r="R67" s="297"/>
-      <c r="S67" s="297"/>
-      <c r="T67" s="297"/>
-      <c r="U67" s="297"/>
-      <c r="V67" s="297"/>
-      <c r="W67" s="298"/>
+      <c r="P67" s="295"/>
+      <c r="Q67" s="295"/>
+      <c r="R67" s="295"/>
+      <c r="S67" s="295"/>
+      <c r="T67" s="295"/>
+      <c r="U67" s="295"/>
+      <c r="V67" s="295"/>
+      <c r="W67" s="296"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="56"/>
       <c r="M68" s="56"/>
-      <c r="N68" s="299"/>
-      <c r="O68" s="299"/>
-      <c r="P68" s="299"/>
-      <c r="Q68" s="299"/>
+      <c r="N68" s="297"/>
+      <c r="O68" s="297"/>
+      <c r="P68" s="297"/>
+      <c r="Q68" s="297"/>
       <c r="R68" s="56"/>
       <c r="S68" s="56"/>
       <c r="T68" s="56"/>
@@ -6030,20 +6025,20 @@
       <c r="W68" s="56"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="308" t="s">
+      <c r="L69" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="293"/>
-      <c r="N69" s="293" t="s">
+      <c r="M69" s="307"/>
+      <c r="N69" s="307" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="293"/>
-      <c r="P69" s="293" t="s">
+      <c r="O69" s="307"/>
+      <c r="P69" s="307" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="294"/>
-      <c r="R69" s="316"/>
-      <c r="S69" s="316"/>
+      <c r="Q69" s="308"/>
+      <c r="R69" s="319"/>
+      <c r="S69" s="319"/>
       <c r="T69" s="56"/>
       <c r="U69" s="56"/>
       <c r="V69" s="56"/>
@@ -6051,14 +6046,14 @@
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="312"/>
-      <c r="M70" s="313"/>
-      <c r="N70" s="313"/>
-      <c r="O70" s="313"/>
-      <c r="P70" s="313"/>
-      <c r="Q70" s="317"/>
-      <c r="R70" s="318"/>
-      <c r="S70" s="318"/>
+      <c r="L70" s="315"/>
+      <c r="M70" s="316"/>
+      <c r="N70" s="316"/>
+      <c r="O70" s="316"/>
+      <c r="P70" s="316"/>
+      <c r="Q70" s="320"/>
+      <c r="R70" s="321"/>
+      <c r="S70" s="321"/>
       <c r="T70" s="56"/>
       <c r="U70" s="56"/>
       <c r="V70" s="56"/>
@@ -6087,6 +6082,8 @@
     <mergeCell ref="N70:O70"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:P32"/>
@@ -6109,6 +6106,8 @@
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="S37:T37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
     <mergeCell ref="V14:V17"/>
     <mergeCell ref="W14:W17"/>
     <mergeCell ref="M20:Q20"/>
@@ -6133,8 +6132,13 @@
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S22:T22"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O65:O66"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="S32:T32"/>
@@ -6144,24 +6148,6 @@
     <mergeCell ref="Q38:R38"/>
     <mergeCell ref="S38:T38"/>
     <mergeCell ref="S36:T36"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="V45:W45"/>
     <mergeCell ref="M53:Q53"/>
@@ -6169,6 +6155,8 @@
     <mergeCell ref="V51:W51"/>
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="V53:W53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
     <mergeCell ref="V62:W62"/>
     <mergeCell ref="T58:U58"/>
     <mergeCell ref="T54:U54"/>
@@ -6265,8 +6253,6 @@
     <mergeCell ref="M14:O17"/>
     <mergeCell ref="P14:P17"/>
     <mergeCell ref="D6:E12"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T50:U50"/>
     <mergeCell ref="V50:W50"/>
     <mergeCell ref="V48:W48"/>
     <mergeCell ref="M23:W24"/>
@@ -6278,6 +6264,13 @@
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M44:U44"/>
     <mergeCell ref="Q14:Q17"/>
     <mergeCell ref="R14:R17"/>
     <mergeCell ref="S14:S17"/>
@@ -6285,6 +6278,8 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="T50:U50"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2833,6 +2833,465 @@
     <xf numFmtId="190" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2860,15 +3319,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2898,456 +3348,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4220,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M29" sqref="M28:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4267,10 +4267,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
+      <c r="R1" s="261"/>
+      <c r="S1" s="261"/>
+      <c r="T1" s="261"/>
+      <c r="U1" s="261"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4301,28 +4301,28 @@
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4339,19 +4339,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="185" t="s">
+      <c r="M4" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="185"/>
-      <c r="T4" s="185"/>
-      <c r="U4" s="185"/>
-      <c r="V4" s="185"/>
-      <c r="W4" s="185"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4366,24 +4366,24 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="214"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="286"/>
       <c r="F6" s="73"/>
       <c r="G6" s="74"/>
       <c r="H6" s="77"/>
@@ -4391,26 +4391,26 @@
       <c r="J6" s="87"/>
       <c r="K6" s="88"/>
       <c r="L6" s="88"/>
-      <c r="M6" s="191" t="s">
+      <c r="M6" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="192"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="194"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="270"/>
+      <c r="R6" s="270"/>
+      <c r="S6" s="270"/>
+      <c r="T6" s="270"/>
+      <c r="U6" s="270"/>
+      <c r="V6" s="270"/>
+      <c r="W6" s="271"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="216"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="288"/>
       <c r="F7" s="81"/>
       <c r="G7" s="80"/>
       <c r="H7" s="78"/>
@@ -4418,26 +4418,26 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
       <c r="L7" s="88"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="188"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="264"/>
+      <c r="W7" s="265"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="216"/>
+      <c r="D8" s="287"/>
+      <c r="E8" s="288"/>
       <c r="F8" s="81"/>
       <c r="G8" s="80"/>
       <c r="H8" s="78"/>
@@ -4445,26 +4445,26 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
       <c r="L8" s="88"/>
-      <c r="M8" s="197" t="s">
+      <c r="M8" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="189"/>
-      <c r="R8" s="189"/>
-      <c r="S8" s="189"/>
-      <c r="T8" s="189"/>
-      <c r="U8" s="189"/>
-      <c r="V8" s="189"/>
-      <c r="W8" s="190"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="266"/>
+      <c r="V8" s="266"/>
+      <c r="W8" s="267"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="216"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="288"/>
       <c r="F9" s="81"/>
       <c r="G9" s="80"/>
       <c r="H9" s="78"/>
@@ -4472,38 +4472,38 @@
       <c r="J9" s="113"/>
       <c r="K9" s="113"/>
       <c r="L9" s="89"/>
-      <c r="M9" s="203" t="s">
+      <c r="M9" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="204"/>
+      <c r="N9" s="279"/>
       <c r="O9" s="47"/>
-      <c r="P9" s="201" t="s">
+      <c r="P9" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="201" t="s">
+      <c r="Q9" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="201" t="s">
+      <c r="R9" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="199" t="s">
+      <c r="S9" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="199"/>
-      <c r="U9" s="201" t="s">
+      <c r="T9" s="274"/>
+      <c r="U9" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="201" t="s">
+      <c r="V9" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="205"/>
+      <c r="W9" s="280"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="216"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="288"/>
       <c r="F10" s="81"/>
       <c r="G10" s="80"/>
       <c r="H10" s="78"/>
@@ -4511,17 +4511,17 @@
       <c r="J10" s="90"/>
       <c r="K10" s="91"/>
       <c r="L10" s="90"/>
-      <c r="M10" s="206" t="s">
+      <c r="M10" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="207"/>
+      <c r="N10" s="282"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="202"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
-      <c r="U10" s="202"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="275"/>
+      <c r="T10" s="275"/>
+      <c r="U10" s="277"/>
       <c r="V10" s="82" t="s">
         <v>33</v>
       </c>
@@ -4533,8 +4533,8 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="216"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="288"/>
       <c r="F11" s="81"/>
       <c r="G11" s="80"/>
       <c r="H11" s="78"/>
@@ -4542,11 +4542,11 @@
       <c r="J11" s="92"/>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
-      <c r="M11" s="159" t="s">
+      <c r="M11" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="160"/>
-      <c r="O11" s="161"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="257"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
@@ -4560,8 +4560,8 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="218"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
       <c r="F12" s="81"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
@@ -4569,11 +4569,11 @@
       <c r="J12" s="123"/>
       <c r="K12" s="124"/>
       <c r="L12" s="94"/>
-      <c r="M12" s="159" t="s">
+      <c r="M12" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="160"/>
-      <c r="O12" s="161"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="257"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
@@ -4595,11 +4595,11 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
-      <c r="M13" s="159" t="s">
+      <c r="M13" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="160"/>
-      <c r="O13" s="161"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="257"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
@@ -4621,19 +4621,19 @@
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
-      <c r="M14" s="209" t="s">
+      <c r="M14" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="210"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="208"/>
-      <c r="V14" s="298"/>
-      <c r="W14" s="301"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="284"/>
+      <c r="Q14" s="303"/>
+      <c r="R14" s="303"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="283"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="177"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4647,17 +4647,17 @@
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="210"/>
-      <c r="O15" s="211"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="208"/>
-      <c r="V15" s="299"/>
-      <c r="W15" s="302"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="284"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="307"/>
+      <c r="T15" s="310"/>
+      <c r="U15" s="283"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="178"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4671,17 +4671,17 @@
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="210"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="208"/>
-      <c r="V16" s="299"/>
-      <c r="W16" s="302"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="304"/>
+      <c r="R16" s="304"/>
+      <c r="S16" s="307"/>
+      <c r="T16" s="310"/>
+      <c r="U16" s="283"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="178"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
@@ -4695,17 +4695,17 @@
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="210"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="152"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="208"/>
-      <c r="V17" s="300"/>
-      <c r="W17" s="303"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="284"/>
+      <c r="Q17" s="305"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="308"/>
+      <c r="T17" s="311"/>
+      <c r="U17" s="283"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="179"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4719,11 +4719,11 @@
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
-      <c r="M18" s="181" t="s">
+      <c r="M18" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="182"/>
-      <c r="O18" s="183"/>
+      <c r="N18" s="259"/>
+      <c r="O18" s="260"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
@@ -4748,11 +4748,11 @@
       <c r="J19" s="93"/>
       <c r="K19" s="93"/>
       <c r="L19" s="93"/>
-      <c r="M19" s="165" t="s">
+      <c r="M19" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="166"/>
-      <c r="O19" s="167"/>
+      <c r="N19" s="316"/>
+      <c r="O19" s="317"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="43"/>
@@ -4775,11 +4775,11 @@
       <c r="J20" s="129"/>
       <c r="K20" s="129"/>
       <c r="L20" s="129"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="210"/>
-      <c r="Q20" s="211"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="182"/>
       <c r="R20" s="32"/>
       <c r="S20" s="146"/>
       <c r="T20" s="36"/>
@@ -4799,9 +4799,9 @@
       <c r="J21" s="132"/>
       <c r="K21" s="133"/>
       <c r="L21" s="133"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="164"/>
+      <c r="M21" s="312"/>
+      <c r="N21" s="313"/>
+      <c r="O21" s="314"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
@@ -4824,16 +4824,16 @@
       <c r="J22" s="145"/>
       <c r="K22" s="134"/>
       <c r="L22" s="134"/>
-      <c r="M22" s="168" t="s">
+      <c r="M22" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="169"/>
-      <c r="O22" s="170"/>
+      <c r="N22" s="319"/>
+      <c r="O22" s="320"/>
       <c r="P22" s="115"/>
       <c r="Q22" s="116"/>
       <c r="R22" s="115"/>
-      <c r="S22" s="304"/>
-      <c r="T22" s="305"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="184"/>
       <c r="U22" s="117"/>
       <c r="V22" s="118"/>
       <c r="W22" s="119"/>
@@ -4851,19 +4851,19 @@
       <c r="J23" s="135"/>
       <c r="K23" s="136"/>
       <c r="L23" s="137"/>
-      <c r="M23" s="176" t="s">
+      <c r="M23" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="176"/>
-      <c r="U23" s="176"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="176"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4876,19 +4876,21 @@
       <c r="H24" s="138"/>
       <c r="I24" s="138"/>
       <c r="J24" s="139"/>
-      <c r="K24" s="129"/>
+      <c r="K24" s="129" t="s">
+        <v>0</v>
+      </c>
       <c r="L24" s="129"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="176"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="176"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="176"/>
-      <c r="W24" s="176"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="246"/>
+      <c r="U24" s="246"/>
+      <c r="V24" s="246"/>
+      <c r="W24" s="246"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4903,27 +4905,27 @@
       <c r="J25" s="144"/>
       <c r="K25" s="132"/>
       <c r="L25" s="133"/>
-      <c r="M25" s="232" t="s">
+      <c r="M25" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="233"/>
-      <c r="O25" s="228" t="s">
+      <c r="N25" s="249"/>
+      <c r="O25" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="228"/>
-      <c r="Q25" s="228" t="s">
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="228"/>
-      <c r="S25" s="228"/>
-      <c r="T25" s="228"/>
-      <c r="U25" s="228" t="s">
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="244"/>
+      <c r="U25" s="244" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="309" t="s">
+      <c r="V25" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="310" t="s">
+      <c r="W25" s="169" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4937,24 +4939,24 @@
       <c r="G26" s="70"/>
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
-      <c r="J26" s="226"/>
-      <c r="K26" s="226"/>
-      <c r="L26" s="227"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="235"/>
-      <c r="O26" s="229"/>
-      <c r="P26" s="229"/>
-      <c r="Q26" s="223" t="s">
+      <c r="J26" s="242"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="243"/>
+      <c r="M26" s="250"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="223"/>
-      <c r="S26" s="223" t="s">
+      <c r="R26" s="241"/>
+      <c r="S26" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="223"/>
-      <c r="U26" s="229"/>
-      <c r="V26" s="229"/>
-      <c r="W26" s="311"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="170"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -4969,14 +4971,14 @@
       <c r="J27" s="129"/>
       <c r="K27" s="129"/>
       <c r="L27" s="129"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="177"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
       <c r="U27" s="60"/>
       <c r="V27" s="65"/>
       <c r="W27" s="66"/>
@@ -4994,14 +4996,14 @@
       <c r="J28" s="93"/>
       <c r="K28" s="93"/>
       <c r="L28" s="93"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="177"/>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="178"/>
-      <c r="T28" s="178"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
       <c r="U28" s="60"/>
       <c r="V28" s="65"/>
       <c r="W28" s="66"/>
@@ -5016,17 +5018,17 @@
       <c r="G29" s="70"/>
       <c r="H29" s="3"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="237"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
       <c r="U29" s="60"/>
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
@@ -5041,17 +5043,17 @@
       <c r="G30" s="70"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="225"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="177"/>
-      <c r="P30" s="177"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
       <c r="U30" s="60"/>
       <c r="V30" s="65"/>
       <c r="W30" s="66"/>
@@ -5066,17 +5068,17 @@
       <c r="G31" s="70"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="225"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="178"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="178"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
       <c r="U31" s="60"/>
       <c r="V31" s="65"/>
       <c r="W31" s="66"/>
@@ -5091,17 +5093,17 @@
       <c r="G32" s="70"/>
       <c r="H32" s="87"/>
       <c r="I32" s="98"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="225"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="178"/>
-      <c r="S32" s="178"/>
-      <c r="T32" s="178"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
       <c r="U32" s="60"/>
       <c r="V32" s="65"/>
       <c r="W32" s="66"/>
@@ -5116,17 +5118,17 @@
       <c r="G33" s="70"/>
       <c r="H33" s="87"/>
       <c r="I33" s="98"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="225"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
-      <c r="Q33" s="178"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="178"/>
-      <c r="T33" s="178"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
       <c r="U33" s="60"/>
       <c r="V33" s="65"/>
       <c r="W33" s="66"/>
@@ -5141,17 +5143,17 @@
       <c r="G34" s="70"/>
       <c r="H34" s="87"/>
       <c r="I34" s="98"/>
-      <c r="J34" s="224"/>
-      <c r="K34" s="224"/>
-      <c r="L34" s="225"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="177"/>
-      <c r="O34" s="177"/>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="178"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="165"/>
+      <c r="R34" s="165"/>
+      <c r="S34" s="165"/>
+      <c r="T34" s="165"/>
       <c r="U34" s="60"/>
       <c r="V34" s="65"/>
       <c r="W34" s="66"/>
@@ -5166,17 +5168,17 @@
       <c r="G35" s="70"/>
       <c r="H35" s="87"/>
       <c r="I35" s="98"/>
-      <c r="J35" s="224"/>
-      <c r="K35" s="224"/>
-      <c r="L35" s="225"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="177"/>
-      <c r="O35" s="177"/>
-      <c r="P35" s="177"/>
-      <c r="Q35" s="178"/>
-      <c r="R35" s="178"/>
-      <c r="S35" s="178"/>
-      <c r="T35" s="178"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="165"/>
+      <c r="R35" s="165"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
       <c r="U35" s="60"/>
       <c r="V35" s="65"/>
       <c r="W35" s="66"/>
@@ -5191,17 +5193,17 @@
       <c r="G36" s="70"/>
       <c r="H36" s="87"/>
       <c r="I36" s="98"/>
-      <c r="J36" s="224"/>
-      <c r="K36" s="224"/>
-      <c r="L36" s="225"/>
-      <c r="M36" s="179"/>
-      <c r="N36" s="177"/>
-      <c r="O36" s="177"/>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
-      <c r="S36" s="178"/>
-      <c r="T36" s="178"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="165"/>
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165"/>
       <c r="U36" s="60"/>
       <c r="V36" s="65"/>
       <c r="W36" s="66"/>
@@ -5216,17 +5218,17 @@
       <c r="G37" s="70"/>
       <c r="H37" s="87"/>
       <c r="I37" s="98"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="224"/>
-      <c r="L37" s="225"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="178"/>
-      <c r="S37" s="178"/>
-      <c r="T37" s="178"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
       <c r="U37" s="60"/>
       <c r="V37" s="65"/>
       <c r="W37" s="66"/>
@@ -5241,17 +5243,17 @@
       <c r="G38" s="70"/>
       <c r="H38" s="87"/>
       <c r="I38" s="98"/>
-      <c r="J38" s="224"/>
-      <c r="K38" s="224"/>
-      <c r="L38" s="225"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="177"/>
-      <c r="O38" s="177"/>
-      <c r="P38" s="177"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="178"/>
-      <c r="S38" s="178"/>
-      <c r="T38" s="178"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="165"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="165"/>
       <c r="U38" s="60"/>
       <c r="V38" s="65"/>
       <c r="W38" s="66"/>
@@ -5266,17 +5268,17 @@
       <c r="G39" s="70"/>
       <c r="H39" s="87"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="224"/>
-      <c r="K39" s="224"/>
-      <c r="L39" s="225"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
-      <c r="S39" s="178"/>
-      <c r="T39" s="178"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
+      <c r="T39" s="165"/>
       <c r="U39" s="60"/>
       <c r="V39" s="65"/>
       <c r="W39" s="66"/>
@@ -5291,17 +5293,17 @@
       <c r="G40" s="70"/>
       <c r="H40" s="87"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="224"/>
-      <c r="K40" s="224"/>
-      <c r="L40" s="225"/>
-      <c r="M40" s="312"/>
-      <c r="N40" s="313"/>
-      <c r="O40" s="313"/>
-      <c r="P40" s="313"/>
-      <c r="Q40" s="314"/>
-      <c r="R40" s="314"/>
-      <c r="S40" s="314"/>
-      <c r="T40" s="314"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
       <c r="U40" s="61"/>
       <c r="V40" s="67"/>
       <c r="W40" s="68"/>
@@ -5319,19 +5321,19 @@
       <c r="J41" s="93"/>
       <c r="K41" s="93"/>
       <c r="L41" s="93"/>
-      <c r="M41" s="176" t="s">
+      <c r="M41" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="176"/>
-      <c r="O41" s="176"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
-      <c r="S41" s="176"/>
-      <c r="T41" s="176"/>
-      <c r="U41" s="176"/>
-      <c r="V41" s="176"/>
-      <c r="W41" s="176"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="246"/>
+      <c r="P41" s="246"/>
+      <c r="Q41" s="246"/>
+      <c r="R41" s="246"/>
+      <c r="S41" s="246"/>
+      <c r="T41" s="246"/>
+      <c r="U41" s="246"/>
+      <c r="V41" s="246"/>
+      <c r="W41" s="246"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5346,17 +5348,17 @@
       <c r="J42" s="97"/>
       <c r="K42" s="99"/>
       <c r="L42" s="88"/>
-      <c r="M42" s="231"/>
-      <c r="N42" s="231"/>
-      <c r="O42" s="231"/>
-      <c r="P42" s="231"/>
-      <c r="Q42" s="231"/>
-      <c r="R42" s="231"/>
-      <c r="S42" s="231"/>
-      <c r="T42" s="231"/>
-      <c r="U42" s="231"/>
-      <c r="V42" s="231"/>
-      <c r="W42" s="231"/>
+      <c r="M42" s="247"/>
+      <c r="N42" s="247"/>
+      <c r="O42" s="247"/>
+      <c r="P42" s="247"/>
+      <c r="Q42" s="247"/>
+      <c r="R42" s="247"/>
+      <c r="S42" s="247"/>
+      <c r="T42" s="247"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="247"/>
+      <c r="W42" s="247"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5371,19 +5373,19 @@
       <c r="J43" s="97"/>
       <c r="K43" s="99"/>
       <c r="L43" s="88"/>
-      <c r="M43" s="236" t="s">
+      <c r="M43" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="237"/>
-      <c r="O43" s="237"/>
-      <c r="P43" s="237"/>
-      <c r="Q43" s="237"/>
-      <c r="R43" s="237"/>
-      <c r="S43" s="237"/>
-      <c r="T43" s="237"/>
-      <c r="U43" s="237"/>
-      <c r="V43" s="276"/>
-      <c r="W43" s="277"/>
+      <c r="N43" s="253"/>
+      <c r="O43" s="253"/>
+      <c r="P43" s="253"/>
+      <c r="Q43" s="253"/>
+      <c r="R43" s="253"/>
+      <c r="S43" s="253"/>
+      <c r="T43" s="253"/>
+      <c r="U43" s="253"/>
+      <c r="V43" s="293"/>
+      <c r="W43" s="294"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
@@ -5398,19 +5400,19 @@
       <c r="J44" s="97"/>
       <c r="K44" s="99"/>
       <c r="L44" s="88"/>
-      <c r="M44" s="284" t="s">
+      <c r="M44" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="285"/>
-      <c r="O44" s="285"/>
-      <c r="P44" s="285"/>
-      <c r="Q44" s="285"/>
-      <c r="R44" s="285"/>
-      <c r="S44" s="285"/>
-      <c r="T44" s="285"/>
-      <c r="U44" s="285"/>
-      <c r="V44" s="278"/>
-      <c r="W44" s="279"/>
+      <c r="N44" s="302"/>
+      <c r="O44" s="302"/>
+      <c r="P44" s="302"/>
+      <c r="Q44" s="302"/>
+      <c r="R44" s="302"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="295"/>
+      <c r="W44" s="296"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -5425,19 +5427,19 @@
       <c r="J45" s="97"/>
       <c r="K45" s="88"/>
       <c r="L45" s="88"/>
-      <c r="M45" s="220" t="s">
+      <c r="M45" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="221"/>
-      <c r="O45" s="221"/>
-      <c r="P45" s="221"/>
-      <c r="Q45" s="221"/>
-      <c r="R45" s="221"/>
-      <c r="S45" s="221"/>
-      <c r="T45" s="221"/>
-      <c r="U45" s="221"/>
-      <c r="V45" s="287"/>
-      <c r="W45" s="288"/>
+      <c r="N45" s="239"/>
+      <c r="O45" s="239"/>
+      <c r="P45" s="239"/>
+      <c r="Q45" s="239"/>
+      <c r="R45" s="239"/>
+      <c r="S45" s="239"/>
+      <c r="T45" s="239"/>
+      <c r="U45" s="239"/>
+      <c r="V45" s="189"/>
+      <c r="W45" s="190"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
@@ -5452,19 +5454,19 @@
       <c r="J46" s="93"/>
       <c r="K46" s="93"/>
       <c r="L46" s="93"/>
-      <c r="M46" s="263" t="s">
+      <c r="M46" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="263"/>
-      <c r="O46" s="263"/>
-      <c r="P46" s="263"/>
-      <c r="Q46" s="263"/>
-      <c r="R46" s="263"/>
-      <c r="S46" s="263"/>
-      <c r="T46" s="263"/>
-      <c r="U46" s="263"/>
-      <c r="V46" s="263"/>
-      <c r="W46" s="263"/>
+      <c r="N46" s="206"/>
+      <c r="O46" s="206"/>
+      <c r="P46" s="206"/>
+      <c r="Q46" s="206"/>
+      <c r="R46" s="206"/>
+      <c r="S46" s="206"/>
+      <c r="T46" s="206"/>
+      <c r="U46" s="206"/>
+      <c r="V46" s="206"/>
+      <c r="W46" s="206"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5479,17 +5481,17 @@
       <c r="J47" s="93"/>
       <c r="K47" s="93"/>
       <c r="L47" s="93"/>
-      <c r="M47" s="264"/>
-      <c r="N47" s="264"/>
-      <c r="O47" s="264"/>
-      <c r="P47" s="264"/>
-      <c r="Q47" s="264"/>
-      <c r="R47" s="264"/>
-      <c r="S47" s="264"/>
-      <c r="T47" s="264"/>
-      <c r="U47" s="264"/>
-      <c r="V47" s="264"/>
-      <c r="W47" s="264"/>
+      <c r="M47" s="207"/>
+      <c r="N47" s="207"/>
+      <c r="O47" s="207"/>
+      <c r="P47" s="207"/>
+      <c r="Q47" s="207"/>
+      <c r="R47" s="207"/>
+      <c r="S47" s="207"/>
+      <c r="T47" s="207"/>
+      <c r="U47" s="207"/>
+      <c r="V47" s="207"/>
+      <c r="W47" s="207"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5504,19 +5506,19 @@
       <c r="J48" s="93"/>
       <c r="K48" s="87"/>
       <c r="L48" s="87"/>
-      <c r="M48" s="282" t="s">
+      <c r="M48" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="283"/>
-      <c r="O48" s="283"/>
-      <c r="P48" s="283"/>
-      <c r="Q48" s="283"/>
-      <c r="R48" s="271"/>
-      <c r="S48" s="271"/>
-      <c r="T48" s="230"/>
-      <c r="U48" s="230"/>
-      <c r="V48" s="174"/>
-      <c r="W48" s="175"/>
+      <c r="N48" s="300"/>
+      <c r="O48" s="300"/>
+      <c r="P48" s="300"/>
+      <c r="Q48" s="300"/>
+      <c r="R48" s="217"/>
+      <c r="S48" s="217"/>
+      <c r="T48" s="245"/>
+      <c r="U48" s="245"/>
+      <c r="V48" s="291"/>
+      <c r="W48" s="292"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5531,19 +5533,19 @@
       <c r="J49" s="100"/>
       <c r="K49" s="26"/>
       <c r="L49" s="87"/>
-      <c r="M49" s="253" t="s">
+      <c r="M49" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="254"/>
-      <c r="O49" s="254"/>
-      <c r="P49" s="254"/>
-      <c r="Q49" s="254"/>
-      <c r="R49" s="272"/>
-      <c r="S49" s="272"/>
-      <c r="T49" s="265"/>
-      <c r="U49" s="265"/>
-      <c r="V49" s="280"/>
-      <c r="W49" s="281"/>
+      <c r="N49" s="220"/>
+      <c r="O49" s="220"/>
+      <c r="P49" s="220"/>
+      <c r="Q49" s="220"/>
+      <c r="R49" s="218"/>
+      <c r="S49" s="218"/>
+      <c r="T49" s="208"/>
+      <c r="U49" s="208"/>
+      <c r="V49" s="297"/>
+      <c r="W49" s="298"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -5558,19 +5560,19 @@
       <c r="J50" s="101"/>
       <c r="K50" s="26"/>
       <c r="L50" s="87"/>
-      <c r="M50" s="253" t="s">
+      <c r="M50" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="254"/>
-      <c r="O50" s="254"/>
-      <c r="P50" s="254"/>
-      <c r="Q50" s="254"/>
-      <c r="R50" s="222"/>
-      <c r="S50" s="222"/>
-      <c r="T50" s="171"/>
-      <c r="U50" s="171"/>
-      <c r="V50" s="172"/>
-      <c r="W50" s="173"/>
+      <c r="N50" s="220"/>
+      <c r="O50" s="220"/>
+      <c r="P50" s="220"/>
+      <c r="Q50" s="220"/>
+      <c r="R50" s="240"/>
+      <c r="S50" s="240"/>
+      <c r="T50" s="321"/>
+      <c r="U50" s="321"/>
+      <c r="V50" s="193"/>
+      <c r="W50" s="194"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5585,19 +5587,19 @@
       <c r="J51" s="87"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="253" t="s">
+      <c r="M51" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="254"/>
-      <c r="O51" s="254"/>
-      <c r="P51" s="254"/>
-      <c r="Q51" s="254"/>
-      <c r="R51" s="269"/>
-      <c r="S51" s="269"/>
-      <c r="T51" s="260"/>
-      <c r="U51" s="260"/>
-      <c r="V51" s="172"/>
-      <c r="W51" s="173"/>
+      <c r="N51" s="220"/>
+      <c r="O51" s="220"/>
+      <c r="P51" s="220"/>
+      <c r="Q51" s="220"/>
+      <c r="R51" s="212"/>
+      <c r="S51" s="212"/>
+      <c r="T51" s="202"/>
+      <c r="U51" s="202"/>
+      <c r="V51" s="193"/>
+      <c r="W51" s="194"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5612,21 +5614,21 @@
       <c r="J52" s="104"/>
       <c r="K52" s="104"/>
       <c r="L52" s="104"/>
-      <c r="M52" s="195" t="s">
+      <c r="M52" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="196"/>
-      <c r="O52" s="196"/>
-      <c r="P52" s="196"/>
-      <c r="Q52" s="196"/>
-      <c r="R52" s="262"/>
-      <c r="S52" s="262"/>
-      <c r="T52" s="261" t="s">
+      <c r="N52" s="192"/>
+      <c r="O52" s="192"/>
+      <c r="P52" s="192"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="205"/>
+      <c r="S52" s="205"/>
+      <c r="T52" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="261"/>
-      <c r="V52" s="289"/>
-      <c r="W52" s="290"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="195"/>
+      <c r="W52" s="196"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -5640,19 +5642,19 @@
       <c r="I53" s="101"/>
       <c r="J53" s="101"/>
       <c r="L53" s="105"/>
-      <c r="M53" s="195" t="s">
+      <c r="M53" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="196"/>
-      <c r="O53" s="196"/>
-      <c r="P53" s="196"/>
-      <c r="Q53" s="196"/>
-      <c r="R53" s="273"/>
-      <c r="S53" s="273"/>
-      <c r="T53" s="266"/>
-      <c r="U53" s="266"/>
-      <c r="V53" s="291"/>
-      <c r="W53" s="292"/>
+      <c r="N53" s="192"/>
+      <c r="O53" s="192"/>
+      <c r="P53" s="192"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="221"/>
+      <c r="S53" s="221"/>
+      <c r="T53" s="209"/>
+      <c r="U53" s="209"/>
+      <c r="V53" s="197"/>
+      <c r="W53" s="198"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -5667,21 +5669,21 @@
       <c r="J54" s="100"/>
       <c r="K54" s="106"/>
       <c r="L54" s="98"/>
-      <c r="M54" s="253" t="s">
+      <c r="M54" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="254"/>
-      <c r="O54" s="254"/>
-      <c r="P54" s="254"/>
-      <c r="Q54" s="254"/>
-      <c r="R54" s="286"/>
-      <c r="S54" s="286"/>
-      <c r="T54" s="260" t="s">
+      <c r="N54" s="220"/>
+      <c r="O54" s="220"/>
+      <c r="P54" s="220"/>
+      <c r="Q54" s="220"/>
+      <c r="R54" s="188"/>
+      <c r="S54" s="188"/>
+      <c r="T54" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="260"/>
-      <c r="V54" s="267"/>
-      <c r="W54" s="268"/>
+      <c r="U54" s="202"/>
+      <c r="V54" s="210"/>
+      <c r="W54" s="211"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -5696,21 +5698,21 @@
       <c r="J55" s="97"/>
       <c r="K55" s="25"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="253" t="s">
+      <c r="M55" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="254"/>
-      <c r="O55" s="254"/>
-      <c r="P55" s="254"/>
-      <c r="Q55" s="254"/>
-      <c r="R55" s="244"/>
-      <c r="S55" s="244"/>
-      <c r="T55" s="260" t="s">
+      <c r="N55" s="220"/>
+      <c r="O55" s="220"/>
+      <c r="P55" s="220"/>
+      <c r="Q55" s="220"/>
+      <c r="R55" s="228"/>
+      <c r="S55" s="228"/>
+      <c r="T55" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="260"/>
-      <c r="V55" s="274"/>
-      <c r="W55" s="275"/>
+      <c r="U55" s="202"/>
+      <c r="V55" s="222"/>
+      <c r="W55" s="223"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5725,19 +5727,19 @@
       <c r="J56" s="108"/>
       <c r="K56" s="87"/>
       <c r="L56" s="109"/>
-      <c r="M56" s="195" t="s">
+      <c r="M56" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="196"/>
-      <c r="O56" s="196"/>
-      <c r="P56" s="196"/>
-      <c r="Q56" s="196"/>
-      <c r="R56" s="239"/>
-      <c r="S56" s="239"/>
-      <c r="T56" s="240"/>
-      <c r="U56" s="240"/>
-      <c r="V56" s="240"/>
-      <c r="W56" s="241"/>
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="201"/>
+      <c r="S56" s="201"/>
+      <c r="T56" s="203"/>
+      <c r="U56" s="203"/>
+      <c r="V56" s="203"/>
+      <c r="W56" s="225"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5752,19 +5754,19 @@
       <c r="J57" s="87"/>
       <c r="K57" s="87"/>
       <c r="L57" s="110"/>
-      <c r="M57" s="195" t="s">
+      <c r="M57" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="196"/>
-      <c r="O57" s="196"/>
-      <c r="P57" s="196"/>
-      <c r="Q57" s="196"/>
-      <c r="R57" s="239"/>
-      <c r="S57" s="239"/>
-      <c r="T57" s="240"/>
-      <c r="U57" s="240"/>
-      <c r="V57" s="240"/>
-      <c r="W57" s="241"/>
+      <c r="N57" s="192"/>
+      <c r="O57" s="192"/>
+      <c r="P57" s="192"/>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="201"/>
+      <c r="S57" s="201"/>
+      <c r="T57" s="203"/>
+      <c r="U57" s="203"/>
+      <c r="V57" s="203"/>
+      <c r="W57" s="225"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5779,21 +5781,21 @@
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
       <c r="L58" s="88"/>
-      <c r="M58" s="195" t="s">
+      <c r="M58" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="196"/>
-      <c r="O58" s="196"/>
-      <c r="P58" s="196"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="247"/>
-      <c r="S58" s="247"/>
-      <c r="T58" s="239" t="s">
+      <c r="N58" s="192"/>
+      <c r="O58" s="192"/>
+      <c r="P58" s="192"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="231"/>
+      <c r="S58" s="231"/>
+      <c r="T58" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="239"/>
-      <c r="V58" s="242"/>
-      <c r="W58" s="243"/>
+      <c r="U58" s="201"/>
+      <c r="V58" s="226"/>
+      <c r="W58" s="227"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5808,19 +5810,19 @@
       <c r="J59" s="112"/>
       <c r="K59" s="112"/>
       <c r="L59" s="112"/>
-      <c r="M59" s="253" t="s">
+      <c r="M59" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="254"/>
-      <c r="O59" s="254"/>
-      <c r="P59" s="254"/>
-      <c r="Q59" s="254"/>
-      <c r="R59" s="252"/>
-      <c r="S59" s="252"/>
-      <c r="T59" s="239"/>
-      <c r="U59" s="239"/>
-      <c r="V59" s="250"/>
-      <c r="W59" s="251"/>
+      <c r="N59" s="220"/>
+      <c r="O59" s="220"/>
+      <c r="P59" s="220"/>
+      <c r="Q59" s="220"/>
+      <c r="R59" s="213"/>
+      <c r="S59" s="213"/>
+      <c r="T59" s="201"/>
+      <c r="U59" s="201"/>
+      <c r="V59" s="215"/>
+      <c r="W59" s="216"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5835,19 +5837,19 @@
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
       <c r="L60" s="112"/>
-      <c r="M60" s="253" t="s">
+      <c r="M60" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="254"/>
-      <c r="O60" s="254"/>
-      <c r="P60" s="254"/>
-      <c r="Q60" s="254"/>
-      <c r="R60" s="252"/>
-      <c r="S60" s="252"/>
-      <c r="T60" s="239"/>
-      <c r="U60" s="239"/>
-      <c r="V60" s="250"/>
-      <c r="W60" s="251"/>
+      <c r="N60" s="220"/>
+      <c r="O60" s="220"/>
+      <c r="P60" s="220"/>
+      <c r="Q60" s="220"/>
+      <c r="R60" s="213"/>
+      <c r="S60" s="213"/>
+      <c r="T60" s="201"/>
+      <c r="U60" s="201"/>
+      <c r="V60" s="215"/>
+      <c r="W60" s="216"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5858,25 +5860,25 @@
       <c r="F61" s="69"/>
       <c r="G61" s="70"/>
       <c r="H61" s="87"/>
-      <c r="I61" s="238" t="s">
+      <c r="I61" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="238"/>
-      <c r="K61" s="238"/>
-      <c r="L61" s="238"/>
-      <c r="M61" s="253" t="s">
+      <c r="J61" s="224"/>
+      <c r="K61" s="224"/>
+      <c r="L61" s="224"/>
+      <c r="M61" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="254"/>
-      <c r="O61" s="254"/>
-      <c r="P61" s="254"/>
-      <c r="Q61" s="254"/>
-      <c r="R61" s="270"/>
-      <c r="S61" s="270"/>
-      <c r="T61" s="248"/>
-      <c r="U61" s="248"/>
-      <c r="V61" s="245"/>
-      <c r="W61" s="246"/>
+      <c r="N61" s="220"/>
+      <c r="O61" s="220"/>
+      <c r="P61" s="220"/>
+      <c r="Q61" s="220"/>
+      <c r="R61" s="214"/>
+      <c r="S61" s="214"/>
+      <c r="T61" s="232"/>
+      <c r="U61" s="232"/>
+      <c r="V61" s="229"/>
+      <c r="W61" s="230"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5887,23 +5889,23 @@
       <c r="F62" s="71"/>
       <c r="G62" s="72"/>
       <c r="H62" s="87"/>
-      <c r="I62" s="224"/>
-      <c r="J62" s="224"/>
-      <c r="K62" s="224"/>
-      <c r="L62" s="225"/>
-      <c r="M62" s="255" t="s">
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="162"/>
+      <c r="M62" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="256"/>
-      <c r="O62" s="256"/>
-      <c r="P62" s="256"/>
-      <c r="Q62" s="256"/>
-      <c r="R62" s="257"/>
-      <c r="S62" s="257"/>
-      <c r="T62" s="249"/>
-      <c r="U62" s="249"/>
-      <c r="V62" s="258"/>
-      <c r="W62" s="259"/>
+      <c r="N62" s="235"/>
+      <c r="O62" s="235"/>
+      <c r="P62" s="235"/>
+      <c r="Q62" s="235"/>
+      <c r="R62" s="236"/>
+      <c r="S62" s="236"/>
+      <c r="T62" s="233"/>
+      <c r="U62" s="233"/>
+      <c r="V62" s="199"/>
+      <c r="W62" s="200"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5928,72 +5930,72 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="306" t="s">
+      <c r="L64" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="307"/>
-      <c r="N64" s="307"/>
-      <c r="O64" s="307"/>
-      <c r="P64" s="307"/>
-      <c r="Q64" s="307"/>
-      <c r="R64" s="307"/>
-      <c r="S64" s="307"/>
-      <c r="T64" s="307"/>
-      <c r="U64" s="307"/>
-      <c r="V64" s="307"/>
-      <c r="W64" s="308"/>
+      <c r="M64" s="151"/>
+      <c r="N64" s="151"/>
+      <c r="O64" s="151"/>
+      <c r="P64" s="151"/>
+      <c r="Q64" s="151"/>
+      <c r="R64" s="151"/>
+      <c r="S64" s="151"/>
+      <c r="T64" s="151"/>
+      <c r="U64" s="151"/>
+      <c r="V64" s="151"/>
+      <c r="W64" s="160"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="318" t="s">
+      <c r="L65" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="293" t="s">
+      <c r="M65" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="293" t="s">
+      <c r="N65" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="293" t="s">
+      <c r="O65" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="293" t="s">
+      <c r="P65" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="293"/>
-      <c r="R65" s="293"/>
-      <c r="S65" s="293"/>
-      <c r="T65" s="293" t="s">
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="293"/>
-      <c r="V65" s="293" t="s">
+      <c r="U65" s="154"/>
+      <c r="V65" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="294"/>
+      <c r="W65" s="166"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="318"/>
-      <c r="M66" s="293"/>
-      <c r="N66" s="293"/>
-      <c r="O66" s="293"/>
-      <c r="P66" s="317" t="s">
+      <c r="L66" s="156"/>
+      <c r="M66" s="154"/>
+      <c r="N66" s="154"/>
+      <c r="O66" s="154"/>
+      <c r="P66" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="317"/>
-      <c r="R66" s="293" t="s">
+      <c r="Q66" s="155"/>
+      <c r="R66" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="293"/>
-      <c r="T66" s="293" t="s">
+      <c r="S66" s="154"/>
+      <c r="T66" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="293"/>
-      <c r="V66" s="293" t="s">
+      <c r="U66" s="154"/>
+      <c r="V66" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="294"/>
+      <c r="W66" s="166"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -6001,22 +6003,22 @@
       <c r="M67" s="64"/>
       <c r="N67" s="64"/>
       <c r="O67" s="62"/>
-      <c r="P67" s="295"/>
-      <c r="Q67" s="295"/>
-      <c r="R67" s="295"/>
-      <c r="S67" s="295"/>
-      <c r="T67" s="295"/>
-      <c r="U67" s="295"/>
-      <c r="V67" s="295"/>
-      <c r="W67" s="296"/>
+      <c r="P67" s="185"/>
+      <c r="Q67" s="185"/>
+      <c r="R67" s="185"/>
+      <c r="S67" s="185"/>
+      <c r="T67" s="185"/>
+      <c r="U67" s="185"/>
+      <c r="V67" s="185"/>
+      <c r="W67" s="186"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="56"/>
       <c r="M68" s="56"/>
-      <c r="N68" s="297"/>
-      <c r="O68" s="297"/>
-      <c r="P68" s="297"/>
-      <c r="Q68" s="297"/>
+      <c r="N68" s="187"/>
+      <c r="O68" s="187"/>
+      <c r="P68" s="187"/>
+      <c r="Q68" s="187"/>
       <c r="R68" s="56"/>
       <c r="S68" s="56"/>
       <c r="T68" s="56"/>
@@ -6025,20 +6027,20 @@
       <c r="W68" s="56"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="306" t="s">
+      <c r="L69" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="307"/>
-      <c r="N69" s="307" t="s">
+      <c r="M69" s="151"/>
+      <c r="N69" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="307"/>
-      <c r="P69" s="307" t="s">
+      <c r="O69" s="151"/>
+      <c r="P69" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="308"/>
-      <c r="R69" s="319"/>
-      <c r="S69" s="319"/>
+      <c r="Q69" s="160"/>
+      <c r="R69" s="157"/>
+      <c r="S69" s="157"/>
       <c r="T69" s="56"/>
       <c r="U69" s="56"/>
       <c r="V69" s="56"/>
@@ -6046,14 +6048,14 @@
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="315"/>
-      <c r="M70" s="316"/>
-      <c r="N70" s="316"/>
-      <c r="O70" s="316"/>
-      <c r="P70" s="316"/>
-      <c r="Q70" s="320"/>
-      <c r="R70" s="321"/>
-      <c r="S70" s="321"/>
+      <c r="L70" s="152"/>
+      <c r="M70" s="153"/>
+      <c r="N70" s="153"/>
+      <c r="O70" s="153"/>
+      <c r="P70" s="153"/>
+      <c r="Q70" s="158"/>
+      <c r="R70" s="159"/>
+      <c r="S70" s="159"/>
       <c r="T70" s="56"/>
       <c r="U70" s="56"/>
       <c r="V70" s="56"/>
@@ -6070,20 +6072,177 @@
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="M41:W42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="M46:W47"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S22:T22"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:P32"/>
@@ -6108,178 +6267,21 @@
     <mergeCell ref="S37:T37"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T50:U50"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2833,37 +2833,262 @@
     <xf numFmtId="190" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2872,22 +3097,220 @@
     <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2905,449 +3328,26 @@
     <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4220,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M29" sqref="M28:N29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4267,10 +4267,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4301,28 +4301,28 @@
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4339,19 +4339,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="262" t="s">
+      <c r="M4" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="262"/>
-      <c r="T4" s="262"/>
-      <c r="U4" s="262"/>
-      <c r="V4" s="262"/>
-      <c r="W4" s="262"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4366,24 +4366,24 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="263"/>
-      <c r="S5" s="263"/>
-      <c r="T5" s="263"/>
-      <c r="U5" s="263"/>
-      <c r="V5" s="263"/>
-      <c r="W5" s="263"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
+      <c r="W5" s="198"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="286"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="226"/>
       <c r="F6" s="73"/>
       <c r="G6" s="74"/>
       <c r="H6" s="77"/>
@@ -4391,26 +4391,26 @@
       <c r="J6" s="87"/>
       <c r="K6" s="88"/>
       <c r="L6" s="88"/>
-      <c r="M6" s="268" t="s">
+      <c r="M6" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="270"/>
-      <c r="S6" s="270"/>
-      <c r="T6" s="270"/>
-      <c r="U6" s="270"/>
-      <c r="V6" s="270"/>
-      <c r="W6" s="271"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="205"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+      <c r="V6" s="205"/>
+      <c r="W6" s="206"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="288"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="228"/>
       <c r="F7" s="81"/>
       <c r="G7" s="80"/>
       <c r="H7" s="78"/>
@@ -4418,26 +4418,26 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
       <c r="L7" s="88"/>
-      <c r="M7" s="191" t="s">
+      <c r="M7" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="265"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="200"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="287"/>
-      <c r="E8" s="288"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="228"/>
       <c r="F8" s="81"/>
       <c r="G8" s="80"/>
       <c r="H8" s="78"/>
@@ -4445,26 +4445,26 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
       <c r="L8" s="88"/>
-      <c r="M8" s="272" t="s">
+      <c r="M8" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="266"/>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="266"/>
-      <c r="S8" s="266"/>
-      <c r="T8" s="266"/>
-      <c r="U8" s="266"/>
-      <c r="V8" s="266"/>
-      <c r="W8" s="267"/>
+      <c r="N8" s="210"/>
+      <c r="O8" s="210"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="201"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="201"/>
+      <c r="V8" s="201"/>
+      <c r="W8" s="202"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="288"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="228"/>
       <c r="F9" s="81"/>
       <c r="G9" s="80"/>
       <c r="H9" s="78"/>
@@ -4472,38 +4472,38 @@
       <c r="J9" s="113"/>
       <c r="K9" s="113"/>
       <c r="L9" s="89"/>
-      <c r="M9" s="278" t="s">
+      <c r="M9" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="279"/>
+      <c r="N9" s="216"/>
       <c r="O9" s="47"/>
-      <c r="P9" s="276" t="s">
+      <c r="P9" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="276" t="s">
+      <c r="Q9" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="276" t="s">
+      <c r="R9" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="274" t="s">
+      <c r="S9" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="274"/>
-      <c r="U9" s="276" t="s">
+      <c r="T9" s="211"/>
+      <c r="U9" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="276" t="s">
+      <c r="V9" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="280"/>
+      <c r="W9" s="217"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="288"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="228"/>
       <c r="F10" s="81"/>
       <c r="G10" s="80"/>
       <c r="H10" s="78"/>
@@ -4511,17 +4511,17 @@
       <c r="J10" s="90"/>
       <c r="K10" s="91"/>
       <c r="L10" s="90"/>
-      <c r="M10" s="281" t="s">
+      <c r="M10" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="282"/>
+      <c r="N10" s="219"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="275"/>
-      <c r="T10" s="275"/>
-      <c r="U10" s="277"/>
+      <c r="P10" s="214"/>
+      <c r="Q10" s="214"/>
+      <c r="R10" s="214"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="214"/>
       <c r="V10" s="82" t="s">
         <v>33</v>
       </c>
@@ -4533,8 +4533,8 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="288"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="228"/>
       <c r="F11" s="81"/>
       <c r="G11" s="80"/>
       <c r="H11" s="78"/>
@@ -4542,11 +4542,11 @@
       <c r="J11" s="92"/>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
-      <c r="M11" s="255" t="s">
+      <c r="M11" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="256"/>
-      <c r="O11" s="257"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="161"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
@@ -4560,8 +4560,8 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="230"/>
       <c r="F12" s="81"/>
       <c r="G12" s="120"/>
       <c r="H12" s="121"/>
@@ -4569,11 +4569,11 @@
       <c r="J12" s="123"/>
       <c r="K12" s="124"/>
       <c r="L12" s="94"/>
-      <c r="M12" s="255" t="s">
+      <c r="M12" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="256"/>
-      <c r="O12" s="257"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="161"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
@@ -4595,11 +4595,11 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
-      <c r="M13" s="255" t="s">
+      <c r="M13" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="256"/>
-      <c r="O13" s="257"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="161"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
@@ -4621,19 +4621,19 @@
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
-      <c r="M14" s="180" t="s">
+      <c r="M14" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="181"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="284"/>
-      <c r="Q14" s="303"/>
-      <c r="R14" s="303"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="309"/>
-      <c r="U14" s="283"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="177"/>
+      <c r="N14" s="222"/>
+      <c r="O14" s="223"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="220"/>
+      <c r="V14" s="298"/>
+      <c r="W14" s="301"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4647,17 +4647,17 @@
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="304"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="307"/>
-      <c r="T15" s="310"/>
-      <c r="U15" s="283"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="178"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="223"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="157"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="302"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4671,17 +4671,17 @@
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="304"/>
-      <c r="R16" s="304"/>
-      <c r="S16" s="307"/>
-      <c r="T16" s="310"/>
-      <c r="U16" s="283"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="178"/>
+      <c r="M16" s="221"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="220"/>
+      <c r="V16" s="299"/>
+      <c r="W16" s="302"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
@@ -4695,17 +4695,17 @@
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="284"/>
-      <c r="Q17" s="305"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="311"/>
-      <c r="U17" s="283"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="179"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="222"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="220"/>
+      <c r="V17" s="300"/>
+      <c r="W17" s="303"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4719,11 +4719,11 @@
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
-      <c r="M18" s="258" t="s">
+      <c r="M18" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="259"/>
-      <c r="O18" s="260"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="195"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
@@ -4748,11 +4748,11 @@
       <c r="J19" s="93"/>
       <c r="K19" s="93"/>
       <c r="L19" s="93"/>
-      <c r="M19" s="315" t="s">
+      <c r="M19" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="316"/>
-      <c r="O19" s="317"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="167"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="43"/>
@@ -4775,11 +4775,11 @@
       <c r="J20" s="129"/>
       <c r="K20" s="129"/>
       <c r="L20" s="129"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
+      <c r="M20" s="221"/>
+      <c r="N20" s="222"/>
+      <c r="O20" s="222"/>
+      <c r="P20" s="222"/>
+      <c r="Q20" s="223"/>
       <c r="R20" s="32"/>
       <c r="S20" s="146"/>
       <c r="T20" s="36"/>
@@ -4799,9 +4799,9 @@
       <c r="J21" s="132"/>
       <c r="K21" s="133"/>
       <c r="L21" s="133"/>
-      <c r="M21" s="312"/>
-      <c r="N21" s="313"/>
-      <c r="O21" s="314"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="164"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
@@ -4824,16 +4824,16 @@
       <c r="J22" s="145"/>
       <c r="K22" s="134"/>
       <c r="L22" s="134"/>
-      <c r="M22" s="318" t="s">
+      <c r="M22" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="319"/>
-      <c r="O22" s="320"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="170"/>
       <c r="P22" s="115"/>
       <c r="Q22" s="116"/>
       <c r="R22" s="115"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="184"/>
+      <c r="S22" s="304"/>
+      <c r="T22" s="305"/>
       <c r="U22" s="117"/>
       <c r="V22" s="118"/>
       <c r="W22" s="119"/>
@@ -4851,19 +4851,19 @@
       <c r="J23" s="135"/>
       <c r="K23" s="136"/>
       <c r="L23" s="137"/>
-      <c r="M23" s="246" t="s">
+      <c r="M23" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4880,17 +4880,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="129"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="246"/>
-      <c r="U24" s="246"/>
-      <c r="V24" s="246"/>
-      <c r="W24" s="246"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="176"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="176"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4905,27 +4905,27 @@
       <c r="J25" s="144"/>
       <c r="K25" s="132"/>
       <c r="L25" s="133"/>
-      <c r="M25" s="248" t="s">
+      <c r="M25" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="249"/>
-      <c r="O25" s="244" t="s">
+      <c r="N25" s="245"/>
+      <c r="O25" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244" t="s">
+      <c r="P25" s="240"/>
+      <c r="Q25" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="244"/>
-      <c r="U25" s="244" t="s">
+      <c r="R25" s="240"/>
+      <c r="S25" s="240"/>
+      <c r="T25" s="240"/>
+      <c r="U25" s="240" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="167" t="s">
+      <c r="V25" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="169" t="s">
+      <c r="W25" s="310" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4939,24 +4939,24 @@
       <c r="G26" s="70"/>
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="250"/>
-      <c r="N26" s="251"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="241" t="s">
+      <c r="J26" s="238"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="239"/>
+      <c r="M26" s="246"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="241"/>
-      <c r="S26" s="241" t="s">
+      <c r="R26" s="235"/>
+      <c r="S26" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="241"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="170"/>
+      <c r="T26" s="235"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="311"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -4971,14 +4971,14 @@
       <c r="J27" s="129"/>
       <c r="K27" s="129"/>
       <c r="L27" s="129"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
       <c r="U27" s="60"/>
       <c r="V27" s="65"/>
       <c r="W27" s="66"/>
@@ -4996,14 +4996,14 @@
       <c r="J28" s="93"/>
       <c r="K28" s="93"/>
       <c r="L28" s="93"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
       <c r="U28" s="60"/>
       <c r="V28" s="65"/>
       <c r="W28" s="66"/>
@@ -5018,17 +5018,17 @@
       <c r="G29" s="70"/>
       <c r="H29" s="3"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="237"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
       <c r="U29" s="60"/>
       <c r="V29" s="65"/>
       <c r="W29" s="66"/>
@@ -5043,17 +5043,17 @@
       <c r="G30" s="70"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="236"/>
+      <c r="L30" s="237"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178"/>
       <c r="U30" s="60"/>
       <c r="V30" s="65"/>
       <c r="W30" s="66"/>
@@ -5068,17 +5068,17 @@
       <c r="G31" s="70"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
+      <c r="J31" s="236"/>
+      <c r="K31" s="236"/>
+      <c r="L31" s="237"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="178"/>
+      <c r="T31" s="178"/>
       <c r="U31" s="60"/>
       <c r="V31" s="65"/>
       <c r="W31" s="66"/>
@@ -5093,17 +5093,17 @@
       <c r="G32" s="70"/>
       <c r="H32" s="87"/>
       <c r="I32" s="98"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="164"/>
-      <c r="O32" s="164"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="236"/>
+      <c r="L32" s="237"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="178"/>
       <c r="U32" s="60"/>
       <c r="V32" s="65"/>
       <c r="W32" s="66"/>
@@ -5118,17 +5118,17 @@
       <c r="G33" s="70"/>
       <c r="H33" s="87"/>
       <c r="I33" s="98"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="237"/>
+      <c r="M33" s="179"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="178"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="178"/>
+      <c r="T33" s="178"/>
       <c r="U33" s="60"/>
       <c r="V33" s="65"/>
       <c r="W33" s="66"/>
@@ -5143,17 +5143,17 @@
       <c r="G34" s="70"/>
       <c r="H34" s="87"/>
       <c r="I34" s="98"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="165"/>
-      <c r="S34" s="165"/>
-      <c r="T34" s="165"/>
+      <c r="J34" s="236"/>
+      <c r="K34" s="236"/>
+      <c r="L34" s="237"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="178"/>
       <c r="U34" s="60"/>
       <c r="V34" s="65"/>
       <c r="W34" s="66"/>
@@ -5168,17 +5168,17 @@
       <c r="G35" s="70"/>
       <c r="H35" s="87"/>
       <c r="I35" s="98"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="165"/>
-      <c r="R35" s="165"/>
-      <c r="S35" s="165"/>
-      <c r="T35" s="165"/>
+      <c r="J35" s="236"/>
+      <c r="K35" s="236"/>
+      <c r="L35" s="237"/>
+      <c r="M35" s="179"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="178"/>
+      <c r="R35" s="178"/>
+      <c r="S35" s="178"/>
+      <c r="T35" s="178"/>
       <c r="U35" s="60"/>
       <c r="V35" s="65"/>
       <c r="W35" s="66"/>
@@ -5193,17 +5193,17 @@
       <c r="G36" s="70"/>
       <c r="H36" s="87"/>
       <c r="I36" s="98"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="163"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="165"/>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="165"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="236"/>
+      <c r="L36" s="237"/>
+      <c r="M36" s="179"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="178"/>
       <c r="U36" s="60"/>
       <c r="V36" s="65"/>
       <c r="W36" s="66"/>
@@ -5218,17 +5218,17 @@
       <c r="G37" s="70"/>
       <c r="H37" s="87"/>
       <c r="I37" s="98"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="165"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="236"/>
+      <c r="L37" s="237"/>
+      <c r="M37" s="179"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
+      <c r="S37" s="178"/>
+      <c r="T37" s="178"/>
       <c r="U37" s="60"/>
       <c r="V37" s="65"/>
       <c r="W37" s="66"/>
@@ -5243,17 +5243,17 @@
       <c r="G38" s="70"/>
       <c r="H38" s="87"/>
       <c r="I38" s="98"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="165"/>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
-      <c r="T38" s="165"/>
+      <c r="J38" s="236"/>
+      <c r="K38" s="236"/>
+      <c r="L38" s="237"/>
+      <c r="M38" s="179"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
+      <c r="S38" s="178"/>
+      <c r="T38" s="178"/>
       <c r="U38" s="60"/>
       <c r="V38" s="65"/>
       <c r="W38" s="66"/>
@@ -5268,17 +5268,17 @@
       <c r="G39" s="70"/>
       <c r="H39" s="87"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="165"/>
+      <c r="J39" s="236"/>
+      <c r="K39" s="236"/>
+      <c r="L39" s="237"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="178"/>
+      <c r="T39" s="178"/>
       <c r="U39" s="60"/>
       <c r="V39" s="65"/>
       <c r="W39" s="66"/>
@@ -5293,17 +5293,17 @@
       <c r="G40" s="70"/>
       <c r="H40" s="87"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
+      <c r="J40" s="236"/>
+      <c r="K40" s="236"/>
+      <c r="L40" s="237"/>
+      <c r="M40" s="312"/>
+      <c r="N40" s="313"/>
+      <c r="O40" s="313"/>
+      <c r="P40" s="313"/>
+      <c r="Q40" s="314"/>
+      <c r="R40" s="314"/>
+      <c r="S40" s="314"/>
+      <c r="T40" s="314"/>
       <c r="U40" s="61"/>
       <c r="V40" s="67"/>
       <c r="W40" s="68"/>
@@ -5321,19 +5321,19 @@
       <c r="J41" s="93"/>
       <c r="K41" s="93"/>
       <c r="L41" s="93"/>
-      <c r="M41" s="246" t="s">
+      <c r="M41" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="246"/>
-      <c r="O41" s="246"/>
-      <c r="P41" s="246"/>
-      <c r="Q41" s="246"/>
-      <c r="R41" s="246"/>
-      <c r="S41" s="246"/>
-      <c r="T41" s="246"/>
-      <c r="U41" s="246"/>
-      <c r="V41" s="246"/>
-      <c r="W41" s="246"/>
+      <c r="N41" s="176"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="176"/>
+      <c r="U41" s="176"/>
+      <c r="V41" s="176"/>
+      <c r="W41" s="176"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5348,17 +5348,17 @@
       <c r="J42" s="97"/>
       <c r="K42" s="99"/>
       <c r="L42" s="88"/>
-      <c r="M42" s="247"/>
-      <c r="N42" s="247"/>
-      <c r="O42" s="247"/>
-      <c r="P42" s="247"/>
-      <c r="Q42" s="247"/>
-      <c r="R42" s="247"/>
-      <c r="S42" s="247"/>
-      <c r="T42" s="247"/>
-      <c r="U42" s="247"/>
-      <c r="V42" s="247"/>
-      <c r="W42" s="247"/>
+      <c r="M42" s="243"/>
+      <c r="N42" s="243"/>
+      <c r="O42" s="243"/>
+      <c r="P42" s="243"/>
+      <c r="Q42" s="243"/>
+      <c r="R42" s="243"/>
+      <c r="S42" s="243"/>
+      <c r="T42" s="243"/>
+      <c r="U42" s="243"/>
+      <c r="V42" s="243"/>
+      <c r="W42" s="243"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5373,19 +5373,19 @@
       <c r="J43" s="97"/>
       <c r="K43" s="99"/>
       <c r="L43" s="88"/>
-      <c r="M43" s="252" t="s">
+      <c r="M43" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="253"/>
-      <c r="O43" s="253"/>
-      <c r="P43" s="253"/>
-      <c r="Q43" s="253"/>
-      <c r="R43" s="253"/>
-      <c r="S43" s="253"/>
-      <c r="T43" s="253"/>
-      <c r="U43" s="253"/>
-      <c r="V43" s="293"/>
-      <c r="W43" s="294"/>
+      <c r="N43" s="249"/>
+      <c r="O43" s="249"/>
+      <c r="P43" s="249"/>
+      <c r="Q43" s="249"/>
+      <c r="R43" s="249"/>
+      <c r="S43" s="249"/>
+      <c r="T43" s="249"/>
+      <c r="U43" s="249"/>
+      <c r="V43" s="180"/>
+      <c r="W43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
@@ -5400,19 +5400,19 @@
       <c r="J44" s="97"/>
       <c r="K44" s="99"/>
       <c r="L44" s="88"/>
-      <c r="M44" s="301" t="s">
+      <c r="M44" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="302"/>
-      <c r="O44" s="302"/>
-      <c r="P44" s="302"/>
-      <c r="Q44" s="302"/>
-      <c r="R44" s="302"/>
-      <c r="S44" s="302"/>
-      <c r="T44" s="302"/>
-      <c r="U44" s="302"/>
-      <c r="V44" s="295"/>
-      <c r="W44" s="296"/>
+      <c r="N44" s="191"/>
+      <c r="O44" s="191"/>
+      <c r="P44" s="191"/>
+      <c r="Q44" s="191"/>
+      <c r="R44" s="191"/>
+      <c r="S44" s="191"/>
+      <c r="T44" s="191"/>
+      <c r="U44" s="191"/>
+      <c r="V44" s="182"/>
+      <c r="W44" s="183"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -5427,19 +5427,19 @@
       <c r="J45" s="97"/>
       <c r="K45" s="88"/>
       <c r="L45" s="88"/>
-      <c r="M45" s="238" t="s">
+      <c r="M45" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="239"/>
-      <c r="O45" s="239"/>
-      <c r="P45" s="239"/>
-      <c r="Q45" s="239"/>
-      <c r="R45" s="239"/>
-      <c r="S45" s="239"/>
-      <c r="T45" s="239"/>
-      <c r="U45" s="239"/>
-      <c r="V45" s="189"/>
-      <c r="W45" s="190"/>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
+      <c r="P45" s="233"/>
+      <c r="Q45" s="233"/>
+      <c r="R45" s="233"/>
+      <c r="S45" s="233"/>
+      <c r="T45" s="233"/>
+      <c r="U45" s="233"/>
+      <c r="V45" s="291"/>
+      <c r="W45" s="292"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
@@ -5454,19 +5454,19 @@
       <c r="J46" s="93"/>
       <c r="K46" s="93"/>
       <c r="L46" s="93"/>
-      <c r="M46" s="206" t="s">
+      <c r="M46" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="206"/>
-      <c r="O46" s="206"/>
-      <c r="P46" s="206"/>
-      <c r="Q46" s="206"/>
-      <c r="R46" s="206"/>
-      <c r="S46" s="206"/>
-      <c r="T46" s="206"/>
-      <c r="U46" s="206"/>
-      <c r="V46" s="206"/>
-      <c r="W46" s="206"/>
+      <c r="N46" s="273"/>
+      <c r="O46" s="273"/>
+      <c r="P46" s="273"/>
+      <c r="Q46" s="273"/>
+      <c r="R46" s="273"/>
+      <c r="S46" s="273"/>
+      <c r="T46" s="273"/>
+      <c r="U46" s="273"/>
+      <c r="V46" s="273"/>
+      <c r="W46" s="273"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5481,17 +5481,17 @@
       <c r="J47" s="93"/>
       <c r="K47" s="93"/>
       <c r="L47" s="93"/>
-      <c r="M47" s="207"/>
-      <c r="N47" s="207"/>
-      <c r="O47" s="207"/>
-      <c r="P47" s="207"/>
-      <c r="Q47" s="207"/>
-      <c r="R47" s="207"/>
-      <c r="S47" s="207"/>
-      <c r="T47" s="207"/>
-      <c r="U47" s="207"/>
-      <c r="V47" s="207"/>
-      <c r="W47" s="207"/>
+      <c r="M47" s="274"/>
+      <c r="N47" s="274"/>
+      <c r="O47" s="274"/>
+      <c r="P47" s="274"/>
+      <c r="Q47" s="274"/>
+      <c r="R47" s="274"/>
+      <c r="S47" s="274"/>
+      <c r="T47" s="274"/>
+      <c r="U47" s="274"/>
+      <c r="V47" s="274"/>
+      <c r="W47" s="274"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5506,19 +5506,19 @@
       <c r="J48" s="93"/>
       <c r="K48" s="87"/>
       <c r="L48" s="87"/>
-      <c r="M48" s="299" t="s">
+      <c r="M48" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="300"/>
-      <c r="O48" s="300"/>
-      <c r="P48" s="300"/>
-      <c r="Q48" s="300"/>
-      <c r="R48" s="217"/>
-      <c r="S48" s="217"/>
-      <c r="T48" s="245"/>
-      <c r="U48" s="245"/>
-      <c r="V48" s="291"/>
-      <c r="W48" s="292"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="187"/>
+      <c r="P48" s="187"/>
+      <c r="Q48" s="187"/>
+      <c r="R48" s="281"/>
+      <c r="S48" s="281"/>
+      <c r="T48" s="242"/>
+      <c r="U48" s="242"/>
+      <c r="V48" s="174"/>
+      <c r="W48" s="175"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5533,19 +5533,19 @@
       <c r="J49" s="100"/>
       <c r="K49" s="26"/>
       <c r="L49" s="87"/>
-      <c r="M49" s="219" t="s">
+      <c r="M49" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="220"/>
-      <c r="O49" s="220"/>
-      <c r="P49" s="220"/>
-      <c r="Q49" s="220"/>
-      <c r="R49" s="218"/>
-      <c r="S49" s="218"/>
-      <c r="T49" s="208"/>
-      <c r="U49" s="208"/>
-      <c r="V49" s="297"/>
-      <c r="W49" s="298"/>
+      <c r="N49" s="189"/>
+      <c r="O49" s="189"/>
+      <c r="P49" s="189"/>
+      <c r="Q49" s="189"/>
+      <c r="R49" s="282"/>
+      <c r="S49" s="282"/>
+      <c r="T49" s="275"/>
+      <c r="U49" s="275"/>
+      <c r="V49" s="184"/>
+      <c r="W49" s="185"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -5560,19 +5560,19 @@
       <c r="J50" s="101"/>
       <c r="K50" s="26"/>
       <c r="L50" s="87"/>
-      <c r="M50" s="219" t="s">
+      <c r="M50" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="220"/>
-      <c r="O50" s="220"/>
-      <c r="P50" s="220"/>
-      <c r="Q50" s="220"/>
-      <c r="R50" s="240"/>
-      <c r="S50" s="240"/>
-      <c r="T50" s="321"/>
-      <c r="U50" s="321"/>
-      <c r="V50" s="193"/>
-      <c r="W50" s="194"/>
+      <c r="N50" s="189"/>
+      <c r="O50" s="189"/>
+      <c r="P50" s="189"/>
+      <c r="Q50" s="189"/>
+      <c r="R50" s="234"/>
+      <c r="S50" s="234"/>
+      <c r="T50" s="171"/>
+      <c r="U50" s="171"/>
+      <c r="V50" s="172"/>
+      <c r="W50" s="173"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5587,19 +5587,19 @@
       <c r="J51" s="87"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="219" t="s">
+      <c r="M51" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="220"/>
-      <c r="O51" s="220"/>
-      <c r="P51" s="220"/>
-      <c r="Q51" s="220"/>
-      <c r="R51" s="212"/>
-      <c r="S51" s="212"/>
-      <c r="T51" s="202"/>
-      <c r="U51" s="202"/>
-      <c r="V51" s="193"/>
-      <c r="W51" s="194"/>
+      <c r="N51" s="189"/>
+      <c r="O51" s="189"/>
+      <c r="P51" s="189"/>
+      <c r="Q51" s="189"/>
+      <c r="R51" s="279"/>
+      <c r="S51" s="279"/>
+      <c r="T51" s="270"/>
+      <c r="U51" s="270"/>
+      <c r="V51" s="172"/>
+      <c r="W51" s="173"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5614,21 +5614,21 @@
       <c r="J52" s="104"/>
       <c r="K52" s="104"/>
       <c r="L52" s="104"/>
-      <c r="M52" s="191" t="s">
+      <c r="M52" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="192"/>
-      <c r="O52" s="192"/>
-      <c r="P52" s="192"/>
-      <c r="Q52" s="192"/>
-      <c r="R52" s="205"/>
-      <c r="S52" s="205"/>
-      <c r="T52" s="204" t="s">
+      <c r="N52" s="208"/>
+      <c r="O52" s="208"/>
+      <c r="P52" s="208"/>
+      <c r="Q52" s="208"/>
+      <c r="R52" s="272"/>
+      <c r="S52" s="272"/>
+      <c r="T52" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="204"/>
-      <c r="V52" s="195"/>
-      <c r="W52" s="196"/>
+      <c r="U52" s="271"/>
+      <c r="V52" s="293"/>
+      <c r="W52" s="294"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -5642,19 +5642,19 @@
       <c r="I53" s="101"/>
       <c r="J53" s="101"/>
       <c r="L53" s="105"/>
-      <c r="M53" s="191" t="s">
+      <c r="M53" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="192"/>
-      <c r="O53" s="192"/>
-      <c r="P53" s="192"/>
-      <c r="Q53" s="192"/>
-      <c r="R53" s="221"/>
-      <c r="S53" s="221"/>
-      <c r="T53" s="209"/>
-      <c r="U53" s="209"/>
-      <c r="V53" s="197"/>
-      <c r="W53" s="198"/>
+      <c r="N53" s="208"/>
+      <c r="O53" s="208"/>
+      <c r="P53" s="208"/>
+      <c r="Q53" s="208"/>
+      <c r="R53" s="283"/>
+      <c r="S53" s="283"/>
+      <c r="T53" s="276"/>
+      <c r="U53" s="276"/>
+      <c r="V53" s="295"/>
+      <c r="W53" s="296"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -5669,21 +5669,21 @@
       <c r="J54" s="100"/>
       <c r="K54" s="106"/>
       <c r="L54" s="98"/>
-      <c r="M54" s="219" t="s">
+      <c r="M54" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="220"/>
-      <c r="O54" s="220"/>
-      <c r="P54" s="220"/>
-      <c r="Q54" s="220"/>
-      <c r="R54" s="188"/>
-      <c r="S54" s="188"/>
-      <c r="T54" s="202" t="s">
+      <c r="N54" s="189"/>
+      <c r="O54" s="189"/>
+      <c r="P54" s="189"/>
+      <c r="Q54" s="189"/>
+      <c r="R54" s="290"/>
+      <c r="S54" s="290"/>
+      <c r="T54" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="202"/>
-      <c r="V54" s="210"/>
-      <c r="W54" s="211"/>
+      <c r="U54" s="270"/>
+      <c r="V54" s="277"/>
+      <c r="W54" s="278"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -5698,21 +5698,21 @@
       <c r="J55" s="97"/>
       <c r="K55" s="25"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="219" t="s">
+      <c r="M55" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="220"/>
-      <c r="O55" s="220"/>
-      <c r="P55" s="220"/>
-      <c r="Q55" s="220"/>
-      <c r="R55" s="228"/>
-      <c r="S55" s="228"/>
-      <c r="T55" s="202" t="s">
+      <c r="N55" s="189"/>
+      <c r="O55" s="189"/>
+      <c r="P55" s="189"/>
+      <c r="Q55" s="189"/>
+      <c r="R55" s="256"/>
+      <c r="S55" s="256"/>
+      <c r="T55" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="202"/>
-      <c r="V55" s="222"/>
-      <c r="W55" s="223"/>
+      <c r="U55" s="270"/>
+      <c r="V55" s="284"/>
+      <c r="W55" s="285"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5727,19 +5727,19 @@
       <c r="J56" s="108"/>
       <c r="K56" s="87"/>
       <c r="L56" s="109"/>
-      <c r="M56" s="191" t="s">
+      <c r="M56" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="201"/>
-      <c r="S56" s="201"/>
-      <c r="T56" s="203"/>
-      <c r="U56" s="203"/>
-      <c r="V56" s="203"/>
-      <c r="W56" s="225"/>
+      <c r="N56" s="208"/>
+      <c r="O56" s="208"/>
+      <c r="P56" s="208"/>
+      <c r="Q56" s="208"/>
+      <c r="R56" s="251"/>
+      <c r="S56" s="251"/>
+      <c r="T56" s="252"/>
+      <c r="U56" s="252"/>
+      <c r="V56" s="252"/>
+      <c r="W56" s="253"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5754,19 +5754,19 @@
       <c r="J57" s="87"/>
       <c r="K57" s="87"/>
       <c r="L57" s="110"/>
-      <c r="M57" s="191" t="s">
+      <c r="M57" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="192"/>
-      <c r="O57" s="192"/>
-      <c r="P57" s="192"/>
-      <c r="Q57" s="192"/>
-      <c r="R57" s="201"/>
-      <c r="S57" s="201"/>
-      <c r="T57" s="203"/>
-      <c r="U57" s="203"/>
-      <c r="V57" s="203"/>
-      <c r="W57" s="225"/>
+      <c r="N57" s="208"/>
+      <c r="O57" s="208"/>
+      <c r="P57" s="208"/>
+      <c r="Q57" s="208"/>
+      <c r="R57" s="251"/>
+      <c r="S57" s="251"/>
+      <c r="T57" s="252"/>
+      <c r="U57" s="252"/>
+      <c r="V57" s="252"/>
+      <c r="W57" s="253"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5781,21 +5781,21 @@
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
       <c r="L58" s="88"/>
-      <c r="M58" s="191" t="s">
+      <c r="M58" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="192"/>
-      <c r="O58" s="192"/>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="192"/>
-      <c r="R58" s="231"/>
-      <c r="S58" s="231"/>
-      <c r="T58" s="201" t="s">
+      <c r="N58" s="208"/>
+      <c r="O58" s="208"/>
+      <c r="P58" s="208"/>
+      <c r="Q58" s="208"/>
+      <c r="R58" s="259"/>
+      <c r="S58" s="259"/>
+      <c r="T58" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="201"/>
-      <c r="V58" s="226"/>
-      <c r="W58" s="227"/>
+      <c r="U58" s="251"/>
+      <c r="V58" s="254"/>
+      <c r="W58" s="255"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5810,19 +5810,19 @@
       <c r="J59" s="112"/>
       <c r="K59" s="112"/>
       <c r="L59" s="112"/>
-      <c r="M59" s="219" t="s">
+      <c r="M59" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="220"/>
-      <c r="O59" s="220"/>
-      <c r="P59" s="220"/>
-      <c r="Q59" s="220"/>
-      <c r="R59" s="213"/>
-      <c r="S59" s="213"/>
-      <c r="T59" s="201"/>
-      <c r="U59" s="201"/>
-      <c r="V59" s="215"/>
-      <c r="W59" s="216"/>
+      <c r="N59" s="189"/>
+      <c r="O59" s="189"/>
+      <c r="P59" s="189"/>
+      <c r="Q59" s="189"/>
+      <c r="R59" s="264"/>
+      <c r="S59" s="264"/>
+      <c r="T59" s="251"/>
+      <c r="U59" s="251"/>
+      <c r="V59" s="262"/>
+      <c r="W59" s="263"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5837,19 +5837,19 @@
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
       <c r="L60" s="112"/>
-      <c r="M60" s="219" t="s">
+      <c r="M60" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="220"/>
-      <c r="O60" s="220"/>
-      <c r="P60" s="220"/>
-      <c r="Q60" s="220"/>
-      <c r="R60" s="213"/>
-      <c r="S60" s="213"/>
-      <c r="T60" s="201"/>
-      <c r="U60" s="201"/>
-      <c r="V60" s="215"/>
-      <c r="W60" s="216"/>
+      <c r="N60" s="189"/>
+      <c r="O60" s="189"/>
+      <c r="P60" s="189"/>
+      <c r="Q60" s="189"/>
+      <c r="R60" s="264"/>
+      <c r="S60" s="264"/>
+      <c r="T60" s="251"/>
+      <c r="U60" s="251"/>
+      <c r="V60" s="262"/>
+      <c r="W60" s="263"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5860,25 +5860,25 @@
       <c r="F61" s="69"/>
       <c r="G61" s="70"/>
       <c r="H61" s="87"/>
-      <c r="I61" s="224" t="s">
+      <c r="I61" s="250" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="224"/>
-      <c r="K61" s="224"/>
-      <c r="L61" s="224"/>
-      <c r="M61" s="219" t="s">
+      <c r="J61" s="250"/>
+      <c r="K61" s="250"/>
+      <c r="L61" s="250"/>
+      <c r="M61" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="220"/>
-      <c r="O61" s="220"/>
-      <c r="P61" s="220"/>
-      <c r="Q61" s="220"/>
-      <c r="R61" s="214"/>
-      <c r="S61" s="214"/>
-      <c r="T61" s="232"/>
-      <c r="U61" s="232"/>
-      <c r="V61" s="229"/>
-      <c r="W61" s="230"/>
+      <c r="N61" s="189"/>
+      <c r="O61" s="189"/>
+      <c r="P61" s="189"/>
+      <c r="Q61" s="189"/>
+      <c r="R61" s="280"/>
+      <c r="S61" s="280"/>
+      <c r="T61" s="260"/>
+      <c r="U61" s="260"/>
+      <c r="V61" s="257"/>
+      <c r="W61" s="258"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5889,23 +5889,23 @@
       <c r="F62" s="71"/>
       <c r="G62" s="72"/>
       <c r="H62" s="87"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="162"/>
-      <c r="M62" s="234" t="s">
+      <c r="I62" s="236"/>
+      <c r="J62" s="236"/>
+      <c r="K62" s="236"/>
+      <c r="L62" s="237"/>
+      <c r="M62" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="235"/>
-      <c r="O62" s="235"/>
-      <c r="P62" s="235"/>
-      <c r="Q62" s="235"/>
-      <c r="R62" s="236"/>
-      <c r="S62" s="236"/>
-      <c r="T62" s="233"/>
-      <c r="U62" s="233"/>
-      <c r="V62" s="199"/>
-      <c r="W62" s="200"/>
+      <c r="N62" s="266"/>
+      <c r="O62" s="266"/>
+      <c r="P62" s="266"/>
+      <c r="Q62" s="266"/>
+      <c r="R62" s="267"/>
+      <c r="S62" s="267"/>
+      <c r="T62" s="261"/>
+      <c r="U62" s="261"/>
+      <c r="V62" s="268"/>
+      <c r="W62" s="269"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5917,7 +5917,9 @@
       <c r="H63" s="9"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="M63" s="58"/>
+      <c r="M63" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="N63" s="59"/>
       <c r="O63" s="58"/>
       <c r="P63" s="58"/>
@@ -5930,72 +5932,72 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="150" t="s">
+      <c r="L64" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="151"/>
-      <c r="N64" s="151"/>
-      <c r="O64" s="151"/>
-      <c r="P64" s="151"/>
-      <c r="Q64" s="151"/>
-      <c r="R64" s="151"/>
-      <c r="S64" s="151"/>
-      <c r="T64" s="151"/>
-      <c r="U64" s="151"/>
-      <c r="V64" s="151"/>
-      <c r="W64" s="160"/>
+      <c r="M64" s="307"/>
+      <c r="N64" s="307"/>
+      <c r="O64" s="307"/>
+      <c r="P64" s="307"/>
+      <c r="Q64" s="307"/>
+      <c r="R64" s="307"/>
+      <c r="S64" s="307"/>
+      <c r="T64" s="307"/>
+      <c r="U64" s="307"/>
+      <c r="V64" s="307"/>
+      <c r="W64" s="308"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="156" t="s">
+      <c r="L65" s="318" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="154" t="s">
+      <c r="M65" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="154" t="s">
+      <c r="N65" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="154" t="s">
+      <c r="O65" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="154" t="s">
+      <c r="P65" s="289" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154" t="s">
+      <c r="Q65" s="289"/>
+      <c r="R65" s="289"/>
+      <c r="S65" s="289"/>
+      <c r="T65" s="289" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="154"/>
-      <c r="V65" s="154" t="s">
+      <c r="U65" s="289"/>
+      <c r="V65" s="289" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="166"/>
+      <c r="W65" s="297"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="154"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="155" t="s">
+      <c r="L66" s="318"/>
+      <c r="M66" s="289"/>
+      <c r="N66" s="289"/>
+      <c r="O66" s="289"/>
+      <c r="P66" s="317" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="155"/>
-      <c r="R66" s="154" t="s">
+      <c r="Q66" s="317"/>
+      <c r="R66" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="154"/>
-      <c r="T66" s="154" t="s">
+      <c r="S66" s="289"/>
+      <c r="T66" s="289" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="154"/>
-      <c r="V66" s="154" t="s">
+      <c r="U66" s="289"/>
+      <c r="V66" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="166"/>
+      <c r="W66" s="297"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -6003,22 +6005,22 @@
       <c r="M67" s="64"/>
       <c r="N67" s="64"/>
       <c r="O67" s="62"/>
-      <c r="P67" s="185"/>
-      <c r="Q67" s="185"/>
-      <c r="R67" s="185"/>
-      <c r="S67" s="185"/>
-      <c r="T67" s="185"/>
-      <c r="U67" s="185"/>
-      <c r="V67" s="185"/>
-      <c r="W67" s="186"/>
+      <c r="P67" s="286"/>
+      <c r="Q67" s="286"/>
+      <c r="R67" s="286"/>
+      <c r="S67" s="286"/>
+      <c r="T67" s="286"/>
+      <c r="U67" s="286"/>
+      <c r="V67" s="286"/>
+      <c r="W67" s="287"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="56"/>
       <c r="M68" s="56"/>
-      <c r="N68" s="187"/>
-      <c r="O68" s="187"/>
-      <c r="P68" s="187"/>
-      <c r="Q68" s="187"/>
+      <c r="N68" s="288"/>
+      <c r="O68" s="288"/>
+      <c r="P68" s="288"/>
+      <c r="Q68" s="288"/>
       <c r="R68" s="56"/>
       <c r="S68" s="56"/>
       <c r="T68" s="56"/>
@@ -6027,20 +6029,20 @@
       <c r="W68" s="56"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="150" t="s">
+      <c r="L69" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="151"/>
-      <c r="N69" s="151" t="s">
+      <c r="M69" s="307"/>
+      <c r="N69" s="307" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="151"/>
-      <c r="P69" s="151" t="s">
+      <c r="O69" s="307"/>
+      <c r="P69" s="307" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="160"/>
-      <c r="R69" s="157"/>
-      <c r="S69" s="157"/>
+      <c r="Q69" s="308"/>
+      <c r="R69" s="319"/>
+      <c r="S69" s="319"/>
       <c r="T69" s="56"/>
       <c r="U69" s="56"/>
       <c r="V69" s="56"/>
@@ -6048,14 +6050,14 @@
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="152"/>
-      <c r="M70" s="153"/>
-      <c r="N70" s="153"/>
-      <c r="O70" s="153"/>
-      <c r="P70" s="153"/>
-      <c r="Q70" s="158"/>
-      <c r="R70" s="159"/>
-      <c r="S70" s="159"/>
+      <c r="L70" s="315"/>
+      <c r="M70" s="316"/>
+      <c r="N70" s="316"/>
+      <c r="O70" s="316"/>
+      <c r="P70" s="316"/>
+      <c r="Q70" s="320"/>
+      <c r="R70" s="321"/>
+      <c r="S70" s="321"/>
       <c r="T70" s="56"/>
       <c r="U70" s="56"/>
       <c r="V70" s="56"/>
@@ -6072,33 +6074,165 @@
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="L64:W64"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="M46:W47"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="M41:W42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
@@ -6123,165 +6257,33 @@
     <mergeCell ref="M14:O17"/>
     <mergeCell ref="P14:P17"/>
     <mergeCell ref="D6:E12"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="T50:U50"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -992,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1939,34 +1939,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2426,7 +2406,7 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2527,9 +2507,6 @@
     <xf numFmtId="192" fontId="44" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="175" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2758,9 +2735,6 @@
     </xf>
     <xf numFmtId="1" fontId="39" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2773,12 +2747,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2806,15 +2774,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2833,6 +2792,459 @@
     <xf numFmtId="190" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2860,15 +3272,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2899,454 +3302,35 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="175" fontId="37" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="175" fontId="37" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4218,10 +4202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AY1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4231,8 +4215,8 @@
     <col min="3" max="3" width="1.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="57" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="56" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" style="1" customWidth="1"/>
@@ -4249,7 +4233,7 @@
     <col min="23" max="23" width="21.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4267,14 +4251,14 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4299,34 +4283,34 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="245"/>
+      <c r="S3" s="245"/>
+      <c r="T3" s="245"/>
+      <c r="U3" s="245"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4339,21 +4323,21 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="197" t="s">
+      <c r="M4" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-    </row>
-    <row r="5" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="253"/>
+      <c r="O4" s="253"/>
+      <c r="P4" s="253"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="253"/>
+      <c r="T4" s="253"/>
+      <c r="U4" s="253"/>
+      <c r="V4" s="253"/>
+      <c r="W4" s="253"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4366,372 +4350,373 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-    </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="254"/>
+      <c r="N5" s="254"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="254"/>
+      <c r="S5" s="254"/>
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="254"/>
+      <c r="W5" s="254"/>
+    </row>
+    <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="203" t="s">
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="205"/>
-      <c r="Q6" s="205"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="205"/>
-      <c r="T6" s="205"/>
-      <c r="U6" s="205"/>
-      <c r="V6" s="205"/>
-      <c r="W6" s="206"/>
-    </row>
-    <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="260"/>
+      <c r="O6" s="260"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="261"/>
+      <c r="U6" s="261"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="262"/>
+    </row>
+    <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="207" t="s">
+      <c r="D7" s="278"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="200"/>
-    </row>
-    <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="255"/>
+      <c r="U7" s="255"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="256"/>
+    </row>
+    <row r="8" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="209" t="s">
+      <c r="D8" s="278"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="201"/>
-      <c r="R8" s="201"/>
-      <c r="S8" s="201"/>
-      <c r="T8" s="201"/>
-      <c r="U8" s="201"/>
-      <c r="V8" s="201"/>
-      <c r="W8" s="202"/>
-    </row>
-    <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="257"/>
+      <c r="Q8" s="257"/>
+      <c r="R8" s="257"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="257"/>
+      <c r="U8" s="257"/>
+      <c r="V8" s="257"/>
+      <c r="W8" s="258"/>
+    </row>
+    <row r="9" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="215" t="s">
+      <c r="D9" s="278"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="216"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="213" t="s">
+      <c r="N9" s="270"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="267" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="213" t="s">
+      <c r="Q9" s="267" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="213" t="s">
+      <c r="R9" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="211" t="s">
+      <c r="S9" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="211"/>
-      <c r="U9" s="213" t="s">
+      <c r="T9" s="265"/>
+      <c r="U9" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="213" t="s">
+      <c r="V9" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="217"/>
-    </row>
-    <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W9" s="271"/>
+    </row>
+    <row r="10" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="218" t="s">
+      <c r="D10" s="278"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="272" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="219"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="214"/>
-      <c r="Q10" s="214"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="214"/>
-      <c r="V10" s="82" t="s">
+      <c r="N10" s="273"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="268"/>
+      <c r="Q10" s="268"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="268"/>
+      <c r="V10" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="W10" s="48" t="s">
+      <c r="W10" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="159" t="s">
+      <c r="D11" s="278"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="160"/>
-      <c r="O11" s="161"/>
+      <c r="N11" s="247"/>
+      <c r="O11" s="248"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
-      <c r="S11" s="146"/>
+      <c r="S11" s="139"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="38"/>
-      <c r="W11" s="49"/>
-    </row>
-    <row r="12" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="48"/>
+    </row>
+    <row r="12" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="159" t="s">
+      <c r="D12" s="280"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="160"/>
-      <c r="O12" s="161"/>
+      <c r="N12" s="247"/>
+      <c r="O12" s="248"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="146"/>
+      <c r="S12" s="139"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="83"/>
+      <c r="U12" s="82"/>
       <c r="V12" s="38"/>
-      <c r="W12" s="49"/>
-    </row>
-    <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="48"/>
+    </row>
+    <row r="13" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="78"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="159" t="s">
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="160"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="84"/>
+      <c r="N13" s="247"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="83"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="146"/>
+      <c r="S13" s="139"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="38"/>
-      <c r="W13" s="49"/>
-    </row>
-    <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W13" s="48"/>
+    </row>
+    <row r="14" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="76"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="3"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="221" t="s">
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="222"/>
-      <c r="O14" s="223"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="220"/>
-      <c r="V14" s="298"/>
-      <c r="W14" s="301"/>
-    </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="175"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="275"/>
+      <c r="Q14" s="294"/>
+      <c r="R14" s="294"/>
+      <c r="S14" s="297"/>
+      <c r="T14" s="300"/>
+      <c r="U14" s="274"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="171"/>
+    </row>
+    <row r="15" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="223"/>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="220"/>
-      <c r="V15" s="299"/>
-      <c r="W15" s="302"/>
-    </row>
-    <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="275"/>
+      <c r="Q15" s="295"/>
+      <c r="R15" s="295"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="301"/>
+      <c r="U15" s="274"/>
+      <c r="V15" s="169"/>
+      <c r="W15" s="172"/>
+    </row>
+    <row r="16" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="3"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="223"/>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="220"/>
-      <c r="V16" s="299"/>
-      <c r="W16" s="302"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="275"/>
+      <c r="Q16" s="295"/>
+      <c r="R16" s="295"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="301"/>
+      <c r="U16" s="274"/>
+      <c r="V16" s="169"/>
+      <c r="W16" s="317"/>
+      <c r="X16" s="318"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="3"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="222"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="152"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="220"/>
-      <c r="V17" s="300"/>
-      <c r="W17" s="303"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="275"/>
+      <c r="Q17" s="296"/>
+      <c r="R17" s="296"/>
+      <c r="S17" s="299"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="274"/>
+      <c r="V17" s="170"/>
+      <c r="W17" s="173"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="193" t="s">
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="249" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="194"/>
-      <c r="O18" s="195"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="54">
+      <c r="N18" s="250"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="53">
         <f>V18*(T18-S18)/1000</f>
         <v>0</v>
       </c>
@@ -4741,26 +4726,26 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="3"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="165" t="s">
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="166"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="86"/>
+      <c r="N19" s="307"/>
+      <c r="O19" s="308"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="85"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -4768,48 +4753,48 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="221"/>
-      <c r="N20" s="222"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="222"/>
-      <c r="Q20" s="223"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="176"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="40"/>
+      <c r="S20" s="319"/>
+      <c r="T20" s="320"/>
+      <c r="U20" s="323"/>
       <c r="V20" s="38"/>
-      <c r="W20" s="49"/>
+      <c r="W20" s="48"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="164"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="313"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="303"/>
+      <c r="N21" s="304"/>
+      <c r="O21" s="305"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="149"/>
+      <c r="S21" s="142"/>
       <c r="T21" s="37"/>
-      <c r="U21" s="41"/>
+      <c r="U21" s="40"/>
       <c r="V21" s="39"/>
-      <c r="W21" s="55"/>
+      <c r="W21" s="54"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
@@ -4817,26 +4802,26 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="168" t="s">
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="313"/>
+      <c r="I22" s="315"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="309" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="169"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="304"/>
-      <c r="T22" s="305"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="119"/>
+      <c r="N22" s="310"/>
+      <c r="O22" s="311"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="321"/>
+      <c r="T22" s="322"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="118"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
@@ -4844,26 +4829,26 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="176" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="316"/>
+      <c r="I23" s="314"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="176"/>
-      <c r="U23" s="176"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="176"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="237"/>
+      <c r="Q23" s="237"/>
+      <c r="R23" s="237"/>
+      <c r="S23" s="237"/>
+      <c r="T23" s="237"/>
+      <c r="U23" s="237"/>
+      <c r="V23" s="237"/>
+      <c r="W23" s="237"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4871,26 +4856,26 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="129" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="176"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="176"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="176"/>
-      <c r="W24" s="176"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="237"/>
+      <c r="O24" s="237"/>
+      <c r="P24" s="237"/>
+      <c r="Q24" s="237"/>
+      <c r="R24" s="237"/>
+      <c r="S24" s="237"/>
+      <c r="T24" s="237"/>
+      <c r="U24" s="237"/>
+      <c r="V24" s="237"/>
+      <c r="W24" s="237"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4898,34 +4883,34 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="244" t="s">
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="245"/>
-      <c r="O25" s="240" t="s">
+      <c r="N25" s="240"/>
+      <c r="O25" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="240"/>
-      <c r="Q25" s="240" t="s">
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="240"/>
-      <c r="S25" s="240"/>
-      <c r="T25" s="240"/>
-      <c r="U25" s="240" t="s">
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="235"/>
+      <c r="U25" s="235" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="309" t="s">
+      <c r="V25" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="310" t="s">
+      <c r="W25" s="163" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4935,28 +4920,28 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="239"/>
-      <c r="M26" s="246"/>
-      <c r="N26" s="247"/>
-      <c r="O26" s="241"/>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="235" t="s">
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="233"/>
+      <c r="K26" s="233"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="242"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="235"/>
-      <c r="S26" s="235" t="s">
+      <c r="R26" s="232"/>
+      <c r="S26" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="235"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="311"/>
+      <c r="T26" s="232"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="164"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -4964,24 +4949,24 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="177"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="66"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="65"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
@@ -4989,24 +4974,24 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="177"/>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="178"/>
-      <c r="T28" s="178"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="66"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="65"/>
     </row>
     <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
@@ -5014,24 +4999,24 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="3"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="231"/>
-      <c r="L29" s="231"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="66"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="228"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="159"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="65"/>
     </row>
     <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
@@ -5039,24 +5024,24 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="236"/>
-      <c r="K30" s="236"/>
-      <c r="L30" s="237"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="177"/>
-      <c r="P30" s="177"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="66"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="159"/>
+      <c r="S30" s="159"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="65"/>
     </row>
     <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
@@ -5064,24 +5049,24 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="236"/>
-      <c r="K31" s="236"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="178"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="178"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="66"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="65"/>
     </row>
     <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
@@ -5089,24 +5074,24 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="237"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="178"/>
-      <c r="S32" s="178"/>
-      <c r="T32" s="178"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="66"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="159"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="65"/>
     </row>
     <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
@@ -5114,24 +5099,24 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
-      <c r="Q33" s="178"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="178"/>
-      <c r="T33" s="178"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="66"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="159"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="65"/>
     </row>
     <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
@@ -5139,24 +5124,24 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="236"/>
-      <c r="K34" s="236"/>
-      <c r="L34" s="237"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="177"/>
-      <c r="O34" s="177"/>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="178"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="66"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="65"/>
     </row>
     <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
@@ -5164,24 +5149,24 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="236"/>
-      <c r="K35" s="236"/>
-      <c r="L35" s="237"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="177"/>
-      <c r="O35" s="177"/>
-      <c r="P35" s="177"/>
-      <c r="Q35" s="178"/>
-      <c r="R35" s="178"/>
-      <c r="S35" s="178"/>
-      <c r="T35" s="178"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="66"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="159"/>
+      <c r="R35" s="159"/>
+      <c r="S35" s="159"/>
+      <c r="T35" s="159"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="65"/>
     </row>
     <row r="36" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
@@ -5189,24 +5174,24 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="236"/>
-      <c r="K36" s="236"/>
-      <c r="L36" s="237"/>
-      <c r="M36" s="179"/>
-      <c r="N36" s="177"/>
-      <c r="O36" s="177"/>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
-      <c r="S36" s="178"/>
-      <c r="T36" s="178"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="66"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="159"/>
+      <c r="R36" s="159"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="159"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="65"/>
     </row>
     <row r="37" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
@@ -5214,24 +5199,24 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="236"/>
-      <c r="K37" s="236"/>
-      <c r="L37" s="237"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="178"/>
-      <c r="S37" s="178"/>
-      <c r="T37" s="178"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="66"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="159"/>
+      <c r="R37" s="159"/>
+      <c r="S37" s="159"/>
+      <c r="T37" s="159"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="65"/>
     </row>
     <row r="38" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
@@ -5239,24 +5224,24 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="236"/>
-      <c r="K38" s="236"/>
-      <c r="L38" s="237"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="177"/>
-      <c r="O38" s="177"/>
-      <c r="P38" s="177"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="178"/>
-      <c r="S38" s="178"/>
-      <c r="T38" s="178"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="66"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="159"/>
+      <c r="S38" s="159"/>
+      <c r="T38" s="159"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="65"/>
     </row>
     <row r="39" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
@@ -5264,24 +5249,24 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="236"/>
-      <c r="L39" s="237"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
-      <c r="S39" s="178"/>
-      <c r="T39" s="178"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="66"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="158"/>
+      <c r="O39" s="158"/>
+      <c r="P39" s="158"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="159"/>
+      <c r="T39" s="159"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="65"/>
     </row>
     <row r="40" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -5289,24 +5274,24 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="236"/>
-      <c r="K40" s="236"/>
-      <c r="L40" s="237"/>
-      <c r="M40" s="312"/>
-      <c r="N40" s="313"/>
-      <c r="O40" s="313"/>
-      <c r="P40" s="313"/>
-      <c r="Q40" s="314"/>
-      <c r="R40" s="314"/>
-      <c r="S40" s="314"/>
-      <c r="T40" s="314"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="165"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="167"/>
+      <c r="T40" s="167"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="67"/>
     </row>
     <row r="41" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
@@ -5314,26 +5299,26 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="176" t="s">
+      <c r="F41" s="68"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="176"/>
-      <c r="O41" s="176"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
-      <c r="S41" s="176"/>
-      <c r="T41" s="176"/>
-      <c r="U41" s="176"/>
-      <c r="V41" s="176"/>
-      <c r="W41" s="176"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="237"/>
+      <c r="P41" s="237"/>
+      <c r="Q41" s="237"/>
+      <c r="R41" s="237"/>
+      <c r="S41" s="237"/>
+      <c r="T41" s="237"/>
+      <c r="U41" s="237"/>
+      <c r="V41" s="237"/>
+      <c r="W41" s="237"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5341,24 +5326,24 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="243"/>
-      <c r="N42" s="243"/>
-      <c r="O42" s="243"/>
-      <c r="P42" s="243"/>
-      <c r="Q42" s="243"/>
-      <c r="R42" s="243"/>
-      <c r="S42" s="243"/>
-      <c r="T42" s="243"/>
-      <c r="U42" s="243"/>
-      <c r="V42" s="243"/>
-      <c r="W42" s="243"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="238"/>
+      <c r="N42" s="238"/>
+      <c r="O42" s="238"/>
+      <c r="P42" s="238"/>
+      <c r="Q42" s="238"/>
+      <c r="R42" s="238"/>
+      <c r="S42" s="238"/>
+      <c r="T42" s="238"/>
+      <c r="U42" s="238"/>
+      <c r="V42" s="238"/>
+      <c r="W42" s="238"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5366,26 +5351,26 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="248" t="s">
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="249"/>
-      <c r="O43" s="249"/>
-      <c r="P43" s="249"/>
-      <c r="Q43" s="249"/>
-      <c r="R43" s="249"/>
-      <c r="S43" s="249"/>
-      <c r="T43" s="249"/>
-      <c r="U43" s="249"/>
-      <c r="V43" s="180"/>
-      <c r="W43" s="181"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="244"/>
+      <c r="P43" s="244"/>
+      <c r="Q43" s="244"/>
+      <c r="R43" s="244"/>
+      <c r="S43" s="244"/>
+      <c r="T43" s="244"/>
+      <c r="U43" s="244"/>
+      <c r="V43" s="284"/>
+      <c r="W43" s="285"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
@@ -5393,26 +5378,26 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="190" t="s">
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="292" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="191"/>
-      <c r="O44" s="191"/>
-      <c r="P44" s="191"/>
-      <c r="Q44" s="191"/>
-      <c r="R44" s="191"/>
-      <c r="S44" s="191"/>
-      <c r="T44" s="191"/>
-      <c r="U44" s="191"/>
-      <c r="V44" s="182"/>
-      <c r="W44" s="183"/>
+      <c r="N44" s="293"/>
+      <c r="O44" s="293"/>
+      <c r="P44" s="293"/>
+      <c r="Q44" s="293"/>
+      <c r="R44" s="293"/>
+      <c r="S44" s="293"/>
+      <c r="T44" s="293"/>
+      <c r="U44" s="293"/>
+      <c r="V44" s="286"/>
+      <c r="W44" s="287"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -5420,26 +5405,26 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="232" t="s">
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="233"/>
-      <c r="O45" s="233"/>
-      <c r="P45" s="233"/>
-      <c r="Q45" s="233"/>
-      <c r="R45" s="233"/>
-      <c r="S45" s="233"/>
-      <c r="T45" s="233"/>
-      <c r="U45" s="233"/>
-      <c r="V45" s="291"/>
-      <c r="W45" s="292"/>
+      <c r="N45" s="230"/>
+      <c r="O45" s="230"/>
+      <c r="P45" s="230"/>
+      <c r="Q45" s="230"/>
+      <c r="R45" s="230"/>
+      <c r="S45" s="230"/>
+      <c r="T45" s="230"/>
+      <c r="U45" s="230"/>
+      <c r="V45" s="180"/>
+      <c r="W45" s="181"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
@@ -5447,26 +5432,26 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="273" t="s">
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="273"/>
-      <c r="O46" s="273"/>
-      <c r="P46" s="273"/>
-      <c r="Q46" s="273"/>
-      <c r="R46" s="273"/>
-      <c r="S46" s="273"/>
-      <c r="T46" s="273"/>
-      <c r="U46" s="273"/>
-      <c r="V46" s="273"/>
-      <c r="W46" s="273"/>
+      <c r="N46" s="197"/>
+      <c r="O46" s="197"/>
+      <c r="P46" s="197"/>
+      <c r="Q46" s="197"/>
+      <c r="R46" s="197"/>
+      <c r="S46" s="197"/>
+      <c r="T46" s="197"/>
+      <c r="U46" s="197"/>
+      <c r="V46" s="197"/>
+      <c r="W46" s="197"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5474,24 +5459,24 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="274"/>
-      <c r="N47" s="274"/>
-      <c r="O47" s="274"/>
-      <c r="P47" s="274"/>
-      <c r="Q47" s="274"/>
-      <c r="R47" s="274"/>
-      <c r="S47" s="274"/>
-      <c r="T47" s="274"/>
-      <c r="U47" s="274"/>
-      <c r="V47" s="274"/>
-      <c r="W47" s="274"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="198"/>
+      <c r="N47" s="198"/>
+      <c r="O47" s="198"/>
+      <c r="P47" s="198"/>
+      <c r="Q47" s="198"/>
+      <c r="R47" s="198"/>
+      <c r="S47" s="198"/>
+      <c r="T47" s="198"/>
+      <c r="U47" s="198"/>
+      <c r="V47" s="198"/>
+      <c r="W47" s="198"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5499,26 +5484,26 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="186" t="s">
+      <c r="F48" s="68"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="187"/>
-      <c r="O48" s="187"/>
-      <c r="P48" s="187"/>
-      <c r="Q48" s="187"/>
-      <c r="R48" s="281"/>
-      <c r="S48" s="281"/>
-      <c r="T48" s="242"/>
-      <c r="U48" s="242"/>
-      <c r="V48" s="174"/>
-      <c r="W48" s="175"/>
+      <c r="N48" s="291"/>
+      <c r="O48" s="291"/>
+      <c r="P48" s="291"/>
+      <c r="Q48" s="291"/>
+      <c r="R48" s="208"/>
+      <c r="S48" s="208"/>
+      <c r="T48" s="236"/>
+      <c r="U48" s="236"/>
+      <c r="V48" s="282"/>
+      <c r="W48" s="283"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5526,26 +5511,26 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
       <c r="K49" s="26"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="188" t="s">
+      <c r="L49" s="86"/>
+      <c r="M49" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="189"/>
-      <c r="O49" s="189"/>
-      <c r="P49" s="189"/>
-      <c r="Q49" s="189"/>
-      <c r="R49" s="282"/>
-      <c r="S49" s="282"/>
-      <c r="T49" s="275"/>
-      <c r="U49" s="275"/>
-      <c r="V49" s="184"/>
-      <c r="W49" s="185"/>
+      <c r="N49" s="211"/>
+      <c r="O49" s="211"/>
+      <c r="P49" s="211"/>
+      <c r="Q49" s="211"/>
+      <c r="R49" s="209"/>
+      <c r="S49" s="209"/>
+      <c r="T49" s="199"/>
+      <c r="U49" s="199"/>
+      <c r="V49" s="288"/>
+      <c r="W49" s="289"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -5553,26 +5538,26 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
       <c r="K50" s="26"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="188" t="s">
+      <c r="L50" s="86"/>
+      <c r="M50" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="189"/>
-      <c r="O50" s="189"/>
-      <c r="P50" s="189"/>
-      <c r="Q50" s="189"/>
-      <c r="R50" s="234"/>
-      <c r="S50" s="234"/>
-      <c r="T50" s="171"/>
-      <c r="U50" s="171"/>
-      <c r="V50" s="172"/>
-      <c r="W50" s="173"/>
+      <c r="N50" s="211"/>
+      <c r="O50" s="211"/>
+      <c r="P50" s="211"/>
+      <c r="Q50" s="211"/>
+      <c r="R50" s="231"/>
+      <c r="S50" s="231"/>
+      <c r="T50" s="312"/>
+      <c r="U50" s="312"/>
+      <c r="V50" s="184"/>
+      <c r="W50" s="185"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5580,26 +5565,26 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="87"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="86"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="188" t="s">
+      <c r="M51" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="189"/>
-      <c r="O51" s="189"/>
-      <c r="P51" s="189"/>
-      <c r="Q51" s="189"/>
-      <c r="R51" s="279"/>
-      <c r="S51" s="279"/>
-      <c r="T51" s="270"/>
-      <c r="U51" s="270"/>
-      <c r="V51" s="172"/>
-      <c r="W51" s="173"/>
+      <c r="N51" s="211"/>
+      <c r="O51" s="211"/>
+      <c r="P51" s="211"/>
+      <c r="Q51" s="211"/>
+      <c r="R51" s="203"/>
+      <c r="S51" s="203"/>
+      <c r="T51" s="193"/>
+      <c r="U51" s="193"/>
+      <c r="V51" s="184"/>
+      <c r="W51" s="185"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5607,28 +5592,28 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="104"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="207" t="s">
+      <c r="F52" s="68"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="208"/>
-      <c r="O52" s="208"/>
-      <c r="P52" s="208"/>
-      <c r="Q52" s="208"/>
-      <c r="R52" s="272"/>
-      <c r="S52" s="272"/>
-      <c r="T52" s="271" t="s">
+      <c r="N52" s="183"/>
+      <c r="O52" s="183"/>
+      <c r="P52" s="183"/>
+      <c r="Q52" s="183"/>
+      <c r="R52" s="196"/>
+      <c r="S52" s="196"/>
+      <c r="T52" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="271"/>
-      <c r="V52" s="293"/>
-      <c r="W52" s="294"/>
+      <c r="U52" s="195"/>
+      <c r="V52" s="186"/>
+      <c r="W52" s="187"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -5636,25 +5621,25 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="207" t="s">
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="208"/>
-      <c r="O53" s="208"/>
-      <c r="P53" s="208"/>
-      <c r="Q53" s="208"/>
-      <c r="R53" s="283"/>
-      <c r="S53" s="283"/>
-      <c r="T53" s="276"/>
-      <c r="U53" s="276"/>
-      <c r="V53" s="295"/>
-      <c r="W53" s="296"/>
+      <c r="N53" s="183"/>
+      <c r="O53" s="183"/>
+      <c r="P53" s="183"/>
+      <c r="Q53" s="183"/>
+      <c r="R53" s="212"/>
+      <c r="S53" s="212"/>
+      <c r="T53" s="200"/>
+      <c r="U53" s="200"/>
+      <c r="V53" s="188"/>
+      <c r="W53" s="189"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -5662,28 +5647,28 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="188" t="s">
+      <c r="F54" s="68"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="189"/>
-      <c r="O54" s="189"/>
-      <c r="P54" s="189"/>
-      <c r="Q54" s="189"/>
-      <c r="R54" s="290"/>
-      <c r="S54" s="290"/>
-      <c r="T54" s="270" t="s">
+      <c r="N54" s="211"/>
+      <c r="O54" s="211"/>
+      <c r="P54" s="211"/>
+      <c r="Q54" s="211"/>
+      <c r="R54" s="179"/>
+      <c r="S54" s="179"/>
+      <c r="T54" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="270"/>
-      <c r="V54" s="277"/>
-      <c r="W54" s="278"/>
+      <c r="U54" s="193"/>
+      <c r="V54" s="201"/>
+      <c r="W54" s="202"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -5691,28 +5676,28 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="188" t="s">
+      <c r="L55" s="106"/>
+      <c r="M55" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="189"/>
-      <c r="O55" s="189"/>
-      <c r="P55" s="189"/>
-      <c r="Q55" s="189"/>
-      <c r="R55" s="256"/>
-      <c r="S55" s="256"/>
-      <c r="T55" s="270" t="s">
+      <c r="N55" s="211"/>
+      <c r="O55" s="211"/>
+      <c r="P55" s="211"/>
+      <c r="Q55" s="211"/>
+      <c r="R55" s="219"/>
+      <c r="S55" s="219"/>
+      <c r="T55" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="270"/>
-      <c r="V55" s="284"/>
-      <c r="W55" s="285"/>
+      <c r="U55" s="193"/>
+      <c r="V55" s="213"/>
+      <c r="W55" s="214"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5720,26 +5705,26 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="207" t="s">
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="208"/>
-      <c r="O56" s="208"/>
-      <c r="P56" s="208"/>
-      <c r="Q56" s="208"/>
-      <c r="R56" s="251"/>
-      <c r="S56" s="251"/>
-      <c r="T56" s="252"/>
-      <c r="U56" s="252"/>
-      <c r="V56" s="252"/>
-      <c r="W56" s="253"/>
+      <c r="N56" s="183"/>
+      <c r="O56" s="183"/>
+      <c r="P56" s="183"/>
+      <c r="Q56" s="183"/>
+      <c r="R56" s="192"/>
+      <c r="S56" s="192"/>
+      <c r="T56" s="194"/>
+      <c r="U56" s="194"/>
+      <c r="V56" s="194"/>
+      <c r="W56" s="216"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5747,26 +5732,26 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="110"/>
-      <c r="M57" s="207" t="s">
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="109"/>
+      <c r="M57" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="208"/>
-      <c r="O57" s="208"/>
-      <c r="P57" s="208"/>
-      <c r="Q57" s="208"/>
-      <c r="R57" s="251"/>
-      <c r="S57" s="251"/>
-      <c r="T57" s="252"/>
-      <c r="U57" s="252"/>
-      <c r="V57" s="252"/>
-      <c r="W57" s="253"/>
+      <c r="N57" s="183"/>
+      <c r="O57" s="183"/>
+      <c r="P57" s="183"/>
+      <c r="Q57" s="183"/>
+      <c r="R57" s="192"/>
+      <c r="S57" s="192"/>
+      <c r="T57" s="194"/>
+      <c r="U57" s="194"/>
+      <c r="V57" s="194"/>
+      <c r="W57" s="216"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5774,28 +5759,28 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="207" t="s">
+      <c r="F58" s="68"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="208"/>
-      <c r="O58" s="208"/>
-      <c r="P58" s="208"/>
-      <c r="Q58" s="208"/>
-      <c r="R58" s="259"/>
-      <c r="S58" s="259"/>
-      <c r="T58" s="251" t="s">
+      <c r="N58" s="183"/>
+      <c r="O58" s="183"/>
+      <c r="P58" s="183"/>
+      <c r="Q58" s="183"/>
+      <c r="R58" s="222"/>
+      <c r="S58" s="222"/>
+      <c r="T58" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="251"/>
-      <c r="V58" s="254"/>
-      <c r="W58" s="255"/>
+      <c r="U58" s="192"/>
+      <c r="V58" s="217"/>
+      <c r="W58" s="218"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5803,26 +5788,26 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="112"/>
-      <c r="L59" s="112"/>
-      <c r="M59" s="188" t="s">
+      <c r="F59" s="68"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="189"/>
-      <c r="O59" s="189"/>
-      <c r="P59" s="189"/>
-      <c r="Q59" s="189"/>
-      <c r="R59" s="264"/>
-      <c r="S59" s="264"/>
-      <c r="T59" s="251"/>
-      <c r="U59" s="251"/>
-      <c r="V59" s="262"/>
-      <c r="W59" s="263"/>
+      <c r="N59" s="211"/>
+      <c r="O59" s="211"/>
+      <c r="P59" s="211"/>
+      <c r="Q59" s="211"/>
+      <c r="R59" s="204"/>
+      <c r="S59" s="204"/>
+      <c r="T59" s="192"/>
+      <c r="U59" s="192"/>
+      <c r="V59" s="206"/>
+      <c r="W59" s="207"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5830,26 +5815,26 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="188" t="s">
+      <c r="F60" s="68"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="111"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="189"/>
-      <c r="O60" s="189"/>
-      <c r="P60" s="189"/>
-      <c r="Q60" s="189"/>
-      <c r="R60" s="264"/>
-      <c r="S60" s="264"/>
-      <c r="T60" s="251"/>
-      <c r="U60" s="251"/>
-      <c r="V60" s="262"/>
-      <c r="W60" s="263"/>
+      <c r="N60" s="211"/>
+      <c r="O60" s="211"/>
+      <c r="P60" s="211"/>
+      <c r="Q60" s="211"/>
+      <c r="R60" s="204"/>
+      <c r="S60" s="204"/>
+      <c r="T60" s="192"/>
+      <c r="U60" s="192"/>
+      <c r="V60" s="206"/>
+      <c r="W60" s="207"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5857,28 +5842,28 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="250" t="s">
+      <c r="F61" s="68"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="250"/>
-      <c r="K61" s="250"/>
-      <c r="L61" s="250"/>
-      <c r="M61" s="188" t="s">
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="189"/>
-      <c r="O61" s="189"/>
-      <c r="P61" s="189"/>
-      <c r="Q61" s="189"/>
-      <c r="R61" s="280"/>
-      <c r="S61" s="280"/>
-      <c r="T61" s="260"/>
-      <c r="U61" s="260"/>
-      <c r="V61" s="257"/>
-      <c r="W61" s="258"/>
+      <c r="N61" s="211"/>
+      <c r="O61" s="211"/>
+      <c r="P61" s="211"/>
+      <c r="Q61" s="211"/>
+      <c r="R61" s="205"/>
+      <c r="S61" s="205"/>
+      <c r="T61" s="223"/>
+      <c r="U61" s="223"/>
+      <c r="V61" s="220"/>
+      <c r="W61" s="221"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5886,26 +5871,26 @@
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="236"/>
-      <c r="J62" s="236"/>
-      <c r="K62" s="236"/>
-      <c r="L62" s="237"/>
-      <c r="M62" s="265" t="s">
+      <c r="F62" s="70"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="156"/>
+      <c r="M62" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="266"/>
-      <c r="O62" s="266"/>
-      <c r="P62" s="266"/>
-      <c r="Q62" s="266"/>
-      <c r="R62" s="267"/>
-      <c r="S62" s="267"/>
-      <c r="T62" s="261"/>
-      <c r="U62" s="261"/>
-      <c r="V62" s="268"/>
-      <c r="W62" s="269"/>
+      <c r="N62" s="226"/>
+      <c r="O62" s="226"/>
+      <c r="P62" s="226"/>
+      <c r="Q62" s="226"/>
+      <c r="R62" s="227"/>
+      <c r="S62" s="227"/>
+      <c r="T62" s="224"/>
+      <c r="U62" s="224"/>
+      <c r="V62" s="190"/>
+      <c r="W62" s="191"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5917,151 +5902,151 @@
       <c r="H63" s="9"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="M63" s="58" t="s">
+      <c r="M63" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="N63" s="59"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="58"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="58"/>
-      <c r="U63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
       <c r="V63" s="20"/>
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="306" t="s">
+      <c r="L64" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="307"/>
-      <c r="N64" s="307"/>
-      <c r="O64" s="307"/>
-      <c r="P64" s="307"/>
-      <c r="Q64" s="307"/>
-      <c r="R64" s="307"/>
-      <c r="S64" s="307"/>
-      <c r="T64" s="307"/>
-      <c r="U64" s="307"/>
-      <c r="V64" s="307"/>
-      <c r="W64" s="308"/>
+      <c r="M64" s="144"/>
+      <c r="N64" s="144"/>
+      <c r="O64" s="144"/>
+      <c r="P64" s="144"/>
+      <c r="Q64" s="144"/>
+      <c r="R64" s="144"/>
+      <c r="S64" s="144"/>
+      <c r="T64" s="144"/>
+      <c r="U64" s="144"/>
+      <c r="V64" s="144"/>
+      <c r="W64" s="153"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="318" t="s">
+      <c r="L65" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="289" t="s">
+      <c r="M65" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="289" t="s">
+      <c r="N65" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="289" t="s">
+      <c r="O65" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="289" t="s">
+      <c r="P65" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="289"/>
-      <c r="R65" s="289"/>
-      <c r="S65" s="289"/>
-      <c r="T65" s="289" t="s">
+      <c r="Q65" s="147"/>
+      <c r="R65" s="147"/>
+      <c r="S65" s="147"/>
+      <c r="T65" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="289"/>
-      <c r="V65" s="289" t="s">
+      <c r="U65" s="147"/>
+      <c r="V65" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="297"/>
+      <c r="W65" s="160"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="318"/>
-      <c r="M66" s="289"/>
-      <c r="N66" s="289"/>
-      <c r="O66" s="289"/>
-      <c r="P66" s="317" t="s">
+      <c r="L66" s="149"/>
+      <c r="M66" s="147"/>
+      <c r="N66" s="147"/>
+      <c r="O66" s="147"/>
+      <c r="P66" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="317"/>
-      <c r="R66" s="289" t="s">
+      <c r="Q66" s="148"/>
+      <c r="R66" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="289"/>
-      <c r="T66" s="289" t="s">
+      <c r="S66" s="147"/>
+      <c r="T66" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="289"/>
-      <c r="V66" s="289" t="s">
+      <c r="U66" s="147"/>
+      <c r="V66" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="297"/>
+      <c r="W66" s="160"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="286"/>
-      <c r="Q67" s="286"/>
-      <c r="R67" s="286"/>
-      <c r="S67" s="286"/>
-      <c r="T67" s="286"/>
-      <c r="U67" s="286"/>
-      <c r="V67" s="286"/>
-      <c r="W67" s="287"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="154"/>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="154"/>
+      <c r="S67" s="154"/>
+      <c r="T67" s="154"/>
+      <c r="U67" s="154"/>
+      <c r="V67" s="154"/>
+      <c r="W67" s="177"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="288"/>
-      <c r="O68" s="288"/>
-      <c r="P68" s="288"/>
-      <c r="Q68" s="288"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="178"/>
+      <c r="O68" s="178"/>
+      <c r="P68" s="178"/>
+      <c r="Q68" s="178"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="306" t="s">
+      <c r="L69" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="307"/>
-      <c r="N69" s="307" t="s">
+      <c r="M69" s="144"/>
+      <c r="N69" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="307"/>
-      <c r="P69" s="307" t="s">
+      <c r="O69" s="144"/>
+      <c r="P69" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="308"/>
-      <c r="R69" s="319"/>
-      <c r="S69" s="319"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
+      <c r="Q69" s="153"/>
+      <c r="R69" s="150"/>
+      <c r="S69" s="150"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="55"/>
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="315"/>
-      <c r="M70" s="316"/>
-      <c r="N70" s="316"/>
-      <c r="O70" s="316"/>
-      <c r="P70" s="316"/>
-      <c r="Q70" s="320"/>
-      <c r="R70" s="321"/>
-      <c r="S70" s="321"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
+      <c r="L70" s="145"/>
+      <c r="M70" s="146"/>
+      <c r="N70" s="146"/>
+      <c r="O70" s="146"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="151"/>
+      <c r="R70" s="152"/>
+      <c r="S70" s="152"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="55"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
@@ -6074,21 +6059,177 @@
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="M41:W42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="M46:W47"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S22:T22"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:P32"/>
@@ -6113,177 +6254,21 @@
     <mergeCell ref="S37:T37"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R67:S67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -992,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -1944,6 +1944,19 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2519,9 +2532,6 @@
     <xf numFmtId="2" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2706,9 +2716,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="42" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2783,525 +2790,9 @@
     <xf numFmtId="190" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="190" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3313,9 +2804,6 @@
     </xf>
     <xf numFmtId="175" fontId="37" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3324,13 +2812,538 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4205,7 +4218,7 @@
   <dimension ref="A1:X117"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="M19" sqref="M19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4215,8 +4228,8 @@
     <col min="3" max="3" width="1.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="56" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="55" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="55" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" style="1" customWidth="1"/>
@@ -4251,10 +4264,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="252"/>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
+      <c r="R1" s="261"/>
+      <c r="S1" s="261"/>
+      <c r="T1" s="261"/>
+      <c r="U1" s="261"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4285,28 +4298,28 @@
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="245"/>
-      <c r="S3" s="245"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4323,19 +4336,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="253" t="s">
+      <c r="M4" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="253"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="253"/>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="253"/>
-      <c r="T4" s="253"/>
-      <c r="U4" s="253"/>
-      <c r="V4" s="253"/>
-      <c r="W4" s="253"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
     </row>
     <row r="5" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4350,166 +4363,166 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="254"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="254"/>
-      <c r="P5" s="254"/>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="254"/>
-      <c r="T5" s="254"/>
-      <c r="U5" s="254"/>
-      <c r="V5" s="254"/>
-      <c r="W5" s="254"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
     </row>
     <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="259" t="s">
+      <c r="D6" s="285"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="260"/>
-      <c r="O6" s="260"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="262"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="270"/>
+      <c r="R6" s="270"/>
+      <c r="S6" s="270"/>
+      <c r="T6" s="270"/>
+      <c r="U6" s="270"/>
+      <c r="V6" s="270"/>
+      <c r="W6" s="271"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="182" t="s">
+      <c r="D7" s="287"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="256"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="264"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="264"/>
+      <c r="W7" s="265"/>
     </row>
     <row r="8" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="263" t="s">
+      <c r="D8" s="287"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="264"/>
-      <c r="O8" s="264"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="257"/>
-      <c r="S8" s="257"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="258"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="266"/>
+      <c r="V8" s="266"/>
+      <c r="W8" s="267"/>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="269" t="s">
+      <c r="D9" s="287"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="270"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="267" t="s">
+      <c r="N9" s="279"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="267" t="s">
+      <c r="Q9" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="267" t="s">
+      <c r="R9" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="265" t="s">
+      <c r="S9" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="265"/>
-      <c r="U9" s="267" t="s">
+      <c r="T9" s="274"/>
+      <c r="U9" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="267" t="s">
+      <c r="V9" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="271"/>
+      <c r="W9" s="280"/>
     </row>
     <row r="10" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="272" t="s">
+      <c r="D10" s="287"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="273"/>
+      <c r="N10" s="282"/>
       <c r="O10" s="41"/>
-      <c r="P10" s="268"/>
-      <c r="Q10" s="268"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="266"/>
-      <c r="T10" s="266"/>
-      <c r="U10" s="268"/>
-      <c r="V10" s="81" t="s">
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="275"/>
+      <c r="T10" s="275"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="W10" s="47" t="s">
+      <c r="W10" s="46" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4517,235 +4530,235 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="278"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="246" t="s">
+      <c r="D11" s="287"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="247"/>
-      <c r="O11" s="248"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="257"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
-      <c r="S11" s="139"/>
+      <c r="S11" s="137"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="38"/>
-      <c r="W11" s="48"/>
+      <c r="W11" s="47"/>
     </row>
     <row r="12" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="280"/>
-      <c r="E12" s="281"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="246" t="s">
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="247"/>
-      <c r="O12" s="248"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="257"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="139"/>
+      <c r="S12" s="137"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="82"/>
+      <c r="U12" s="81"/>
       <c r="V12" s="38"/>
-      <c r="W12" s="48"/>
+      <c r="W12" s="47"/>
     </row>
     <row r="13" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="246" t="s">
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="247"/>
-      <c r="O13" s="248"/>
-      <c r="P13" s="83"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="82"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="139"/>
+      <c r="S13" s="137"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="38"/>
-      <c r="W13" s="48"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="3"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="174" t="s">
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="175"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="275"/>
-      <c r="Q14" s="294"/>
-      <c r="R14" s="294"/>
-      <c r="S14" s="297"/>
-      <c r="T14" s="300"/>
-      <c r="U14" s="274"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="171"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="284"/>
+      <c r="Q14" s="303"/>
+      <c r="R14" s="303"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="283"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="177"/>
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="275"/>
-      <c r="Q15" s="295"/>
-      <c r="R15" s="295"/>
-      <c r="S15" s="298"/>
-      <c r="T15" s="301"/>
-      <c r="U15" s="274"/>
-      <c r="V15" s="169"/>
-      <c r="W15" s="172"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="284"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="307"/>
+      <c r="T15" s="310"/>
+      <c r="U15" s="283"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="178"/>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="3"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="174"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="275"/>
-      <c r="Q16" s="295"/>
-      <c r="R16" s="295"/>
-      <c r="S16" s="298"/>
-      <c r="T16" s="301"/>
-      <c r="U16" s="274"/>
-      <c r="V16" s="169"/>
-      <c r="W16" s="317"/>
-      <c r="X16" s="318"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="304"/>
+      <c r="R16" s="304"/>
+      <c r="S16" s="307"/>
+      <c r="T16" s="310"/>
+      <c r="U16" s="283"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="143"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="3"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="174"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="176"/>
-      <c r="P17" s="275"/>
-      <c r="Q17" s="296"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="299"/>
-      <c r="T17" s="302"/>
-      <c r="U17" s="274"/>
-      <c r="V17" s="170"/>
-      <c r="W17" s="173"/>
-    </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="284"/>
+      <c r="Q17" s="305"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="308"/>
+      <c r="T17" s="311"/>
+      <c r="U17" s="283"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="180"/>
+    </row>
+    <row r="18" spans="1:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="249" t="s">
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="250"/>
-      <c r="O18" s="251"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="53">
+      <c r="N18" s="259"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="52">
         <f>V18*(T18-S18)/1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
       <c r="H19" s="3"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="306" t="s">
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="307"/>
-      <c r="O19" s="308"/>
+      <c r="N19" s="316"/>
+      <c r="O19" s="317"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="85"/>
+      <c r="S19" s="322"/>
+      <c r="T19" s="323"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="84"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -4753,48 +4766,48 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="176"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="183"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="319"/>
-      <c r="T20" s="320"/>
-      <c r="U20" s="323"/>
+      <c r="S20" s="144"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="146"/>
       <c r="V20" s="38"/>
-      <c r="W20" s="48"/>
+      <c r="W20" s="47"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="313"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="303"/>
-      <c r="N21" s="304"/>
-      <c r="O21" s="305"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="312"/>
+      <c r="N21" s="313"/>
+      <c r="O21" s="314"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="142"/>
+      <c r="S21" s="138"/>
       <c r="T21" s="37"/>
       <c r="U21" s="40"/>
       <c r="V21" s="39"/>
-      <c r="W21" s="54"/>
+      <c r="W21" s="53"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
@@ -4802,26 +4815,26 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="313"/>
-      <c r="I22" s="315"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="309" t="s">
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="310"/>
-      <c r="O22" s="311"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="321"/>
-      <c r="T22" s="322"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="118"/>
+      <c r="N22" s="319"/>
+      <c r="O22" s="320"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="116"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
@@ -4829,26 +4842,26 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="316"/>
-      <c r="I23" s="314"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="237" t="s">
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="237"/>
-      <c r="O23" s="237"/>
-      <c r="P23" s="237"/>
-      <c r="Q23" s="237"/>
-      <c r="R23" s="237"/>
-      <c r="S23" s="237"/>
-      <c r="T23" s="237"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="237"/>
-      <c r="W23" s="237"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4856,26 +4869,26 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="127" t="s">
+      <c r="F24" s="67"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="237"/>
-      <c r="O24" s="237"/>
-      <c r="P24" s="237"/>
-      <c r="Q24" s="237"/>
-      <c r="R24" s="237"/>
-      <c r="S24" s="237"/>
-      <c r="T24" s="237"/>
-      <c r="U24" s="237"/>
-      <c r="V24" s="237"/>
-      <c r="W24" s="237"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="246"/>
+      <c r="U24" s="246"/>
+      <c r="V24" s="246"/>
+      <c r="W24" s="246"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4883,34 +4896,34 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="239" t="s">
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="240"/>
-      <c r="O25" s="235" t="s">
+      <c r="N25" s="249"/>
+      <c r="O25" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235" t="s">
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="235"/>
-      <c r="U25" s="235" t="s">
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="244"/>
+      <c r="U25" s="244" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="161" t="s">
+      <c r="V25" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="163" t="s">
+      <c r="W25" s="169" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4920,28 +4933,28 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="232" t="s">
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="243"/>
+      <c r="M26" s="250"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="232"/>
-      <c r="S26" s="232" t="s">
+      <c r="R26" s="241"/>
+      <c r="S26" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="232"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="164"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="170"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -4949,24 +4962,24 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="159"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="65"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="64"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
@@ -4974,24 +4987,24 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="65"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="64"/>
     </row>
     <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
@@ -4999,24 +5012,24 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="3"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="228"/>
-      <c r="L29" s="228"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="159"/>
-      <c r="S29" s="159"/>
-      <c r="T29" s="159"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="65"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="237"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="64"/>
     </row>
     <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
@@ -5024,24 +5037,24 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="159"/>
-      <c r="R30" s="159"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="159"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="65"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="64"/>
     </row>
     <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
@@ -5049,24 +5062,24 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="159"/>
-      <c r="S31" s="159"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="65"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="64"/>
     </row>
     <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
@@ -5074,24 +5087,24 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="159"/>
-      <c r="R32" s="159"/>
-      <c r="S32" s="159"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="65"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="64"/>
     </row>
     <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
@@ -5099,24 +5112,24 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="159"/>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="65"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="64"/>
     </row>
     <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
@@ -5124,24 +5137,24 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="159"/>
-      <c r="R34" s="159"/>
-      <c r="S34" s="159"/>
-      <c r="T34" s="159"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="65"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="165"/>
+      <c r="R34" s="165"/>
+      <c r="S34" s="165"/>
+      <c r="T34" s="165"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="64"/>
     </row>
     <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
@@ -5149,24 +5162,24 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="157"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="159"/>
-      <c r="R35" s="159"/>
-      <c r="S35" s="159"/>
-      <c r="T35" s="159"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="65"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="165"/>
+      <c r="R35" s="165"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="64"/>
     </row>
     <row r="36" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
@@ -5174,24 +5187,24 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="159"/>
-      <c r="R36" s="159"/>
-      <c r="S36" s="159"/>
-      <c r="T36" s="159"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="65"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="165"/>
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="64"/>
     </row>
     <row r="37" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
@@ -5199,24 +5212,24 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="159"/>
-      <c r="R37" s="159"/>
-      <c r="S37" s="159"/>
-      <c r="T37" s="159"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="65"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="64"/>
     </row>
     <row r="38" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
@@ -5224,24 +5237,24 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="159"/>
-      <c r="S38" s="159"/>
-      <c r="T38" s="159"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="65"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="165"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="165"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="64"/>
     </row>
     <row r="39" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
@@ -5249,24 +5262,24 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="159"/>
-      <c r="S39" s="159"/>
-      <c r="T39" s="159"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="65"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
+      <c r="T39" s="165"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="64"/>
     </row>
     <row r="40" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -5274,24 +5287,24 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="165"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="167"/>
-      <c r="R40" s="167"/>
-      <c r="S40" s="167"/>
-      <c r="T40" s="167"/>
-      <c r="U40" s="60"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="66"/>
     </row>
     <row r="41" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
@@ -5299,26 +5312,26 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="237" t="s">
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="237"/>
-      <c r="O41" s="237"/>
-      <c r="P41" s="237"/>
-      <c r="Q41" s="237"/>
-      <c r="R41" s="237"/>
-      <c r="S41" s="237"/>
-      <c r="T41" s="237"/>
-      <c r="U41" s="237"/>
-      <c r="V41" s="237"/>
-      <c r="W41" s="237"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="246"/>
+      <c r="P41" s="246"/>
+      <c r="Q41" s="246"/>
+      <c r="R41" s="246"/>
+      <c r="S41" s="246"/>
+      <c r="T41" s="246"/>
+      <c r="U41" s="246"/>
+      <c r="V41" s="246"/>
+      <c r="W41" s="246"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5326,24 +5339,24 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="238"/>
-      <c r="N42" s="238"/>
-      <c r="O42" s="238"/>
-      <c r="P42" s="238"/>
-      <c r="Q42" s="238"/>
-      <c r="R42" s="238"/>
-      <c r="S42" s="238"/>
-      <c r="T42" s="238"/>
-      <c r="U42" s="238"/>
-      <c r="V42" s="238"/>
-      <c r="W42" s="238"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="247"/>
+      <c r="N42" s="247"/>
+      <c r="O42" s="247"/>
+      <c r="P42" s="247"/>
+      <c r="Q42" s="247"/>
+      <c r="R42" s="247"/>
+      <c r="S42" s="247"/>
+      <c r="T42" s="247"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="247"/>
+      <c r="W42" s="247"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5351,26 +5364,26 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="243" t="s">
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="244"/>
-      <c r="O43" s="244"/>
-      <c r="P43" s="244"/>
-      <c r="Q43" s="244"/>
-      <c r="R43" s="244"/>
-      <c r="S43" s="244"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="244"/>
-      <c r="V43" s="284"/>
-      <c r="W43" s="285"/>
+      <c r="N43" s="253"/>
+      <c r="O43" s="253"/>
+      <c r="P43" s="253"/>
+      <c r="Q43" s="253"/>
+      <c r="R43" s="253"/>
+      <c r="S43" s="253"/>
+      <c r="T43" s="253"/>
+      <c r="U43" s="253"/>
+      <c r="V43" s="293"/>
+      <c r="W43" s="294"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
@@ -5378,26 +5391,26 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="292" t="s">
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="293"/>
-      <c r="O44" s="293"/>
-      <c r="P44" s="293"/>
-      <c r="Q44" s="293"/>
-      <c r="R44" s="293"/>
-      <c r="S44" s="293"/>
-      <c r="T44" s="293"/>
-      <c r="U44" s="293"/>
-      <c r="V44" s="286"/>
-      <c r="W44" s="287"/>
+      <c r="N44" s="302"/>
+      <c r="O44" s="302"/>
+      <c r="P44" s="302"/>
+      <c r="Q44" s="302"/>
+      <c r="R44" s="302"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="295"/>
+      <c r="W44" s="296"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -5405,26 +5418,26 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="229" t="s">
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="230"/>
-      <c r="O45" s="230"/>
-      <c r="P45" s="230"/>
-      <c r="Q45" s="230"/>
-      <c r="R45" s="230"/>
-      <c r="S45" s="230"/>
-      <c r="T45" s="230"/>
-      <c r="U45" s="230"/>
-      <c r="V45" s="180"/>
-      <c r="W45" s="181"/>
+      <c r="N45" s="239"/>
+      <c r="O45" s="239"/>
+      <c r="P45" s="239"/>
+      <c r="Q45" s="239"/>
+      <c r="R45" s="239"/>
+      <c r="S45" s="239"/>
+      <c r="T45" s="239"/>
+      <c r="U45" s="239"/>
+      <c r="V45" s="189"/>
+      <c r="W45" s="190"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
@@ -5432,26 +5445,26 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="197" t="s">
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="197"/>
-      <c r="O46" s="197"/>
-      <c r="P46" s="197"/>
-      <c r="Q46" s="197"/>
-      <c r="R46" s="197"/>
-      <c r="S46" s="197"/>
-      <c r="T46" s="197"/>
-      <c r="U46" s="197"/>
-      <c r="V46" s="197"/>
-      <c r="W46" s="197"/>
+      <c r="N46" s="206"/>
+      <c r="O46" s="206"/>
+      <c r="P46" s="206"/>
+      <c r="Q46" s="206"/>
+      <c r="R46" s="206"/>
+      <c r="S46" s="206"/>
+      <c r="T46" s="206"/>
+      <c r="U46" s="206"/>
+      <c r="V46" s="206"/>
+      <c r="W46" s="206"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5459,24 +5472,24 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="198"/>
-      <c r="N47" s="198"/>
-      <c r="O47" s="198"/>
-      <c r="P47" s="198"/>
-      <c r="Q47" s="198"/>
-      <c r="R47" s="198"/>
-      <c r="S47" s="198"/>
-      <c r="T47" s="198"/>
-      <c r="U47" s="198"/>
-      <c r="V47" s="198"/>
-      <c r="W47" s="198"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="207"/>
+      <c r="N47" s="207"/>
+      <c r="O47" s="207"/>
+      <c r="P47" s="207"/>
+      <c r="Q47" s="207"/>
+      <c r="R47" s="207"/>
+      <c r="S47" s="207"/>
+      <c r="T47" s="207"/>
+      <c r="U47" s="207"/>
+      <c r="V47" s="207"/>
+      <c r="W47" s="207"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5484,26 +5497,26 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="290" t="s">
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="291"/>
-      <c r="O48" s="291"/>
-      <c r="P48" s="291"/>
-      <c r="Q48" s="291"/>
-      <c r="R48" s="208"/>
-      <c r="S48" s="208"/>
-      <c r="T48" s="236"/>
-      <c r="U48" s="236"/>
-      <c r="V48" s="282"/>
-      <c r="W48" s="283"/>
+      <c r="N48" s="300"/>
+      <c r="O48" s="300"/>
+      <c r="P48" s="300"/>
+      <c r="Q48" s="300"/>
+      <c r="R48" s="217"/>
+      <c r="S48" s="217"/>
+      <c r="T48" s="245"/>
+      <c r="U48" s="245"/>
+      <c r="V48" s="291"/>
+      <c r="W48" s="292"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5511,26 +5524,26 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
       <c r="K49" s="26"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="210" t="s">
+      <c r="L49" s="85"/>
+      <c r="M49" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="211"/>
-      <c r="O49" s="211"/>
-      <c r="P49" s="211"/>
-      <c r="Q49" s="211"/>
-      <c r="R49" s="209"/>
-      <c r="S49" s="209"/>
-      <c r="T49" s="199"/>
-      <c r="U49" s="199"/>
-      <c r="V49" s="288"/>
-      <c r="W49" s="289"/>
+      <c r="N49" s="220"/>
+      <c r="O49" s="220"/>
+      <c r="P49" s="220"/>
+      <c r="Q49" s="220"/>
+      <c r="R49" s="218"/>
+      <c r="S49" s="218"/>
+      <c r="T49" s="208"/>
+      <c r="U49" s="208"/>
+      <c r="V49" s="297"/>
+      <c r="W49" s="298"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -5538,26 +5551,26 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
       <c r="K50" s="26"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="210" t="s">
+      <c r="L50" s="85"/>
+      <c r="M50" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="211"/>
-      <c r="O50" s="211"/>
-      <c r="P50" s="211"/>
-      <c r="Q50" s="211"/>
-      <c r="R50" s="231"/>
-      <c r="S50" s="231"/>
-      <c r="T50" s="312"/>
-      <c r="U50" s="312"/>
-      <c r="V50" s="184"/>
-      <c r="W50" s="185"/>
+      <c r="N50" s="220"/>
+      <c r="O50" s="220"/>
+      <c r="P50" s="220"/>
+      <c r="Q50" s="220"/>
+      <c r="R50" s="240"/>
+      <c r="S50" s="240"/>
+      <c r="T50" s="321"/>
+      <c r="U50" s="321"/>
+      <c r="V50" s="193"/>
+      <c r="W50" s="194"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5565,26 +5578,26 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="86"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="85"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="210" t="s">
+      <c r="M51" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="211"/>
-      <c r="O51" s="211"/>
-      <c r="P51" s="211"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="203"/>
-      <c r="S51" s="203"/>
-      <c r="T51" s="193"/>
-      <c r="U51" s="193"/>
-      <c r="V51" s="184"/>
-      <c r="W51" s="185"/>
+      <c r="N51" s="220"/>
+      <c r="O51" s="220"/>
+      <c r="P51" s="220"/>
+      <c r="Q51" s="220"/>
+      <c r="R51" s="212"/>
+      <c r="S51" s="212"/>
+      <c r="T51" s="202"/>
+      <c r="U51" s="202"/>
+      <c r="V51" s="193"/>
+      <c r="W51" s="194"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5592,28 +5605,28 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="182" t="s">
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="183"/>
-      <c r="O52" s="183"/>
-      <c r="P52" s="183"/>
-      <c r="Q52" s="183"/>
-      <c r="R52" s="196"/>
-      <c r="S52" s="196"/>
-      <c r="T52" s="195" t="s">
+      <c r="N52" s="192"/>
+      <c r="O52" s="192"/>
+      <c r="P52" s="192"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="205"/>
+      <c r="S52" s="205"/>
+      <c r="T52" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="195"/>
-      <c r="V52" s="186"/>
-      <c r="W52" s="187"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="195"/>
+      <c r="W52" s="196"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -5621,25 +5634,25 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="182" t="s">
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="183"/>
-      <c r="O53" s="183"/>
-      <c r="P53" s="183"/>
-      <c r="Q53" s="183"/>
-      <c r="R53" s="212"/>
-      <c r="S53" s="212"/>
-      <c r="T53" s="200"/>
-      <c r="U53" s="200"/>
-      <c r="V53" s="188"/>
-      <c r="W53" s="189"/>
+      <c r="N53" s="192"/>
+      <c r="O53" s="192"/>
+      <c r="P53" s="192"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="221"/>
+      <c r="S53" s="221"/>
+      <c r="T53" s="209"/>
+      <c r="U53" s="209"/>
+      <c r="V53" s="197"/>
+      <c r="W53" s="198"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -5647,28 +5660,28 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="210" t="s">
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="211"/>
-      <c r="O54" s="211"/>
-      <c r="P54" s="211"/>
-      <c r="Q54" s="211"/>
-      <c r="R54" s="179"/>
-      <c r="S54" s="179"/>
-      <c r="T54" s="193" t="s">
+      <c r="N54" s="220"/>
+      <c r="O54" s="220"/>
+      <c r="P54" s="220"/>
+      <c r="Q54" s="220"/>
+      <c r="R54" s="188"/>
+      <c r="S54" s="188"/>
+      <c r="T54" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="193"/>
-      <c r="V54" s="201"/>
-      <c r="W54" s="202"/>
+      <c r="U54" s="202"/>
+      <c r="V54" s="210"/>
+      <c r="W54" s="211"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -5676,28 +5689,28 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="210" t="s">
+      <c r="L55" s="105"/>
+      <c r="M55" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="211"/>
-      <c r="O55" s="211"/>
-      <c r="P55" s="211"/>
-      <c r="Q55" s="211"/>
-      <c r="R55" s="219"/>
-      <c r="S55" s="219"/>
-      <c r="T55" s="193" t="s">
+      <c r="N55" s="220"/>
+      <c r="O55" s="220"/>
+      <c r="P55" s="220"/>
+      <c r="Q55" s="220"/>
+      <c r="R55" s="228"/>
+      <c r="S55" s="228"/>
+      <c r="T55" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="193"/>
-      <c r="V55" s="213"/>
-      <c r="W55" s="214"/>
+      <c r="U55" s="202"/>
+      <c r="V55" s="222"/>
+      <c r="W55" s="223"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5705,26 +5718,26 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="182" t="s">
+      <c r="F56" s="67"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="183"/>
-      <c r="O56" s="183"/>
-      <c r="P56" s="183"/>
-      <c r="Q56" s="183"/>
-      <c r="R56" s="192"/>
-      <c r="S56" s="192"/>
-      <c r="T56" s="194"/>
-      <c r="U56" s="194"/>
-      <c r="V56" s="194"/>
-      <c r="W56" s="216"/>
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="201"/>
+      <c r="S56" s="201"/>
+      <c r="T56" s="203"/>
+      <c r="U56" s="203"/>
+      <c r="V56" s="203"/>
+      <c r="W56" s="225"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5732,26 +5745,26 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="109"/>
-      <c r="M57" s="182" t="s">
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="183"/>
-      <c r="O57" s="183"/>
-      <c r="P57" s="183"/>
-      <c r="Q57" s="183"/>
-      <c r="R57" s="192"/>
-      <c r="S57" s="192"/>
-      <c r="T57" s="194"/>
-      <c r="U57" s="194"/>
-      <c r="V57" s="194"/>
-      <c r="W57" s="216"/>
+      <c r="N57" s="192"/>
+      <c r="O57" s="192"/>
+      <c r="P57" s="192"/>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="201"/>
+      <c r="S57" s="201"/>
+      <c r="T57" s="203"/>
+      <c r="U57" s="203"/>
+      <c r="V57" s="203"/>
+      <c r="W57" s="225"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5759,28 +5772,28 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="182" t="s">
+      <c r="F58" s="67"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="183"/>
-      <c r="O58" s="183"/>
-      <c r="P58" s="183"/>
-      <c r="Q58" s="183"/>
-      <c r="R58" s="222"/>
-      <c r="S58" s="222"/>
-      <c r="T58" s="192" t="s">
+      <c r="N58" s="192"/>
+      <c r="O58" s="192"/>
+      <c r="P58" s="192"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="231"/>
+      <c r="S58" s="231"/>
+      <c r="T58" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="192"/>
-      <c r="V58" s="217"/>
-      <c r="W58" s="218"/>
+      <c r="U58" s="201"/>
+      <c r="V58" s="226"/>
+      <c r="W58" s="227"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5788,26 +5801,26 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="210" t="s">
+      <c r="F59" s="67"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="110"/>
+      <c r="L59" s="110"/>
+      <c r="M59" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="211"/>
-      <c r="O59" s="211"/>
-      <c r="P59" s="211"/>
-      <c r="Q59" s="211"/>
-      <c r="R59" s="204"/>
-      <c r="S59" s="204"/>
-      <c r="T59" s="192"/>
-      <c r="U59" s="192"/>
-      <c r="V59" s="206"/>
-      <c r="W59" s="207"/>
+      <c r="N59" s="220"/>
+      <c r="O59" s="220"/>
+      <c r="P59" s="220"/>
+      <c r="Q59" s="220"/>
+      <c r="R59" s="213"/>
+      <c r="S59" s="213"/>
+      <c r="T59" s="201"/>
+      <c r="U59" s="201"/>
+      <c r="V59" s="215"/>
+      <c r="W59" s="216"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5815,26 +5828,26 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="111"/>
-      <c r="K60" s="111"/>
-      <c r="L60" s="111"/>
-      <c r="M60" s="210" t="s">
+      <c r="F60" s="67"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+      <c r="L60" s="110"/>
+      <c r="M60" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="211"/>
-      <c r="O60" s="211"/>
-      <c r="P60" s="211"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="204"/>
-      <c r="S60" s="204"/>
-      <c r="T60" s="192"/>
-      <c r="U60" s="192"/>
-      <c r="V60" s="206"/>
-      <c r="W60" s="207"/>
+      <c r="N60" s="220"/>
+      <c r="O60" s="220"/>
+      <c r="P60" s="220"/>
+      <c r="Q60" s="220"/>
+      <c r="R60" s="213"/>
+      <c r="S60" s="213"/>
+      <c r="T60" s="201"/>
+      <c r="U60" s="201"/>
+      <c r="V60" s="215"/>
+      <c r="W60" s="216"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5842,28 +5855,28 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="215" t="s">
+      <c r="F61" s="67"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="215"/>
-      <c r="K61" s="215"/>
-      <c r="L61" s="215"/>
-      <c r="M61" s="210" t="s">
+      <c r="J61" s="224"/>
+      <c r="K61" s="224"/>
+      <c r="L61" s="224"/>
+      <c r="M61" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="211"/>
-      <c r="O61" s="211"/>
-      <c r="P61" s="211"/>
-      <c r="Q61" s="211"/>
-      <c r="R61" s="205"/>
-      <c r="S61" s="205"/>
-      <c r="T61" s="223"/>
-      <c r="U61" s="223"/>
-      <c r="V61" s="220"/>
-      <c r="W61" s="221"/>
+      <c r="N61" s="220"/>
+      <c r="O61" s="220"/>
+      <c r="P61" s="220"/>
+      <c r="Q61" s="220"/>
+      <c r="R61" s="214"/>
+      <c r="S61" s="214"/>
+      <c r="T61" s="232"/>
+      <c r="U61" s="232"/>
+      <c r="V61" s="229"/>
+      <c r="W61" s="230"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5871,26 +5884,26 @@
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="156"/>
-      <c r="M62" s="225" t="s">
+      <c r="F62" s="69"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="162"/>
+      <c r="M62" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="226"/>
-      <c r="O62" s="226"/>
-      <c r="P62" s="226"/>
-      <c r="Q62" s="226"/>
-      <c r="R62" s="227"/>
-      <c r="S62" s="227"/>
-      <c r="T62" s="224"/>
-      <c r="U62" s="224"/>
-      <c r="V62" s="190"/>
-      <c r="W62" s="191"/>
+      <c r="N62" s="235"/>
+      <c r="O62" s="235"/>
+      <c r="P62" s="235"/>
+      <c r="Q62" s="235"/>
+      <c r="R62" s="236"/>
+      <c r="S62" s="236"/>
+      <c r="T62" s="233"/>
+      <c r="U62" s="233"/>
+      <c r="V62" s="199"/>
+      <c r="W62" s="200"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5902,151 +5915,151 @@
       <c r="H63" s="9"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="M63" s="57" t="s">
+      <c r="M63" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="N63" s="58"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
       <c r="V63" s="20"/>
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="143" t="s">
+      <c r="L64" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="144"/>
-      <c r="N64" s="144"/>
-      <c r="O64" s="144"/>
-      <c r="P64" s="144"/>
-      <c r="Q64" s="144"/>
-      <c r="R64" s="144"/>
-      <c r="S64" s="144"/>
-      <c r="T64" s="144"/>
-      <c r="U64" s="144"/>
-      <c r="V64" s="144"/>
-      <c r="W64" s="153"/>
+      <c r="M64" s="150"/>
+      <c r="N64" s="150"/>
+      <c r="O64" s="150"/>
+      <c r="P64" s="150"/>
+      <c r="Q64" s="150"/>
+      <c r="R64" s="150"/>
+      <c r="S64" s="150"/>
+      <c r="T64" s="150"/>
+      <c r="U64" s="150"/>
+      <c r="V64" s="150"/>
+      <c r="W64" s="159"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="149" t="s">
+      <c r="L65" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="147" t="s">
+      <c r="M65" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="147" t="s">
+      <c r="N65" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="147" t="s">
+      <c r="O65" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="147" t="s">
+      <c r="P65" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="147"/>
-      <c r="S65" s="147"/>
-      <c r="T65" s="147" t="s">
+      <c r="Q65" s="153"/>
+      <c r="R65" s="153"/>
+      <c r="S65" s="153"/>
+      <c r="T65" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="147"/>
-      <c r="V65" s="147" t="s">
+      <c r="U65" s="153"/>
+      <c r="V65" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="160"/>
+      <c r="W65" s="166"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="149"/>
-      <c r="M66" s="147"/>
-      <c r="N66" s="147"/>
-      <c r="O66" s="147"/>
-      <c r="P66" s="148" t="s">
+      <c r="L66" s="155"/>
+      <c r="M66" s="153"/>
+      <c r="N66" s="153"/>
+      <c r="O66" s="153"/>
+      <c r="P66" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="148"/>
-      <c r="R66" s="147" t="s">
+      <c r="Q66" s="154"/>
+      <c r="R66" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="147"/>
-      <c r="T66" s="147" t="s">
+      <c r="S66" s="153"/>
+      <c r="T66" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="147"/>
-      <c r="V66" s="147" t="s">
+      <c r="U66" s="153"/>
+      <c r="V66" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="160"/>
+      <c r="W66" s="166"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="154"/>
-      <c r="Q67" s="154"/>
-      <c r="R67" s="154"/>
-      <c r="S67" s="154"/>
-      <c r="T67" s="154"/>
-      <c r="U67" s="154"/>
-      <c r="V67" s="154"/>
-      <c r="W67" s="177"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="60"/>
+      <c r="P67" s="160"/>
+      <c r="Q67" s="160"/>
+      <c r="R67" s="160"/>
+      <c r="S67" s="160"/>
+      <c r="T67" s="160"/>
+      <c r="U67" s="160"/>
+      <c r="V67" s="160"/>
+      <c r="W67" s="186"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="178"/>
-      <c r="O68" s="178"/>
-      <c r="P68" s="178"/>
-      <c r="Q68" s="178"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="187"/>
+      <c r="O68" s="187"/>
+      <c r="P68" s="187"/>
+      <c r="Q68" s="187"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="54"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="143" t="s">
+      <c r="L69" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="144"/>
-      <c r="N69" s="144" t="s">
+      <c r="M69" s="150"/>
+      <c r="N69" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="144"/>
-      <c r="P69" s="144" t="s">
+      <c r="O69" s="150"/>
+      <c r="P69" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="153"/>
-      <c r="R69" s="150"/>
-      <c r="S69" s="150"/>
-      <c r="T69" s="55"/>
-      <c r="U69" s="55"/>
-      <c r="V69" s="55"/>
-      <c r="W69" s="55"/>
+      <c r="Q69" s="159"/>
+      <c r="R69" s="156"/>
+      <c r="S69" s="156"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="145"/>
-      <c r="M70" s="146"/>
-      <c r="N70" s="146"/>
-      <c r="O70" s="146"/>
-      <c r="P70" s="146"/>
-      <c r="Q70" s="151"/>
-      <c r="R70" s="152"/>
-      <c r="S70" s="152"/>
-      <c r="T70" s="55"/>
-      <c r="U70" s="55"/>
-      <c r="V70" s="55"/>
-      <c r="W70" s="55"/>
+      <c r="L70" s="151"/>
+      <c r="M70" s="152"/>
+      <c r="N70" s="152"/>
+      <c r="O70" s="152"/>
+      <c r="P70" s="152"/>
+      <c r="Q70" s="157"/>
+      <c r="R70" s="158"/>
+      <c r="S70" s="158"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
@@ -6058,7 +6071,7 @@
     <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="210">
+  <mergeCells count="211">
     <mergeCell ref="Q14:Q17"/>
     <mergeCell ref="R14:R17"/>
     <mergeCell ref="S14:S17"/>
@@ -6068,6 +6081,7 @@
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="T50:U50"/>
+    <mergeCell ref="S19:T19"/>
     <mergeCell ref="V50:W50"/>
     <mergeCell ref="V48:W48"/>
     <mergeCell ref="M23:W24"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\Create_work_krs\property_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Create_work_krs\property_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2419,7 +2419,7 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2592,13 +2592,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="34" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,40 +2815,268 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2863,22 +3085,226 @@
     <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2896,455 +3322,32 @@
     <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="34" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4217,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:O19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="R57" activeCellId="2" sqref="R56:S56 T56:U56 R57:S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4264,10 +4267,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4298,28 +4301,28 @@
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="191"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4336,19 +4339,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="262" t="s">
+      <c r="M4" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="262"/>
-      <c r="T4" s="262"/>
-      <c r="U4" s="262"/>
-      <c r="V4" s="262"/>
-      <c r="W4" s="262"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
     </row>
     <row r="5" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4363,163 +4366,163 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="263"/>
-      <c r="S5" s="263"/>
-      <c r="T5" s="263"/>
-      <c r="U5" s="263"/>
-      <c r="V5" s="263"/>
-      <c r="W5" s="263"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
     </row>
     <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="268" t="s">
+      <c r="D6" s="224"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="270"/>
-      <c r="S6" s="270"/>
-      <c r="T6" s="270"/>
-      <c r="U6" s="270"/>
-      <c r="V6" s="270"/>
-      <c r="W6" s="271"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="205"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="288"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="191" t="s">
+      <c r="D7" s="226"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="265"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="198"/>
+      <c r="R7" s="198"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="199"/>
     </row>
     <row r="8" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="287"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="272" t="s">
+      <c r="D8" s="226"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="266"/>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="266"/>
-      <c r="S8" s="266"/>
-      <c r="T8" s="266"/>
-      <c r="U8" s="266"/>
-      <c r="V8" s="266"/>
-      <c r="W8" s="267"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="201"/>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="278" t="s">
+      <c r="D9" s="226"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="279"/>
+      <c r="N9" s="215"/>
       <c r="O9" s="45"/>
-      <c r="P9" s="276" t="s">
+      <c r="P9" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="276" t="s">
+      <c r="Q9" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="276" t="s">
+      <c r="R9" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="274" t="s">
+      <c r="S9" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="274"/>
-      <c r="U9" s="276" t="s">
+      <c r="T9" s="210"/>
+      <c r="U9" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="276" t="s">
+      <c r="V9" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="280"/>
+      <c r="W9" s="216"/>
     </row>
     <row r="10" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="281" t="s">
+      <c r="D10" s="226"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="282"/>
+      <c r="N10" s="218"/>
       <c r="O10" s="41"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="275"/>
-      <c r="T10" s="275"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="80" t="s">
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="213"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="213"/>
+      <c r="V10" s="78" t="s">
         <v>33</v>
       </c>
       <c r="W10" s="46" t="s">
@@ -4530,26 +4533,26 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="255" t="s">
+      <c r="D11" s="226"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="256"/>
-      <c r="O11" s="257"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="158"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
-      <c r="S11" s="137"/>
+      <c r="S11" s="135"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="38"/>
       <c r="W11" s="47"/>
     </row>
@@ -4557,26 +4560,26 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="255" t="s">
+      <c r="D12" s="228"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="256"/>
-      <c r="O12" s="257"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="158"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="137"/>
+      <c r="S12" s="135"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="81"/>
+      <c r="U12" s="79"/>
       <c r="V12" s="38"/>
       <c r="W12" s="47"/>
     </row>
@@ -4584,25 +4587,25 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="76"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="255" t="s">
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="256"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="82"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="80"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="137"/>
+      <c r="S13" s="135"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="38"/>
       <c r="W13" s="47"/>
     </row>
@@ -4611,122 +4614,122 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="3"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="181" t="s">
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="182"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="284"/>
-      <c r="Q14" s="303"/>
-      <c r="R14" s="303"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="309"/>
-      <c r="U14" s="283"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="177"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="222"/>
+      <c r="P14" s="223"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="219"/>
+      <c r="V14" s="298"/>
+      <c r="W14" s="301"/>
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="304"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="307"/>
-      <c r="T15" s="310"/>
-      <c r="U15" s="283"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="178"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="221"/>
+      <c r="O15" s="222"/>
+      <c r="P15" s="223"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="219"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="302"/>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="3"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="304"/>
-      <c r="R16" s="304"/>
-      <c r="S16" s="307"/>
-      <c r="T16" s="310"/>
-      <c r="U16" s="283"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="179"/>
-      <c r="X16" s="143"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="221"/>
+      <c r="O16" s="222"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="219"/>
+      <c r="V16" s="299"/>
+      <c r="W16" s="303"/>
+      <c r="X16" s="141"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="3"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="284"/>
-      <c r="Q17" s="305"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="311"/>
-      <c r="U17" s="283"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="180"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="220"/>
+      <c r="N17" s="221"/>
+      <c r="O17" s="222"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="219"/>
+      <c r="V17" s="300"/>
+      <c r="W17" s="304"/>
     </row>
     <row r="18" spans="1:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="258" t="s">
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="259"/>
-      <c r="O18" s="260"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="194"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="148"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="146"/>
       <c r="U18" s="50"/>
       <c r="V18" s="51"/>
       <c r="W18" s="52">
@@ -4739,26 +4742,26 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="3"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="315" t="s">
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="316"/>
-      <c r="O19" s="317"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="164"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="322"/>
-      <c r="T19" s="323"/>
+      <c r="S19" s="169"/>
+      <c r="T19" s="170"/>
       <c r="U19" s="44"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="84"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="82"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -4766,22 +4769,22 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="183"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="221"/>
+      <c r="O20" s="221"/>
+      <c r="P20" s="221"/>
+      <c r="Q20" s="222"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="146"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="144"/>
       <c r="V20" s="38"/>
       <c r="W20" s="47"/>
     </row>
@@ -4790,20 +4793,20 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="312"/>
-      <c r="N21" s="313"/>
-      <c r="O21" s="314"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="161"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="138"/>
+      <c r="S21" s="136"/>
       <c r="T21" s="37"/>
       <c r="U21" s="40"/>
       <c r="V21" s="39"/>
@@ -4815,26 +4818,26 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="318" t="s">
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="319"/>
-      <c r="O22" s="320"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="184"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="116"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="305"/>
+      <c r="T22" s="306"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="114"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
@@ -4842,26 +4845,26 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="246" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4869,26 +4872,26 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="125" t="s">
+      <c r="F24" s="65"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="125"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="246"/>
-      <c r="U24" s="246"/>
-      <c r="V24" s="246"/>
-      <c r="W24" s="246"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4896,34 +4899,34 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="248" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="243" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="249"/>
-      <c r="O25" s="244" t="s">
+      <c r="N25" s="244"/>
+      <c r="O25" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244" t="s">
+      <c r="P25" s="239"/>
+      <c r="Q25" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="244"/>
-      <c r="U25" s="244" t="s">
+      <c r="R25" s="239"/>
+      <c r="S25" s="239"/>
+      <c r="T25" s="239"/>
+      <c r="U25" s="239" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="167" t="s">
+      <c r="V25" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="169" t="s">
+      <c r="W25" s="311" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4933,28 +4936,28 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="250"/>
-      <c r="N26" s="251"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="241" t="s">
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="245"/>
+      <c r="N26" s="246"/>
+      <c r="O26" s="240"/>
+      <c r="P26" s="240"/>
+      <c r="Q26" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="241"/>
-      <c r="S26" s="241" t="s">
+      <c r="R26" s="234"/>
+      <c r="S26" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="241"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="170"/>
+      <c r="T26" s="234"/>
+      <c r="U26" s="240"/>
+      <c r="V26" s="240"/>
+      <c r="W26" s="312"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -4962,24 +4965,24 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="176"/>
+      <c r="O27" s="176"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
       <c r="U27" s="58"/>
       <c r="V27" s="63"/>
-      <c r="W27" s="64"/>
+      <c r="W27" s="323"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
@@ -4987,24 +4990,24 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
       <c r="U28" s="58"/>
       <c r="V28" s="63"/>
-      <c r="W28" s="64"/>
+      <c r="W28" s="323"/>
     </row>
     <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
@@ -5012,24 +5015,24 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="3"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="237"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
       <c r="U29" s="58"/>
       <c r="V29" s="63"/>
-      <c r="W29" s="64"/>
+      <c r="W29" s="323"/>
     </row>
     <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
@@ -5037,24 +5040,24 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
+      <c r="J30" s="235"/>
+      <c r="K30" s="235"/>
+      <c r="L30" s="236"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
       <c r="U30" s="58"/>
       <c r="V30" s="63"/>
-      <c r="W30" s="64"/>
+      <c r="W30" s="323"/>
     </row>
     <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
@@ -5062,24 +5065,24 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="235"/>
+      <c r="L31" s="236"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
       <c r="U31" s="58"/>
       <c r="V31" s="63"/>
-      <c r="W31" s="64"/>
+      <c r="W31" s="323"/>
     </row>
     <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
@@ -5087,24 +5090,24 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="164"/>
-      <c r="O32" s="164"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="236"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="176"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
       <c r="U32" s="58"/>
       <c r="V32" s="63"/>
-      <c r="W32" s="64"/>
+      <c r="W32" s="323"/>
     </row>
     <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
@@ -5112,24 +5115,24 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="236"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="176"/>
+      <c r="P33" s="176"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
       <c r="U33" s="58"/>
       <c r="V33" s="63"/>
-      <c r="W33" s="64"/>
+      <c r="W33" s="323"/>
     </row>
     <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
@@ -5137,24 +5140,24 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="165"/>
-      <c r="S34" s="165"/>
-      <c r="T34" s="165"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="236"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="176"/>
+      <c r="O34" s="176"/>
+      <c r="P34" s="176"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
       <c r="U34" s="58"/>
       <c r="V34" s="63"/>
-      <c r="W34" s="64"/>
+      <c r="W34" s="323"/>
     </row>
     <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
@@ -5162,24 +5165,24 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="165"/>
-      <c r="R35" s="165"/>
-      <c r="S35" s="165"/>
-      <c r="T35" s="165"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="235"/>
+      <c r="L35" s="236"/>
+      <c r="M35" s="178"/>
+      <c r="N35" s="176"/>
+      <c r="O35" s="176"/>
+      <c r="P35" s="176"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
       <c r="U35" s="58"/>
       <c r="V35" s="63"/>
-      <c r="W35" s="64"/>
+      <c r="W35" s="323"/>
     </row>
     <row r="36" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
@@ -5187,24 +5190,24 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="163"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="165"/>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="165"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="235"/>
+      <c r="L36" s="236"/>
+      <c r="M36" s="178"/>
+      <c r="N36" s="176"/>
+      <c r="O36" s="176"/>
+      <c r="P36" s="176"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
       <c r="U36" s="58"/>
       <c r="V36" s="63"/>
-      <c r="W36" s="64"/>
+      <c r="W36" s="323"/>
     </row>
     <row r="37" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
@@ -5212,24 +5215,24 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="165"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="235"/>
+      <c r="L37" s="236"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
       <c r="U37" s="58"/>
       <c r="V37" s="63"/>
-      <c r="W37" s="64"/>
+      <c r="W37" s="323"/>
     </row>
     <row r="38" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
@@ -5237,24 +5240,24 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="165"/>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
-      <c r="T38" s="165"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="236"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="176"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
       <c r="U38" s="58"/>
       <c r="V38" s="63"/>
-      <c r="W38" s="64"/>
+      <c r="W38" s="323"/>
     </row>
     <row r="39" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
@@ -5262,24 +5265,24 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="165"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="235"/>
+      <c r="L39" s="236"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="176"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="177"/>
+      <c r="T39" s="177"/>
       <c r="U39" s="58"/>
       <c r="V39" s="63"/>
-      <c r="W39" s="64"/>
+      <c r="W39" s="323"/>
     </row>
     <row r="40" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -5287,24 +5290,24 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="235"/>
+      <c r="L40" s="236"/>
+      <c r="M40" s="313"/>
+      <c r="N40" s="314"/>
+      <c r="O40" s="314"/>
+      <c r="P40" s="314"/>
+      <c r="Q40" s="315"/>
+      <c r="R40" s="315"/>
+      <c r="S40" s="315"/>
+      <c r="T40" s="315"/>
       <c r="U40" s="59"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="66"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="324"/>
     </row>
     <row r="41" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
@@ -5312,26 +5315,26 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="246" t="s">
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="246"/>
-      <c r="O41" s="246"/>
-      <c r="P41" s="246"/>
-      <c r="Q41" s="246"/>
-      <c r="R41" s="246"/>
-      <c r="S41" s="246"/>
-      <c r="T41" s="246"/>
-      <c r="U41" s="246"/>
-      <c r="V41" s="246"/>
-      <c r="W41" s="246"/>
+      <c r="N41" s="175"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
+      <c r="S41" s="175"/>
+      <c r="T41" s="175"/>
+      <c r="U41" s="175"/>
+      <c r="V41" s="175"/>
+      <c r="W41" s="175"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5339,24 +5342,24 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="247"/>
-      <c r="N42" s="247"/>
-      <c r="O42" s="247"/>
-      <c r="P42" s="247"/>
-      <c r="Q42" s="247"/>
-      <c r="R42" s="247"/>
-      <c r="S42" s="247"/>
-      <c r="T42" s="247"/>
-      <c r="U42" s="247"/>
-      <c r="V42" s="247"/>
-      <c r="W42" s="247"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="242"/>
+      <c r="N42" s="242"/>
+      <c r="O42" s="242"/>
+      <c r="P42" s="242"/>
+      <c r="Q42" s="242"/>
+      <c r="R42" s="242"/>
+      <c r="S42" s="242"/>
+      <c r="T42" s="242"/>
+      <c r="U42" s="242"/>
+      <c r="V42" s="242"/>
+      <c r="W42" s="242"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5364,26 +5367,26 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="252" t="s">
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="253"/>
-      <c r="O43" s="253"/>
-      <c r="P43" s="253"/>
-      <c r="Q43" s="253"/>
-      <c r="R43" s="253"/>
-      <c r="S43" s="253"/>
-      <c r="T43" s="253"/>
-      <c r="U43" s="253"/>
-      <c r="V43" s="293"/>
-      <c r="W43" s="294"/>
+      <c r="N43" s="248"/>
+      <c r="O43" s="248"/>
+      <c r="P43" s="248"/>
+      <c r="Q43" s="248"/>
+      <c r="R43" s="248"/>
+      <c r="S43" s="248"/>
+      <c r="T43" s="248"/>
+      <c r="U43" s="248"/>
+      <c r="V43" s="179"/>
+      <c r="W43" s="180"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
@@ -5391,26 +5394,26 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="301" t="s">
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="302"/>
-      <c r="O44" s="302"/>
-      <c r="P44" s="302"/>
-      <c r="Q44" s="302"/>
-      <c r="R44" s="302"/>
-      <c r="S44" s="302"/>
-      <c r="T44" s="302"/>
-      <c r="U44" s="302"/>
-      <c r="V44" s="295"/>
-      <c r="W44" s="296"/>
+      <c r="N44" s="190"/>
+      <c r="O44" s="190"/>
+      <c r="P44" s="190"/>
+      <c r="Q44" s="190"/>
+      <c r="R44" s="190"/>
+      <c r="S44" s="190"/>
+      <c r="T44" s="190"/>
+      <c r="U44" s="190"/>
+      <c r="V44" s="181"/>
+      <c r="W44" s="182"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -5418,26 +5421,26 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="238" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="239"/>
-      <c r="O45" s="239"/>
-      <c r="P45" s="239"/>
-      <c r="Q45" s="239"/>
-      <c r="R45" s="239"/>
-      <c r="S45" s="239"/>
-      <c r="T45" s="239"/>
-      <c r="U45" s="239"/>
-      <c r="V45" s="189"/>
-      <c r="W45" s="190"/>
+      <c r="N45" s="232"/>
+      <c r="O45" s="232"/>
+      <c r="P45" s="232"/>
+      <c r="Q45" s="232"/>
+      <c r="R45" s="232"/>
+      <c r="S45" s="232"/>
+      <c r="T45" s="232"/>
+      <c r="U45" s="232"/>
+      <c r="V45" s="291"/>
+      <c r="W45" s="292"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
@@ -5445,26 +5448,26 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="206" t="s">
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="206"/>
-      <c r="O46" s="206"/>
-      <c r="P46" s="206"/>
-      <c r="Q46" s="206"/>
-      <c r="R46" s="206"/>
-      <c r="S46" s="206"/>
-      <c r="T46" s="206"/>
-      <c r="U46" s="206"/>
-      <c r="V46" s="206"/>
-      <c r="W46" s="206"/>
+      <c r="N46" s="273"/>
+      <c r="O46" s="273"/>
+      <c r="P46" s="273"/>
+      <c r="Q46" s="273"/>
+      <c r="R46" s="273"/>
+      <c r="S46" s="273"/>
+      <c r="T46" s="273"/>
+      <c r="U46" s="273"/>
+      <c r="V46" s="273"/>
+      <c r="W46" s="273"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5472,24 +5475,24 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="207"/>
-      <c r="N47" s="207"/>
-      <c r="O47" s="207"/>
-      <c r="P47" s="207"/>
-      <c r="Q47" s="207"/>
-      <c r="R47" s="207"/>
-      <c r="S47" s="207"/>
-      <c r="T47" s="207"/>
-      <c r="U47" s="207"/>
-      <c r="V47" s="207"/>
-      <c r="W47" s="207"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="274"/>
+      <c r="N47" s="274"/>
+      <c r="O47" s="274"/>
+      <c r="P47" s="274"/>
+      <c r="Q47" s="274"/>
+      <c r="R47" s="274"/>
+      <c r="S47" s="274"/>
+      <c r="T47" s="274"/>
+      <c r="U47" s="274"/>
+      <c r="V47" s="274"/>
+      <c r="W47" s="274"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5497,26 +5500,26 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="299" t="s">
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="300"/>
-      <c r="O48" s="300"/>
-      <c r="P48" s="300"/>
-      <c r="Q48" s="300"/>
-      <c r="R48" s="217"/>
-      <c r="S48" s="217"/>
-      <c r="T48" s="245"/>
-      <c r="U48" s="245"/>
-      <c r="V48" s="291"/>
-      <c r="W48" s="292"/>
+      <c r="N48" s="186"/>
+      <c r="O48" s="186"/>
+      <c r="P48" s="186"/>
+      <c r="Q48" s="186"/>
+      <c r="R48" s="281"/>
+      <c r="S48" s="281"/>
+      <c r="T48" s="241"/>
+      <c r="U48" s="241"/>
+      <c r="V48" s="173"/>
+      <c r="W48" s="174"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5524,26 +5527,26 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
       <c r="K49" s="26"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="219" t="s">
+      <c r="L49" s="83"/>
+      <c r="M49" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="220"/>
-      <c r="O49" s="220"/>
-      <c r="P49" s="220"/>
-      <c r="Q49" s="220"/>
-      <c r="R49" s="218"/>
-      <c r="S49" s="218"/>
-      <c r="T49" s="208"/>
-      <c r="U49" s="208"/>
-      <c r="V49" s="297"/>
-      <c r="W49" s="298"/>
+      <c r="N49" s="188"/>
+      <c r="O49" s="188"/>
+      <c r="P49" s="188"/>
+      <c r="Q49" s="188"/>
+      <c r="R49" s="282"/>
+      <c r="S49" s="282"/>
+      <c r="T49" s="275"/>
+      <c r="U49" s="275"/>
+      <c r="V49" s="183"/>
+      <c r="W49" s="184"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -5551,26 +5554,26 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
       <c r="K50" s="26"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="219" t="s">
+      <c r="L50" s="83"/>
+      <c r="M50" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="220"/>
-      <c r="O50" s="220"/>
-      <c r="P50" s="220"/>
-      <c r="Q50" s="220"/>
-      <c r="R50" s="240"/>
-      <c r="S50" s="240"/>
-      <c r="T50" s="321"/>
-      <c r="U50" s="321"/>
-      <c r="V50" s="193"/>
-      <c r="W50" s="194"/>
+      <c r="N50" s="188"/>
+      <c r="O50" s="188"/>
+      <c r="P50" s="188"/>
+      <c r="Q50" s="188"/>
+      <c r="R50" s="233"/>
+      <c r="S50" s="233"/>
+      <c r="T50" s="168"/>
+      <c r="U50" s="168"/>
+      <c r="V50" s="171"/>
+      <c r="W50" s="172"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5578,26 +5581,26 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="85"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="83"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="219" t="s">
+      <c r="M51" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="220"/>
-      <c r="O51" s="220"/>
-      <c r="P51" s="220"/>
-      <c r="Q51" s="220"/>
-      <c r="R51" s="212"/>
-      <c r="S51" s="212"/>
-      <c r="T51" s="202"/>
-      <c r="U51" s="202"/>
-      <c r="V51" s="193"/>
-      <c r="W51" s="194"/>
+      <c r="N51" s="188"/>
+      <c r="O51" s="188"/>
+      <c r="P51" s="188"/>
+      <c r="Q51" s="188"/>
+      <c r="R51" s="279"/>
+      <c r="S51" s="279"/>
+      <c r="T51" s="269"/>
+      <c r="U51" s="269"/>
+      <c r="V51" s="171"/>
+      <c r="W51" s="172"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5605,28 +5608,28 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="191" t="s">
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="192"/>
-      <c r="O52" s="192"/>
-      <c r="P52" s="192"/>
-      <c r="Q52" s="192"/>
-      <c r="R52" s="205"/>
-      <c r="S52" s="205"/>
-      <c r="T52" s="204" t="s">
+      <c r="N52" s="207"/>
+      <c r="O52" s="207"/>
+      <c r="P52" s="207"/>
+      <c r="Q52" s="207"/>
+      <c r="R52" s="272"/>
+      <c r="S52" s="272"/>
+      <c r="T52" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="204"/>
-      <c r="V52" s="195"/>
-      <c r="W52" s="196"/>
+      <c r="U52" s="271"/>
+      <c r="V52" s="293"/>
+      <c r="W52" s="294"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -5634,25 +5637,25 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="191" t="s">
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="L53" s="101"/>
+      <c r="M53" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="192"/>
-      <c r="O53" s="192"/>
-      <c r="P53" s="192"/>
-      <c r="Q53" s="192"/>
-      <c r="R53" s="221"/>
-      <c r="S53" s="221"/>
-      <c r="T53" s="209"/>
-      <c r="U53" s="209"/>
-      <c r="V53" s="197"/>
-      <c r="W53" s="198"/>
+      <c r="N53" s="207"/>
+      <c r="O53" s="207"/>
+      <c r="P53" s="207"/>
+      <c r="Q53" s="207"/>
+      <c r="R53" s="283"/>
+      <c r="S53" s="283"/>
+      <c r="T53" s="276"/>
+      <c r="U53" s="276"/>
+      <c r="V53" s="295"/>
+      <c r="W53" s="296"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -5660,28 +5663,28 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="219" t="s">
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="220"/>
-      <c r="O54" s="220"/>
-      <c r="P54" s="220"/>
-      <c r="Q54" s="220"/>
-      <c r="R54" s="188"/>
-      <c r="S54" s="188"/>
-      <c r="T54" s="202" t="s">
+      <c r="N54" s="188"/>
+      <c r="O54" s="188"/>
+      <c r="P54" s="188"/>
+      <c r="Q54" s="188"/>
+      <c r="R54" s="290"/>
+      <c r="S54" s="290"/>
+      <c r="T54" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="202"/>
-      <c r="V54" s="210"/>
-      <c r="W54" s="211"/>
+      <c r="U54" s="269"/>
+      <c r="V54" s="277"/>
+      <c r="W54" s="278"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -5689,28 +5692,28 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="219" t="s">
+      <c r="L55" s="103"/>
+      <c r="M55" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="220"/>
-      <c r="O55" s="220"/>
-      <c r="P55" s="220"/>
-      <c r="Q55" s="220"/>
-      <c r="R55" s="228"/>
-      <c r="S55" s="228"/>
-      <c r="T55" s="202" t="s">
+      <c r="N55" s="188"/>
+      <c r="O55" s="188"/>
+      <c r="P55" s="188"/>
+      <c r="Q55" s="188"/>
+      <c r="R55" s="254"/>
+      <c r="S55" s="254"/>
+      <c r="T55" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="202"/>
-      <c r="V55" s="222"/>
-      <c r="W55" s="223"/>
+      <c r="U55" s="269"/>
+      <c r="V55" s="284"/>
+      <c r="W55" s="285"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5718,26 +5721,26 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="107"/>
-      <c r="M56" s="191" t="s">
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="201"/>
-      <c r="S56" s="201"/>
-      <c r="T56" s="203"/>
-      <c r="U56" s="203"/>
-      <c r="V56" s="203"/>
-      <c r="W56" s="225"/>
+      <c r="N56" s="207"/>
+      <c r="O56" s="207"/>
+      <c r="P56" s="207"/>
+      <c r="Q56" s="207"/>
+      <c r="R56" s="258"/>
+      <c r="S56" s="258"/>
+      <c r="T56" s="250"/>
+      <c r="U56" s="250"/>
+      <c r="V56" s="250"/>
+      <c r="W56" s="251"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5745,26 +5748,26 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="191" t="s">
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="192"/>
-      <c r="O57" s="192"/>
-      <c r="P57" s="192"/>
-      <c r="Q57" s="192"/>
-      <c r="R57" s="201"/>
-      <c r="S57" s="201"/>
-      <c r="T57" s="203"/>
-      <c r="U57" s="203"/>
-      <c r="V57" s="203"/>
-      <c r="W57" s="225"/>
+      <c r="N57" s="207"/>
+      <c r="O57" s="207"/>
+      <c r="P57" s="207"/>
+      <c r="Q57" s="207"/>
+      <c r="R57" s="258"/>
+      <c r="S57" s="258"/>
+      <c r="T57" s="270"/>
+      <c r="U57" s="270"/>
+      <c r="V57" s="250"/>
+      <c r="W57" s="251"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5772,28 +5775,28 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="191" t="s">
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="192"/>
-      <c r="O58" s="192"/>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="192"/>
-      <c r="R58" s="231"/>
-      <c r="S58" s="231"/>
-      <c r="T58" s="201" t="s">
+      <c r="N58" s="207"/>
+      <c r="O58" s="207"/>
+      <c r="P58" s="207"/>
+      <c r="Q58" s="207"/>
+      <c r="R58" s="257"/>
+      <c r="S58" s="257"/>
+      <c r="T58" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="201"/>
-      <c r="V58" s="226"/>
-      <c r="W58" s="227"/>
+      <c r="U58" s="258"/>
+      <c r="V58" s="252"/>
+      <c r="W58" s="253"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5801,26 +5804,26 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="110"/>
-      <c r="L59" s="110"/>
-      <c r="M59" s="219" t="s">
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="220"/>
-      <c r="O59" s="220"/>
-      <c r="P59" s="220"/>
-      <c r="Q59" s="220"/>
-      <c r="R59" s="213"/>
-      <c r="S59" s="213"/>
-      <c r="T59" s="201"/>
-      <c r="U59" s="201"/>
-      <c r="V59" s="215"/>
-      <c r="W59" s="216"/>
+      <c r="N59" s="188"/>
+      <c r="O59" s="188"/>
+      <c r="P59" s="188"/>
+      <c r="Q59" s="188"/>
+      <c r="R59" s="263"/>
+      <c r="S59" s="263"/>
+      <c r="T59" s="258"/>
+      <c r="U59" s="258"/>
+      <c r="V59" s="261"/>
+      <c r="W59" s="262"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5828,26 +5831,26 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="110"/>
-      <c r="K60" s="110"/>
-      <c r="L60" s="110"/>
-      <c r="M60" s="219" t="s">
+      <c r="F60" s="65"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="220"/>
-      <c r="O60" s="220"/>
-      <c r="P60" s="220"/>
-      <c r="Q60" s="220"/>
-      <c r="R60" s="213"/>
-      <c r="S60" s="213"/>
-      <c r="T60" s="201"/>
-      <c r="U60" s="201"/>
-      <c r="V60" s="215"/>
-      <c r="W60" s="216"/>
+      <c r="N60" s="188"/>
+      <c r="O60" s="188"/>
+      <c r="P60" s="188"/>
+      <c r="Q60" s="188"/>
+      <c r="R60" s="263"/>
+      <c r="S60" s="263"/>
+      <c r="T60" s="258"/>
+      <c r="U60" s="258"/>
+      <c r="V60" s="261"/>
+      <c r="W60" s="262"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5855,28 +5858,28 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="224" t="s">
+      <c r="F61" s="65"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="224"/>
-      <c r="K61" s="224"/>
-      <c r="L61" s="224"/>
-      <c r="M61" s="219" t="s">
+      <c r="J61" s="249"/>
+      <c r="K61" s="249"/>
+      <c r="L61" s="249"/>
+      <c r="M61" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="220"/>
-      <c r="O61" s="220"/>
-      <c r="P61" s="220"/>
-      <c r="Q61" s="220"/>
-      <c r="R61" s="214"/>
-      <c r="S61" s="214"/>
-      <c r="T61" s="232"/>
-      <c r="U61" s="232"/>
-      <c r="V61" s="229"/>
-      <c r="W61" s="230"/>
+      <c r="N61" s="188"/>
+      <c r="O61" s="188"/>
+      <c r="P61" s="188"/>
+      <c r="Q61" s="188"/>
+      <c r="R61" s="280"/>
+      <c r="S61" s="280"/>
+      <c r="T61" s="259"/>
+      <c r="U61" s="259"/>
+      <c r="V61" s="255"/>
+      <c r="W61" s="256"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5884,26 +5887,26 @@
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="162"/>
-      <c r="M62" s="234" t="s">
+      <c r="F62" s="67"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="235"/>
+      <c r="J62" s="235"/>
+      <c r="K62" s="235"/>
+      <c r="L62" s="236"/>
+      <c r="M62" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="235"/>
-      <c r="O62" s="235"/>
-      <c r="P62" s="235"/>
-      <c r="Q62" s="235"/>
-      <c r="R62" s="236"/>
-      <c r="S62" s="236"/>
-      <c r="T62" s="233"/>
-      <c r="U62" s="233"/>
-      <c r="V62" s="199"/>
-      <c r="W62" s="200"/>
+      <c r="N62" s="265"/>
+      <c r="O62" s="265"/>
+      <c r="P62" s="265"/>
+      <c r="Q62" s="265"/>
+      <c r="R62" s="266"/>
+      <c r="S62" s="266"/>
+      <c r="T62" s="260"/>
+      <c r="U62" s="260"/>
+      <c r="V62" s="267"/>
+      <c r="W62" s="268"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5930,72 +5933,72 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="149" t="s">
+      <c r="L64" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="150"/>
-      <c r="N64" s="150"/>
-      <c r="O64" s="150"/>
-      <c r="P64" s="150"/>
-      <c r="Q64" s="150"/>
-      <c r="R64" s="150"/>
-      <c r="S64" s="150"/>
-      <c r="T64" s="150"/>
-      <c r="U64" s="150"/>
-      <c r="V64" s="150"/>
-      <c r="W64" s="159"/>
+      <c r="M64" s="308"/>
+      <c r="N64" s="308"/>
+      <c r="O64" s="308"/>
+      <c r="P64" s="308"/>
+      <c r="Q64" s="308"/>
+      <c r="R64" s="308"/>
+      <c r="S64" s="308"/>
+      <c r="T64" s="308"/>
+      <c r="U64" s="308"/>
+      <c r="V64" s="308"/>
+      <c r="W64" s="309"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="155" t="s">
+      <c r="L65" s="319" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="153" t="s">
+      <c r="M65" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="153" t="s">
+      <c r="N65" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="153" t="s">
+      <c r="O65" s="289" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="153" t="s">
+      <c r="P65" s="289" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="153"/>
-      <c r="R65" s="153"/>
-      <c r="S65" s="153"/>
-      <c r="T65" s="153" t="s">
+      <c r="Q65" s="289"/>
+      <c r="R65" s="289"/>
+      <c r="S65" s="289"/>
+      <c r="T65" s="289" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="153"/>
-      <c r="V65" s="153" t="s">
+      <c r="U65" s="289"/>
+      <c r="V65" s="289" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="166"/>
+      <c r="W65" s="297"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="153"/>
-      <c r="N66" s="153"/>
-      <c r="O66" s="153"/>
-      <c r="P66" s="154" t="s">
+      <c r="L66" s="319"/>
+      <c r="M66" s="289"/>
+      <c r="N66" s="289"/>
+      <c r="O66" s="289"/>
+      <c r="P66" s="318" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="154"/>
-      <c r="R66" s="153" t="s">
+      <c r="Q66" s="318"/>
+      <c r="R66" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="153"/>
-      <c r="T66" s="153" t="s">
+      <c r="S66" s="289"/>
+      <c r="T66" s="289" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="153"/>
-      <c r="V66" s="153" t="s">
+      <c r="U66" s="289"/>
+      <c r="V66" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="166"/>
+      <c r="W66" s="297"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -6003,22 +6006,22 @@
       <c r="M67" s="62"/>
       <c r="N67" s="62"/>
       <c r="O67" s="60"/>
-      <c r="P67" s="160"/>
-      <c r="Q67" s="160"/>
-      <c r="R67" s="160"/>
-      <c r="S67" s="160"/>
-      <c r="T67" s="160"/>
-      <c r="U67" s="160"/>
-      <c r="V67" s="160"/>
-      <c r="W67" s="186"/>
+      <c r="P67" s="286"/>
+      <c r="Q67" s="286"/>
+      <c r="R67" s="286"/>
+      <c r="S67" s="286"/>
+      <c r="T67" s="286"/>
+      <c r="U67" s="286"/>
+      <c r="V67" s="286"/>
+      <c r="W67" s="287"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="54"/>
       <c r="M68" s="54"/>
-      <c r="N68" s="187"/>
-      <c r="O68" s="187"/>
-      <c r="P68" s="187"/>
-      <c r="Q68" s="187"/>
+      <c r="N68" s="288"/>
+      <c r="O68" s="288"/>
+      <c r="P68" s="288"/>
+      <c r="Q68" s="288"/>
       <c r="R68" s="54"/>
       <c r="S68" s="54"/>
       <c r="T68" s="54"/>
@@ -6027,20 +6030,20 @@
       <c r="W68" s="54"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="149" t="s">
+      <c r="L69" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="150"/>
-      <c r="N69" s="150" t="s">
+      <c r="M69" s="308"/>
+      <c r="N69" s="308" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="150"/>
-      <c r="P69" s="150" t="s">
+      <c r="O69" s="308"/>
+      <c r="P69" s="308" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="156"/>
-      <c r="S69" s="156"/>
+      <c r="Q69" s="309"/>
+      <c r="R69" s="320"/>
+      <c r="S69" s="320"/>
       <c r="T69" s="54"/>
       <c r="U69" s="54"/>
       <c r="V69" s="54"/>
@@ -6048,14 +6051,14 @@
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="151"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="152"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="152"/>
-      <c r="Q70" s="157"/>
-      <c r="R70" s="158"/>
-      <c r="S70" s="158"/>
+      <c r="L70" s="316"/>
+      <c r="M70" s="317"/>
+      <c r="N70" s="317"/>
+      <c r="O70" s="317"/>
+      <c r="P70" s="317"/>
+      <c r="Q70" s="321"/>
+      <c r="R70" s="322"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="54"/>
       <c r="U70" s="54"/>
       <c r="V70" s="54"/>
@@ -6072,34 +6075,165 @@
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="L64:W64"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="M46:W47"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="M41:W42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
@@ -6124,165 +6258,34 @@
     <mergeCell ref="M14:O17"/>
     <mergeCell ref="P14:P17"/>
     <mergeCell ref="D6:E12"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="S19:T19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -283,14 +283,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="32">
+  <numFmts count="30">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ _d_._-;\-* #,##0\ _d_._-;_-* &quot;-&quot;\ _d_._-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _d_._-;\-* #,##0.00\ _d_._-;_-* &quot;-&quot;??\ _d_._-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="General&quot; º/10м&quot;"/>
     <numFmt numFmtId="171" formatCode="General&quot; º&quot;"/>
     <numFmt numFmtId="172" formatCode="0&quot;м&quot;"/>
     <numFmt numFmtId="173" formatCode="General&quot; атм&quot;"/>
@@ -309,7 +308,6 @@
     <numFmt numFmtId="186" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="187" formatCode="0&quot;ая&quot;"/>
     <numFmt numFmtId="188" formatCode="0&quot; атм&quot;"/>
-    <numFmt numFmtId="189" formatCode="@&quot;м&quot;"/>
     <numFmt numFmtId="190" formatCode="0&quot;-&quot;"/>
     <numFmt numFmtId="191" formatCode="0&quot;мм&quot;"/>
     <numFmt numFmtId="192" formatCode="0.0_ ;\-0.0\ "/>
@@ -992,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1955,6 +1953,19 @@
       </left>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -2815,6 +2826,468 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="34" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2842,15 +3315,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2887,467 +3351,14 @@
     <xf numFmtId="190" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="30" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="34" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4221,7 +4232,7 @@
   <dimension ref="A1:X117"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R57" activeCellId="2" sqref="R56:S56 T56:U56 R57:S57"/>
+      <selection activeCell="R55" sqref="R55:W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4267,10 +4278,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="259"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4301,28 +4312,28 @@
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="252"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="252"/>
+      <c r="U3" s="252"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4339,19 +4350,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="196" t="s">
+      <c r="M4" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="196"/>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="260"/>
+      <c r="U4" s="260"/>
+      <c r="V4" s="260"/>
+      <c r="W4" s="260"/>
     </row>
     <row r="5" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4366,24 +4377,24 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="261"/>
+      <c r="T5" s="261"/>
+      <c r="U5" s="261"/>
+      <c r="V5" s="261"/>
+      <c r="W5" s="261"/>
     </row>
     <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="225"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="284"/>
       <c r="F6" s="69"/>
       <c r="G6" s="70"/>
       <c r="H6" s="73"/>
@@ -4391,26 +4402,26 @@
       <c r="J6" s="83"/>
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
-      <c r="M6" s="202" t="s">
+      <c r="M6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="205"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="268"/>
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="268"/>
+      <c r="T6" s="268"/>
+      <c r="U6" s="268"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="269"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="226"/>
-      <c r="E7" s="227"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="286"/>
       <c r="F7" s="77"/>
       <c r="G7" s="76"/>
       <c r="H7" s="74"/>
@@ -4418,26 +4429,26 @@
       <c r="J7" s="83"/>
       <c r="K7" s="83"/>
       <c r="L7" s="84"/>
-      <c r="M7" s="206" t="s">
+      <c r="M7" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="199"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="262"/>
+      <c r="U7" s="262"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="263"/>
     </row>
     <row r="8" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="227"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="286"/>
       <c r="F8" s="77"/>
       <c r="G8" s="76"/>
       <c r="H8" s="74"/>
@@ -4445,26 +4456,26 @@
       <c r="J8" s="83"/>
       <c r="K8" s="83"/>
       <c r="L8" s="84"/>
-      <c r="M8" s="208" t="s">
+      <c r="M8" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="209"/>
-      <c r="O8" s="209"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="200"/>
-      <c r="W8" s="201"/>
+      <c r="N8" s="271"/>
+      <c r="O8" s="271"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="265"/>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="227"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="286"/>
       <c r="F9" s="77"/>
       <c r="G9" s="76"/>
       <c r="H9" s="74"/>
@@ -4472,38 +4483,38 @@
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="214" t="s">
+      <c r="M9" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="215"/>
+      <c r="N9" s="277"/>
       <c r="O9" s="45"/>
-      <c r="P9" s="212" t="s">
+      <c r="P9" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="212" t="s">
+      <c r="Q9" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="212" t="s">
+      <c r="R9" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="210" t="s">
+      <c r="S9" s="272" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="210"/>
-      <c r="U9" s="212" t="s">
+      <c r="T9" s="272"/>
+      <c r="U9" s="274" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="212" t="s">
+      <c r="V9" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="216"/>
+      <c r="W9" s="278"/>
     </row>
     <row r="10" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="227"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="286"/>
       <c r="F10" s="77"/>
       <c r="G10" s="76"/>
       <c r="H10" s="74"/>
@@ -4511,17 +4522,17 @@
       <c r="J10" s="86"/>
       <c r="K10" s="87"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="217" t="s">
+      <c r="M10" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="218"/>
+      <c r="N10" s="280"/>
       <c r="O10" s="41"/>
-      <c r="P10" s="213"/>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="213"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="213"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="275"/>
+      <c r="S10" s="273"/>
+      <c r="T10" s="273"/>
+      <c r="U10" s="275"/>
       <c r="V10" s="78" t="s">
         <v>33</v>
       </c>
@@ -4533,8 +4544,8 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="227"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="286"/>
       <c r="F11" s="77"/>
       <c r="G11" s="76"/>
       <c r="H11" s="74"/>
@@ -4542,11 +4553,11 @@
       <c r="J11" s="88"/>
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
-      <c r="M11" s="156" t="s">
+      <c r="M11" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="157"/>
-      <c r="O11" s="158"/>
+      <c r="N11" s="254"/>
+      <c r="O11" s="255"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
@@ -4560,8 +4571,8 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="229"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="288"/>
       <c r="F12" s="77"/>
       <c r="G12" s="115"/>
       <c r="H12" s="116"/>
@@ -4569,11 +4580,11 @@
       <c r="J12" s="118"/>
       <c r="K12" s="119"/>
       <c r="L12" s="90"/>
-      <c r="M12" s="156" t="s">
+      <c r="M12" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="157"/>
-      <c r="O12" s="158"/>
+      <c r="N12" s="254"/>
+      <c r="O12" s="255"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
@@ -4595,11 +4606,11 @@
       <c r="J13" s="91"/>
       <c r="K13" s="91"/>
       <c r="L13" s="92"/>
-      <c r="M13" s="156" t="s">
+      <c r="M13" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="157"/>
-      <c r="O13" s="158"/>
+      <c r="N13" s="254"/>
+      <c r="O13" s="255"/>
       <c r="P13" s="80"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
@@ -4621,19 +4632,19 @@
       <c r="J14" s="89"/>
       <c r="K14" s="89"/>
       <c r="L14" s="89"/>
-      <c r="M14" s="220" t="s">
+      <c r="M14" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="221"/>
-      <c r="O14" s="222"/>
-      <c r="P14" s="223"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="219"/>
-      <c r="V14" s="298"/>
-      <c r="W14" s="301"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="282"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="301"/>
+      <c r="S14" s="304"/>
+      <c r="T14" s="307"/>
+      <c r="U14" s="281"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="177"/>
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4647,17 +4658,17 @@
       <c r="J15" s="89"/>
       <c r="K15" s="89"/>
       <c r="L15" s="89"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="222"/>
-      <c r="P15" s="223"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="219"/>
-      <c r="V15" s="299"/>
-      <c r="W15" s="302"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="282"/>
+      <c r="Q15" s="302"/>
+      <c r="R15" s="302"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="308"/>
+      <c r="U15" s="281"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="178"/>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4671,17 +4682,17 @@
       <c r="J16" s="89"/>
       <c r="K16" s="89"/>
       <c r="L16" s="89"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="219"/>
-      <c r="V16" s="299"/>
-      <c r="W16" s="303"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="282"/>
+      <c r="Q16" s="302"/>
+      <c r="R16" s="302"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="308"/>
+      <c r="U16" s="281"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="179"/>
       <c r="X16" s="141"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4696,17 +4707,17 @@
       <c r="J17" s="89"/>
       <c r="K17" s="89"/>
       <c r="L17" s="89"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="222"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="219"/>
-      <c r="V17" s="300"/>
-      <c r="W17" s="304"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="282"/>
+      <c r="Q17" s="303"/>
+      <c r="R17" s="303"/>
+      <c r="S17" s="306"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="180"/>
     </row>
     <row r="18" spans="1:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4720,11 +4731,11 @@
       <c r="J18" s="89"/>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
-      <c r="M18" s="192" t="s">
+      <c r="M18" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="193"/>
-      <c r="O18" s="194"/>
+      <c r="N18" s="257"/>
+      <c r="O18" s="258"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
@@ -4749,16 +4760,16 @@
       <c r="J19" s="89"/>
       <c r="K19" s="89"/>
       <c r="L19" s="89"/>
-      <c r="M19" s="162" t="s">
+      <c r="M19" s="313" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="163"/>
-      <c r="O19" s="164"/>
+      <c r="N19" s="314"/>
+      <c r="O19" s="315"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="169"/>
-      <c r="T19" s="170"/>
+      <c r="S19" s="320"/>
+      <c r="T19" s="321"/>
       <c r="U19" s="44"/>
       <c r="V19" s="81"/>
       <c r="W19" s="82"/>
@@ -4776,11 +4787,11 @@
       <c r="J20" s="123"/>
       <c r="K20" s="123"/>
       <c r="L20" s="123"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="221"/>
-      <c r="O20" s="221"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="222"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="183"/>
       <c r="R20" s="32"/>
       <c r="S20" s="142"/>
       <c r="T20" s="143"/>
@@ -4800,9 +4811,9 @@
       <c r="J21" s="124"/>
       <c r="K21" s="125"/>
       <c r="L21" s="125"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="161"/>
+      <c r="M21" s="310"/>
+      <c r="N21" s="311"/>
+      <c r="O21" s="312"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
@@ -4825,16 +4836,16 @@
       <c r="J22" s="134"/>
       <c r="K22" s="126"/>
       <c r="L22" s="126"/>
-      <c r="M22" s="165" t="s">
+      <c r="M22" s="316" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="166"/>
-      <c r="O22" s="167"/>
+      <c r="N22" s="317"/>
+      <c r="O22" s="318"/>
       <c r="P22" s="110"/>
       <c r="Q22" s="111"/>
       <c r="R22" s="110"/>
-      <c r="S22" s="305"/>
-      <c r="T22" s="306"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="185"/>
       <c r="U22" s="112"/>
       <c r="V22" s="113"/>
       <c r="W22" s="114"/>
@@ -4852,19 +4863,19 @@
       <c r="J23" s="127"/>
       <c r="K23" s="128"/>
       <c r="L23" s="129"/>
-      <c r="M23" s="175" t="s">
+      <c r="M23" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="175"/>
-      <c r="U23" s="175"/>
-      <c r="V23" s="175"/>
-      <c r="W23" s="175"/>
+      <c r="N23" s="244"/>
+      <c r="O23" s="244"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="244"/>
+      <c r="U23" s="244"/>
+      <c r="V23" s="244"/>
+      <c r="W23" s="244"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4881,17 +4892,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="123"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="175"/>
-      <c r="U24" s="175"/>
-      <c r="V24" s="175"/>
-      <c r="W24" s="175"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="244"/>
+      <c r="O24" s="244"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="244"/>
+      <c r="U24" s="244"/>
+      <c r="V24" s="244"/>
+      <c r="W24" s="244"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4906,27 +4917,27 @@
       <c r="J25" s="133"/>
       <c r="K25" s="124"/>
       <c r="L25" s="125"/>
-      <c r="M25" s="243" t="s">
+      <c r="M25" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="244"/>
-      <c r="O25" s="239" t="s">
+      <c r="N25" s="247"/>
+      <c r="O25" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="239"/>
-      <c r="Q25" s="239" t="s">
+      <c r="P25" s="242"/>
+      <c r="Q25" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="239"/>
-      <c r="S25" s="239"/>
-      <c r="T25" s="239"/>
-      <c r="U25" s="239" t="s">
+      <c r="R25" s="242"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="242"/>
+      <c r="U25" s="242" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="310" t="s">
+      <c r="V25" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="311" t="s">
+      <c r="W25" s="169" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4940,24 +4951,24 @@
       <c r="G26" s="66"/>
       <c r="H26" s="132"/>
       <c r="I26" s="132"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="245"/>
-      <c r="N26" s="246"/>
-      <c r="O26" s="240"/>
-      <c r="P26" s="240"/>
-      <c r="Q26" s="234" t="s">
+      <c r="J26" s="240"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="249"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="234"/>
-      <c r="S26" s="234" t="s">
+      <c r="R26" s="239"/>
+      <c r="S26" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="234"/>
-      <c r="U26" s="240"/>
-      <c r="V26" s="240"/>
-      <c r="W26" s="312"/>
+      <c r="T26" s="239"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="170"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -4972,17 +4983,17 @@
       <c r="J27" s="123"/>
       <c r="K27" s="123"/>
       <c r="L27" s="123"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="176"/>
-      <c r="O27" s="176"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="177"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
       <c r="U27" s="58"/>
       <c r="V27" s="63"/>
-      <c r="W27" s="323"/>
+      <c r="W27" s="147"/>
     </row>
     <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
@@ -4997,17 +5008,17 @@
       <c r="J28" s="89"/>
       <c r="K28" s="89"/>
       <c r="L28" s="89"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="177"/>
-      <c r="S28" s="177"/>
-      <c r="T28" s="177"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
       <c r="U28" s="58"/>
       <c r="V28" s="63"/>
-      <c r="W28" s="323"/>
+      <c r="W28" s="147"/>
     </row>
     <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
@@ -5019,20 +5030,20 @@
       <c r="G29" s="66"/>
       <c r="H29" s="3"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="230"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="176"/>
-      <c r="O29" s="176"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="235"/>
+      <c r="L29" s="235"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
       <c r="U29" s="58"/>
       <c r="V29" s="63"/>
-      <c r="W29" s="323"/>
+      <c r="W29" s="147"/>
     </row>
     <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
@@ -5044,20 +5055,20 @@
       <c r="G30" s="66"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="235"/>
-      <c r="K30" s="235"/>
-      <c r="L30" s="236"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="176"/>
-      <c r="O30" s="176"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="177"/>
-      <c r="R30" s="177"/>
-      <c r="S30" s="177"/>
-      <c r="T30" s="177"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
       <c r="U30" s="58"/>
       <c r="V30" s="63"/>
-      <c r="W30" s="323"/>
+      <c r="W30" s="147"/>
     </row>
     <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
@@ -5069,20 +5080,20 @@
       <c r="G31" s="66"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="235"/>
-      <c r="K31" s="235"/>
-      <c r="L31" s="236"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="177"/>
-      <c r="R31" s="177"/>
-      <c r="S31" s="177"/>
-      <c r="T31" s="177"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
       <c r="U31" s="58"/>
       <c r="V31" s="63"/>
-      <c r="W31" s="323"/>
+      <c r="W31" s="147"/>
     </row>
     <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
@@ -5094,20 +5105,20 @@
       <c r="G32" s="66"/>
       <c r="H32" s="83"/>
       <c r="I32" s="94"/>
-      <c r="J32" s="235"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="177"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
       <c r="U32" s="58"/>
       <c r="V32" s="63"/>
-      <c r="W32" s="323"/>
+      <c r="W32" s="147"/>
     </row>
     <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
@@ -5119,20 +5130,20 @@
       <c r="G33" s="66"/>
       <c r="H33" s="83"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="235"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="236"/>
-      <c r="M33" s="178"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="177"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
       <c r="U33" s="58"/>
       <c r="V33" s="63"/>
-      <c r="W33" s="323"/>
+      <c r="W33" s="147"/>
     </row>
     <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
@@ -5144,20 +5155,20 @@
       <c r="G34" s="66"/>
       <c r="H34" s="83"/>
       <c r="I34" s="94"/>
-      <c r="J34" s="235"/>
-      <c r="K34" s="235"/>
-      <c r="L34" s="236"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="176"/>
-      <c r="O34" s="176"/>
-      <c r="P34" s="176"/>
-      <c r="Q34" s="177"/>
-      <c r="R34" s="177"/>
-      <c r="S34" s="177"/>
-      <c r="T34" s="177"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="165"/>
+      <c r="R34" s="165"/>
+      <c r="S34" s="165"/>
+      <c r="T34" s="165"/>
       <c r="U34" s="58"/>
       <c r="V34" s="63"/>
-      <c r="W34" s="323"/>
+      <c r="W34" s="147"/>
     </row>
     <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
@@ -5169,20 +5180,20 @@
       <c r="G35" s="66"/>
       <c r="H35" s="83"/>
       <c r="I35" s="94"/>
-      <c r="J35" s="235"/>
-      <c r="K35" s="235"/>
-      <c r="L35" s="236"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="176"/>
-      <c r="O35" s="176"/>
-      <c r="P35" s="176"/>
-      <c r="Q35" s="177"/>
-      <c r="R35" s="177"/>
-      <c r="S35" s="177"/>
-      <c r="T35" s="177"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="165"/>
+      <c r="R35" s="165"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
       <c r="U35" s="58"/>
       <c r="V35" s="63"/>
-      <c r="W35" s="323"/>
+      <c r="W35" s="147"/>
     </row>
     <row r="36" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
@@ -5194,20 +5205,20 @@
       <c r="G36" s="66"/>
       <c r="H36" s="83"/>
       <c r="I36" s="94"/>
-      <c r="J36" s="235"/>
-      <c r="K36" s="235"/>
-      <c r="L36" s="236"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="177"/>
-      <c r="S36" s="177"/>
-      <c r="T36" s="177"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="163"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="165"/>
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165"/>
       <c r="U36" s="58"/>
       <c r="V36" s="63"/>
-      <c r="W36" s="323"/>
+      <c r="W36" s="147"/>
     </row>
     <row r="37" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
@@ -5219,20 +5230,20 @@
       <c r="G37" s="66"/>
       <c r="H37" s="83"/>
       <c r="I37" s="94"/>
-      <c r="J37" s="235"/>
-      <c r="K37" s="235"/>
-      <c r="L37" s="236"/>
-      <c r="M37" s="178"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="177"/>
-      <c r="S37" s="177"/>
-      <c r="T37" s="177"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="163"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
       <c r="U37" s="58"/>
       <c r="V37" s="63"/>
-      <c r="W37" s="323"/>
+      <c r="W37" s="147"/>
     </row>
     <row r="38" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
@@ -5244,20 +5255,20 @@
       <c r="G38" s="66"/>
       <c r="H38" s="83"/>
       <c r="I38" s="94"/>
-      <c r="J38" s="235"/>
-      <c r="K38" s="235"/>
-      <c r="L38" s="236"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="177"/>
-      <c r="S38" s="177"/>
-      <c r="T38" s="177"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="165"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="165"/>
       <c r="U38" s="58"/>
       <c r="V38" s="63"/>
-      <c r="W38" s="323"/>
+      <c r="W38" s="147"/>
     </row>
     <row r="39" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
@@ -5269,20 +5280,20 @@
       <c r="G39" s="66"/>
       <c r="H39" s="83"/>
       <c r="I39" s="94"/>
-      <c r="J39" s="235"/>
-      <c r="K39" s="235"/>
-      <c r="L39" s="236"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="176"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="177"/>
-      <c r="S39" s="177"/>
-      <c r="T39" s="177"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
+      <c r="T39" s="165"/>
       <c r="U39" s="58"/>
       <c r="V39" s="63"/>
-      <c r="W39" s="323"/>
+      <c r="W39" s="147"/>
     </row>
     <row r="40" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -5294,20 +5305,20 @@
       <c r="G40" s="66"/>
       <c r="H40" s="83"/>
       <c r="I40" s="94"/>
-      <c r="J40" s="235"/>
-      <c r="K40" s="235"/>
-      <c r="L40" s="236"/>
-      <c r="M40" s="313"/>
-      <c r="N40" s="314"/>
-      <c r="O40" s="314"/>
-      <c r="P40" s="314"/>
-      <c r="Q40" s="315"/>
-      <c r="R40" s="315"/>
-      <c r="S40" s="315"/>
-      <c r="T40" s="315"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
       <c r="U40" s="59"/>
       <c r="V40" s="64"/>
-      <c r="W40" s="324"/>
+      <c r="W40" s="148"/>
     </row>
     <row r="41" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
@@ -5322,19 +5333,19 @@
       <c r="J41" s="89"/>
       <c r="K41" s="89"/>
       <c r="L41" s="89"/>
-      <c r="M41" s="175" t="s">
+      <c r="M41" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="175"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
-      <c r="S41" s="175"/>
-      <c r="T41" s="175"/>
-      <c r="U41" s="175"/>
-      <c r="V41" s="175"/>
-      <c r="W41" s="175"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="244"/>
+      <c r="P41" s="244"/>
+      <c r="Q41" s="244"/>
+      <c r="R41" s="244"/>
+      <c r="S41" s="244"/>
+      <c r="T41" s="244"/>
+      <c r="U41" s="244"/>
+      <c r="V41" s="244"/>
+      <c r="W41" s="244"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5349,17 +5360,17 @@
       <c r="J42" s="93"/>
       <c r="K42" s="95"/>
       <c r="L42" s="84"/>
-      <c r="M42" s="242"/>
-      <c r="N42" s="242"/>
-      <c r="O42" s="242"/>
-      <c r="P42" s="242"/>
-      <c r="Q42" s="242"/>
-      <c r="R42" s="242"/>
-      <c r="S42" s="242"/>
-      <c r="T42" s="242"/>
-      <c r="U42" s="242"/>
-      <c r="V42" s="242"/>
-      <c r="W42" s="242"/>
+      <c r="M42" s="245"/>
+      <c r="N42" s="245"/>
+      <c r="O42" s="245"/>
+      <c r="P42" s="245"/>
+      <c r="Q42" s="245"/>
+      <c r="R42" s="245"/>
+      <c r="S42" s="245"/>
+      <c r="T42" s="245"/>
+      <c r="U42" s="245"/>
+      <c r="V42" s="245"/>
+      <c r="W42" s="245"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5374,19 +5385,19 @@
       <c r="J43" s="93"/>
       <c r="K43" s="95"/>
       <c r="L43" s="84"/>
-      <c r="M43" s="247" t="s">
+      <c r="M43" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="248"/>
-      <c r="O43" s="248"/>
-      <c r="P43" s="248"/>
-      <c r="Q43" s="248"/>
-      <c r="R43" s="248"/>
-      <c r="S43" s="248"/>
-      <c r="T43" s="248"/>
-      <c r="U43" s="248"/>
-      <c r="V43" s="179"/>
-      <c r="W43" s="180"/>
+      <c r="N43" s="251"/>
+      <c r="O43" s="251"/>
+      <c r="P43" s="251"/>
+      <c r="Q43" s="251"/>
+      <c r="R43" s="251"/>
+      <c r="S43" s="251"/>
+      <c r="T43" s="251"/>
+      <c r="U43" s="251"/>
+      <c r="V43" s="291"/>
+      <c r="W43" s="292"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
@@ -5401,19 +5412,19 @@
       <c r="J44" s="93"/>
       <c r="K44" s="95"/>
       <c r="L44" s="84"/>
-      <c r="M44" s="189" t="s">
+      <c r="M44" s="299" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="190"/>
-      <c r="O44" s="190"/>
-      <c r="P44" s="190"/>
-      <c r="Q44" s="190"/>
-      <c r="R44" s="190"/>
-      <c r="S44" s="190"/>
-      <c r="T44" s="190"/>
-      <c r="U44" s="190"/>
-      <c r="V44" s="181"/>
-      <c r="W44" s="182"/>
+      <c r="N44" s="300"/>
+      <c r="O44" s="300"/>
+      <c r="P44" s="300"/>
+      <c r="Q44" s="300"/>
+      <c r="R44" s="300"/>
+      <c r="S44" s="300"/>
+      <c r="T44" s="300"/>
+      <c r="U44" s="300"/>
+      <c r="V44" s="293"/>
+      <c r="W44" s="294"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -5428,19 +5439,19 @@
       <c r="J45" s="93"/>
       <c r="K45" s="84"/>
       <c r="L45" s="84"/>
-      <c r="M45" s="231" t="s">
+      <c r="M45" s="236" t="s">
         <v>37</v>
       </c>
-      <c r="N45" s="232"/>
-      <c r="O45" s="232"/>
-      <c r="P45" s="232"/>
-      <c r="Q45" s="232"/>
-      <c r="R45" s="232"/>
-      <c r="S45" s="232"/>
-      <c r="T45" s="232"/>
-      <c r="U45" s="232"/>
-      <c r="V45" s="291"/>
-      <c r="W45" s="292"/>
+      <c r="N45" s="237"/>
+      <c r="O45" s="237"/>
+      <c r="P45" s="237"/>
+      <c r="Q45" s="237"/>
+      <c r="R45" s="237"/>
+      <c r="S45" s="237"/>
+      <c r="T45" s="237"/>
+      <c r="U45" s="237"/>
+      <c r="V45" s="189"/>
+      <c r="W45" s="190"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
@@ -5455,19 +5466,19 @@
       <c r="J46" s="89"/>
       <c r="K46" s="89"/>
       <c r="L46" s="89"/>
-      <c r="M46" s="273" t="s">
+      <c r="M46" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="273"/>
-      <c r="O46" s="273"/>
-      <c r="P46" s="273"/>
-      <c r="Q46" s="273"/>
-      <c r="R46" s="273"/>
-      <c r="S46" s="273"/>
-      <c r="T46" s="273"/>
-      <c r="U46" s="273"/>
-      <c r="V46" s="273"/>
-      <c r="W46" s="273"/>
+      <c r="N46" s="207"/>
+      <c r="O46" s="207"/>
+      <c r="P46" s="207"/>
+      <c r="Q46" s="207"/>
+      <c r="R46" s="207"/>
+      <c r="S46" s="207"/>
+      <c r="T46" s="207"/>
+      <c r="U46" s="207"/>
+      <c r="V46" s="207"/>
+      <c r="W46" s="207"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5482,17 +5493,17 @@
       <c r="J47" s="89"/>
       <c r="K47" s="89"/>
       <c r="L47" s="89"/>
-      <c r="M47" s="274"/>
-      <c r="N47" s="274"/>
-      <c r="O47" s="274"/>
-      <c r="P47" s="274"/>
-      <c r="Q47" s="274"/>
-      <c r="R47" s="274"/>
-      <c r="S47" s="274"/>
-      <c r="T47" s="274"/>
-      <c r="U47" s="274"/>
-      <c r="V47" s="274"/>
-      <c r="W47" s="274"/>
+      <c r="M47" s="208"/>
+      <c r="N47" s="208"/>
+      <c r="O47" s="208"/>
+      <c r="P47" s="208"/>
+      <c r="Q47" s="208"/>
+      <c r="R47" s="208"/>
+      <c r="S47" s="208"/>
+      <c r="T47" s="208"/>
+      <c r="U47" s="208"/>
+      <c r="V47" s="208"/>
+      <c r="W47" s="208"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5507,19 +5518,19 @@
       <c r="J48" s="89"/>
       <c r="K48" s="83"/>
       <c r="L48" s="83"/>
-      <c r="M48" s="185" t="s">
+      <c r="M48" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="186"/>
-      <c r="O48" s="186"/>
-      <c r="P48" s="186"/>
-      <c r="Q48" s="186"/>
-      <c r="R48" s="281"/>
-      <c r="S48" s="281"/>
-      <c r="T48" s="241"/>
-      <c r="U48" s="241"/>
-      <c r="V48" s="173"/>
-      <c r="W48" s="174"/>
+      <c r="N48" s="298"/>
+      <c r="O48" s="298"/>
+      <c r="P48" s="298"/>
+      <c r="Q48" s="298"/>
+      <c r="R48" s="218"/>
+      <c r="S48" s="218"/>
+      <c r="T48" s="243"/>
+      <c r="U48" s="243"/>
+      <c r="V48" s="289"/>
+      <c r="W48" s="290"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5534,19 +5545,19 @@
       <c r="J49" s="96"/>
       <c r="K49" s="26"/>
       <c r="L49" s="83"/>
-      <c r="M49" s="187" t="s">
+      <c r="M49" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="188"/>
-      <c r="O49" s="188"/>
-      <c r="P49" s="188"/>
-      <c r="Q49" s="188"/>
-      <c r="R49" s="282"/>
-      <c r="S49" s="282"/>
-      <c r="T49" s="275"/>
-      <c r="U49" s="275"/>
-      <c r="V49" s="183"/>
-      <c r="W49" s="184"/>
+      <c r="N49" s="221"/>
+      <c r="O49" s="221"/>
+      <c r="P49" s="221"/>
+      <c r="Q49" s="221"/>
+      <c r="R49" s="219"/>
+      <c r="S49" s="219"/>
+      <c r="T49" s="209"/>
+      <c r="U49" s="209"/>
+      <c r="V49" s="295"/>
+      <c r="W49" s="296"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -5561,19 +5572,19 @@
       <c r="J50" s="97"/>
       <c r="K50" s="26"/>
       <c r="L50" s="83"/>
-      <c r="M50" s="187" t="s">
+      <c r="M50" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="188"/>
-      <c r="O50" s="188"/>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="188"/>
-      <c r="R50" s="233"/>
-      <c r="S50" s="233"/>
-      <c r="T50" s="168"/>
-      <c r="U50" s="168"/>
-      <c r="V50" s="171"/>
-      <c r="W50" s="172"/>
+      <c r="N50" s="221"/>
+      <c r="O50" s="221"/>
+      <c r="P50" s="221"/>
+      <c r="Q50" s="221"/>
+      <c r="R50" s="238"/>
+      <c r="S50" s="238"/>
+      <c r="T50" s="319"/>
+      <c r="U50" s="319"/>
+      <c r="V50" s="193"/>
+      <c r="W50" s="194"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5588,19 +5599,19 @@
       <c r="J51" s="83"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="187" t="s">
+      <c r="M51" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="188"/>
-      <c r="O51" s="188"/>
-      <c r="P51" s="188"/>
-      <c r="Q51" s="188"/>
-      <c r="R51" s="279"/>
-      <c r="S51" s="279"/>
-      <c r="T51" s="269"/>
-      <c r="U51" s="269"/>
-      <c r="V51" s="171"/>
-      <c r="W51" s="172"/>
+      <c r="N51" s="221"/>
+      <c r="O51" s="221"/>
+      <c r="P51" s="221"/>
+      <c r="Q51" s="221"/>
+      <c r="R51" s="213"/>
+      <c r="S51" s="213"/>
+      <c r="T51" s="202"/>
+      <c r="U51" s="202"/>
+      <c r="V51" s="193"/>
+      <c r="W51" s="194"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5615,21 +5626,21 @@
       <c r="J52" s="100"/>
       <c r="K52" s="100"/>
       <c r="L52" s="100"/>
-      <c r="M52" s="206" t="s">
+      <c r="M52" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="207"/>
-      <c r="O52" s="207"/>
-      <c r="P52" s="207"/>
-      <c r="Q52" s="207"/>
-      <c r="R52" s="272"/>
-      <c r="S52" s="272"/>
-      <c r="T52" s="271" t="s">
+      <c r="N52" s="192"/>
+      <c r="O52" s="192"/>
+      <c r="P52" s="192"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="205"/>
+      <c r="S52" s="205"/>
+      <c r="T52" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="271"/>
-      <c r="V52" s="293"/>
-      <c r="W52" s="294"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="195"/>
+      <c r="W52" s="196"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -5643,19 +5654,19 @@
       <c r="I53" s="97"/>
       <c r="J53" s="97"/>
       <c r="L53" s="101"/>
-      <c r="M53" s="206" t="s">
+      <c r="M53" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="207"/>
-      <c r="O53" s="207"/>
-      <c r="P53" s="207"/>
-      <c r="Q53" s="207"/>
-      <c r="R53" s="283"/>
-      <c r="S53" s="283"/>
-      <c r="T53" s="276"/>
-      <c r="U53" s="276"/>
-      <c r="V53" s="295"/>
-      <c r="W53" s="296"/>
+      <c r="N53" s="192"/>
+      <c r="O53" s="192"/>
+      <c r="P53" s="192"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="222"/>
+      <c r="S53" s="222"/>
+      <c r="T53" s="210"/>
+      <c r="U53" s="210"/>
+      <c r="V53" s="197"/>
+      <c r="W53" s="198"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -5670,21 +5681,21 @@
       <c r="J54" s="96"/>
       <c r="K54" s="102"/>
       <c r="L54" s="94"/>
-      <c r="M54" s="187" t="s">
+      <c r="M54" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="188"/>
-      <c r="O54" s="188"/>
-      <c r="P54" s="188"/>
-      <c r="Q54" s="188"/>
-      <c r="R54" s="290"/>
-      <c r="S54" s="290"/>
-      <c r="T54" s="269" t="s">
+      <c r="N54" s="221"/>
+      <c r="O54" s="221"/>
+      <c r="P54" s="221"/>
+      <c r="Q54" s="221"/>
+      <c r="R54" s="188"/>
+      <c r="S54" s="188"/>
+      <c r="T54" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="269"/>
-      <c r="V54" s="277"/>
-      <c r="W54" s="278"/>
+      <c r="U54" s="202"/>
+      <c r="V54" s="211"/>
+      <c r="W54" s="212"/>
     </row>
     <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
@@ -5699,21 +5710,19 @@
       <c r="J55" s="93"/>
       <c r="K55" s="25"/>
       <c r="L55" s="103"/>
-      <c r="M55" s="187" t="s">
+      <c r="M55" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="188"/>
-      <c r="O55" s="188"/>
-      <c r="P55" s="188"/>
-      <c r="Q55" s="188"/>
-      <c r="R55" s="254"/>
-      <c r="S55" s="254"/>
-      <c r="T55" s="269" t="s">
-        <v>7</v>
-      </c>
-      <c r="U55" s="269"/>
-      <c r="V55" s="284"/>
-      <c r="W55" s="285"/>
+      <c r="N55" s="221"/>
+      <c r="O55" s="221"/>
+      <c r="P55" s="221"/>
+      <c r="Q55" s="221"/>
+      <c r="R55" s="322"/>
+      <c r="S55" s="323"/>
+      <c r="T55" s="323"/>
+      <c r="U55" s="323"/>
+      <c r="V55" s="323"/>
+      <c r="W55" s="324"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5728,19 +5737,19 @@
       <c r="J56" s="104"/>
       <c r="K56" s="83"/>
       <c r="L56" s="105"/>
-      <c r="M56" s="206" t="s">
+      <c r="M56" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="207"/>
-      <c r="O56" s="207"/>
-      <c r="P56" s="207"/>
-      <c r="Q56" s="207"/>
-      <c r="R56" s="258"/>
-      <c r="S56" s="258"/>
-      <c r="T56" s="250"/>
-      <c r="U56" s="250"/>
-      <c r="V56" s="250"/>
-      <c r="W56" s="251"/>
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="201"/>
+      <c r="S56" s="201"/>
+      <c r="T56" s="203"/>
+      <c r="U56" s="203"/>
+      <c r="V56" s="203"/>
+      <c r="W56" s="224"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5755,19 +5764,19 @@
       <c r="J57" s="83"/>
       <c r="K57" s="83"/>
       <c r="L57" s="106"/>
-      <c r="M57" s="206" t="s">
+      <c r="M57" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="207"/>
-      <c r="O57" s="207"/>
-      <c r="P57" s="207"/>
-      <c r="Q57" s="207"/>
-      <c r="R57" s="258"/>
-      <c r="S57" s="258"/>
-      <c r="T57" s="270"/>
-      <c r="U57" s="270"/>
-      <c r="V57" s="250"/>
-      <c r="W57" s="251"/>
+      <c r="N57" s="192"/>
+      <c r="O57" s="192"/>
+      <c r="P57" s="192"/>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="201"/>
+      <c r="S57" s="201"/>
+      <c r="T57" s="206"/>
+      <c r="U57" s="206"/>
+      <c r="V57" s="203"/>
+      <c r="W57" s="224"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5782,21 +5791,21 @@
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
       <c r="L58" s="84"/>
-      <c r="M58" s="206" t="s">
+      <c r="M58" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="207"/>
-      <c r="O58" s="207"/>
-      <c r="P58" s="207"/>
-      <c r="Q58" s="207"/>
-      <c r="R58" s="257"/>
-      <c r="S58" s="257"/>
-      <c r="T58" s="258" t="s">
+      <c r="N58" s="192"/>
+      <c r="O58" s="192"/>
+      <c r="P58" s="192"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="229"/>
+      <c r="S58" s="229"/>
+      <c r="T58" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="258"/>
-      <c r="V58" s="252"/>
-      <c r="W58" s="253"/>
+      <c r="U58" s="201"/>
+      <c r="V58" s="225"/>
+      <c r="W58" s="226"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5811,19 +5820,19 @@
       <c r="J59" s="108"/>
       <c r="K59" s="108"/>
       <c r="L59" s="108"/>
-      <c r="M59" s="187" t="s">
+      <c r="M59" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="188"/>
-      <c r="O59" s="188"/>
-      <c r="P59" s="188"/>
-      <c r="Q59" s="188"/>
-      <c r="R59" s="263"/>
-      <c r="S59" s="263"/>
-      <c r="T59" s="258"/>
-      <c r="U59" s="258"/>
-      <c r="V59" s="261"/>
-      <c r="W59" s="262"/>
+      <c r="N59" s="221"/>
+      <c r="O59" s="221"/>
+      <c r="P59" s="221"/>
+      <c r="Q59" s="221"/>
+      <c r="R59" s="214"/>
+      <c r="S59" s="214"/>
+      <c r="T59" s="201"/>
+      <c r="U59" s="201"/>
+      <c r="V59" s="216"/>
+      <c r="W59" s="217"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5838,19 +5847,19 @@
       <c r="J60" s="108"/>
       <c r="K60" s="108"/>
       <c r="L60" s="108"/>
-      <c r="M60" s="187" t="s">
+      <c r="M60" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="188"/>
-      <c r="O60" s="188"/>
-      <c r="P60" s="188"/>
-      <c r="Q60" s="188"/>
-      <c r="R60" s="263"/>
-      <c r="S60" s="263"/>
-      <c r="T60" s="258"/>
-      <c r="U60" s="258"/>
-      <c r="V60" s="261"/>
-      <c r="W60" s="262"/>
+      <c r="N60" s="221"/>
+      <c r="O60" s="221"/>
+      <c r="P60" s="221"/>
+      <c r="Q60" s="221"/>
+      <c r="R60" s="214"/>
+      <c r="S60" s="214"/>
+      <c r="T60" s="201"/>
+      <c r="U60" s="201"/>
+      <c r="V60" s="216"/>
+      <c r="W60" s="217"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5861,25 +5870,25 @@
       <c r="F61" s="65"/>
       <c r="G61" s="66"/>
       <c r="H61" s="83"/>
-      <c r="I61" s="249" t="s">
+      <c r="I61" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="249"/>
-      <c r="K61" s="249"/>
-      <c r="L61" s="249"/>
-      <c r="M61" s="187" t="s">
+      <c r="J61" s="223"/>
+      <c r="K61" s="223"/>
+      <c r="L61" s="223"/>
+      <c r="M61" s="220" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="188"/>
-      <c r="O61" s="188"/>
-      <c r="P61" s="188"/>
-      <c r="Q61" s="188"/>
-      <c r="R61" s="280"/>
-      <c r="S61" s="280"/>
-      <c r="T61" s="259"/>
-      <c r="U61" s="259"/>
-      <c r="V61" s="255"/>
-      <c r="W61" s="256"/>
+      <c r="N61" s="221"/>
+      <c r="O61" s="221"/>
+      <c r="P61" s="221"/>
+      <c r="Q61" s="221"/>
+      <c r="R61" s="215"/>
+      <c r="S61" s="215"/>
+      <c r="T61" s="230"/>
+      <c r="U61" s="230"/>
+      <c r="V61" s="227"/>
+      <c r="W61" s="228"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5890,23 +5899,23 @@
       <c r="F62" s="67"/>
       <c r="G62" s="68"/>
       <c r="H62" s="83"/>
-      <c r="I62" s="235"/>
-      <c r="J62" s="235"/>
-      <c r="K62" s="235"/>
-      <c r="L62" s="236"/>
-      <c r="M62" s="264" t="s">
+      <c r="I62" s="161"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="162"/>
+      <c r="M62" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="265"/>
-      <c r="O62" s="265"/>
-      <c r="P62" s="265"/>
-      <c r="Q62" s="265"/>
-      <c r="R62" s="266"/>
-      <c r="S62" s="266"/>
-      <c r="T62" s="260"/>
-      <c r="U62" s="260"/>
-      <c r="V62" s="267"/>
-      <c r="W62" s="268"/>
+      <c r="N62" s="233"/>
+      <c r="O62" s="233"/>
+      <c r="P62" s="233"/>
+      <c r="Q62" s="233"/>
+      <c r="R62" s="234"/>
+      <c r="S62" s="234"/>
+      <c r="T62" s="231"/>
+      <c r="U62" s="231"/>
+      <c r="V62" s="199"/>
+      <c r="W62" s="200"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5933,72 +5942,72 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="307" t="s">
+      <c r="L64" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="308"/>
-      <c r="N64" s="308"/>
-      <c r="O64" s="308"/>
-      <c r="P64" s="308"/>
-      <c r="Q64" s="308"/>
-      <c r="R64" s="308"/>
-      <c r="S64" s="308"/>
-      <c r="T64" s="308"/>
-      <c r="U64" s="308"/>
-      <c r="V64" s="308"/>
-      <c r="W64" s="309"/>
+      <c r="M64" s="150"/>
+      <c r="N64" s="150"/>
+      <c r="O64" s="150"/>
+      <c r="P64" s="150"/>
+      <c r="Q64" s="150"/>
+      <c r="R64" s="150"/>
+      <c r="S64" s="150"/>
+      <c r="T64" s="150"/>
+      <c r="U64" s="150"/>
+      <c r="V64" s="150"/>
+      <c r="W64" s="159"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="319" t="s">
+      <c r="L65" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="289" t="s">
+      <c r="M65" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="289" t="s">
+      <c r="N65" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="289" t="s">
+      <c r="O65" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="289" t="s">
+      <c r="P65" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="289"/>
-      <c r="R65" s="289"/>
-      <c r="S65" s="289"/>
-      <c r="T65" s="289" t="s">
+      <c r="Q65" s="153"/>
+      <c r="R65" s="153"/>
+      <c r="S65" s="153"/>
+      <c r="T65" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="289"/>
-      <c r="V65" s="289" t="s">
+      <c r="U65" s="153"/>
+      <c r="V65" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="297"/>
+      <c r="W65" s="166"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="319"/>
-      <c r="M66" s="289"/>
-      <c r="N66" s="289"/>
-      <c r="O66" s="289"/>
-      <c r="P66" s="318" t="s">
+      <c r="L66" s="155"/>
+      <c r="M66" s="153"/>
+      <c r="N66" s="153"/>
+      <c r="O66" s="153"/>
+      <c r="P66" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="318"/>
-      <c r="R66" s="289" t="s">
+      <c r="Q66" s="154"/>
+      <c r="R66" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="289"/>
-      <c r="T66" s="289" t="s">
+      <c r="S66" s="153"/>
+      <c r="T66" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="289"/>
-      <c r="V66" s="289" t="s">
+      <c r="U66" s="153"/>
+      <c r="V66" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="297"/>
+      <c r="W66" s="166"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -6006,22 +6015,22 @@
       <c r="M67" s="62"/>
       <c r="N67" s="62"/>
       <c r="O67" s="60"/>
-      <c r="P67" s="286"/>
-      <c r="Q67" s="286"/>
-      <c r="R67" s="286"/>
-      <c r="S67" s="286"/>
-      <c r="T67" s="286"/>
-      <c r="U67" s="286"/>
-      <c r="V67" s="286"/>
-      <c r="W67" s="287"/>
+      <c r="P67" s="160"/>
+      <c r="Q67" s="160"/>
+      <c r="R67" s="160"/>
+      <c r="S67" s="160"/>
+      <c r="T67" s="160"/>
+      <c r="U67" s="160"/>
+      <c r="V67" s="160"/>
+      <c r="W67" s="186"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="54"/>
       <c r="M68" s="54"/>
-      <c r="N68" s="288"/>
-      <c r="O68" s="288"/>
-      <c r="P68" s="288"/>
-      <c r="Q68" s="288"/>
+      <c r="N68" s="187"/>
+      <c r="O68" s="187"/>
+      <c r="P68" s="187"/>
+      <c r="Q68" s="187"/>
       <c r="R68" s="54"/>
       <c r="S68" s="54"/>
       <c r="T68" s="54"/>
@@ -6030,20 +6039,20 @@
       <c r="W68" s="54"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="307" t="s">
+      <c r="L69" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="308"/>
-      <c r="N69" s="308" t="s">
+      <c r="M69" s="150"/>
+      <c r="N69" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="308"/>
-      <c r="P69" s="308" t="s">
+      <c r="O69" s="150"/>
+      <c r="P69" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="309"/>
-      <c r="R69" s="320"/>
-      <c r="S69" s="320"/>
+      <c r="Q69" s="159"/>
+      <c r="R69" s="156"/>
+      <c r="S69" s="156"/>
       <c r="T69" s="54"/>
       <c r="U69" s="54"/>
       <c r="V69" s="54"/>
@@ -6051,14 +6060,14 @@
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="316"/>
-      <c r="M70" s="317"/>
-      <c r="N70" s="317"/>
-      <c r="O70" s="317"/>
-      <c r="P70" s="317"/>
-      <c r="Q70" s="321"/>
-      <c r="R70" s="322"/>
-      <c r="S70" s="322"/>
+      <c r="L70" s="151"/>
+      <c r="M70" s="152"/>
+      <c r="N70" s="152"/>
+      <c r="O70" s="152"/>
+      <c r="P70" s="152"/>
+      <c r="Q70" s="157"/>
+      <c r="R70" s="158"/>
+      <c r="S70" s="158"/>
       <c r="T70" s="54"/>
       <c r="U70" s="54"/>
       <c r="V70" s="54"/>
@@ -6074,22 +6083,177 @@
     <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="211">
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R67:S67"/>
+  <mergeCells count="209">
+    <mergeCell ref="R55:W55"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="M41:W42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="M46:W47"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S22:T22"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:P32"/>
@@ -6114,178 +6278,21 @@
     <mergeCell ref="S37:T37"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R67:S67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -290,30 +290,30 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ _d_._-;\-* #,##0\ _d_._-;_-* &quot;-&quot;\ _d_._-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _d_._-;\-* #,##0.00\ _d_._-;_-* &quot;-&quot;??\ _d_._-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="General&quot; º&quot;"/>
-    <numFmt numFmtId="172" formatCode="0&quot;м&quot;"/>
-    <numFmt numFmtId="173" formatCode="General&quot; атм&quot;"/>
-    <numFmt numFmtId="174" formatCode="General&quot; м3/т&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.0&quot; м&quot;"/>
-    <numFmt numFmtId="176" formatCode="0&quot; м&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.0&quot;м&quot;"/>
-    <numFmt numFmtId="178" formatCode="&quot;ЭК &quot;0&quot;мм&quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot;0-&quot;0&quot;м&quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot;на гл.&quot;0&quot;м&quot;"/>
-    <numFmt numFmtId="181" formatCode="0&quot;м от устья&quot;"/>
-    <numFmt numFmtId="182" formatCode="&quot;на гл.&quot;0.0&quot;м&quot;"/>
-    <numFmt numFmtId="183" formatCode="General&quot; м3/сут&quot;"/>
-    <numFmt numFmtId="184" formatCode="General&quot; т/сут&quot;"/>
-    <numFmt numFmtId="185" formatCode="0.00&quot; г/см3&quot;"/>
-    <numFmt numFmtId="186" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="187" formatCode="0&quot;ая&quot;"/>
-    <numFmt numFmtId="188" formatCode="0&quot; атм&quot;"/>
-    <numFmt numFmtId="190" formatCode="0&quot;-&quot;"/>
-    <numFmt numFmtId="191" formatCode="0&quot;мм&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.0_ ;\-0.0\ "/>
-    <numFmt numFmtId="193" formatCode="0.0&quot; м3&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.0&quot;-&quot;"/>
-    <numFmt numFmtId="195" formatCode="0.0&quot; мг/дм3&quot;"/>
+    <numFmt numFmtId="170" formatCode="General&quot; º&quot;"/>
+    <numFmt numFmtId="171" formatCode="0&quot;м&quot;"/>
+    <numFmt numFmtId="172" formatCode="General&quot; атм&quot;"/>
+    <numFmt numFmtId="173" formatCode="General&quot; м3/т&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.0&quot; м&quot;"/>
+    <numFmt numFmtId="175" formatCode="0&quot; м&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.0&quot;м&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;ЭК &quot;0&quot;мм&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;0-&quot;0&quot;м&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;на гл.&quot;0&quot;м&quot;"/>
+    <numFmt numFmtId="180" formatCode="0&quot;м от устья&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;на гл.&quot;0.0&quot;м&quot;"/>
+    <numFmt numFmtId="182" formatCode="General&quot; м3/сут&quot;"/>
+    <numFmt numFmtId="183" formatCode="General&quot; т/сут&quot;"/>
+    <numFmt numFmtId="184" formatCode="0.00&quot; г/см3&quot;"/>
+    <numFmt numFmtId="185" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="186" formatCode="0&quot;ая&quot;"/>
+    <numFmt numFmtId="187" formatCode="0&quot; атм&quot;"/>
+    <numFmt numFmtId="188" formatCode="0&quot;-&quot;"/>
+    <numFmt numFmtId="189" formatCode="0&quot;мм&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="191" formatCode="0.0&quot; м3&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.0&quot;-&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.0&quot; мг/дм3&quot;"/>
   </numFmts>
   <fonts count="64" x14ac:knownFonts="1">
     <font>
@@ -2482,10 +2482,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2525,16 +2525,16 @@
     <xf numFmtId="1" fontId="44" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="44" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="44" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="44" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2543,16 +2543,16 @@
     <xf numFmtId="2" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2561,16 +2561,16 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="44" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="44" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="44" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="44" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="44" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="44" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2648,40 +2648,40 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="42" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="42" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2690,11 +2690,11 @@
     <xf numFmtId="164" fontId="35" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,8 +2703,8 @@
     <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2720,20 +2720,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="42" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="42" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,13 +2768,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="37" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2789,25 +2789,25 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="37" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="37" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="37" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="37" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2820,7 +2820,7 @@
     <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2832,49 +2832,100 @@
     <xf numFmtId="14" fontId="31" fillId="0" borderId="34" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,13 +2934,394 @@
     <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2907,457 +3339,25 @@
     <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4231,7 +4231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="R55" sqref="R55:W55"/>
     </sheetView>
   </sheetViews>
@@ -4278,10 +4278,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="259"/>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
       <c r="V1" s="19"/>
       <c r="W1" s="19"/>
     </row>
@@ -4312,28 +4312,28 @@
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="252"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
@@ -4350,19 +4350,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="260" t="s">
+      <c r="M4" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="260"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
     </row>
     <row r="5" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -4377,24 +4377,24 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
-      <c r="U5" s="261"/>
-      <c r="V5" s="261"/>
-      <c r="W5" s="261"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202"/>
+      <c r="W5" s="202"/>
     </row>
     <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="284"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="230"/>
       <c r="F6" s="69"/>
       <c r="G6" s="70"/>
       <c r="H6" s="73"/>
@@ -4402,26 +4402,26 @@
       <c r="J6" s="83"/>
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
-      <c r="M6" s="266" t="s">
+      <c r="M6" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="267"/>
-      <c r="O6" s="267"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="268"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="268"/>
-      <c r="T6" s="268"/>
-      <c r="U6" s="268"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="269"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="209"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="209"/>
+      <c r="V6" s="209"/>
+      <c r="W6" s="210"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="286"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="232"/>
       <c r="F7" s="77"/>
       <c r="G7" s="76"/>
       <c r="H7" s="74"/>
@@ -4429,26 +4429,26 @@
       <c r="J7" s="83"/>
       <c r="K7" s="83"/>
       <c r="L7" s="84"/>
-      <c r="M7" s="191" t="s">
+      <c r="M7" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="262"/>
-      <c r="Q7" s="262"/>
-      <c r="R7" s="262"/>
-      <c r="S7" s="262"/>
-      <c r="T7" s="262"/>
-      <c r="U7" s="262"/>
-      <c r="V7" s="262"/>
-      <c r="W7" s="263"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="204"/>
     </row>
     <row r="8" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="286"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="232"/>
       <c r="F8" s="77"/>
       <c r="G8" s="76"/>
       <c r="H8" s="74"/>
@@ -4456,26 +4456,26 @@
       <c r="J8" s="83"/>
       <c r="K8" s="83"/>
       <c r="L8" s="84"/>
-      <c r="M8" s="270" t="s">
+      <c r="M8" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="271"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="264"/>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="264"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="264"/>
-      <c r="W8" s="265"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="205"/>
+      <c r="U8" s="205"/>
+      <c r="V8" s="205"/>
+      <c r="W8" s="206"/>
     </row>
     <row r="9" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="286"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
       <c r="F9" s="77"/>
       <c r="G9" s="76"/>
       <c r="H9" s="74"/>
@@ -4483,38 +4483,38 @@
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="276" t="s">
+      <c r="M9" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="277"/>
+      <c r="N9" s="220"/>
       <c r="O9" s="45"/>
-      <c r="P9" s="274" t="s">
+      <c r="P9" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="274" t="s">
+      <c r="Q9" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="274" t="s">
+      <c r="R9" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="272" t="s">
+      <c r="S9" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="272"/>
-      <c r="U9" s="274" t="s">
+      <c r="T9" s="215"/>
+      <c r="U9" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="274" t="s">
+      <c r="V9" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="278"/>
+      <c r="W9" s="221"/>
     </row>
     <row r="10" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="285"/>
-      <c r="E10" s="286"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="232"/>
       <c r="F10" s="77"/>
       <c r="G10" s="76"/>
       <c r="H10" s="74"/>
@@ -4522,17 +4522,17 @@
       <c r="J10" s="86"/>
       <c r="K10" s="87"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="279" t="s">
+      <c r="M10" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="280"/>
+      <c r="N10" s="223"/>
       <c r="O10" s="41"/>
-      <c r="P10" s="275"/>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="273"/>
-      <c r="T10" s="273"/>
-      <c r="U10" s="275"/>
+      <c r="P10" s="218"/>
+      <c r="Q10" s="218"/>
+      <c r="R10" s="218"/>
+      <c r="S10" s="216"/>
+      <c r="T10" s="216"/>
+      <c r="U10" s="218"/>
       <c r="V10" s="78" t="s">
         <v>33</v>
       </c>
@@ -4544,8 +4544,8 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="286"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="77"/>
       <c r="G11" s="76"/>
       <c r="H11" s="74"/>
@@ -4553,11 +4553,11 @@
       <c r="J11" s="88"/>
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
-      <c r="M11" s="253" t="s">
+      <c r="M11" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="254"/>
-      <c r="O11" s="255"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="163"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="30"/>
@@ -4571,8 +4571,8 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="288"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
       <c r="F12" s="77"/>
       <c r="G12" s="115"/>
       <c r="H12" s="116"/>
@@ -4580,11 +4580,11 @@
       <c r="J12" s="118"/>
       <c r="K12" s="119"/>
       <c r="L12" s="90"/>
-      <c r="M12" s="253" t="s">
+      <c r="M12" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="254"/>
-      <c r="O12" s="255"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="163"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="31"/>
@@ -4606,11 +4606,11 @@
       <c r="J13" s="91"/>
       <c r="K13" s="91"/>
       <c r="L13" s="92"/>
-      <c r="M13" s="253" t="s">
+      <c r="M13" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="254"/>
-      <c r="O13" s="255"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="163"/>
       <c r="P13" s="80"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
@@ -4632,19 +4632,19 @@
       <c r="J14" s="89"/>
       <c r="K14" s="89"/>
       <c r="L14" s="89"/>
-      <c r="M14" s="181" t="s">
+      <c r="M14" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="182"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="301"/>
-      <c r="R14" s="301"/>
-      <c r="S14" s="304"/>
-      <c r="T14" s="307"/>
-      <c r="U14" s="281"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="177"/>
+      <c r="N14" s="226"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="228"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="300"/>
+      <c r="W14" s="303"/>
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4658,17 +4658,17 @@
       <c r="J15" s="89"/>
       <c r="K15" s="89"/>
       <c r="L15" s="89"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="282"/>
-      <c r="Q15" s="302"/>
-      <c r="R15" s="302"/>
-      <c r="S15" s="305"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="281"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="178"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="228"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="224"/>
+      <c r="V15" s="301"/>
+      <c r="W15" s="304"/>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4682,17 +4682,17 @@
       <c r="J16" s="89"/>
       <c r="K16" s="89"/>
       <c r="L16" s="89"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="282"/>
-      <c r="Q16" s="302"/>
-      <c r="R16" s="302"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="281"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="179"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="228"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="159"/>
+      <c r="U16" s="224"/>
+      <c r="V16" s="301"/>
+      <c r="W16" s="305"/>
       <c r="X16" s="141"/>
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4707,17 +4707,17 @@
       <c r="J17" s="89"/>
       <c r="K17" s="89"/>
       <c r="L17" s="89"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="282"/>
-      <c r="Q17" s="303"/>
-      <c r="R17" s="303"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="309"/>
-      <c r="U17" s="281"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="180"/>
+      <c r="M17" s="225"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="228"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="160"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="306"/>
     </row>
     <row r="18" spans="1:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4731,11 +4731,11 @@
       <c r="J18" s="89"/>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
-      <c r="M18" s="256" t="s">
+      <c r="M18" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="257"/>
-      <c r="O18" s="258"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="199"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
@@ -4760,16 +4760,16 @@
       <c r="J19" s="89"/>
       <c r="K19" s="89"/>
       <c r="L19" s="89"/>
-      <c r="M19" s="313" t="s">
+      <c r="M19" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="314"/>
-      <c r="O19" s="315"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="169"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="320"/>
-      <c r="T19" s="321"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="175"/>
       <c r="U19" s="44"/>
       <c r="V19" s="81"/>
       <c r="W19" s="82"/>
@@ -4787,11 +4787,11 @@
       <c r="J20" s="123"/>
       <c r="K20" s="123"/>
       <c r="L20" s="123"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="183"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="226"/>
+      <c r="Q20" s="227"/>
       <c r="R20" s="32"/>
       <c r="S20" s="142"/>
       <c r="T20" s="143"/>
@@ -4811,9 +4811,9 @@
       <c r="J21" s="124"/>
       <c r="K21" s="125"/>
       <c r="L21" s="125"/>
-      <c r="M21" s="310"/>
-      <c r="N21" s="311"/>
-      <c r="O21" s="312"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="166"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
@@ -4836,16 +4836,16 @@
       <c r="J22" s="134"/>
       <c r="K22" s="126"/>
       <c r="L22" s="126"/>
-      <c r="M22" s="316" t="s">
+      <c r="M22" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="317"/>
-      <c r="O22" s="318"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="172"/>
       <c r="P22" s="110"/>
       <c r="Q22" s="111"/>
       <c r="R22" s="110"/>
-      <c r="S22" s="184"/>
-      <c r="T22" s="185"/>
+      <c r="S22" s="307"/>
+      <c r="T22" s="308"/>
       <c r="U22" s="112"/>
       <c r="V22" s="113"/>
       <c r="W22" s="114"/>
@@ -4863,19 +4863,19 @@
       <c r="J23" s="127"/>
       <c r="K23" s="128"/>
       <c r="L23" s="129"/>
-      <c r="M23" s="244" t="s">
+      <c r="M23" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="244"/>
-      <c r="O23" s="244"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="244"/>
-      <c r="U23" s="244"/>
-      <c r="V23" s="244"/>
-      <c r="W23" s="244"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="180"/>
+      <c r="S23" s="180"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="180"/>
+      <c r="V23" s="180"/>
+      <c r="W23" s="180"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4892,17 +4892,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="123"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="244"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244"/>
-      <c r="R24" s="244"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="244"/>
-      <c r="U24" s="244"/>
-      <c r="V24" s="244"/>
-      <c r="W24" s="244"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="180"/>
+      <c r="Q24" s="180"/>
+      <c r="R24" s="180"/>
+      <c r="S24" s="180"/>
+      <c r="T24" s="180"/>
+      <c r="U24" s="180"/>
+      <c r="V24" s="180"/>
+      <c r="W24" s="180"/>
     </row>
     <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
@@ -4917,27 +4917,27 @@
       <c r="J25" s="133"/>
       <c r="K25" s="124"/>
       <c r="L25" s="125"/>
-      <c r="M25" s="246" t="s">
+      <c r="M25" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="247"/>
-      <c r="O25" s="242" t="s">
+      <c r="N25" s="249"/>
+      <c r="O25" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="242"/>
-      <c r="Q25" s="242" t="s">
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="242"/>
-      <c r="S25" s="242"/>
-      <c r="T25" s="242"/>
-      <c r="U25" s="242" t="s">
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="244"/>
+      <c r="U25" s="244" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="167" t="s">
+      <c r="V25" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="169" t="s">
+      <c r="W25" s="313" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4951,13 +4951,13 @@
       <c r="G26" s="66"/>
       <c r="H26" s="132"/>
       <c r="I26" s="132"/>
-      <c r="J26" s="240"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="248"/>
-      <c r="N26" s="249"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="243"/>
+      <c r="M26" s="250"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="245"/>
       <c r="Q26" s="239" t="s">
         <v>15</v>
       </c>
@@ -4966,9 +4966,9 @@
         <v>16</v>
       </c>
       <c r="T26" s="239"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="170"/>
+      <c r="U26" s="245"/>
+      <c r="V26" s="245"/>
+      <c r="W26" s="314"/>
     </row>
     <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -4983,14 +4983,14 @@
       <c r="J27" s="123"/>
       <c r="K27" s="123"/>
       <c r="L27" s="123"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="182"/>
+      <c r="T27" s="182"/>
       <c r="U27" s="58"/>
       <c r="V27" s="63"/>
       <c r="W27" s="147"/>
@@ -5008,14 +5008,14 @@
       <c r="J28" s="89"/>
       <c r="K28" s="89"/>
       <c r="L28" s="89"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="182"/>
       <c r="U28" s="58"/>
       <c r="V28" s="63"/>
       <c r="W28" s="147"/>
@@ -5033,14 +5033,14 @@
       <c r="J29" s="235"/>
       <c r="K29" s="235"/>
       <c r="L29" s="235"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="182"/>
       <c r="U29" s="58"/>
       <c r="V29" s="63"/>
       <c r="W29" s="147"/>
@@ -5055,17 +5055,17 @@
       <c r="G30" s="66"/>
       <c r="H30" s="3"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
+      <c r="J30" s="240"/>
+      <c r="K30" s="240"/>
+      <c r="L30" s="241"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="182"/>
+      <c r="T30" s="182"/>
       <c r="U30" s="58"/>
       <c r="V30" s="63"/>
       <c r="W30" s="147"/>
@@ -5080,17 +5080,17 @@
       <c r="G31" s="66"/>
       <c r="H31" s="3"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
+      <c r="J31" s="240"/>
+      <c r="K31" s="240"/>
+      <c r="L31" s="241"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182"/>
+      <c r="T31" s="182"/>
       <c r="U31" s="58"/>
       <c r="V31" s="63"/>
       <c r="W31" s="147"/>
@@ -5105,17 +5105,17 @@
       <c r="G32" s="66"/>
       <c r="H32" s="83"/>
       <c r="I32" s="94"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="164"/>
-      <c r="O32" s="164"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
+      <c r="J32" s="240"/>
+      <c r="K32" s="240"/>
+      <c r="L32" s="241"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182"/>
+      <c r="T32" s="182"/>
       <c r="U32" s="58"/>
       <c r="V32" s="63"/>
       <c r="W32" s="147"/>
@@ -5130,17 +5130,17 @@
       <c r="G33" s="66"/>
       <c r="H33" s="83"/>
       <c r="I33" s="94"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
+      <c r="J33" s="240"/>
+      <c r="K33" s="240"/>
+      <c r="L33" s="241"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="182"/>
+      <c r="T33" s="182"/>
       <c r="U33" s="58"/>
       <c r="V33" s="63"/>
       <c r="W33" s="147"/>
@@ -5155,17 +5155,17 @@
       <c r="G34" s="66"/>
       <c r="H34" s="83"/>
       <c r="I34" s="94"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="165"/>
-      <c r="S34" s="165"/>
-      <c r="T34" s="165"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="241"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="182"/>
+      <c r="R34" s="182"/>
+      <c r="S34" s="182"/>
+      <c r="T34" s="182"/>
       <c r="U34" s="58"/>
       <c r="V34" s="63"/>
       <c r="W34" s="147"/>
@@ -5180,17 +5180,17 @@
       <c r="G35" s="66"/>
       <c r="H35" s="83"/>
       <c r="I35" s="94"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="165"/>
-      <c r="R35" s="165"/>
-      <c r="S35" s="165"/>
-      <c r="T35" s="165"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="240"/>
+      <c r="L35" s="241"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="182"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="182"/>
+      <c r="T35" s="182"/>
       <c r="U35" s="58"/>
       <c r="V35" s="63"/>
       <c r="W35" s="147"/>
@@ -5205,17 +5205,17 @@
       <c r="G36" s="66"/>
       <c r="H36" s="83"/>
       <c r="I36" s="94"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="163"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="165"/>
-      <c r="R36" s="165"/>
-      <c r="S36" s="165"/>
-      <c r="T36" s="165"/>
+      <c r="J36" s="240"/>
+      <c r="K36" s="240"/>
+      <c r="L36" s="241"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="182"/>
+      <c r="R36" s="182"/>
+      <c r="S36" s="182"/>
+      <c r="T36" s="182"/>
       <c r="U36" s="58"/>
       <c r="V36" s="63"/>
       <c r="W36" s="147"/>
@@ -5230,17 +5230,17 @@
       <c r="G37" s="66"/>
       <c r="H37" s="83"/>
       <c r="I37" s="94"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
-      <c r="T37" s="165"/>
+      <c r="J37" s="240"/>
+      <c r="K37" s="240"/>
+      <c r="L37" s="241"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="182"/>
+      <c r="S37" s="182"/>
+      <c r="T37" s="182"/>
       <c r="U37" s="58"/>
       <c r="V37" s="63"/>
       <c r="W37" s="147"/>
@@ -5255,17 +5255,17 @@
       <c r="G38" s="66"/>
       <c r="H38" s="83"/>
       <c r="I38" s="94"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="165"/>
-      <c r="R38" s="165"/>
-      <c r="S38" s="165"/>
-      <c r="T38" s="165"/>
+      <c r="J38" s="240"/>
+      <c r="K38" s="240"/>
+      <c r="L38" s="241"/>
+      <c r="M38" s="183"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="182"/>
+      <c r="R38" s="182"/>
+      <c r="S38" s="182"/>
+      <c r="T38" s="182"/>
       <c r="U38" s="58"/>
       <c r="V38" s="63"/>
       <c r="W38" s="147"/>
@@ -5280,17 +5280,17 @@
       <c r="G39" s="66"/>
       <c r="H39" s="83"/>
       <c r="I39" s="94"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="165"/>
-      <c r="S39" s="165"/>
-      <c r="T39" s="165"/>
+      <c r="J39" s="240"/>
+      <c r="K39" s="240"/>
+      <c r="L39" s="241"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="182"/>
+      <c r="S39" s="182"/>
+      <c r="T39" s="182"/>
       <c r="U39" s="58"/>
       <c r="V39" s="63"/>
       <c r="W39" s="147"/>
@@ -5305,17 +5305,17 @@
       <c r="G40" s="66"/>
       <c r="H40" s="83"/>
       <c r="I40" s="94"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
+      <c r="J40" s="240"/>
+      <c r="K40" s="240"/>
+      <c r="L40" s="241"/>
+      <c r="M40" s="315"/>
+      <c r="N40" s="316"/>
+      <c r="O40" s="316"/>
+      <c r="P40" s="316"/>
+      <c r="Q40" s="317"/>
+      <c r="R40" s="317"/>
+      <c r="S40" s="317"/>
+      <c r="T40" s="317"/>
       <c r="U40" s="59"/>
       <c r="V40" s="64"/>
       <c r="W40" s="148"/>
@@ -5333,19 +5333,19 @@
       <c r="J41" s="89"/>
       <c r="K41" s="89"/>
       <c r="L41" s="89"/>
-      <c r="M41" s="244" t="s">
+      <c r="M41" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="N41" s="244"/>
-      <c r="O41" s="244"/>
-      <c r="P41" s="244"/>
-      <c r="Q41" s="244"/>
-      <c r="R41" s="244"/>
-      <c r="S41" s="244"/>
-      <c r="T41" s="244"/>
-      <c r="U41" s="244"/>
-      <c r="V41" s="244"/>
-      <c r="W41" s="244"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
+      <c r="S41" s="180"/>
+      <c r="T41" s="180"/>
+      <c r="U41" s="180"/>
+      <c r="V41" s="180"/>
+      <c r="W41" s="180"/>
     </row>
     <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -5360,17 +5360,17 @@
       <c r="J42" s="93"/>
       <c r="K42" s="95"/>
       <c r="L42" s="84"/>
-      <c r="M42" s="245"/>
-      <c r="N42" s="245"/>
-      <c r="O42" s="245"/>
-      <c r="P42" s="245"/>
-      <c r="Q42" s="245"/>
-      <c r="R42" s="245"/>
-      <c r="S42" s="245"/>
-      <c r="T42" s="245"/>
-      <c r="U42" s="245"/>
-      <c r="V42" s="245"/>
-      <c r="W42" s="245"/>
+      <c r="M42" s="247"/>
+      <c r="N42" s="247"/>
+      <c r="O42" s="247"/>
+      <c r="P42" s="247"/>
+      <c r="Q42" s="247"/>
+      <c r="R42" s="247"/>
+      <c r="S42" s="247"/>
+      <c r="T42" s="247"/>
+      <c r="U42" s="247"/>
+      <c r="V42" s="247"/>
+      <c r="W42" s="247"/>
     </row>
     <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -5385,19 +5385,19 @@
       <c r="J43" s="93"/>
       <c r="K43" s="95"/>
       <c r="L43" s="84"/>
-      <c r="M43" s="250" t="s">
+      <c r="M43" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="251"/>
-      <c r="O43" s="251"/>
-      <c r="P43" s="251"/>
-      <c r="Q43" s="251"/>
-      <c r="R43" s="251"/>
-      <c r="S43" s="251"/>
-      <c r="T43" s="251"/>
-      <c r="U43" s="251"/>
-      <c r="V43" s="291"/>
-      <c r="W43" s="292"/>
+      <c r="N43" s="253"/>
+      <c r="O43" s="253"/>
+      <c r="P43" s="253"/>
+      <c r="Q43" s="253"/>
+      <c r="R43" s="253"/>
+      <c r="S43" s="253"/>
+      <c r="T43" s="253"/>
+      <c r="U43" s="253"/>
+      <c r="V43" s="184"/>
+      <c r="W43" s="185"/>
     </row>
     <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
@@ -5412,19 +5412,19 @@
       <c r="J44" s="93"/>
       <c r="K44" s="95"/>
       <c r="L44" s="84"/>
-      <c r="M44" s="299" t="s">
+      <c r="M44" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="N44" s="300"/>
-      <c r="O44" s="300"/>
-      <c r="P44" s="300"/>
-      <c r="Q44" s="300"/>
-      <c r="R44" s="300"/>
-      <c r="S44" s="300"/>
-      <c r="T44" s="300"/>
-      <c r="U44" s="300"/>
-      <c r="V44" s="293"/>
-      <c r="W44" s="294"/>
+      <c r="N44" s="195"/>
+      <c r="O44" s="195"/>
+      <c r="P44" s="195"/>
+      <c r="Q44" s="195"/>
+      <c r="R44" s="195"/>
+      <c r="S44" s="195"/>
+      <c r="T44" s="195"/>
+      <c r="U44" s="195"/>
+      <c r="V44" s="186"/>
+      <c r="W44" s="187"/>
     </row>
     <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -5450,8 +5450,8 @@
       <c r="S45" s="237"/>
       <c r="T45" s="237"/>
       <c r="U45" s="237"/>
-      <c r="V45" s="189"/>
-      <c r="W45" s="190"/>
+      <c r="V45" s="293"/>
+      <c r="W45" s="294"/>
     </row>
     <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
@@ -5466,19 +5466,19 @@
       <c r="J46" s="89"/>
       <c r="K46" s="89"/>
       <c r="L46" s="89"/>
-      <c r="M46" s="207" t="s">
+      <c r="M46" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="207"/>
-      <c r="O46" s="207"/>
-      <c r="P46" s="207"/>
-      <c r="Q46" s="207"/>
-      <c r="R46" s="207"/>
-      <c r="S46" s="207"/>
-      <c r="T46" s="207"/>
-      <c r="U46" s="207"/>
-      <c r="V46" s="207"/>
-      <c r="W46" s="207"/>
+      <c r="N46" s="277"/>
+      <c r="O46" s="277"/>
+      <c r="P46" s="277"/>
+      <c r="Q46" s="277"/>
+      <c r="R46" s="277"/>
+      <c r="S46" s="277"/>
+      <c r="T46" s="277"/>
+      <c r="U46" s="277"/>
+      <c r="V46" s="277"/>
+      <c r="W46" s="277"/>
     </row>
     <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -5493,17 +5493,17 @@
       <c r="J47" s="89"/>
       <c r="K47" s="89"/>
       <c r="L47" s="89"/>
-      <c r="M47" s="208"/>
-      <c r="N47" s="208"/>
-      <c r="O47" s="208"/>
-      <c r="P47" s="208"/>
-      <c r="Q47" s="208"/>
-      <c r="R47" s="208"/>
-      <c r="S47" s="208"/>
-      <c r="T47" s="208"/>
-      <c r="U47" s="208"/>
-      <c r="V47" s="208"/>
-      <c r="W47" s="208"/>
+      <c r="M47" s="278"/>
+      <c r="N47" s="278"/>
+      <c r="O47" s="278"/>
+      <c r="P47" s="278"/>
+      <c r="Q47" s="278"/>
+      <c r="R47" s="278"/>
+      <c r="S47" s="278"/>
+      <c r="T47" s="278"/>
+      <c r="U47" s="278"/>
+      <c r="V47" s="278"/>
+      <c r="W47" s="278"/>
     </row>
     <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
@@ -5518,19 +5518,19 @@
       <c r="J48" s="89"/>
       <c r="K48" s="83"/>
       <c r="L48" s="83"/>
-      <c r="M48" s="297" t="s">
+      <c r="M48" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="298"/>
-      <c r="O48" s="298"/>
-      <c r="P48" s="298"/>
-      <c r="Q48" s="298"/>
-      <c r="R48" s="218"/>
-      <c r="S48" s="218"/>
-      <c r="T48" s="243"/>
-      <c r="U48" s="243"/>
-      <c r="V48" s="289"/>
-      <c r="W48" s="290"/>
+      <c r="N48" s="191"/>
+      <c r="O48" s="191"/>
+      <c r="P48" s="191"/>
+      <c r="Q48" s="191"/>
+      <c r="R48" s="285"/>
+      <c r="S48" s="285"/>
+      <c r="T48" s="246"/>
+      <c r="U48" s="246"/>
+      <c r="V48" s="178"/>
+      <c r="W48" s="179"/>
     </row>
     <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
@@ -5545,19 +5545,19 @@
       <c r="J49" s="96"/>
       <c r="K49" s="26"/>
       <c r="L49" s="83"/>
-      <c r="M49" s="220" t="s">
+      <c r="M49" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="221"/>
-      <c r="O49" s="221"/>
-      <c r="P49" s="221"/>
-      <c r="Q49" s="221"/>
-      <c r="R49" s="219"/>
-      <c r="S49" s="219"/>
-      <c r="T49" s="209"/>
-      <c r="U49" s="209"/>
-      <c r="V49" s="295"/>
-      <c r="W49" s="296"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="286"/>
+      <c r="S49" s="286"/>
+      <c r="T49" s="279"/>
+      <c r="U49" s="279"/>
+      <c r="V49" s="188"/>
+      <c r="W49" s="189"/>
     </row>
     <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -5572,19 +5572,19 @@
       <c r="J50" s="97"/>
       <c r="K50" s="26"/>
       <c r="L50" s="83"/>
-      <c r="M50" s="220" t="s">
+      <c r="M50" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="221"/>
-      <c r="O50" s="221"/>
-      <c r="P50" s="221"/>
-      <c r="Q50" s="221"/>
+      <c r="N50" s="193"/>
+      <c r="O50" s="193"/>
+      <c r="P50" s="193"/>
+      <c r="Q50" s="193"/>
       <c r="R50" s="238"/>
       <c r="S50" s="238"/>
-      <c r="T50" s="319"/>
-      <c r="U50" s="319"/>
-      <c r="V50" s="193"/>
-      <c r="W50" s="194"/>
+      <c r="T50" s="173"/>
+      <c r="U50" s="173"/>
+      <c r="V50" s="176"/>
+      <c r="W50" s="177"/>
     </row>
     <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
@@ -5599,19 +5599,19 @@
       <c r="J51" s="83"/>
       <c r="K51" s="26"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="220" t="s">
+      <c r="M51" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="N51" s="221"/>
-      <c r="O51" s="221"/>
-      <c r="P51" s="221"/>
-      <c r="Q51" s="221"/>
-      <c r="R51" s="213"/>
-      <c r="S51" s="213"/>
-      <c r="T51" s="202"/>
-      <c r="U51" s="202"/>
-      <c r="V51" s="193"/>
-      <c r="W51" s="194"/>
+      <c r="N51" s="193"/>
+      <c r="O51" s="193"/>
+      <c r="P51" s="193"/>
+      <c r="Q51" s="193"/>
+      <c r="R51" s="283"/>
+      <c r="S51" s="283"/>
+      <c r="T51" s="273"/>
+      <c r="U51" s="273"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="177"/>
     </row>
     <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -5626,21 +5626,21 @@
       <c r="J52" s="100"/>
       <c r="K52" s="100"/>
       <c r="L52" s="100"/>
-      <c r="M52" s="191" t="s">
+      <c r="M52" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="192"/>
-      <c r="O52" s="192"/>
-      <c r="P52" s="192"/>
-      <c r="Q52" s="192"/>
-      <c r="R52" s="205"/>
-      <c r="S52" s="205"/>
-      <c r="T52" s="204" t="s">
+      <c r="N52" s="212"/>
+      <c r="O52" s="212"/>
+      <c r="P52" s="212"/>
+      <c r="Q52" s="212"/>
+      <c r="R52" s="275"/>
+      <c r="S52" s="275"/>
+      <c r="T52" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="U52" s="204"/>
-      <c r="V52" s="195"/>
-      <c r="W52" s="196"/>
+      <c r="U52" s="274"/>
+      <c r="V52" s="295"/>
+      <c r="W52" s="296"/>
     </row>
     <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
@@ -5654,19 +5654,19 @@
       <c r="I53" s="97"/>
       <c r="J53" s="97"/>
       <c r="L53" s="101"/>
-      <c r="M53" s="191" t="s">
+      <c r="M53" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="192"/>
-      <c r="O53" s="192"/>
-      <c r="P53" s="192"/>
-      <c r="Q53" s="192"/>
-      <c r="R53" s="222"/>
-      <c r="S53" s="222"/>
-      <c r="T53" s="210"/>
-      <c r="U53" s="210"/>
-      <c r="V53" s="197"/>
-      <c r="W53" s="198"/>
+      <c r="N53" s="212"/>
+      <c r="O53" s="212"/>
+      <c r="P53" s="212"/>
+      <c r="Q53" s="212"/>
+      <c r="R53" s="287"/>
+      <c r="S53" s="287"/>
+      <c r="T53" s="280"/>
+      <c r="U53" s="280"/>
+      <c r="V53" s="297"/>
+      <c r="W53" s="298"/>
     </row>
     <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
@@ -5681,23 +5681,23 @@
       <c r="J54" s="96"/>
       <c r="K54" s="102"/>
       <c r="L54" s="94"/>
-      <c r="M54" s="220" t="s">
+      <c r="M54" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="221"/>
-      <c r="O54" s="221"/>
-      <c r="P54" s="221"/>
-      <c r="Q54" s="221"/>
-      <c r="R54" s="188"/>
-      <c r="S54" s="188"/>
-      <c r="T54" s="202" t="s">
+      <c r="N54" s="193"/>
+      <c r="O54" s="193"/>
+      <c r="P54" s="193"/>
+      <c r="Q54" s="193"/>
+      <c r="R54" s="292"/>
+      <c r="S54" s="292"/>
+      <c r="T54" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="U54" s="202"/>
-      <c r="V54" s="211"/>
-      <c r="W54" s="212"/>
-    </row>
-    <row r="55" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="273"/>
+      <c r="V54" s="281"/>
+      <c r="W54" s="282"/>
+    </row>
+    <row r="55" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5710,19 +5710,19 @@
       <c r="J55" s="93"/>
       <c r="K55" s="25"/>
       <c r="L55" s="103"/>
-      <c r="M55" s="220" t="s">
+      <c r="M55" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="221"/>
-      <c r="O55" s="221"/>
-      <c r="P55" s="221"/>
-      <c r="Q55" s="221"/>
-      <c r="R55" s="322"/>
-      <c r="S55" s="323"/>
-      <c r="T55" s="323"/>
-      <c r="U55" s="323"/>
-      <c r="V55" s="323"/>
-      <c r="W55" s="324"/>
+      <c r="N55" s="193"/>
+      <c r="O55" s="193"/>
+      <c r="P55" s="193"/>
+      <c r="Q55" s="193"/>
+      <c r="R55" s="149"/>
+      <c r="S55" s="150"/>
+      <c r="T55" s="150"/>
+      <c r="U55" s="150"/>
+      <c r="V55" s="150"/>
+      <c r="W55" s="151"/>
     </row>
     <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
@@ -5737,19 +5737,19 @@
       <c r="J56" s="104"/>
       <c r="K56" s="83"/>
       <c r="L56" s="105"/>
-      <c r="M56" s="191" t="s">
+      <c r="M56" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="201"/>
-      <c r="S56" s="201"/>
-      <c r="T56" s="203"/>
-      <c r="U56" s="203"/>
-      <c r="V56" s="203"/>
-      <c r="W56" s="224"/>
+      <c r="N56" s="212"/>
+      <c r="O56" s="212"/>
+      <c r="P56" s="212"/>
+      <c r="Q56" s="212"/>
+      <c r="R56" s="255"/>
+      <c r="S56" s="255"/>
+      <c r="T56" s="256"/>
+      <c r="U56" s="256"/>
+      <c r="V56" s="256"/>
+      <c r="W56" s="257"/>
     </row>
     <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
@@ -5764,19 +5764,19 @@
       <c r="J57" s="83"/>
       <c r="K57" s="83"/>
       <c r="L57" s="106"/>
-      <c r="M57" s="191" t="s">
+      <c r="M57" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="N57" s="192"/>
-      <c r="O57" s="192"/>
-      <c r="P57" s="192"/>
-      <c r="Q57" s="192"/>
-      <c r="R57" s="201"/>
-      <c r="S57" s="201"/>
-      <c r="T57" s="206"/>
-      <c r="U57" s="206"/>
-      <c r="V57" s="203"/>
-      <c r="W57" s="224"/>
+      <c r="N57" s="212"/>
+      <c r="O57" s="212"/>
+      <c r="P57" s="212"/>
+      <c r="Q57" s="212"/>
+      <c r="R57" s="255"/>
+      <c r="S57" s="255"/>
+      <c r="T57" s="276"/>
+      <c r="U57" s="276"/>
+      <c r="V57" s="256"/>
+      <c r="W57" s="257"/>
     </row>
     <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
@@ -5791,21 +5791,21 @@
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
       <c r="L58" s="84"/>
-      <c r="M58" s="191" t="s">
+      <c r="M58" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="192"/>
-      <c r="O58" s="192"/>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="192"/>
-      <c r="R58" s="229"/>
-      <c r="S58" s="229"/>
-      <c r="T58" s="201" t="s">
+      <c r="N58" s="212"/>
+      <c r="O58" s="212"/>
+      <c r="P58" s="212"/>
+      <c r="Q58" s="212"/>
+      <c r="R58" s="262"/>
+      <c r="S58" s="262"/>
+      <c r="T58" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="U58" s="201"/>
-      <c r="V58" s="225"/>
-      <c r="W58" s="226"/>
+      <c r="U58" s="255"/>
+      <c r="V58" s="258"/>
+      <c r="W58" s="259"/>
     </row>
     <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
@@ -5820,19 +5820,19 @@
       <c r="J59" s="108"/>
       <c r="K59" s="108"/>
       <c r="L59" s="108"/>
-      <c r="M59" s="220" t="s">
+      <c r="M59" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="221"/>
-      <c r="O59" s="221"/>
-      <c r="P59" s="221"/>
-      <c r="Q59" s="221"/>
-      <c r="R59" s="214"/>
-      <c r="S59" s="214"/>
-      <c r="T59" s="201"/>
-      <c r="U59" s="201"/>
-      <c r="V59" s="216"/>
-      <c r="W59" s="217"/>
+      <c r="N59" s="193"/>
+      <c r="O59" s="193"/>
+      <c r="P59" s="193"/>
+      <c r="Q59" s="193"/>
+      <c r="R59" s="267"/>
+      <c r="S59" s="267"/>
+      <c r="T59" s="255"/>
+      <c r="U59" s="255"/>
+      <c r="V59" s="265"/>
+      <c r="W59" s="266"/>
     </row>
     <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
@@ -5847,19 +5847,19 @@
       <c r="J60" s="108"/>
       <c r="K60" s="108"/>
       <c r="L60" s="108"/>
-      <c r="M60" s="220" t="s">
+      <c r="M60" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="N60" s="221"/>
-      <c r="O60" s="221"/>
-      <c r="P60" s="221"/>
-      <c r="Q60" s="221"/>
-      <c r="R60" s="214"/>
-      <c r="S60" s="214"/>
-      <c r="T60" s="201"/>
-      <c r="U60" s="201"/>
-      <c r="V60" s="216"/>
-      <c r="W60" s="217"/>
+      <c r="N60" s="193"/>
+      <c r="O60" s="193"/>
+      <c r="P60" s="193"/>
+      <c r="Q60" s="193"/>
+      <c r="R60" s="267"/>
+      <c r="S60" s="267"/>
+      <c r="T60" s="255"/>
+      <c r="U60" s="255"/>
+      <c r="V60" s="265"/>
+      <c r="W60" s="266"/>
     </row>
     <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -5870,25 +5870,25 @@
       <c r="F61" s="65"/>
       <c r="G61" s="66"/>
       <c r="H61" s="83"/>
-      <c r="I61" s="223" t="s">
+      <c r="I61" s="254" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="223"/>
-      <c r="K61" s="223"/>
-      <c r="L61" s="223"/>
-      <c r="M61" s="220" t="s">
+      <c r="J61" s="254"/>
+      <c r="K61" s="254"/>
+      <c r="L61" s="254"/>
+      <c r="M61" s="192" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="221"/>
-      <c r="O61" s="221"/>
-      <c r="P61" s="221"/>
-      <c r="Q61" s="221"/>
-      <c r="R61" s="215"/>
-      <c r="S61" s="215"/>
-      <c r="T61" s="230"/>
-      <c r="U61" s="230"/>
-      <c r="V61" s="227"/>
-      <c r="W61" s="228"/>
+      <c r="N61" s="193"/>
+      <c r="O61" s="193"/>
+      <c r="P61" s="193"/>
+      <c r="Q61" s="193"/>
+      <c r="R61" s="284"/>
+      <c r="S61" s="284"/>
+      <c r="T61" s="263"/>
+      <c r="U61" s="263"/>
+      <c r="V61" s="260"/>
+      <c r="W61" s="261"/>
     </row>
     <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -5899,23 +5899,23 @@
       <c r="F62" s="67"/>
       <c r="G62" s="68"/>
       <c r="H62" s="83"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="162"/>
-      <c r="M62" s="232" t="s">
+      <c r="I62" s="240"/>
+      <c r="J62" s="240"/>
+      <c r="K62" s="240"/>
+      <c r="L62" s="241"/>
+      <c r="M62" s="268" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="233"/>
-      <c r="O62" s="233"/>
-      <c r="P62" s="233"/>
-      <c r="Q62" s="233"/>
-      <c r="R62" s="234"/>
-      <c r="S62" s="234"/>
-      <c r="T62" s="231"/>
-      <c r="U62" s="231"/>
-      <c r="V62" s="199"/>
-      <c r="W62" s="200"/>
+      <c r="N62" s="269"/>
+      <c r="O62" s="269"/>
+      <c r="P62" s="269"/>
+      <c r="Q62" s="269"/>
+      <c r="R62" s="270"/>
+      <c r="S62" s="270"/>
+      <c r="T62" s="264"/>
+      <c r="U62" s="264"/>
+      <c r="V62" s="271"/>
+      <c r="W62" s="272"/>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
@@ -5942,72 +5942,72 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="149" t="s">
+      <c r="L64" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="150"/>
-      <c r="N64" s="150"/>
-      <c r="O64" s="150"/>
-      <c r="P64" s="150"/>
-      <c r="Q64" s="150"/>
-      <c r="R64" s="150"/>
-      <c r="S64" s="150"/>
-      <c r="T64" s="150"/>
-      <c r="U64" s="150"/>
-      <c r="V64" s="150"/>
-      <c r="W64" s="159"/>
+      <c r="M64" s="310"/>
+      <c r="N64" s="310"/>
+      <c r="O64" s="310"/>
+      <c r="P64" s="310"/>
+      <c r="Q64" s="310"/>
+      <c r="R64" s="310"/>
+      <c r="S64" s="310"/>
+      <c r="T64" s="310"/>
+      <c r="U64" s="310"/>
+      <c r="V64" s="310"/>
+      <c r="W64" s="311"/>
     </row>
     <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="L65" s="155" t="s">
+      <c r="L65" s="321" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="153" t="s">
+      <c r="M65" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="153" t="s">
+      <c r="N65" s="291" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="153" t="s">
+      <c r="O65" s="291" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="153" t="s">
+      <c r="P65" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="153"/>
-      <c r="R65" s="153"/>
-      <c r="S65" s="153"/>
-      <c r="T65" s="153" t="s">
+      <c r="Q65" s="291"/>
+      <c r="R65" s="291"/>
+      <c r="S65" s="291"/>
+      <c r="T65" s="291" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="153"/>
-      <c r="V65" s="153" t="s">
+      <c r="U65" s="291"/>
+      <c r="V65" s="291" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="166"/>
+      <c r="W65" s="299"/>
     </row>
     <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="153"/>
-      <c r="N66" s="153"/>
-      <c r="O66" s="153"/>
-      <c r="P66" s="154" t="s">
+      <c r="L66" s="321"/>
+      <c r="M66" s="291"/>
+      <c r="N66" s="291"/>
+      <c r="O66" s="291"/>
+      <c r="P66" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="154"/>
-      <c r="R66" s="153" t="s">
+      <c r="Q66" s="320"/>
+      <c r="R66" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="153"/>
-      <c r="T66" s="153" t="s">
+      <c r="S66" s="291"/>
+      <c r="T66" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="153"/>
-      <c r="V66" s="153" t="s">
+      <c r="U66" s="291"/>
+      <c r="V66" s="291" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="166"/>
+      <c r="W66" s="299"/>
     </row>
     <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -6015,22 +6015,22 @@
       <c r="M67" s="62"/>
       <c r="N67" s="62"/>
       <c r="O67" s="60"/>
-      <c r="P67" s="160"/>
-      <c r="Q67" s="160"/>
-      <c r="R67" s="160"/>
-      <c r="S67" s="160"/>
-      <c r="T67" s="160"/>
-      <c r="U67" s="160"/>
-      <c r="V67" s="160"/>
-      <c r="W67" s="186"/>
+      <c r="P67" s="288"/>
+      <c r="Q67" s="288"/>
+      <c r="R67" s="288"/>
+      <c r="S67" s="288"/>
+      <c r="T67" s="288"/>
+      <c r="U67" s="288"/>
+      <c r="V67" s="288"/>
+      <c r="W67" s="289"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="54"/>
       <c r="M68" s="54"/>
-      <c r="N68" s="187"/>
-      <c r="O68" s="187"/>
-      <c r="P68" s="187"/>
-      <c r="Q68" s="187"/>
+      <c r="N68" s="290"/>
+      <c r="O68" s="290"/>
+      <c r="P68" s="290"/>
+      <c r="Q68" s="290"/>
       <c r="R68" s="54"/>
       <c r="S68" s="54"/>
       <c r="T68" s="54"/>
@@ -6039,20 +6039,20 @@
       <c r="W68" s="54"/>
     </row>
     <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="149" t="s">
+      <c r="L69" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="150"/>
-      <c r="N69" s="150" t="s">
+      <c r="M69" s="310"/>
+      <c r="N69" s="310" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="150"/>
-      <c r="P69" s="150" t="s">
+      <c r="O69" s="310"/>
+      <c r="P69" s="310" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="156"/>
-      <c r="S69" s="156"/>
+      <c r="Q69" s="311"/>
+      <c r="R69" s="322"/>
+      <c r="S69" s="322"/>
       <c r="T69" s="54"/>
       <c r="U69" s="54"/>
       <c r="V69" s="54"/>
@@ -6060,14 +6060,14 @@
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="L70" s="151"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="152"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="152"/>
-      <c r="Q70" s="157"/>
-      <c r="R70" s="158"/>
-      <c r="S70" s="158"/>
+      <c r="L70" s="318"/>
+      <c r="M70" s="319"/>
+      <c r="N70" s="319"/>
+      <c r="O70" s="319"/>
+      <c r="P70" s="319"/>
+      <c r="Q70" s="323"/>
+      <c r="R70" s="324"/>
+      <c r="S70" s="324"/>
       <c r="T70" s="54"/>
       <c r="U70" s="54"/>
       <c r="V70" s="54"/>
@@ -6084,6 +6084,191 @@
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="209">
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="L64:W64"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="M46:W47"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="M41:W42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
     <mergeCell ref="R55:W55"/>
     <mergeCell ref="Q14:Q17"/>
     <mergeCell ref="R14:R17"/>
@@ -6108,191 +6293,6 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="V43:W43"/>
     <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R67:S67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -19,21 +19,21 @@
     <definedName name="element_1">СХЕМА!$U$19</definedName>
     <definedName name="воронка">СХЕМА!$S$22</definedName>
     <definedName name="воронка_">СХЕМА!$S$22</definedName>
-    <definedName name="забой">СХЕМА!$V$44</definedName>
-    <definedName name="забой_">СХЕМА!$V$44</definedName>
-    <definedName name="м">СХЕМА!$A$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">СХЕМА!$B$1:$W$75</definedName>
-    <definedName name="объем_глушения">СХЕМА!$V$52</definedName>
+    <definedName name="забой">СХЕМА!$V$45</definedName>
+    <definedName name="забой_">СХЕМА!$V$45</definedName>
+    <definedName name="м">СХЕМА!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">СХЕМА!$B$1:$W$76</definedName>
+    <definedName name="объем_глушения">СХЕМА!$V$53</definedName>
     <definedName name="объем_трубного">СХЕМА!$W$17+СХЕМА!$W$18+СХЕМА!$W$19</definedName>
     <definedName name="пакер">СХЕМА!$U$19</definedName>
-    <definedName name="раствор_глушения">СХЕМА!$R$52</definedName>
+    <definedName name="раствор_глушения">СХЕМА!$R$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Тек. Забой по ПЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -2430,7 +2433,7 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2444,7 +2447,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2462,9 +2464,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2480,11 +2479,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="176" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2494,7 +2488,6 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2832,6 +2825,277 @@
     <xf numFmtId="14" fontId="31" fillId="0" borderId="34" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2839,6 +3103,177 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2868,15 +3303,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2904,39 +3330,18 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2947,417 +3352,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3828,13 +3822,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>602633</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4229,21 +4223,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X117"/>
+  <dimension ref="B1:Y118"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55:W55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="1.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="47" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" style="1" customWidth="1"/>
@@ -4260,33 +4254,31 @@
     <col min="23" max="23" width="21.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+    <row r="1" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -4310,35 +4302,33 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="196" t="s">
+    <row r="3" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="266" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="266"/>
+      <c r="O3" s="266"/>
+      <c r="P3" s="266"/>
+      <c r="Q3" s="266"/>
+      <c r="R3" s="266"/>
+      <c r="S3" s="266"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4348,24 +4338,23 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="201" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
-      <c r="T4" s="201"/>
-      <c r="U4" s="201"/>
-      <c r="V4" s="201"/>
-      <c r="W4" s="201"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="245"/>
+      <c r="S4" s="245"/>
+      <c r="T4" s="245"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="245"/>
+      <c r="W4" s="245"/>
+    </row>
+    <row r="5" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4376,1859 +4365,1725 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
-      <c r="P5" s="202"/>
-      <c r="Q5" s="202"/>
-      <c r="R5" s="202"/>
-      <c r="S5" s="202"/>
-      <c r="T5" s="202"/>
-      <c r="U5" s="202"/>
-      <c r="V5" s="202"/>
-      <c r="W5" s="202"/>
-    </row>
-    <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="246"/>
+      <c r="R5" s="246"/>
+      <c r="S5" s="246"/>
+      <c r="T5" s="246"/>
+      <c r="U5" s="246"/>
+      <c r="V5" s="246"/>
+      <c r="W5" s="246"/>
+    </row>
+    <row r="6" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="207" t="s">
+      <c r="D6" s="275"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="208"/>
-      <c r="O6" s="208"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
-      <c r="V6" s="209"/>
-      <c r="W6" s="210"/>
-    </row>
-    <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="253"/>
+      <c r="Q6" s="253"/>
+      <c r="R6" s="253"/>
+      <c r="S6" s="253"/>
+      <c r="T6" s="253"/>
+      <c r="U6" s="253"/>
+      <c r="V6" s="253"/>
+      <c r="W6" s="254"/>
+    </row>
+    <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="211" t="s">
+      <c r="D7" s="277"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="204"/>
-    </row>
-    <row r="8" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="247"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="248"/>
+    </row>
+    <row r="8" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="213" t="s">
+      <c r="D8" s="277"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="214"/>
-      <c r="O8" s="214"/>
-      <c r="P8" s="205"/>
-      <c r="Q8" s="205"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="205"/>
-      <c r="T8" s="205"/>
-      <c r="U8" s="205"/>
-      <c r="V8" s="205"/>
-      <c r="W8" s="206"/>
-    </row>
-    <row r="9" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21"/>
+      <c r="N8" s="256"/>
+      <c r="O8" s="256"/>
+      <c r="P8" s="249"/>
+      <c r="Q8" s="249"/>
+      <c r="R8" s="249"/>
+      <c r="S8" s="249"/>
+      <c r="T8" s="249"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="249"/>
+      <c r="W8" s="250"/>
+    </row>
+    <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="219" t="s">
+      <c r="D9" s="277"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="220"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="217" t="s">
+      <c r="N9" s="262"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="259" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="217" t="s">
+      <c r="Q9" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="217" t="s">
+      <c r="R9" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="215" t="s">
+      <c r="S9" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="215"/>
-      <c r="U9" s="217" t="s">
+      <c r="T9" s="257"/>
+      <c r="U9" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="217" t="s">
+      <c r="V9" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="221"/>
-    </row>
-    <row r="10" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="W9" s="263"/>
+    </row>
+    <row r="10" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="222" t="s">
+      <c r="D10" s="277"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="223"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="216"/>
-      <c r="T10" s="216"/>
-      <c r="U10" s="218"/>
-      <c r="V10" s="78" t="s">
+      <c r="N10" s="265"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="260"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="260"/>
+      <c r="V10" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="W10" s="46" t="s">
+      <c r="W10" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+    <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="161" t="s">
+      <c r="D11" s="277"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="267" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="162"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="47"/>
-    </row>
-    <row r="12" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="269"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="39"/>
+    </row>
+    <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="161" t="s">
+      <c r="D12" s="279"/>
+      <c r="E12" s="280"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="162"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="47"/>
-    </row>
-    <row r="13" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="268"/>
+      <c r="O12" s="269"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="39"/>
+    </row>
+    <row r="13" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="161" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="267" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="162"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="47"/>
-    </row>
-    <row r="14" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="268"/>
+      <c r="O13" s="269"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="39"/>
+    </row>
+    <row r="14" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="225" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="226"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="300"/>
-      <c r="W14" s="303"/>
-    </row>
-    <row r="15" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="192"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="274"/>
+      <c r="Q14" s="292"/>
+      <c r="R14" s="292"/>
+      <c r="S14" s="295"/>
+      <c r="T14" s="298"/>
+      <c r="U14" s="273"/>
+      <c r="V14" s="184"/>
+      <c r="W14" s="187"/>
+    </row>
+    <row r="15" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="228"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="224"/>
-      <c r="V15" s="301"/>
-      <c r="W15" s="304"/>
-    </row>
-    <row r="16" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="8"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="274"/>
+      <c r="Q15" s="293"/>
+      <c r="R15" s="293"/>
+      <c r="S15" s="296"/>
+      <c r="T15" s="299"/>
+      <c r="U15" s="273"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="188"/>
+    </row>
+    <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="225"/>
-      <c r="N16" s="226"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="228"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="224"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="305"/>
-      <c r="X16" s="141"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="8"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="274"/>
+      <c r="Q16" s="293"/>
+      <c r="R16" s="293"/>
+      <c r="S16" s="296"/>
+      <c r="T16" s="299"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="133"/>
+    </row>
+    <row r="17" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="225"/>
-      <c r="N17" s="226"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="228"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="306"/>
-    </row>
-    <row r="18" spans="1:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="8"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="274"/>
+      <c r="Q17" s="294"/>
+      <c r="R17" s="294"/>
+      <c r="S17" s="297"/>
+      <c r="T17" s="300"/>
+      <c r="U17" s="273"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="190"/>
+    </row>
+    <row r="18" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="197" t="s">
+      <c r="I18" s="8"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="270" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="198"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="52">
+      <c r="N18" s="271"/>
+      <c r="O18" s="272"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44">
         <f>V18*(T18-S18)/1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="167" t="s">
+      <c r="I19" s="8"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="304" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="168"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="175"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="82"/>
-    </row>
-    <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="N19" s="305"/>
+      <c r="O19" s="306"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="310"/>
+      <c r="T19" s="311"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="74"/>
+    </row>
+    <row r="20" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="226"/>
-      <c r="P20" s="226"/>
-      <c r="Q20" s="227"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="47"/>
-    </row>
-    <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="39"/>
+    </row>
+    <row r="21" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="53"/>
-    </row>
-    <row r="22" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="301"/>
+      <c r="N21" s="302"/>
+      <c r="O21" s="303"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="45"/>
+    </row>
+    <row r="22" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="170" t="s">
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="307" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="171"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="307"/>
-      <c r="T22" s="308"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="114"/>
-    </row>
-    <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="N22" s="308"/>
+      <c r="O22" s="309"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="106"/>
+    </row>
+    <row r="23" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="180" t="s">
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="180"/>
-      <c r="R23" s="180"/>
-      <c r="S23" s="180"/>
-      <c r="T23" s="180"/>
-      <c r="U23" s="180"/>
-      <c r="V23" s="180"/>
-      <c r="W23" s="180"/>
-    </row>
-    <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="N23" s="286"/>
+      <c r="O23" s="286"/>
+      <c r="P23" s="286"/>
+      <c r="Q23" s="286"/>
+      <c r="R23" s="286"/>
+      <c r="S23" s="286"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="286"/>
+      <c r="V23" s="286"/>
+      <c r="W23" s="286"/>
+    </row>
+    <row r="24" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="123" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="123"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="180"/>
-      <c r="R24" s="180"/>
-      <c r="S24" s="180"/>
-      <c r="T24" s="180"/>
-      <c r="U24" s="180"/>
-      <c r="V24" s="180"/>
-      <c r="W24" s="180"/>
-    </row>
-    <row r="25" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="286"/>
+      <c r="N24" s="286"/>
+      <c r="O24" s="286"/>
+      <c r="P24" s="286"/>
+      <c r="Q24" s="286"/>
+      <c r="R24" s="286"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="286"/>
+      <c r="U24" s="286"/>
+      <c r="V24" s="286"/>
+      <c r="W24" s="286"/>
+    </row>
+    <row r="25" spans="2:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="248" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="288" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="249"/>
-      <c r="O25" s="244" t="s">
+      <c r="N25" s="289"/>
+      <c r="O25" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244" t="s">
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="244"/>
-      <c r="U25" s="244" t="s">
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+      <c r="U25" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="312" t="s">
+      <c r="V25" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="313" t="s">
+      <c r="W25" s="159" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+    <row r="26" spans="2:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="250"/>
-      <c r="N26" s="251"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="239" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="284"/>
+      <c r="K26" s="284"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="290"/>
+      <c r="N26" s="291"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="239"/>
-      <c r="S26" s="239" t="s">
+      <c r="R26" s="223"/>
+      <c r="S26" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="239"/>
-      <c r="U26" s="245"/>
-      <c r="V26" s="245"/>
-      <c r="W26" s="314"/>
-    </row>
-    <row r="27" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="160"/>
+    </row>
+    <row r="27" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="147"/>
-    </row>
-    <row r="28" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="168"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="139"/>
+    </row>
+    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="147"/>
-    </row>
-    <row r="29" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="168"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="139"/>
+    </row>
+    <row r="29" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="235"/>
-      <c r="K29" s="235"/>
-      <c r="L29" s="235"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="147"/>
-    </row>
-    <row r="30" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="281"/>
+      <c r="K29" s="281"/>
+      <c r="L29" s="281"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="139"/>
+    </row>
+    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="240"/>
-      <c r="K30" s="240"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="147"/>
-    </row>
-    <row r="31" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="139"/>
+    </row>
+    <row r="31" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="240"/>
-      <c r="K31" s="240"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="147"/>
-    </row>
-    <row r="32" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="168"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="139"/>
+    </row>
+    <row r="32" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="240"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="241"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="147"/>
-    </row>
-    <row r="33" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="168"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="139"/>
+    </row>
+    <row r="33" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="240"/>
-      <c r="K33" s="240"/>
-      <c r="L33" s="241"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="147"/>
-    </row>
-    <row r="34" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="168"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="139"/>
+    </row>
+    <row r="34" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="240"/>
-      <c r="K34" s="240"/>
-      <c r="L34" s="241"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
-      <c r="P34" s="181"/>
-      <c r="Q34" s="182"/>
-      <c r="R34" s="182"/>
-      <c r="S34" s="182"/>
-      <c r="T34" s="182"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="147"/>
-    </row>
-    <row r="35" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="168"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="168"/>
+      <c r="T34" s="168"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="139"/>
+    </row>
+    <row r="35" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="240"/>
-      <c r="K35" s="240"/>
-      <c r="L35" s="241"/>
-      <c r="M35" s="183"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="182"/>
-      <c r="S35" s="182"/>
-      <c r="T35" s="182"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="147"/>
-    </row>
-    <row r="36" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
+      <c r="P35" s="167"/>
+      <c r="Q35" s="168"/>
+      <c r="R35" s="168"/>
+      <c r="S35" s="168"/>
+      <c r="T35" s="168"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="139"/>
+    </row>
+    <row r="36" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="240"/>
-      <c r="K36" s="240"/>
-      <c r="L36" s="241"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="181"/>
-      <c r="O36" s="181"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="182"/>
-      <c r="R36" s="182"/>
-      <c r="S36" s="182"/>
-      <c r="T36" s="182"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="147"/>
-    </row>
-    <row r="37" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="168"/>
+      <c r="R36" s="168"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="168"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="139"/>
+    </row>
+    <row r="37" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="240"/>
-      <c r="K37" s="240"/>
-      <c r="L37" s="241"/>
-      <c r="M37" s="183"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="182"/>
-      <c r="R37" s="182"/>
-      <c r="S37" s="182"/>
-      <c r="T37" s="182"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="147"/>
-    </row>
-    <row r="38" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="167"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="168"/>
+      <c r="R37" s="168"/>
+      <c r="S37" s="168"/>
+      <c r="T37" s="168"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="139"/>
+    </row>
+    <row r="38" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="240"/>
-      <c r="K38" s="240"/>
-      <c r="L38" s="241"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="181"/>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="182"/>
-      <c r="R38" s="182"/>
-      <c r="S38" s="182"/>
-      <c r="T38" s="182"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="147"/>
-    </row>
-    <row r="39" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="167"/>
+      <c r="O38" s="167"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="168"/>
+      <c r="R38" s="168"/>
+      <c r="S38" s="168"/>
+      <c r="T38" s="168"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="139"/>
+    </row>
+    <row r="39" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="240"/>
-      <c r="K39" s="240"/>
-      <c r="L39" s="241"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182"/>
-      <c r="S39" s="182"/>
-      <c r="T39" s="182"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="147"/>
-    </row>
-    <row r="40" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="167"/>
+      <c r="O39" s="167"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="168"/>
+      <c r="R39" s="168"/>
+      <c r="S39" s="168"/>
+      <c r="T39" s="168"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="139"/>
+    </row>
+    <row r="40" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="240"/>
-      <c r="K40" s="240"/>
-      <c r="L40" s="241"/>
-      <c r="M40" s="315"/>
-      <c r="N40" s="316"/>
-      <c r="O40" s="316"/>
-      <c r="P40" s="316"/>
-      <c r="Q40" s="317"/>
-      <c r="R40" s="317"/>
-      <c r="S40" s="317"/>
-      <c r="T40" s="317"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="148"/>
-    </row>
-    <row r="41" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="163"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="165"/>
+      <c r="R40" s="165"/>
+      <c r="S40" s="165"/>
+      <c r="T40" s="165"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="140"/>
+    </row>
+    <row r="41" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="180" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="180"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
-      <c r="S41" s="180"/>
-      <c r="T41" s="180"/>
-      <c r="U41" s="180"/>
-      <c r="V41" s="180"/>
-      <c r="W41" s="180"/>
-    </row>
-    <row r="42" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="162"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="164"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="165"/>
+      <c r="R41" s="165"/>
+      <c r="S41" s="165"/>
+      <c r="T41" s="165"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="140"/>
+    </row>
+    <row r="42" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="247"/>
-      <c r="N42" s="247"/>
-      <c r="O42" s="247"/>
-      <c r="P42" s="247"/>
-      <c r="Q42" s="247"/>
-      <c r="R42" s="247"/>
-      <c r="S42" s="247"/>
-      <c r="T42" s="247"/>
-      <c r="U42" s="247"/>
-      <c r="V42" s="247"/>
-      <c r="W42" s="247"/>
-    </row>
-    <row r="43" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="3"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="286" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="286"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="286"/>
+      <c r="Q42" s="286"/>
+      <c r="R42" s="286"/>
+      <c r="S42" s="286"/>
+      <c r="T42" s="286"/>
+      <c r="U42" s="286"/>
+      <c r="V42" s="286"/>
+      <c r="W42" s="286"/>
+    </row>
+    <row r="43" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="252" t="s">
-        <v>63</v>
-      </c>
-      <c r="N43" s="253"/>
-      <c r="O43" s="253"/>
-      <c r="P43" s="253"/>
-      <c r="Q43" s="253"/>
-      <c r="R43" s="253"/>
-      <c r="S43" s="253"/>
-      <c r="T43" s="253"/>
-      <c r="U43" s="253"/>
-      <c r="V43" s="184"/>
-      <c r="W43" s="185"/>
-    </row>
-    <row r="44" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="287"/>
+      <c r="N43" s="287"/>
+      <c r="O43" s="287"/>
+      <c r="P43" s="287"/>
+      <c r="Q43" s="287"/>
+      <c r="R43" s="287"/>
+      <c r="S43" s="287"/>
+      <c r="T43" s="287"/>
+      <c r="U43" s="287"/>
+      <c r="V43" s="287"/>
+      <c r="W43" s="287"/>
+      <c r="Y43" s="141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="194" t="s">
-        <v>62</v>
-      </c>
-      <c r="N44" s="195"/>
-      <c r="O44" s="195"/>
-      <c r="P44" s="195"/>
-      <c r="Q44" s="195"/>
-      <c r="R44" s="195"/>
-      <c r="S44" s="195"/>
-      <c r="T44" s="195"/>
-      <c r="U44" s="195"/>
-      <c r="V44" s="186"/>
-      <c r="W44" s="187"/>
-    </row>
-    <row r="45" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="221" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="222"/>
+      <c r="O44" s="222"/>
+      <c r="P44" s="222"/>
+      <c r="Q44" s="222"/>
+      <c r="R44" s="222"/>
+      <c r="S44" s="222"/>
+      <c r="T44" s="222"/>
+      <c r="U44" s="222"/>
+      <c r="V44" s="314"/>
+      <c r="W44" s="315"/>
+    </row>
+    <row r="45" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="236" t="s">
-        <v>37</v>
-      </c>
-      <c r="N45" s="237"/>
-      <c r="O45" s="237"/>
-      <c r="P45" s="237"/>
-      <c r="Q45" s="237"/>
-      <c r="R45" s="237"/>
-      <c r="S45" s="237"/>
-      <c r="T45" s="237"/>
-      <c r="U45" s="237"/>
-      <c r="V45" s="293"/>
-      <c r="W45" s="294"/>
-    </row>
-    <row r="46" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="228" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="229"/>
+      <c r="O45" s="229"/>
+      <c r="P45" s="229"/>
+      <c r="Q45" s="229"/>
+      <c r="R45" s="229"/>
+      <c r="S45" s="229"/>
+      <c r="T45" s="229"/>
+      <c r="U45" s="229"/>
+      <c r="V45" s="316"/>
+      <c r="W45" s="317"/>
+    </row>
+    <row r="46" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="277" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="277"/>
-      <c r="O46" s="277"/>
-      <c r="P46" s="277"/>
-      <c r="Q46" s="277"/>
-      <c r="R46" s="277"/>
-      <c r="S46" s="277"/>
-      <c r="T46" s="277"/>
-      <c r="U46" s="277"/>
-      <c r="V46" s="277"/>
-      <c r="W46" s="277"/>
-    </row>
-    <row r="47" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="282" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" s="283"/>
+      <c r="O46" s="283"/>
+      <c r="P46" s="283"/>
+      <c r="Q46" s="283"/>
+      <c r="R46" s="283"/>
+      <c r="S46" s="283"/>
+      <c r="T46" s="283"/>
+      <c r="U46" s="283"/>
+      <c r="V46" s="174"/>
+      <c r="W46" s="175"/>
+    </row>
+    <row r="47" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="278"/>
-      <c r="N47" s="278"/>
-      <c r="O47" s="278"/>
-      <c r="P47" s="278"/>
-      <c r="Q47" s="278"/>
-      <c r="R47" s="278"/>
-      <c r="S47" s="278"/>
-      <c r="T47" s="278"/>
-      <c r="U47" s="278"/>
-      <c r="V47" s="278"/>
-      <c r="W47" s="278"/>
-    </row>
-    <row r="48" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="236" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="236"/>
+      <c r="O47" s="236"/>
+      <c r="P47" s="236"/>
+      <c r="Q47" s="236"/>
+      <c r="R47" s="236"/>
+      <c r="S47" s="236"/>
+      <c r="T47" s="236"/>
+      <c r="U47" s="236"/>
+      <c r="V47" s="236"/>
+      <c r="W47" s="236"/>
+    </row>
+    <row r="48" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="190" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="191"/>
-      <c r="O48" s="191"/>
-      <c r="P48" s="191"/>
-      <c r="Q48" s="191"/>
-      <c r="R48" s="285"/>
-      <c r="S48" s="285"/>
-      <c r="T48" s="246"/>
-      <c r="U48" s="246"/>
-      <c r="V48" s="178"/>
-      <c r="W48" s="179"/>
-    </row>
-    <row r="49" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="237"/>
+      <c r="N48" s="237"/>
+      <c r="O48" s="237"/>
+      <c r="P48" s="237"/>
+      <c r="Q48" s="237"/>
+      <c r="R48" s="237"/>
+      <c r="S48" s="237"/>
+      <c r="T48" s="237"/>
+      <c r="U48" s="237"/>
+      <c r="V48" s="237"/>
+      <c r="W48" s="237"/>
+    </row>
+    <row r="49" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="192" t="s">
-        <v>18</v>
-      </c>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="286"/>
-      <c r="S49" s="286"/>
-      <c r="T49" s="279"/>
-      <c r="U49" s="279"/>
-      <c r="V49" s="188"/>
-      <c r="W49" s="189"/>
-    </row>
-    <row r="50" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="226" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="227"/>
+      <c r="O49" s="227"/>
+      <c r="P49" s="227"/>
+      <c r="Q49" s="227"/>
+      <c r="R49" s="173"/>
+      <c r="S49" s="173"/>
+      <c r="T49" s="231"/>
+      <c r="U49" s="231"/>
+      <c r="V49" s="312"/>
+      <c r="W49" s="313"/>
+    </row>
+    <row r="50" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="192" t="s">
-        <v>10</v>
-      </c>
-      <c r="N50" s="193"/>
-      <c r="O50" s="193"/>
-      <c r="P50" s="193"/>
-      <c r="Q50" s="193"/>
-      <c r="R50" s="238"/>
-      <c r="S50" s="238"/>
-      <c r="T50" s="173"/>
-      <c r="U50" s="173"/>
-      <c r="V50" s="176"/>
-      <c r="W50" s="177"/>
-    </row>
-    <row r="51" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="213" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="214"/>
+      <c r="O50" s="214"/>
+      <c r="P50" s="214"/>
+      <c r="Q50" s="214"/>
+      <c r="R50" s="195"/>
+      <c r="S50" s="195"/>
+      <c r="T50" s="238"/>
+      <c r="U50" s="238"/>
+      <c r="V50" s="224"/>
+      <c r="W50" s="225"/>
+    </row>
+    <row r="51" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="192" t="s">
-        <v>19</v>
-      </c>
-      <c r="N51" s="193"/>
-      <c r="O51" s="193"/>
-      <c r="P51" s="193"/>
-      <c r="Q51" s="193"/>
-      <c r="R51" s="283"/>
-      <c r="S51" s="283"/>
-      <c r="T51" s="273"/>
-      <c r="U51" s="273"/>
-      <c r="V51" s="176"/>
-      <c r="W51" s="177"/>
-    </row>
-    <row r="52" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51" s="214"/>
+      <c r="O51" s="214"/>
+      <c r="P51" s="214"/>
+      <c r="Q51" s="214"/>
+      <c r="R51" s="230"/>
+      <c r="S51" s="230"/>
+      <c r="T51" s="235"/>
+      <c r="U51" s="235"/>
+      <c r="V51" s="178"/>
+      <c r="W51" s="179"/>
+    </row>
+    <row r="52" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="211" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="212"/>
-      <c r="O52" s="212"/>
-      <c r="P52" s="212"/>
-      <c r="Q52" s="212"/>
-      <c r="R52" s="275"/>
-      <c r="S52" s="275"/>
-      <c r="T52" s="274" t="s">
-        <v>25</v>
-      </c>
-      <c r="U52" s="274"/>
-      <c r="V52" s="295"/>
-      <c r="W52" s="296"/>
-    </row>
-    <row r="53" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="213" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="214"/>
+      <c r="O52" s="214"/>
+      <c r="P52" s="214"/>
+      <c r="Q52" s="214"/>
+      <c r="R52" s="242"/>
+      <c r="S52" s="242"/>
+      <c r="T52" s="196"/>
+      <c r="U52" s="196"/>
+      <c r="V52" s="178"/>
+      <c r="W52" s="179"/>
+    </row>
+    <row r="53" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="211" t="s">
-        <v>20</v>
-      </c>
-      <c r="N53" s="212"/>
-      <c r="O53" s="212"/>
-      <c r="P53" s="212"/>
-      <c r="Q53" s="212"/>
-      <c r="R53" s="287"/>
-      <c r="S53" s="287"/>
-      <c r="T53" s="280"/>
-      <c r="U53" s="280"/>
-      <c r="V53" s="297"/>
-      <c r="W53" s="298"/>
-    </row>
-    <row r="54" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="176" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
+      <c r="P53" s="177"/>
+      <c r="Q53" s="177"/>
+      <c r="R53" s="199"/>
+      <c r="S53" s="199"/>
+      <c r="T53" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="U53" s="198"/>
+      <c r="V53" s="180"/>
+      <c r="W53" s="181"/>
+    </row>
+    <row r="54" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="102"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="192" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="193"/>
-      <c r="O54" s="193"/>
-      <c r="P54" s="193"/>
-      <c r="Q54" s="193"/>
-      <c r="R54" s="292"/>
-      <c r="S54" s="292"/>
-      <c r="T54" s="273" t="s">
-        <v>7</v>
-      </c>
-      <c r="U54" s="273"/>
-      <c r="V54" s="281"/>
-      <c r="W54" s="282"/>
-    </row>
-    <row r="55" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="177"/>
+      <c r="O54" s="177"/>
+      <c r="P54" s="177"/>
+      <c r="Q54" s="177"/>
+      <c r="R54" s="243"/>
+      <c r="S54" s="243"/>
+      <c r="T54" s="239"/>
+      <c r="U54" s="239"/>
+      <c r="V54" s="182"/>
+      <c r="W54" s="183"/>
+    </row>
+    <row r="55" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="192" t="s">
-        <v>39</v>
-      </c>
-      <c r="N55" s="193"/>
-      <c r="O55" s="193"/>
-      <c r="P55" s="193"/>
-      <c r="Q55" s="193"/>
-      <c r="R55" s="149"/>
-      <c r="S55" s="150"/>
-      <c r="T55" s="150"/>
-      <c r="U55" s="150"/>
-      <c r="V55" s="150"/>
-      <c r="W55" s="151"/>
-    </row>
-    <row r="56" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="86"/>
+      <c r="M55" s="213" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="214"/>
+      <c r="O55" s="214"/>
+      <c r="P55" s="214"/>
+      <c r="Q55" s="214"/>
+      <c r="R55" s="194"/>
+      <c r="S55" s="194"/>
+      <c r="T55" s="196" t="s">
+        <v>7</v>
+      </c>
+      <c r="U55" s="196"/>
+      <c r="V55" s="240"/>
+      <c r="W55" s="241"/>
+    </row>
+    <row r="56" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="211" t="s">
-        <v>44</v>
-      </c>
-      <c r="N56" s="212"/>
-      <c r="O56" s="212"/>
-      <c r="P56" s="212"/>
-      <c r="Q56" s="212"/>
-      <c r="R56" s="255"/>
-      <c r="S56" s="255"/>
-      <c r="T56" s="256"/>
-      <c r="U56" s="256"/>
-      <c r="V56" s="256"/>
-      <c r="W56" s="257"/>
-    </row>
-    <row r="57" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="213" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" s="214"/>
+      <c r="O56" s="214"/>
+      <c r="P56" s="214"/>
+      <c r="Q56" s="214"/>
+      <c r="R56" s="232"/>
+      <c r="S56" s="233"/>
+      <c r="T56" s="233"/>
+      <c r="U56" s="233"/>
+      <c r="V56" s="233"/>
+      <c r="W56" s="234"/>
+    </row>
+    <row r="57" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="211" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57" s="212"/>
-      <c r="O57" s="212"/>
-      <c r="P57" s="212"/>
-      <c r="Q57" s="212"/>
-      <c r="R57" s="255"/>
-      <c r="S57" s="255"/>
-      <c r="T57" s="276"/>
-      <c r="U57" s="276"/>
-      <c r="V57" s="256"/>
-      <c r="W57" s="257"/>
-    </row>
-    <row r="58" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" s="177"/>
+      <c r="O57" s="177"/>
+      <c r="P57" s="177"/>
+      <c r="Q57" s="177"/>
+      <c r="R57" s="204"/>
+      <c r="S57" s="204"/>
+      <c r="T57" s="197"/>
+      <c r="U57" s="197"/>
+      <c r="V57" s="197"/>
+      <c r="W57" s="205"/>
+    </row>
+    <row r="58" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="211" t="s">
-        <v>9</v>
-      </c>
-      <c r="N58" s="212"/>
-      <c r="O58" s="212"/>
-      <c r="P58" s="212"/>
-      <c r="Q58" s="212"/>
-      <c r="R58" s="262"/>
-      <c r="S58" s="262"/>
-      <c r="T58" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="U58" s="255"/>
-      <c r="V58" s="258"/>
-      <c r="W58" s="259"/>
-    </row>
-    <row r="59" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="176" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="177"/>
+      <c r="O58" s="177"/>
+      <c r="P58" s="177"/>
+      <c r="Q58" s="177"/>
+      <c r="R58" s="204"/>
+      <c r="S58" s="204"/>
+      <c r="T58" s="200"/>
+      <c r="U58" s="200"/>
+      <c r="V58" s="197"/>
+      <c r="W58" s="205"/>
+    </row>
+    <row r="59" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="192" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="193"/>
-      <c r="O59" s="193"/>
-      <c r="P59" s="193"/>
-      <c r="Q59" s="193"/>
-      <c r="R59" s="267"/>
-      <c r="S59" s="267"/>
-      <c r="T59" s="255"/>
-      <c r="U59" s="255"/>
-      <c r="V59" s="265"/>
-      <c r="W59" s="266"/>
-    </row>
-    <row r="60" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" s="177"/>
+      <c r="O59" s="177"/>
+      <c r="P59" s="177"/>
+      <c r="Q59" s="177"/>
+      <c r="R59" s="210"/>
+      <c r="S59" s="210"/>
+      <c r="T59" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="U59" s="204"/>
+      <c r="V59" s="206"/>
+      <c r="W59" s="207"/>
+    </row>
+    <row r="60" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="192" t="s">
-        <v>47</v>
-      </c>
-      <c r="N60" s="193"/>
-      <c r="O60" s="193"/>
-      <c r="P60" s="193"/>
-      <c r="Q60" s="193"/>
-      <c r="R60" s="267"/>
-      <c r="S60" s="267"/>
-      <c r="T60" s="255"/>
-      <c r="U60" s="255"/>
-      <c r="V60" s="265"/>
-      <c r="W60" s="266"/>
-    </row>
-    <row r="61" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="12"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="213" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="214"/>
+      <c r="O60" s="214"/>
+      <c r="P60" s="214"/>
+      <c r="Q60" s="214"/>
+      <c r="R60" s="169"/>
+      <c r="S60" s="169"/>
+      <c r="T60" s="204"/>
+      <c r="U60" s="204"/>
+      <c r="V60" s="171"/>
+      <c r="W60" s="172"/>
+    </row>
+    <row r="61" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="254" t="s">
+      <c r="F61" s="57"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="213" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="214"/>
+      <c r="O61" s="214"/>
+      <c r="P61" s="214"/>
+      <c r="Q61" s="214"/>
+      <c r="R61" s="169"/>
+      <c r="S61" s="169"/>
+      <c r="T61" s="204"/>
+      <c r="U61" s="204"/>
+      <c r="V61" s="171"/>
+      <c r="W61" s="172"/>
+    </row>
+    <row r="62" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="J61" s="254"/>
-      <c r="K61" s="254"/>
-      <c r="L61" s="254"/>
-      <c r="M61" s="192" t="s">
+      <c r="J62" s="203"/>
+      <c r="K62" s="203"/>
+      <c r="L62" s="203"/>
+      <c r="M62" s="213" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="193"/>
-      <c r="O61" s="193"/>
-      <c r="P61" s="193"/>
-      <c r="Q61" s="193"/>
-      <c r="R61" s="284"/>
-      <c r="S61" s="284"/>
-      <c r="T61" s="263"/>
-      <c r="U61" s="263"/>
-      <c r="V61" s="260"/>
-      <c r="W61" s="261"/>
-    </row>
-    <row r="62" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="240"/>
-      <c r="J62" s="240"/>
-      <c r="K62" s="240"/>
-      <c r="L62" s="241"/>
-      <c r="M62" s="268" t="s">
+      <c r="N62" s="214"/>
+      <c r="O62" s="214"/>
+      <c r="P62" s="214"/>
+      <c r="Q62" s="214"/>
+      <c r="R62" s="170"/>
+      <c r="S62" s="170"/>
+      <c r="T62" s="211"/>
+      <c r="U62" s="211"/>
+      <c r="V62" s="208"/>
+      <c r="W62" s="209"/>
+    </row>
+    <row r="63" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="161"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="161"/>
+      <c r="L63" s="162"/>
+      <c r="M63" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="269"/>
-      <c r="O62" s="269"/>
-      <c r="P62" s="269"/>
-      <c r="Q62" s="269"/>
-      <c r="R62" s="270"/>
-      <c r="S62" s="270"/>
-      <c r="T62" s="264"/>
-      <c r="U62" s="264"/>
-      <c r="V62" s="271"/>
-      <c r="W62" s="272"/>
-    </row>
-    <row r="63" spans="1:23" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="M63" s="56" t="s">
+      <c r="N63" s="216"/>
+      <c r="O63" s="216"/>
+      <c r="P63" s="216"/>
+      <c r="Q63" s="216"/>
+      <c r="R63" s="217"/>
+      <c r="S63" s="217"/>
+      <c r="T63" s="212"/>
+      <c r="U63" s="212"/>
+      <c r="V63" s="218"/>
+      <c r="W63" s="219"/>
+    </row>
+    <row r="64" spans="2:23" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="M64" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N63" s="57"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="56"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-    </row>
-    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L64" s="309" t="s">
+      <c r="N64" s="49"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="48"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+    </row>
+    <row r="65" spans="12:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="310"/>
-      <c r="N64" s="310"/>
-      <c r="O64" s="310"/>
-      <c r="P64" s="310"/>
-      <c r="Q64" s="310"/>
-      <c r="R64" s="310"/>
-      <c r="S64" s="310"/>
-      <c r="T64" s="310"/>
-      <c r="U64" s="310"/>
-      <c r="V64" s="310"/>
-      <c r="W64" s="311"/>
-    </row>
-    <row r="65" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="L65" s="321" t="s">
+      <c r="M65" s="143"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="143"/>
+      <c r="R65" s="143"/>
+      <c r="S65" s="143"/>
+      <c r="T65" s="143"/>
+      <c r="U65" s="143"/>
+      <c r="V65" s="143"/>
+      <c r="W65" s="152"/>
+    </row>
+    <row r="66" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="M65" s="291" t="s">
+      <c r="M66" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="291" t="s">
+      <c r="N66" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="291" t="s">
+      <c r="O66" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="291" t="s">
+      <c r="P66" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="291"/>
-      <c r="R65" s="291"/>
-      <c r="S65" s="291"/>
-      <c r="T65" s="291" t="s">
+      <c r="Q66" s="146"/>
+      <c r="R66" s="146"/>
+      <c r="S66" s="146"/>
+      <c r="T66" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="U65" s="291"/>
-      <c r="V65" s="291" t="s">
+      <c r="U66" s="146"/>
+      <c r="V66" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="299"/>
-    </row>
-    <row r="66" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="L66" s="321"/>
-      <c r="M66" s="291"/>
-      <c r="N66" s="291"/>
-      <c r="O66" s="291"/>
-      <c r="P66" s="320" t="s">
+      <c r="W66" s="156"/>
+    </row>
+    <row r="67" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="148"/>
+      <c r="M67" s="146"/>
+      <c r="N67" s="146"/>
+      <c r="O67" s="146"/>
+      <c r="P67" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="320"/>
-      <c r="R66" s="291" t="s">
+      <c r="Q67" s="147"/>
+      <c r="R67" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="291"/>
-      <c r="T66" s="291" t="s">
+      <c r="S67" s="146"/>
+      <c r="T67" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="291"/>
-      <c r="V66" s="291" t="s">
+      <c r="U67" s="146"/>
+      <c r="V67" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="299"/>
-    </row>
-    <row r="67" spans="1:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="288"/>
-      <c r="Q67" s="288"/>
-      <c r="R67" s="288"/>
-      <c r="S67" s="288"/>
-      <c r="T67" s="288"/>
-      <c r="U67" s="288"/>
-      <c r="V67" s="288"/>
-      <c r="W67" s="289"/>
-    </row>
-    <row r="68" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L68" s="54"/>
+      <c r="W67" s="156"/>
+    </row>
+    <row r="68" spans="12:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="53"/>
       <c r="M68" s="54"/>
-      <c r="N68" s="290"/>
-      <c r="O68" s="290"/>
-      <c r="P68" s="290"/>
-      <c r="Q68" s="290"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-    </row>
-    <row r="69" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L69" s="309" t="s">
+      <c r="N68" s="54"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="153"/>
+      <c r="Q68" s="153"/>
+      <c r="R68" s="153"/>
+      <c r="S68" s="153"/>
+      <c r="T68" s="153"/>
+      <c r="U68" s="153"/>
+      <c r="V68" s="153"/>
+      <c r="W68" s="201"/>
+    </row>
+    <row r="69" spans="12:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="202"/>
+      <c r="O69" s="202"/>
+      <c r="P69" s="202"/>
+      <c r="Q69" s="202"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+    </row>
+    <row r="70" spans="12:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="310"/>
-      <c r="N69" s="310" t="s">
+      <c r="M70" s="143"/>
+      <c r="N70" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="310"/>
-      <c r="P69" s="310" t="s">
+      <c r="O70" s="143"/>
+      <c r="P70" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="311"/>
-      <c r="R69" s="322"/>
-      <c r="S69" s="322"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-      <c r="W69" s="54"/>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="L70" s="318"/>
-      <c r="M70" s="319"/>
-      <c r="N70" s="319"/>
-      <c r="O70" s="319"/>
-      <c r="P70" s="319"/>
-      <c r="Q70" s="323"/>
-      <c r="R70" s="324"/>
-      <c r="S70" s="324"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
-      <c r="V70" s="54"/>
-      <c r="W70" s="54"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-    </row>
-    <row r="115" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="Q70" s="152"/>
+      <c r="R70" s="149"/>
+      <c r="S70" s="149"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+    </row>
+    <row r="71" spans="12:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="144"/>
+      <c r="M71" s="145"/>
+      <c r="N71" s="145"/>
+      <c r="O71" s="145"/>
+      <c r="P71" s="145"/>
+      <c r="Q71" s="150"/>
+      <c r="R71" s="151"/>
+      <c r="S71" s="151"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+    </row>
     <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="209">
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="L64:W64"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R54:S54"/>
+  <mergeCells count="214">
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V44:W44"/>
     <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="M46:W47"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="J36:L36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="M42:W43"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="M4:W5"/>
     <mergeCell ref="P7:W7"/>
@@ -6245,54 +6100,163 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="V50:W50"/>
     <mergeCell ref="M49:Q49"/>
     <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="J29:L29"/>
     <mergeCell ref="M45:U45"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="M47:W48"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
     <mergeCell ref="R50:S50"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="M41:W42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="R55:W55"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="L65:W65"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="P66:S66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R68:S68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -2433,7 +2433,7 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2826,61 +2826,106 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2889,6 +2934,174 @@
     <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2898,46 +3111,157 @@
     <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2952,6 +3276,9 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2973,386 +3300,68 @@
     <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4226,7 +4235,7 @@
   <dimension ref="B1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:A1048576"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4271,10 +4280,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
+      <c r="R1" s="205"/>
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
@@ -4303,28 +4312,28 @@
       <c r="W2" s="4"/>
     </row>
     <row r="3" spans="2:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="266" t="s">
+      <c r="B3" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="266"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
@@ -4340,19 +4349,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="13"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="245" t="s">
+      <c r="M4" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="245"/>
-      <c r="U4" s="245"/>
-      <c r="V4" s="245"/>
-      <c r="W4" s="245"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
     </row>
     <row r="5" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -4366,23 +4375,23 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="246"/>
-      <c r="S5" s="246"/>
-      <c r="T5" s="246"/>
-      <c r="U5" s="246"/>
-      <c r="V5" s="246"/>
-      <c r="W5" s="246"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="207"/>
     </row>
     <row r="6" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="275"/>
-      <c r="E6" s="276"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="167"/>
       <c r="F6" s="61"/>
       <c r="G6" s="62"/>
       <c r="H6" s="65"/>
@@ -4390,25 +4399,25 @@
       <c r="J6" s="75"/>
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
-      <c r="M6" s="251" t="s">
+      <c r="M6" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="253"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253"/>
-      <c r="U6" s="253"/>
-      <c r="V6" s="253"/>
-      <c r="W6" s="254"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+      <c r="T6" s="214"/>
+      <c r="U6" s="214"/>
+      <c r="V6" s="214"/>
+      <c r="W6" s="215"/>
     </row>
     <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="278"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
       <c r="F7" s="69"/>
       <c r="G7" s="68"/>
       <c r="H7" s="66"/>
@@ -4416,25 +4425,25 @@
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
       <c r="L7" s="76"/>
-      <c r="M7" s="176" t="s">
+      <c r="M7" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="247"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="248"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="209"/>
     </row>
     <row r="8" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="277"/>
-      <c r="E8" s="278"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
       <c r="F8" s="69"/>
       <c r="G8" s="68"/>
       <c r="H8" s="66"/>
@@ -4442,25 +4451,25 @@
       <c r="J8" s="75"/>
       <c r="K8" s="75"/>
       <c r="L8" s="76"/>
-      <c r="M8" s="255" t="s">
+      <c r="M8" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="256"/>
-      <c r="O8" s="256"/>
-      <c r="P8" s="249"/>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="249"/>
-      <c r="S8" s="249"/>
-      <c r="T8" s="249"/>
-      <c r="U8" s="249"/>
-      <c r="V8" s="249"/>
-      <c r="W8" s="250"/>
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="210"/>
+      <c r="Q8" s="210"/>
+      <c r="R8" s="210"/>
+      <c r="S8" s="210"/>
+      <c r="T8" s="210"/>
+      <c r="U8" s="210"/>
+      <c r="V8" s="210"/>
+      <c r="W8" s="211"/>
     </row>
     <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="278"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="69"/>
       <c r="G9" s="68"/>
       <c r="H9" s="66"/>
@@ -4468,37 +4477,37 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="L9" s="77"/>
-      <c r="M9" s="261" t="s">
+      <c r="M9" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="262"/>
+      <c r="N9" s="225"/>
       <c r="O9" s="37"/>
-      <c r="P9" s="259" t="s">
+      <c r="P9" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="259" t="s">
+      <c r="Q9" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="259" t="s">
+      <c r="R9" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="257" t="s">
+      <c r="S9" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="257"/>
-      <c r="U9" s="259" t="s">
+      <c r="T9" s="220"/>
+      <c r="U9" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="259" t="s">
+      <c r="V9" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="263"/>
+      <c r="W9" s="226"/>
     </row>
     <row r="10" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="278"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169"/>
       <c r="F10" s="69"/>
       <c r="G10" s="68"/>
       <c r="H10" s="66"/>
@@ -4506,17 +4515,17 @@
       <c r="J10" s="78"/>
       <c r="K10" s="79"/>
       <c r="L10" s="78"/>
-      <c r="M10" s="264" t="s">
+      <c r="M10" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="265"/>
+      <c r="N10" s="228"/>
       <c r="O10" s="33"/>
-      <c r="P10" s="260"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="260"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="260"/>
+      <c r="P10" s="223"/>
+      <c r="Q10" s="223"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="223"/>
       <c r="V10" s="70" t="s">
         <v>33</v>
       </c>
@@ -4527,8 +4536,8 @@
     <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="278"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
       <c r="F11" s="69"/>
       <c r="G11" s="68"/>
       <c r="H11" s="66"/>
@@ -4536,11 +4545,11 @@
       <c r="J11" s="80"/>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="267" t="s">
+      <c r="M11" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="268"/>
-      <c r="O11" s="269"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="157"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="22"/>
@@ -4553,8 +4562,8 @@
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="280"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
       <c r="F12" s="69"/>
       <c r="G12" s="107"/>
       <c r="H12" s="108"/>
@@ -4562,11 +4571,11 @@
       <c r="J12" s="110"/>
       <c r="K12" s="111"/>
       <c r="L12" s="82"/>
-      <c r="M12" s="267" t="s">
+      <c r="M12" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="268"/>
-      <c r="O12" s="269"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="157"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="23"/>
@@ -4588,11 +4597,11 @@
       <c r="J13" s="83"/>
       <c r="K13" s="83"/>
       <c r="L13" s="84"/>
-      <c r="M13" s="267" t="s">
+      <c r="M13" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="268"/>
-      <c r="O13" s="269"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="157"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
@@ -4614,19 +4623,19 @@
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
-      <c r="M14" s="191" t="s">
+      <c r="M14" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="192"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="274"/>
-      <c r="Q14" s="292"/>
-      <c r="R14" s="292"/>
-      <c r="S14" s="295"/>
-      <c r="T14" s="298"/>
-      <c r="U14" s="273"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="187"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="293"/>
+      <c r="W14" s="296"/>
     </row>
     <row r="15" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4640,17 +4649,17 @@
       <c r="J15" s="81"/>
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="274"/>
-      <c r="Q15" s="293"/>
-      <c r="R15" s="293"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="299"/>
-      <c r="U15" s="273"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="188"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="191"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="161"/>
+      <c r="V15" s="294"/>
+      <c r="W15" s="297"/>
     </row>
     <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4664,17 +4673,17 @@
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
       <c r="L16" s="81"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="193"/>
-      <c r="P16" s="274"/>
-      <c r="Q16" s="293"/>
-      <c r="R16" s="293"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="299"/>
-      <c r="U16" s="273"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="189"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="161"/>
+      <c r="V16" s="294"/>
+      <c r="W16" s="298"/>
       <c r="X16" s="133"/>
     </row>
     <row r="17" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4689,17 +4698,17 @@
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="274"/>
-      <c r="Q17" s="294"/>
-      <c r="R17" s="294"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="300"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="186"/>
-      <c r="W17" s="190"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="195"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="295"/>
+      <c r="W17" s="299"/>
     </row>
     <row r="18" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4713,11 +4722,11 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81"/>
-      <c r="M18" s="270" t="s">
+      <c r="M18" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="271"/>
-      <c r="O18" s="272"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="160"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -4742,16 +4751,16 @@
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
-      <c r="M19" s="304" t="s">
+      <c r="M19" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="305"/>
-      <c r="O19" s="306"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="201"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="34"/>
-      <c r="S19" s="310"/>
-      <c r="T19" s="311"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="143"/>
       <c r="U19" s="36"/>
       <c r="V19" s="73"/>
       <c r="W19" s="74"/>
@@ -4768,11 +4777,11 @@
       <c r="J20" s="115"/>
       <c r="K20" s="115"/>
       <c r="L20" s="115"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="192"/>
-      <c r="P20" s="192"/>
-      <c r="Q20" s="193"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="164"/>
       <c r="R20" s="24"/>
       <c r="S20" s="134"/>
       <c r="T20" s="135"/>
@@ -4792,9 +4801,9 @@
       <c r="J21" s="116"/>
       <c r="K21" s="117"/>
       <c r="L21" s="117"/>
-      <c r="M21" s="301"/>
-      <c r="N21" s="302"/>
-      <c r="O21" s="303"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="198"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="27"/>
@@ -4816,16 +4825,16 @@
       <c r="J22" s="126"/>
       <c r="K22" s="118"/>
       <c r="L22" s="118"/>
-      <c r="M22" s="307" t="s">
+      <c r="M22" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="308"/>
-      <c r="O22" s="309"/>
+      <c r="N22" s="203"/>
+      <c r="O22" s="204"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
       <c r="R22" s="102"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="155"/>
+      <c r="S22" s="300"/>
+      <c r="T22" s="301"/>
       <c r="U22" s="104"/>
       <c r="V22" s="105"/>
       <c r="W22" s="106"/>
@@ -4842,19 +4851,19 @@
       <c r="J23" s="119"/>
       <c r="K23" s="120"/>
       <c r="L23" s="121"/>
-      <c r="M23" s="286" t="s">
+      <c r="M23" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="286"/>
-      <c r="O23" s="286"/>
-      <c r="P23" s="286"/>
-      <c r="Q23" s="286"/>
-      <c r="R23" s="286"/>
-      <c r="S23" s="286"/>
-      <c r="T23" s="286"/>
-      <c r="U23" s="286"/>
-      <c r="V23" s="286"/>
-      <c r="W23" s="286"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
     </row>
     <row r="24" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -4870,17 +4879,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="115"/>
-      <c r="M24" s="286"/>
-      <c r="N24" s="286"/>
-      <c r="O24" s="286"/>
-      <c r="P24" s="286"/>
-      <c r="Q24" s="286"/>
-      <c r="R24" s="286"/>
-      <c r="S24" s="286"/>
-      <c r="T24" s="286"/>
-      <c r="U24" s="286"/>
-      <c r="V24" s="286"/>
-      <c r="W24" s="286"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
     </row>
     <row r="25" spans="2:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -4894,27 +4903,27 @@
       <c r="J25" s="125"/>
       <c r="K25" s="116"/>
       <c r="L25" s="117"/>
-      <c r="M25" s="288" t="s">
+      <c r="M25" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="289"/>
-      <c r="O25" s="220" t="s">
+      <c r="N25" s="184"/>
+      <c r="O25" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="220" t="s">
+      <c r="P25" s="180"/>
+      <c r="Q25" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="220"/>
-      <c r="S25" s="220"/>
-      <c r="T25" s="220"/>
-      <c r="U25" s="220" t="s">
+      <c r="R25" s="180"/>
+      <c r="S25" s="180"/>
+      <c r="T25" s="180"/>
+      <c r="U25" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="157" t="s">
+      <c r="V25" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="159" t="s">
+      <c r="W25" s="306" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4927,24 +4936,24 @@
       <c r="G26" s="58"/>
       <c r="H26" s="124"/>
       <c r="I26" s="124"/>
-      <c r="J26" s="284"/>
-      <c r="K26" s="284"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="290"/>
-      <c r="N26" s="291"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="223" t="s">
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="223"/>
-      <c r="S26" s="223" t="s">
+      <c r="R26" s="175"/>
+      <c r="S26" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="223"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="160"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="181"/>
+      <c r="V26" s="181"/>
+      <c r="W26" s="307"/>
     </row>
     <row r="27" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -4958,14 +4967,14 @@
       <c r="J27" s="115"/>
       <c r="K27" s="115"/>
       <c r="L27" s="115"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="167"/>
-      <c r="P27" s="167"/>
-      <c r="Q27" s="168"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="317"/>
+      <c r="P27" s="317"/>
+      <c r="Q27" s="318"/>
+      <c r="R27" s="318"/>
+      <c r="S27" s="318"/>
+      <c r="T27" s="318"/>
       <c r="U27" s="50"/>
       <c r="V27" s="55"/>
       <c r="W27" s="139"/>
@@ -4982,14 +4991,14 @@
       <c r="J28" s="81"/>
       <c r="K28" s="81"/>
       <c r="L28" s="81"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="168"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="168"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="317"/>
+      <c r="P28" s="317"/>
+      <c r="Q28" s="318"/>
+      <c r="R28" s="318"/>
+      <c r="S28" s="318"/>
+      <c r="T28" s="318"/>
       <c r="U28" s="50"/>
       <c r="V28" s="55"/>
       <c r="W28" s="139"/>
@@ -5003,17 +5012,17 @@
       <c r="G29" s="58"/>
       <c r="H29" s="3"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="281"/>
-      <c r="K29" s="281"/>
-      <c r="L29" s="281"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="317"/>
+      <c r="P29" s="317"/>
+      <c r="Q29" s="318"/>
+      <c r="R29" s="318"/>
+      <c r="S29" s="318"/>
+      <c r="T29" s="318"/>
       <c r="U29" s="50"/>
       <c r="V29" s="55"/>
       <c r="W29" s="139"/>
@@ -5027,17 +5036,17 @@
       <c r="G30" s="58"/>
       <c r="H30" s="3"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="167"/>
-      <c r="P30" s="167"/>
-      <c r="Q30" s="168"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="317"/>
+      <c r="P30" s="317"/>
+      <c r="Q30" s="318"/>
+      <c r="R30" s="318"/>
+      <c r="S30" s="318"/>
+      <c r="T30" s="318"/>
       <c r="U30" s="50"/>
       <c r="V30" s="55"/>
       <c r="W30" s="139"/>
@@ -5051,17 +5060,17 @@
       <c r="G31" s="58"/>
       <c r="H31" s="3"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="168"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="317"/>
+      <c r="P31" s="317"/>
+      <c r="Q31" s="318"/>
+      <c r="R31" s="318"/>
+      <c r="S31" s="318"/>
+      <c r="T31" s="318"/>
       <c r="U31" s="50"/>
       <c r="V31" s="55"/>
       <c r="W31" s="139"/>
@@ -5075,17 +5084,17 @@
       <c r="G32" s="58"/>
       <c r="H32" s="75"/>
       <c r="I32" s="86"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="167"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="168"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="317"/>
+      <c r="P32" s="317"/>
+      <c r="Q32" s="318"/>
+      <c r="R32" s="318"/>
+      <c r="S32" s="318"/>
+      <c r="T32" s="318"/>
       <c r="U32" s="50"/>
       <c r="V32" s="55"/>
       <c r="W32" s="139"/>
@@ -5099,17 +5108,17 @@
       <c r="G33" s="58"/>
       <c r="H33" s="75"/>
       <c r="I33" s="86"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="167"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="317"/>
+      <c r="P33" s="317"/>
+      <c r="Q33" s="318"/>
+      <c r="R33" s="318"/>
+      <c r="S33" s="318"/>
+      <c r="T33" s="318"/>
       <c r="U33" s="50"/>
       <c r="V33" s="55"/>
       <c r="W33" s="139"/>
@@ -5123,17 +5132,17 @@
       <c r="G34" s="58"/>
       <c r="H34" s="75"/>
       <c r="I34" s="86"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="167"/>
-      <c r="P34" s="167"/>
-      <c r="Q34" s="168"/>
-      <c r="R34" s="168"/>
-      <c r="S34" s="168"/>
-      <c r="T34" s="168"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="317"/>
+      <c r="P34" s="317"/>
+      <c r="Q34" s="318"/>
+      <c r="R34" s="318"/>
+      <c r="S34" s="318"/>
+      <c r="T34" s="318"/>
       <c r="U34" s="50"/>
       <c r="V34" s="55"/>
       <c r="W34" s="139"/>
@@ -5147,17 +5156,17 @@
       <c r="G35" s="58"/>
       <c r="H35" s="75"/>
       <c r="I35" s="86"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="166"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="167"/>
-      <c r="P35" s="167"/>
-      <c r="Q35" s="168"/>
-      <c r="R35" s="168"/>
-      <c r="S35" s="168"/>
-      <c r="T35" s="168"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="317"/>
+      <c r="P35" s="317"/>
+      <c r="Q35" s="318"/>
+      <c r="R35" s="318"/>
+      <c r="S35" s="318"/>
+      <c r="T35" s="318"/>
       <c r="U35" s="50"/>
       <c r="V35" s="55"/>
       <c r="W35" s="139"/>
@@ -5171,17 +5180,17 @@
       <c r="G36" s="58"/>
       <c r="H36" s="75"/>
       <c r="I36" s="86"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="167"/>
-      <c r="P36" s="167"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="168"/>
-      <c r="S36" s="168"/>
-      <c r="T36" s="168"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="317"/>
+      <c r="P36" s="317"/>
+      <c r="Q36" s="318"/>
+      <c r="R36" s="318"/>
+      <c r="S36" s="318"/>
+      <c r="T36" s="318"/>
       <c r="U36" s="50"/>
       <c r="V36" s="55"/>
       <c r="W36" s="139"/>
@@ -5195,17 +5204,17 @@
       <c r="G37" s="58"/>
       <c r="H37" s="75"/>
       <c r="I37" s="86"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="167"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="168"/>
-      <c r="S37" s="168"/>
-      <c r="T37" s="168"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="317"/>
+      <c r="P37" s="317"/>
+      <c r="Q37" s="318"/>
+      <c r="R37" s="318"/>
+      <c r="S37" s="318"/>
+      <c r="T37" s="318"/>
       <c r="U37" s="50"/>
       <c r="V37" s="55"/>
       <c r="W37" s="139"/>
@@ -5219,17 +5228,17 @@
       <c r="G38" s="58"/>
       <c r="H38" s="75"/>
       <c r="I38" s="86"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="166"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="167"/>
-      <c r="P38" s="167"/>
-      <c r="Q38" s="168"/>
-      <c r="R38" s="168"/>
-      <c r="S38" s="168"/>
-      <c r="T38" s="168"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="317"/>
+      <c r="P38" s="317"/>
+      <c r="Q38" s="318"/>
+      <c r="R38" s="318"/>
+      <c r="S38" s="318"/>
+      <c r="T38" s="318"/>
       <c r="U38" s="50"/>
       <c r="V38" s="55"/>
       <c r="W38" s="139"/>
@@ -5243,17 +5252,17 @@
       <c r="G39" s="58"/>
       <c r="H39" s="75"/>
       <c r="I39" s="86"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="167"/>
-      <c r="O39" s="167"/>
-      <c r="P39" s="167"/>
-      <c r="Q39" s="168"/>
-      <c r="R39" s="168"/>
-      <c r="S39" s="168"/>
-      <c r="T39" s="168"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="317"/>
+      <c r="P39" s="317"/>
+      <c r="Q39" s="318"/>
+      <c r="R39" s="318"/>
+      <c r="S39" s="318"/>
+      <c r="T39" s="318"/>
       <c r="U39" s="50"/>
       <c r="V39" s="55"/>
       <c r="W39" s="139"/>
@@ -5267,17 +5276,17 @@
       <c r="G40" s="58"/>
       <c r="H40" s="75"/>
       <c r="I40" s="86"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="164"/>
-      <c r="P40" s="164"/>
-      <c r="Q40" s="165"/>
-      <c r="R40" s="165"/>
-      <c r="S40" s="165"/>
-      <c r="T40" s="165"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="235"/>
+      <c r="O40" s="319"/>
+      <c r="P40" s="319"/>
+      <c r="Q40" s="320"/>
+      <c r="R40" s="320"/>
+      <c r="S40" s="320"/>
+      <c r="T40" s="320"/>
       <c r="U40" s="51"/>
       <c r="V40" s="56"/>
       <c r="W40" s="140"/>
@@ -5291,17 +5300,17 @@
       <c r="G41" s="58"/>
       <c r="H41" s="75"/>
       <c r="I41" s="86"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="164"/>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="165"/>
-      <c r="R41" s="165"/>
-      <c r="S41" s="165"/>
-      <c r="T41" s="165"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="234"/>
+      <c r="N41" s="235"/>
+      <c r="O41" s="235"/>
+      <c r="P41" s="235"/>
+      <c r="Q41" s="236"/>
+      <c r="R41" s="236"/>
+      <c r="S41" s="236"/>
+      <c r="T41" s="236"/>
       <c r="U41" s="51"/>
       <c r="V41" s="56"/>
       <c r="W41" s="140"/>
@@ -5318,19 +5327,19 @@
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="286" t="s">
+      <c r="M42" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="N42" s="286"/>
-      <c r="O42" s="286"/>
-      <c r="P42" s="286"/>
-      <c r="Q42" s="286"/>
-      <c r="R42" s="286"/>
-      <c r="S42" s="286"/>
-      <c r="T42" s="286"/>
-      <c r="U42" s="286"/>
-      <c r="V42" s="286"/>
-      <c r="W42" s="286"/>
+      <c r="N42" s="148"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="148"/>
+      <c r="R42" s="148"/>
+      <c r="S42" s="148"/>
+      <c r="T42" s="148"/>
+      <c r="U42" s="148"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
     </row>
     <row r="43" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -5346,17 +5355,17 @@
       <c r="J43" s="85"/>
       <c r="K43" s="87"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="287"/>
-      <c r="N43" s="287"/>
-      <c r="O43" s="287"/>
-      <c r="P43" s="287"/>
-      <c r="Q43" s="287"/>
-      <c r="R43" s="287"/>
-      <c r="S43" s="287"/>
-      <c r="T43" s="287"/>
-      <c r="U43" s="287"/>
-      <c r="V43" s="287"/>
-      <c r="W43" s="287"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="182"/>
+      <c r="P43" s="182"/>
+      <c r="Q43" s="182"/>
+      <c r="R43" s="182"/>
+      <c r="S43" s="182"/>
+      <c r="T43" s="182"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="182"/>
+      <c r="W43" s="182"/>
       <c r="Y43" s="141" t="s">
         <v>0</v>
       </c>
@@ -5373,19 +5382,19 @@
       <c r="J44" s="85"/>
       <c r="K44" s="87"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="221" t="s">
+      <c r="M44" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="222"/>
-      <c r="O44" s="222"/>
-      <c r="P44" s="222"/>
-      <c r="Q44" s="222"/>
-      <c r="R44" s="222"/>
-      <c r="S44" s="222"/>
-      <c r="T44" s="222"/>
-      <c r="U44" s="222"/>
-      <c r="V44" s="314"/>
-      <c r="W44" s="315"/>
+      <c r="N44" s="238"/>
+      <c r="O44" s="238"/>
+      <c r="P44" s="238"/>
+      <c r="Q44" s="238"/>
+      <c r="R44" s="238"/>
+      <c r="S44" s="238"/>
+      <c r="T44" s="238"/>
+      <c r="U44" s="238"/>
+      <c r="V44" s="151"/>
+      <c r="W44" s="152"/>
     </row>
     <row r="45" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
@@ -5399,19 +5408,19 @@
       <c r="J45" s="85"/>
       <c r="K45" s="87"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="228" t="s">
+      <c r="M45" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="229"/>
-      <c r="O45" s="229"/>
-      <c r="P45" s="229"/>
-      <c r="Q45" s="229"/>
-      <c r="R45" s="229"/>
-      <c r="S45" s="229"/>
-      <c r="T45" s="229"/>
-      <c r="U45" s="229"/>
-      <c r="V45" s="316"/>
-      <c r="W45" s="317"/>
+      <c r="N45" s="244"/>
+      <c r="O45" s="244"/>
+      <c r="P45" s="244"/>
+      <c r="Q45" s="244"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="244"/>
+      <c r="T45" s="244"/>
+      <c r="U45" s="244"/>
+      <c r="V45" s="153"/>
+      <c r="W45" s="154"/>
     </row>
     <row r="46" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
@@ -5425,19 +5434,19 @@
       <c r="J46" s="85"/>
       <c r="K46" s="76"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="282" t="s">
+      <c r="M46" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="283"/>
-      <c r="O46" s="283"/>
-      <c r="P46" s="283"/>
-      <c r="Q46" s="283"/>
-      <c r="R46" s="283"/>
-      <c r="S46" s="283"/>
-      <c r="T46" s="283"/>
-      <c r="U46" s="283"/>
-      <c r="V46" s="174"/>
-      <c r="W46" s="175"/>
+      <c r="N46" s="174"/>
+      <c r="O46" s="174"/>
+      <c r="P46" s="174"/>
+      <c r="Q46" s="174"/>
+      <c r="R46" s="174"/>
+      <c r="S46" s="174"/>
+      <c r="T46" s="174"/>
+      <c r="U46" s="174"/>
+      <c r="V46" s="286"/>
+      <c r="W46" s="287"/>
     </row>
     <row r="47" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
@@ -5451,19 +5460,19 @@
       <c r="J47" s="81"/>
       <c r="K47" s="81"/>
       <c r="L47" s="81"/>
-      <c r="M47" s="236" t="s">
+      <c r="M47" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="236"/>
-      <c r="O47" s="236"/>
-      <c r="P47" s="236"/>
-      <c r="Q47" s="236"/>
-      <c r="R47" s="236"/>
-      <c r="S47" s="236"/>
-      <c r="T47" s="236"/>
-      <c r="U47" s="236"/>
-      <c r="V47" s="236"/>
-      <c r="W47" s="236"/>
+      <c r="N47" s="246"/>
+      <c r="O47" s="246"/>
+      <c r="P47" s="246"/>
+      <c r="Q47" s="246"/>
+      <c r="R47" s="246"/>
+      <c r="S47" s="246"/>
+      <c r="T47" s="246"/>
+      <c r="U47" s="246"/>
+      <c r="V47" s="246"/>
+      <c r="W47" s="246"/>
     </row>
     <row r="48" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
@@ -5477,17 +5486,17 @@
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
-      <c r="M48" s="237"/>
-      <c r="N48" s="237"/>
-      <c r="O48" s="237"/>
-      <c r="P48" s="237"/>
-      <c r="Q48" s="237"/>
-      <c r="R48" s="237"/>
-      <c r="S48" s="237"/>
-      <c r="T48" s="237"/>
-      <c r="U48" s="237"/>
-      <c r="V48" s="237"/>
-      <c r="W48" s="237"/>
+      <c r="M48" s="247"/>
+      <c r="N48" s="247"/>
+      <c r="O48" s="247"/>
+      <c r="P48" s="247"/>
+      <c r="Q48" s="247"/>
+      <c r="R48" s="247"/>
+      <c r="S48" s="247"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="247"/>
+      <c r="W48" s="247"/>
     </row>
     <row r="49" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
@@ -5501,19 +5510,19 @@
       <c r="J49" s="81"/>
       <c r="K49" s="75"/>
       <c r="L49" s="75"/>
-      <c r="M49" s="226" t="s">
+      <c r="M49" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="227"/>
-      <c r="O49" s="227"/>
-      <c r="P49" s="227"/>
-      <c r="Q49" s="227"/>
-      <c r="R49" s="173"/>
-      <c r="S49" s="173"/>
-      <c r="T49" s="231"/>
-      <c r="U49" s="231"/>
-      <c r="V49" s="312"/>
-      <c r="W49" s="313"/>
+      <c r="N49" s="242"/>
+      <c r="O49" s="242"/>
+      <c r="P49" s="242"/>
+      <c r="Q49" s="242"/>
+      <c r="R49" s="309"/>
+      <c r="S49" s="309"/>
+      <c r="T49" s="245"/>
+      <c r="U49" s="245"/>
+      <c r="V49" s="146"/>
+      <c r="W49" s="147"/>
     </row>
     <row r="50" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
@@ -5527,19 +5536,19 @@
       <c r="J50" s="88"/>
       <c r="K50" s="19"/>
       <c r="L50" s="75"/>
-      <c r="M50" s="213" t="s">
+      <c r="M50" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="214"/>
-      <c r="O50" s="214"/>
-      <c r="P50" s="214"/>
-      <c r="Q50" s="214"/>
-      <c r="R50" s="195"/>
-      <c r="S50" s="195"/>
-      <c r="T50" s="238"/>
-      <c r="U50" s="238"/>
-      <c r="V50" s="224"/>
-      <c r="W50" s="225"/>
+      <c r="N50" s="231"/>
+      <c r="O50" s="231"/>
+      <c r="P50" s="231"/>
+      <c r="Q50" s="231"/>
+      <c r="R50" s="281"/>
+      <c r="S50" s="281"/>
+      <c r="T50" s="248"/>
+      <c r="U50" s="248"/>
+      <c r="V50" s="239"/>
+      <c r="W50" s="240"/>
     </row>
     <row r="51" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
@@ -5553,19 +5562,19 @@
       <c r="J51" s="89"/>
       <c r="K51" s="19"/>
       <c r="L51" s="75"/>
-      <c r="M51" s="213" t="s">
+      <c r="M51" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="N51" s="214"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="214"/>
-      <c r="Q51" s="214"/>
-      <c r="R51" s="230"/>
-      <c r="S51" s="230"/>
-      <c r="T51" s="235"/>
-      <c r="U51" s="235"/>
-      <c r="V51" s="178"/>
-      <c r="W51" s="179"/>
+      <c r="N51" s="231"/>
+      <c r="O51" s="231"/>
+      <c r="P51" s="231"/>
+      <c r="Q51" s="231"/>
+      <c r="R51" s="283"/>
+      <c r="S51" s="283"/>
+      <c r="T51" s="284"/>
+      <c r="U51" s="284"/>
+      <c r="V51" s="144"/>
+      <c r="W51" s="145"/>
     </row>
     <row r="52" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
@@ -5579,19 +5588,19 @@
       <c r="J52" s="75"/>
       <c r="K52" s="19"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="213" t="s">
+      <c r="M52" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="214"/>
-      <c r="O52" s="214"/>
-      <c r="P52" s="214"/>
-      <c r="Q52" s="214"/>
-      <c r="R52" s="242"/>
-      <c r="S52" s="242"/>
-      <c r="T52" s="196"/>
-      <c r="U52" s="196"/>
-      <c r="V52" s="178"/>
-      <c r="W52" s="179"/>
+      <c r="N52" s="231"/>
+      <c r="O52" s="231"/>
+      <c r="P52" s="231"/>
+      <c r="Q52" s="231"/>
+      <c r="R52" s="285"/>
+      <c r="S52" s="285"/>
+      <c r="T52" s="282"/>
+      <c r="U52" s="282"/>
+      <c r="V52" s="144"/>
+      <c r="W52" s="145"/>
     </row>
     <row r="53" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
@@ -5605,21 +5614,21 @@
       <c r="J53" s="92"/>
       <c r="K53" s="92"/>
       <c r="L53" s="92"/>
-      <c r="M53" s="176" t="s">
+      <c r="M53" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="177"/>
-      <c r="O53" s="177"/>
-      <c r="P53" s="177"/>
-      <c r="Q53" s="177"/>
-      <c r="R53" s="199"/>
-      <c r="S53" s="199"/>
-      <c r="T53" s="198" t="s">
+      <c r="N53" s="217"/>
+      <c r="O53" s="217"/>
+      <c r="P53" s="217"/>
+      <c r="Q53" s="217"/>
+      <c r="R53" s="268"/>
+      <c r="S53" s="268"/>
+      <c r="T53" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="U53" s="198"/>
-      <c r="V53" s="180"/>
-      <c r="W53" s="181"/>
+      <c r="U53" s="267"/>
+      <c r="V53" s="288"/>
+      <c r="W53" s="289"/>
     </row>
     <row r="54" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
@@ -5632,19 +5641,19 @@
       <c r="I54" s="89"/>
       <c r="J54" s="89"/>
       <c r="L54" s="93"/>
-      <c r="M54" s="176" t="s">
+      <c r="M54" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="177"/>
-      <c r="O54" s="177"/>
-      <c r="P54" s="177"/>
-      <c r="Q54" s="177"/>
-      <c r="R54" s="243"/>
-      <c r="S54" s="243"/>
-      <c r="T54" s="239"/>
-      <c r="U54" s="239"/>
-      <c r="V54" s="182"/>
-      <c r="W54" s="183"/>
+      <c r="N54" s="217"/>
+      <c r="O54" s="217"/>
+      <c r="P54" s="217"/>
+      <c r="Q54" s="217"/>
+      <c r="R54" s="233"/>
+      <c r="S54" s="233"/>
+      <c r="T54" s="277"/>
+      <c r="U54" s="277"/>
+      <c r="V54" s="290"/>
+      <c r="W54" s="291"/>
     </row>
     <row r="55" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
@@ -5658,21 +5667,21 @@
       <c r="J55" s="88"/>
       <c r="K55" s="94"/>
       <c r="L55" s="86"/>
-      <c r="M55" s="213" t="s">
+      <c r="M55" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="214"/>
-      <c r="O55" s="214"/>
-      <c r="P55" s="214"/>
-      <c r="Q55" s="214"/>
-      <c r="R55" s="194"/>
-      <c r="S55" s="194"/>
-      <c r="T55" s="196" t="s">
+      <c r="N55" s="231"/>
+      <c r="O55" s="231"/>
+      <c r="P55" s="231"/>
+      <c r="Q55" s="231"/>
+      <c r="R55" s="280"/>
+      <c r="S55" s="280"/>
+      <c r="T55" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="196"/>
-      <c r="V55" s="240"/>
-      <c r="W55" s="241"/>
+      <c r="U55" s="282"/>
+      <c r="V55" s="278"/>
+      <c r="W55" s="279"/>
     </row>
     <row r="56" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
@@ -5686,19 +5695,19 @@
       <c r="J56" s="85"/>
       <c r="K56" s="18"/>
       <c r="L56" s="95"/>
-      <c r="M56" s="213" t="s">
+      <c r="M56" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="N56" s="214"/>
-      <c r="O56" s="214"/>
-      <c r="P56" s="214"/>
-      <c r="Q56" s="214"/>
-      <c r="R56" s="232"/>
-      <c r="S56" s="233"/>
-      <c r="T56" s="233"/>
-      <c r="U56" s="233"/>
-      <c r="V56" s="233"/>
-      <c r="W56" s="234"/>
+      <c r="N56" s="231"/>
+      <c r="O56" s="231"/>
+      <c r="P56" s="231"/>
+      <c r="Q56" s="231"/>
+      <c r="R56" s="274"/>
+      <c r="S56" s="275"/>
+      <c r="T56" s="275"/>
+      <c r="U56" s="275"/>
+      <c r="V56" s="275"/>
+      <c r="W56" s="276"/>
     </row>
     <row r="57" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
@@ -5712,19 +5721,19 @@
       <c r="J57" s="96"/>
       <c r="K57" s="75"/>
       <c r="L57" s="97"/>
-      <c r="M57" s="176" t="s">
+      <c r="M57" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="N57" s="177"/>
-      <c r="O57" s="177"/>
-      <c r="P57" s="177"/>
-      <c r="Q57" s="177"/>
-      <c r="R57" s="204"/>
-      <c r="S57" s="204"/>
-      <c r="T57" s="197"/>
-      <c r="U57" s="197"/>
-      <c r="V57" s="197"/>
-      <c r="W57" s="205"/>
+      <c r="N57" s="217"/>
+      <c r="O57" s="217"/>
+      <c r="P57" s="217"/>
+      <c r="Q57" s="217"/>
+      <c r="R57" s="232"/>
+      <c r="S57" s="232"/>
+      <c r="T57" s="250"/>
+      <c r="U57" s="250"/>
+      <c r="V57" s="250"/>
+      <c r="W57" s="251"/>
     </row>
     <row r="58" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
@@ -5738,19 +5747,19 @@
       <c r="J58" s="75"/>
       <c r="K58" s="75"/>
       <c r="L58" s="98"/>
-      <c r="M58" s="176" t="s">
+      <c r="M58" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="177"/>
-      <c r="O58" s="177"/>
-      <c r="P58" s="177"/>
-      <c r="Q58" s="177"/>
-      <c r="R58" s="204"/>
-      <c r="S58" s="204"/>
-      <c r="T58" s="200"/>
-      <c r="U58" s="200"/>
-      <c r="V58" s="197"/>
-      <c r="W58" s="205"/>
+      <c r="N58" s="217"/>
+      <c r="O58" s="217"/>
+      <c r="P58" s="217"/>
+      <c r="Q58" s="217"/>
+      <c r="R58" s="232"/>
+      <c r="S58" s="232"/>
+      <c r="T58" s="269"/>
+      <c r="U58" s="269"/>
+      <c r="V58" s="250"/>
+      <c r="W58" s="251"/>
     </row>
     <row r="59" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
@@ -5764,21 +5773,21 @@
       <c r="J59" s="76"/>
       <c r="K59" s="76"/>
       <c r="L59" s="76"/>
-      <c r="M59" s="176" t="s">
+      <c r="M59" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="N59" s="177"/>
-      <c r="O59" s="177"/>
-      <c r="P59" s="177"/>
-      <c r="Q59" s="177"/>
-      <c r="R59" s="210"/>
-      <c r="S59" s="210"/>
-      <c r="T59" s="204" t="s">
+      <c r="N59" s="217"/>
+      <c r="O59" s="217"/>
+      <c r="P59" s="217"/>
+      <c r="Q59" s="217"/>
+      <c r="R59" s="256"/>
+      <c r="S59" s="256"/>
+      <c r="T59" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="U59" s="204"/>
-      <c r="V59" s="206"/>
-      <c r="W59" s="207"/>
+      <c r="U59" s="232"/>
+      <c r="V59" s="252"/>
+      <c r="W59" s="253"/>
     </row>
     <row r="60" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
@@ -5792,19 +5801,19 @@
       <c r="J60" s="100"/>
       <c r="K60" s="100"/>
       <c r="L60" s="100"/>
-      <c r="M60" s="213" t="s">
+      <c r="M60" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="N60" s="214"/>
-      <c r="O60" s="214"/>
-      <c r="P60" s="214"/>
-      <c r="Q60" s="214"/>
-      <c r="R60" s="169"/>
-      <c r="S60" s="169"/>
-      <c r="T60" s="204"/>
-      <c r="U60" s="204"/>
-      <c r="V60" s="171"/>
-      <c r="W60" s="172"/>
+      <c r="N60" s="231"/>
+      <c r="O60" s="231"/>
+      <c r="P60" s="231"/>
+      <c r="Q60" s="231"/>
+      <c r="R60" s="261"/>
+      <c r="S60" s="261"/>
+      <c r="T60" s="232"/>
+      <c r="U60" s="232"/>
+      <c r="V60" s="259"/>
+      <c r="W60" s="260"/>
     </row>
     <row r="61" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
@@ -5818,19 +5827,19 @@
       <c r="J61" s="100"/>
       <c r="K61" s="100"/>
       <c r="L61" s="100"/>
-      <c r="M61" s="213" t="s">
+      <c r="M61" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="N61" s="214"/>
-      <c r="O61" s="214"/>
-      <c r="P61" s="214"/>
-      <c r="Q61" s="214"/>
-      <c r="R61" s="169"/>
-      <c r="S61" s="169"/>
-      <c r="T61" s="204"/>
-      <c r="U61" s="204"/>
-      <c r="V61" s="171"/>
-      <c r="W61" s="172"/>
+      <c r="N61" s="231"/>
+      <c r="O61" s="231"/>
+      <c r="P61" s="231"/>
+      <c r="Q61" s="231"/>
+      <c r="R61" s="261"/>
+      <c r="S61" s="261"/>
+      <c r="T61" s="232"/>
+      <c r="U61" s="232"/>
+      <c r="V61" s="259"/>
+      <c r="W61" s="260"/>
     </row>
     <row r="62" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
@@ -5840,25 +5849,25 @@
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
       <c r="H62" s="75"/>
-      <c r="I62" s="203" t="s">
+      <c r="I62" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="J62" s="203"/>
-      <c r="K62" s="203"/>
-      <c r="L62" s="203"/>
-      <c r="M62" s="213" t="s">
+      <c r="J62" s="249"/>
+      <c r="K62" s="249"/>
+      <c r="L62" s="249"/>
+      <c r="M62" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="214"/>
-      <c r="O62" s="214"/>
-      <c r="P62" s="214"/>
-      <c r="Q62" s="214"/>
-      <c r="R62" s="170"/>
-      <c r="S62" s="170"/>
-      <c r="T62" s="211"/>
-      <c r="U62" s="211"/>
-      <c r="V62" s="208"/>
-      <c r="W62" s="209"/>
+      <c r="N62" s="231"/>
+      <c r="O62" s="231"/>
+      <c r="P62" s="231"/>
+      <c r="Q62" s="231"/>
+      <c r="R62" s="308"/>
+      <c r="S62" s="308"/>
+      <c r="T62" s="257"/>
+      <c r="U62" s="257"/>
+      <c r="V62" s="254"/>
+      <c r="W62" s="255"/>
     </row>
     <row r="63" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
@@ -5868,23 +5877,23 @@
       <c r="F63" s="59"/>
       <c r="G63" s="60"/>
       <c r="H63" s="75"/>
-      <c r="I63" s="161"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="162"/>
-      <c r="M63" s="215" t="s">
+      <c r="I63" s="176"/>
+      <c r="J63" s="176"/>
+      <c r="K63" s="176"/>
+      <c r="L63" s="177"/>
+      <c r="M63" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="216"/>
-      <c r="O63" s="216"/>
-      <c r="P63" s="216"/>
-      <c r="Q63" s="216"/>
-      <c r="R63" s="217"/>
-      <c r="S63" s="217"/>
-      <c r="T63" s="212"/>
-      <c r="U63" s="212"/>
-      <c r="V63" s="218"/>
-      <c r="W63" s="219"/>
+      <c r="N63" s="263"/>
+      <c r="O63" s="263"/>
+      <c r="P63" s="263"/>
+      <c r="Q63" s="263"/>
+      <c r="R63" s="264"/>
+      <c r="S63" s="264"/>
+      <c r="T63" s="258"/>
+      <c r="U63" s="258"/>
+      <c r="V63" s="265"/>
+      <c r="W63" s="266"/>
     </row>
     <row r="64" spans="2:23" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
@@ -5911,92 +5920,92 @@
       <c r="W64" s="16"/>
     </row>
     <row r="65" spans="12:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L65" s="142" t="s">
+      <c r="L65" s="302" t="s">
         <v>49</v>
       </c>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="143"/>
-      <c r="R65" s="143"/>
-      <c r="S65" s="143"/>
-      <c r="T65" s="143"/>
-      <c r="U65" s="143"/>
-      <c r="V65" s="143"/>
-      <c r="W65" s="152"/>
+      <c r="M65" s="303"/>
+      <c r="N65" s="303"/>
+      <c r="O65" s="303"/>
+      <c r="P65" s="303"/>
+      <c r="Q65" s="303"/>
+      <c r="R65" s="303"/>
+      <c r="S65" s="303"/>
+      <c r="T65" s="303"/>
+      <c r="U65" s="303"/>
+      <c r="V65" s="303"/>
+      <c r="W65" s="304"/>
     </row>
     <row r="66" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L66" s="148" t="s">
+      <c r="L66" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="M66" s="146" t="s">
+      <c r="M66" s="273" t="s">
         <v>27</v>
       </c>
-      <c r="N66" s="146" t="s">
+      <c r="N66" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="O66" s="146" t="s">
+      <c r="O66" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="P66" s="146" t="s">
+      <c r="P66" s="273" t="s">
         <v>31</v>
       </c>
-      <c r="Q66" s="146"/>
-      <c r="R66" s="146"/>
-      <c r="S66" s="146"/>
-      <c r="T66" s="146" t="s">
+      <c r="Q66" s="273"/>
+      <c r="R66" s="273"/>
+      <c r="S66" s="273"/>
+      <c r="T66" s="273" t="s">
         <v>51</v>
       </c>
-      <c r="U66" s="146"/>
-      <c r="V66" s="146" t="s">
+      <c r="U66" s="273"/>
+      <c r="V66" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="W66" s="156"/>
+      <c r="W66" s="292"/>
     </row>
     <row r="67" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L67" s="148"/>
-      <c r="M67" s="146"/>
-      <c r="N67" s="146"/>
-      <c r="O67" s="146"/>
-      <c r="P67" s="147" t="s">
+      <c r="L67" s="313"/>
+      <c r="M67" s="273"/>
+      <c r="N67" s="273"/>
+      <c r="O67" s="273"/>
+      <c r="P67" s="312" t="s">
         <v>33</v>
       </c>
-      <c r="Q67" s="147"/>
-      <c r="R67" s="146" t="s">
+      <c r="Q67" s="312"/>
+      <c r="R67" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="S67" s="146"/>
-      <c r="T67" s="146" t="s">
+      <c r="S67" s="273"/>
+      <c r="T67" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="146"/>
-      <c r="V67" s="146" t="s">
+      <c r="U67" s="273"/>
+      <c r="V67" s="273" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="156"/>
+      <c r="W67" s="292"/>
     </row>
     <row r="68" spans="12:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="53"/>
       <c r="M68" s="54"/>
       <c r="N68" s="54"/>
       <c r="O68" s="52"/>
-      <c r="P68" s="153"/>
-      <c r="Q68" s="153"/>
-      <c r="R68" s="153"/>
-      <c r="S68" s="153"/>
-      <c r="T68" s="153"/>
-      <c r="U68" s="153"/>
-      <c r="V68" s="153"/>
-      <c r="W68" s="201"/>
+      <c r="P68" s="270"/>
+      <c r="Q68" s="270"/>
+      <c r="R68" s="270"/>
+      <c r="S68" s="270"/>
+      <c r="T68" s="270"/>
+      <c r="U68" s="270"/>
+      <c r="V68" s="270"/>
+      <c r="W68" s="271"/>
     </row>
     <row r="69" spans="12:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L69" s="46"/>
       <c r="M69" s="46"/>
-      <c r="N69" s="202"/>
-      <c r="O69" s="202"/>
-      <c r="P69" s="202"/>
-      <c r="Q69" s="202"/>
+      <c r="N69" s="272"/>
+      <c r="O69" s="272"/>
+      <c r="P69" s="272"/>
+      <c r="Q69" s="272"/>
       <c r="R69" s="46"/>
       <c r="S69" s="46"/>
       <c r="T69" s="46"/>
@@ -6005,34 +6014,34 @@
       <c r="W69" s="46"/>
     </row>
     <row r="70" spans="12:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L70" s="142" t="s">
+      <c r="L70" s="302" t="s">
         <v>53</v>
       </c>
-      <c r="M70" s="143"/>
-      <c r="N70" s="143" t="s">
+      <c r="M70" s="303"/>
+      <c r="N70" s="303" t="s">
         <v>54</v>
       </c>
-      <c r="O70" s="143"/>
-      <c r="P70" s="143" t="s">
+      <c r="O70" s="303"/>
+      <c r="P70" s="303" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="152"/>
-      <c r="R70" s="149"/>
-      <c r="S70" s="149"/>
+      <c r="Q70" s="304"/>
+      <c r="R70" s="314"/>
+      <c r="S70" s="314"/>
       <c r="T70" s="46"/>
       <c r="U70" s="46"/>
       <c r="V70" s="46"/>
       <c r="W70" s="46"/>
     </row>
     <row r="71" spans="12:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L71" s="144"/>
-      <c r="M71" s="145"/>
-      <c r="N71" s="145"/>
-      <c r="O71" s="145"/>
-      <c r="P71" s="145"/>
-      <c r="Q71" s="150"/>
-      <c r="R71" s="151"/>
-      <c r="S71" s="151"/>
+      <c r="L71" s="310"/>
+      <c r="M71" s="311"/>
+      <c r="N71" s="311"/>
+      <c r="O71" s="311"/>
+      <c r="P71" s="311"/>
+      <c r="Q71" s="315"/>
+      <c r="R71" s="316"/>
+      <c r="S71" s="316"/>
       <c r="T71" s="46"/>
       <c r="U71" s="46"/>
       <c r="V71" s="46"/>
@@ -6043,23 +6052,172 @@
     <row r="118" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="P66:S66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="L65:W65"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="M47:W48"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B3:U3"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M18:O18"/>
@@ -6084,47 +6242,23 @@
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
     <mergeCell ref="U25:U26"/>
     <mergeCell ref="M44:U44"/>
     <mergeCell ref="Q25:T25"/>
@@ -6132,131 +6266,6 @@
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="S28:T28"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="M47:W48"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="M63:Q63"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="R56:W56"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="L65:W65"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="P66:S66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R68:S68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2826,11 +2826,116 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2838,32 +2943,260 @@
     <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2886,15 +3219,6 @@
     <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2929,12 +3253,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2943,7 +3261,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3015,353 +3333,35 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -4234,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y118"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52:U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4280,10 +4280,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
@@ -4312,28 +4312,28 @@
       <c r="W2" s="4"/>
     </row>
     <row r="3" spans="2:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="265"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
@@ -4349,19 +4349,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="13"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="206" t="s">
+      <c r="M4" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
+      <c r="N4" s="244"/>
+      <c r="O4" s="244"/>
+      <c r="P4" s="244"/>
+      <c r="Q4" s="244"/>
+      <c r="R4" s="244"/>
+      <c r="S4" s="244"/>
+      <c r="T4" s="244"/>
+      <c r="U4" s="244"/>
+      <c r="V4" s="244"/>
+      <c r="W4" s="244"/>
     </row>
     <row r="5" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -4375,23 +4375,23 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="207"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207"/>
+      <c r="M5" s="245"/>
+      <c r="N5" s="245"/>
+      <c r="O5" s="245"/>
+      <c r="P5" s="245"/>
+      <c r="Q5" s="245"/>
+      <c r="R5" s="245"/>
+      <c r="S5" s="245"/>
+      <c r="T5" s="245"/>
+      <c r="U5" s="245"/>
+      <c r="V5" s="245"/>
+      <c r="W5" s="245"/>
     </row>
     <row r="6" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
+      <c r="D6" s="274"/>
+      <c r="E6" s="275"/>
       <c r="F6" s="61"/>
       <c r="G6" s="62"/>
       <c r="H6" s="65"/>
@@ -4399,25 +4399,25 @@
       <c r="J6" s="75"/>
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
-      <c r="M6" s="212" t="s">
+      <c r="M6" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="213"/>
-      <c r="O6" s="213"/>
-      <c r="P6" s="214"/>
-      <c r="Q6" s="214"/>
-      <c r="R6" s="214"/>
-      <c r="S6" s="214"/>
-      <c r="T6" s="214"/>
-      <c r="U6" s="214"/>
-      <c r="V6" s="214"/>
-      <c r="W6" s="215"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="251"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="252"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="253"/>
     </row>
     <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="277"/>
       <c r="F7" s="69"/>
       <c r="G7" s="68"/>
       <c r="H7" s="66"/>
@@ -4425,25 +4425,25 @@
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
       <c r="L7" s="76"/>
-      <c r="M7" s="216" t="s">
+      <c r="M7" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="208"/>
-      <c r="Q7" s="208"/>
-      <c r="R7" s="208"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="209"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="246"/>
+      <c r="Q7" s="246"/>
+      <c r="R7" s="246"/>
+      <c r="S7" s="246"/>
+      <c r="T7" s="246"/>
+      <c r="U7" s="246"/>
+      <c r="V7" s="246"/>
+      <c r="W7" s="247"/>
     </row>
     <row r="8" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="277"/>
       <c r="F8" s="69"/>
       <c r="G8" s="68"/>
       <c r="H8" s="66"/>
@@ -4451,25 +4451,25 @@
       <c r="J8" s="75"/>
       <c r="K8" s="75"/>
       <c r="L8" s="76"/>
-      <c r="M8" s="218" t="s">
+      <c r="M8" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="210"/>
-      <c r="Q8" s="210"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="211"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="255"/>
+      <c r="P8" s="248"/>
+      <c r="Q8" s="248"/>
+      <c r="R8" s="248"/>
+      <c r="S8" s="248"/>
+      <c r="T8" s="248"/>
+      <c r="U8" s="248"/>
+      <c r="V8" s="248"/>
+      <c r="W8" s="249"/>
     </row>
     <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="169"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="277"/>
       <c r="F9" s="69"/>
       <c r="G9" s="68"/>
       <c r="H9" s="66"/>
@@ -4477,37 +4477,37 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="L9" s="77"/>
-      <c r="M9" s="224" t="s">
+      <c r="M9" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="225"/>
+      <c r="N9" s="261"/>
       <c r="O9" s="37"/>
-      <c r="P9" s="222" t="s">
+      <c r="P9" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="222" t="s">
+      <c r="Q9" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="222" t="s">
+      <c r="R9" s="258" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="220" t="s">
+      <c r="S9" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="220"/>
-      <c r="U9" s="222" t="s">
+      <c r="T9" s="256"/>
+      <c r="U9" s="258" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="222" t="s">
+      <c r="V9" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="226"/>
+      <c r="W9" s="262"/>
     </row>
     <row r="10" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="277"/>
       <c r="F10" s="69"/>
       <c r="G10" s="68"/>
       <c r="H10" s="66"/>
@@ -4515,17 +4515,17 @@
       <c r="J10" s="78"/>
       <c r="K10" s="79"/>
       <c r="L10" s="78"/>
-      <c r="M10" s="227" t="s">
+      <c r="M10" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="228"/>
+      <c r="N10" s="264"/>
       <c r="O10" s="33"/>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="223"/>
-      <c r="R10" s="223"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
-      <c r="U10" s="223"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="259"/>
+      <c r="S10" s="257"/>
+      <c r="T10" s="257"/>
+      <c r="U10" s="259"/>
       <c r="V10" s="70" t="s">
         <v>33</v>
       </c>
@@ -4536,8 +4536,8 @@
     <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="277"/>
       <c r="F11" s="69"/>
       <c r="G11" s="68"/>
       <c r="H11" s="66"/>
@@ -4545,11 +4545,11 @@
       <c r="J11" s="80"/>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="155" t="s">
+      <c r="M11" s="266" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="156"/>
-      <c r="O11" s="157"/>
+      <c r="N11" s="267"/>
+      <c r="O11" s="268"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="22"/>
@@ -4562,8 +4562,8 @@
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="279"/>
       <c r="F12" s="69"/>
       <c r="G12" s="107"/>
       <c r="H12" s="108"/>
@@ -4571,11 +4571,11 @@
       <c r="J12" s="110"/>
       <c r="K12" s="111"/>
       <c r="L12" s="82"/>
-      <c r="M12" s="155" t="s">
+      <c r="M12" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="157"/>
+      <c r="N12" s="267"/>
+      <c r="O12" s="268"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="23"/>
@@ -4597,11 +4597,11 @@
       <c r="J13" s="83"/>
       <c r="K13" s="83"/>
       <c r="L13" s="84"/>
-      <c r="M13" s="155" t="s">
+      <c r="M13" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="156"/>
-      <c r="O13" s="157"/>
+      <c r="N13" s="267"/>
+      <c r="O13" s="268"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
@@ -4623,19 +4623,19 @@
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
-      <c r="M14" s="162" t="s">
+      <c r="M14" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="163"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="193"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="293"/>
-      <c r="W14" s="296"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="273"/>
+      <c r="Q14" s="293"/>
+      <c r="R14" s="293"/>
+      <c r="S14" s="296"/>
+      <c r="T14" s="299"/>
+      <c r="U14" s="272"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="188"/>
     </row>
     <row r="15" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4649,17 +4649,17 @@
       <c r="J15" s="81"/>
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="194"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="294"/>
-      <c r="W15" s="297"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="273"/>
+      <c r="Q15" s="294"/>
+      <c r="R15" s="294"/>
+      <c r="S15" s="297"/>
+      <c r="T15" s="300"/>
+      <c r="U15" s="272"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="189"/>
     </row>
     <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4673,17 +4673,17 @@
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
       <c r="L16" s="81"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="194"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="294"/>
-      <c r="W16" s="298"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="294"/>
+      <c r="R16" s="294"/>
+      <c r="S16" s="297"/>
+      <c r="T16" s="300"/>
+      <c r="U16" s="272"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="190"/>
       <c r="X16" s="133"/>
     </row>
     <row r="17" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4698,17 +4698,17 @@
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="189"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="295"/>
-      <c r="W17" s="299"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="273"/>
+      <c r="Q17" s="295"/>
+      <c r="R17" s="295"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="301"/>
+      <c r="U17" s="272"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="191"/>
     </row>
     <row r="18" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4722,11 +4722,11 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81"/>
-      <c r="M18" s="158" t="s">
+      <c r="M18" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="159"/>
-      <c r="O18" s="160"/>
+      <c r="N18" s="270"/>
+      <c r="O18" s="271"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -4751,16 +4751,16 @@
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
-      <c r="M19" s="199" t="s">
+      <c r="M19" s="305" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="200"/>
-      <c r="O19" s="201"/>
+      <c r="N19" s="306"/>
+      <c r="O19" s="307"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="34"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="143"/>
+      <c r="S19" s="311"/>
+      <c r="T19" s="312"/>
       <c r="U19" s="36"/>
       <c r="V19" s="73"/>
       <c r="W19" s="74"/>
@@ -4777,11 +4777,11 @@
       <c r="J20" s="115"/>
       <c r="K20" s="115"/>
       <c r="L20" s="115"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="164"/>
+      <c r="M20" s="192"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="193"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="194"/>
       <c r="R20" s="24"/>
       <c r="S20" s="134"/>
       <c r="T20" s="135"/>
@@ -4801,9 +4801,9 @@
       <c r="J21" s="116"/>
       <c r="K21" s="117"/>
       <c r="L21" s="117"/>
-      <c r="M21" s="196"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="198"/>
+      <c r="M21" s="302"/>
+      <c r="N21" s="303"/>
+      <c r="O21" s="304"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="27"/>
@@ -4825,16 +4825,16 @@
       <c r="J22" s="126"/>
       <c r="K22" s="118"/>
       <c r="L22" s="118"/>
-      <c r="M22" s="202" t="s">
+      <c r="M22" s="308" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="203"/>
-      <c r="O22" s="204"/>
+      <c r="N22" s="309"/>
+      <c r="O22" s="310"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
       <c r="R22" s="102"/>
-      <c r="S22" s="300"/>
-      <c r="T22" s="301"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="155"/>
       <c r="U22" s="104"/>
       <c r="V22" s="105"/>
       <c r="W22" s="106"/>
@@ -4851,19 +4851,19 @@
       <c r="J23" s="119"/>
       <c r="K23" s="120"/>
       <c r="L23" s="121"/>
-      <c r="M23" s="148" t="s">
+      <c r="M23" s="287" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
+      <c r="N23" s="287"/>
+      <c r="O23" s="287"/>
+      <c r="P23" s="287"/>
+      <c r="Q23" s="287"/>
+      <c r="R23" s="287"/>
+      <c r="S23" s="287"/>
+      <c r="T23" s="287"/>
+      <c r="U23" s="287"/>
+      <c r="V23" s="287"/>
+      <c r="W23" s="287"/>
     </row>
     <row r="24" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -4879,17 +4879,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="115"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
+      <c r="M24" s="287"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="287"/>
+      <c r="P24" s="287"/>
+      <c r="Q24" s="287"/>
+      <c r="R24" s="287"/>
+      <c r="S24" s="287"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="287"/>
+      <c r="V24" s="287"/>
+      <c r="W24" s="287"/>
     </row>
     <row r="25" spans="2:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -4903,27 +4903,27 @@
       <c r="J25" s="125"/>
       <c r="K25" s="116"/>
       <c r="L25" s="117"/>
-      <c r="M25" s="183" t="s">
+      <c r="M25" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="184"/>
-      <c r="O25" s="180" t="s">
+      <c r="N25" s="290"/>
+      <c r="O25" s="286" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="180" t="s">
+      <c r="P25" s="286"/>
+      <c r="Q25" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="180"/>
-      <c r="S25" s="180"/>
-      <c r="T25" s="180"/>
-      <c r="U25" s="180" t="s">
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="286"/>
+      <c r="U25" s="286" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="305" t="s">
+      <c r="V25" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="306" t="s">
+      <c r="W25" s="159" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4936,24 +4936,24 @@
       <c r="G26" s="58"/>
       <c r="H26" s="124"/>
       <c r="I26" s="124"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="185"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="175" t="s">
+      <c r="J26" s="284"/>
+      <c r="K26" s="284"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="291"/>
+      <c r="N26" s="292"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175" t="s">
+      <c r="R26" s="283"/>
+      <c r="S26" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="175"/>
-      <c r="U26" s="181"/>
-      <c r="V26" s="181"/>
-      <c r="W26" s="307"/>
+      <c r="T26" s="283"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="160"/>
     </row>
     <row r="27" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -4967,14 +4967,14 @@
       <c r="J27" s="115"/>
       <c r="K27" s="115"/>
       <c r="L27" s="115"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="317"/>
-      <c r="P27" s="317"/>
-      <c r="Q27" s="318"/>
-      <c r="R27" s="318"/>
-      <c r="S27" s="318"/>
-      <c r="T27" s="318"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
+      <c r="T27" s="169"/>
       <c r="U27" s="50"/>
       <c r="V27" s="55"/>
       <c r="W27" s="139"/>
@@ -4991,14 +4991,14 @@
       <c r="J28" s="81"/>
       <c r="K28" s="81"/>
       <c r="L28" s="81"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="317"/>
-      <c r="P28" s="317"/>
-      <c r="Q28" s="318"/>
-      <c r="R28" s="318"/>
-      <c r="S28" s="318"/>
-      <c r="T28" s="318"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
+      <c r="T28" s="169"/>
       <c r="U28" s="50"/>
       <c r="V28" s="55"/>
       <c r="W28" s="139"/>
@@ -5012,17 +5012,17 @@
       <c r="G29" s="58"/>
       <c r="H29" s="3"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="317"/>
-      <c r="P29" s="317"/>
-      <c r="Q29" s="318"/>
-      <c r="R29" s="318"/>
-      <c r="S29" s="318"/>
-      <c r="T29" s="318"/>
+      <c r="J29" s="280"/>
+      <c r="K29" s="280"/>
+      <c r="L29" s="280"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="169"/>
+      <c r="T29" s="169"/>
       <c r="U29" s="50"/>
       <c r="V29" s="55"/>
       <c r="W29" s="139"/>
@@ -5036,17 +5036,17 @@
       <c r="G30" s="58"/>
       <c r="H30" s="3"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="317"/>
-      <c r="P30" s="317"/>
-      <c r="Q30" s="318"/>
-      <c r="R30" s="318"/>
-      <c r="S30" s="318"/>
-      <c r="T30" s="318"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="169"/>
       <c r="U30" s="50"/>
       <c r="V30" s="55"/>
       <c r="W30" s="139"/>
@@ -5060,17 +5060,17 @@
       <c r="G31" s="58"/>
       <c r="H31" s="3"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="317"/>
-      <c r="P31" s="317"/>
-      <c r="Q31" s="318"/>
-      <c r="R31" s="318"/>
-      <c r="S31" s="318"/>
-      <c r="T31" s="318"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="169"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="169"/>
+      <c r="T31" s="169"/>
       <c r="U31" s="50"/>
       <c r="V31" s="55"/>
       <c r="W31" s="139"/>
@@ -5084,17 +5084,17 @@
       <c r="G32" s="58"/>
       <c r="H32" s="75"/>
       <c r="I32" s="86"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="149"/>
-      <c r="O32" s="317"/>
-      <c r="P32" s="317"/>
-      <c r="Q32" s="318"/>
-      <c r="R32" s="318"/>
-      <c r="S32" s="318"/>
-      <c r="T32" s="318"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="169"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="169"/>
       <c r="U32" s="50"/>
       <c r="V32" s="55"/>
       <c r="W32" s="139"/>
@@ -5108,17 +5108,17 @@
       <c r="G33" s="58"/>
       <c r="H33" s="75"/>
       <c r="I33" s="86"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="317"/>
-      <c r="P33" s="317"/>
-      <c r="Q33" s="318"/>
-      <c r="R33" s="318"/>
-      <c r="S33" s="318"/>
-      <c r="T33" s="318"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="168"/>
+      <c r="Q33" s="169"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="169"/>
       <c r="U33" s="50"/>
       <c r="V33" s="55"/>
       <c r="W33" s="139"/>
@@ -5132,17 +5132,17 @@
       <c r="G34" s="58"/>
       <c r="H34" s="75"/>
       <c r="I34" s="86"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="177"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="317"/>
-      <c r="P34" s="317"/>
-      <c r="Q34" s="318"/>
-      <c r="R34" s="318"/>
-      <c r="S34" s="318"/>
-      <c r="T34" s="318"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="169"/>
+      <c r="R34" s="169"/>
+      <c r="S34" s="169"/>
+      <c r="T34" s="169"/>
       <c r="U34" s="50"/>
       <c r="V34" s="55"/>
       <c r="W34" s="139"/>
@@ -5156,17 +5156,17 @@
       <c r="G35" s="58"/>
       <c r="H35" s="75"/>
       <c r="I35" s="86"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="177"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="317"/>
-      <c r="P35" s="317"/>
-      <c r="Q35" s="318"/>
-      <c r="R35" s="318"/>
-      <c r="S35" s="318"/>
-      <c r="T35" s="318"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="168"/>
+      <c r="P35" s="168"/>
+      <c r="Q35" s="169"/>
+      <c r="R35" s="169"/>
+      <c r="S35" s="169"/>
+      <c r="T35" s="169"/>
       <c r="U35" s="50"/>
       <c r="V35" s="55"/>
       <c r="W35" s="139"/>
@@ -5180,17 +5180,17 @@
       <c r="G36" s="58"/>
       <c r="H36" s="75"/>
       <c r="I36" s="86"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="177"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="317"/>
-      <c r="P36" s="317"/>
-      <c r="Q36" s="318"/>
-      <c r="R36" s="318"/>
-      <c r="S36" s="318"/>
-      <c r="T36" s="318"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="168"/>
+      <c r="P36" s="168"/>
+      <c r="Q36" s="169"/>
+      <c r="R36" s="169"/>
+      <c r="S36" s="169"/>
+      <c r="T36" s="169"/>
       <c r="U36" s="50"/>
       <c r="V36" s="55"/>
       <c r="W36" s="139"/>
@@ -5204,17 +5204,17 @@
       <c r="G37" s="58"/>
       <c r="H37" s="75"/>
       <c r="I37" s="86"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="177"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="317"/>
-      <c r="P37" s="317"/>
-      <c r="Q37" s="318"/>
-      <c r="R37" s="318"/>
-      <c r="S37" s="318"/>
-      <c r="T37" s="318"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="168"/>
+      <c r="P37" s="168"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="169"/>
       <c r="U37" s="50"/>
       <c r="V37" s="55"/>
       <c r="W37" s="139"/>
@@ -5228,17 +5228,17 @@
       <c r="G38" s="58"/>
       <c r="H38" s="75"/>
       <c r="I38" s="86"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="177"/>
-      <c r="M38" s="150"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="317"/>
-      <c r="P38" s="317"/>
-      <c r="Q38" s="318"/>
-      <c r="R38" s="318"/>
-      <c r="S38" s="318"/>
-      <c r="T38" s="318"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="167"/>
+      <c r="O38" s="168"/>
+      <c r="P38" s="168"/>
+      <c r="Q38" s="169"/>
+      <c r="R38" s="169"/>
+      <c r="S38" s="169"/>
+      <c r="T38" s="169"/>
       <c r="U38" s="50"/>
       <c r="V38" s="55"/>
       <c r="W38" s="139"/>
@@ -5252,17 +5252,17 @@
       <c r="G39" s="58"/>
       <c r="H39" s="75"/>
       <c r="I39" s="86"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="177"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="317"/>
-      <c r="P39" s="317"/>
-      <c r="Q39" s="318"/>
-      <c r="R39" s="318"/>
-      <c r="S39" s="318"/>
-      <c r="T39" s="318"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="167"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="169"/>
+      <c r="S39" s="169"/>
+      <c r="T39" s="169"/>
       <c r="U39" s="50"/>
       <c r="V39" s="55"/>
       <c r="W39" s="139"/>
@@ -5276,17 +5276,17 @@
       <c r="G40" s="58"/>
       <c r="H40" s="75"/>
       <c r="I40" s="86"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="177"/>
-      <c r="M40" s="234"/>
-      <c r="N40" s="235"/>
-      <c r="O40" s="319"/>
-      <c r="P40" s="319"/>
-      <c r="Q40" s="320"/>
-      <c r="R40" s="320"/>
-      <c r="S40" s="320"/>
-      <c r="T40" s="320"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="163"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="241"/>
+      <c r="P40" s="241"/>
+      <c r="Q40" s="242"/>
+      <c r="R40" s="242"/>
+      <c r="S40" s="242"/>
+      <c r="T40" s="242"/>
       <c r="U40" s="51"/>
       <c r="V40" s="56"/>
       <c r="W40" s="140"/>
@@ -5300,17 +5300,17 @@
       <c r="G41" s="58"/>
       <c r="H41" s="75"/>
       <c r="I41" s="86"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="176"/>
-      <c r="L41" s="177"/>
-      <c r="M41" s="234"/>
-      <c r="N41" s="235"/>
-      <c r="O41" s="235"/>
-      <c r="P41" s="235"/>
-      <c r="Q41" s="236"/>
-      <c r="R41" s="236"/>
-      <c r="S41" s="236"/>
-      <c r="T41" s="236"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="162"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="164"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="165"/>
+      <c r="R41" s="165"/>
+      <c r="S41" s="165"/>
+      <c r="T41" s="165"/>
       <c r="U41" s="51"/>
       <c r="V41" s="56"/>
       <c r="W41" s="140"/>
@@ -5327,19 +5327,19 @@
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="148" t="s">
+      <c r="M42" s="287" t="s">
         <v>45</v>
       </c>
-      <c r="N42" s="148"/>
-      <c r="O42" s="148"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="148"/>
-      <c r="R42" s="148"/>
-      <c r="S42" s="148"/>
-      <c r="T42" s="148"/>
-      <c r="U42" s="148"/>
-      <c r="V42" s="148"/>
-      <c r="W42" s="148"/>
+      <c r="N42" s="287"/>
+      <c r="O42" s="287"/>
+      <c r="P42" s="287"/>
+      <c r="Q42" s="287"/>
+      <c r="R42" s="287"/>
+      <c r="S42" s="287"/>
+      <c r="T42" s="287"/>
+      <c r="U42" s="287"/>
+      <c r="V42" s="287"/>
+      <c r="W42" s="287"/>
     </row>
     <row r="43" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -5355,20 +5355,18 @@
       <c r="J43" s="85"/>
       <c r="K43" s="87"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="182"/>
-      <c r="O43" s="182"/>
-      <c r="P43" s="182"/>
-      <c r="Q43" s="182"/>
-      <c r="R43" s="182"/>
-      <c r="S43" s="182"/>
-      <c r="T43" s="182"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="182"/>
-      <c r="W43" s="182"/>
-      <c r="Y43" s="141" t="s">
-        <v>0</v>
-      </c>
+      <c r="M43" s="288"/>
+      <c r="N43" s="288"/>
+      <c r="O43" s="288"/>
+      <c r="P43" s="288"/>
+      <c r="Q43" s="288"/>
+      <c r="R43" s="288"/>
+      <c r="S43" s="288"/>
+      <c r="T43" s="288"/>
+      <c r="U43" s="288"/>
+      <c r="V43" s="288"/>
+      <c r="W43" s="288"/>
+      <c r="Y43" s="141"/>
     </row>
     <row r="44" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
@@ -5382,19 +5380,19 @@
       <c r="J44" s="85"/>
       <c r="K44" s="87"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="237" t="s">
+      <c r="M44" s="319" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="238"/>
-      <c r="O44" s="238"/>
-      <c r="P44" s="238"/>
-      <c r="Q44" s="238"/>
-      <c r="R44" s="238"/>
-      <c r="S44" s="238"/>
-      <c r="T44" s="238"/>
-      <c r="U44" s="238"/>
-      <c r="V44" s="151"/>
-      <c r="W44" s="152"/>
+      <c r="N44" s="320"/>
+      <c r="O44" s="320"/>
+      <c r="P44" s="320"/>
+      <c r="Q44" s="320"/>
+      <c r="R44" s="320"/>
+      <c r="S44" s="320"/>
+      <c r="T44" s="320"/>
+      <c r="U44" s="320"/>
+      <c r="V44" s="315"/>
+      <c r="W44" s="316"/>
     </row>
     <row r="45" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
@@ -5408,19 +5406,19 @@
       <c r="J45" s="85"/>
       <c r="K45" s="87"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="243" t="s">
+      <c r="M45" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="244"/>
-      <c r="O45" s="244"/>
-      <c r="P45" s="244"/>
-      <c r="Q45" s="244"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="244"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="244"/>
-      <c r="V45" s="153"/>
-      <c r="W45" s="154"/>
+      <c r="N45" s="224"/>
+      <c r="O45" s="224"/>
+      <c r="P45" s="224"/>
+      <c r="Q45" s="224"/>
+      <c r="R45" s="224"/>
+      <c r="S45" s="224"/>
+      <c r="T45" s="224"/>
+      <c r="U45" s="224"/>
+      <c r="V45" s="317"/>
+      <c r="W45" s="318"/>
     </row>
     <row r="46" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
@@ -5434,19 +5432,19 @@
       <c r="J46" s="85"/>
       <c r="K46" s="76"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="173" t="s">
+      <c r="M46" s="281" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="174"/>
-      <c r="O46" s="174"/>
-      <c r="P46" s="174"/>
-      <c r="Q46" s="174"/>
-      <c r="R46" s="174"/>
-      <c r="S46" s="174"/>
-      <c r="T46" s="174"/>
-      <c r="U46" s="174"/>
-      <c r="V46" s="286"/>
-      <c r="W46" s="287"/>
+      <c r="N46" s="282"/>
+      <c r="O46" s="282"/>
+      <c r="P46" s="282"/>
+      <c r="Q46" s="282"/>
+      <c r="R46" s="282"/>
+      <c r="S46" s="282"/>
+      <c r="T46" s="282"/>
+      <c r="U46" s="282"/>
+      <c r="V46" s="175"/>
+      <c r="W46" s="176"/>
     </row>
     <row r="47" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
@@ -5460,19 +5458,19 @@
       <c r="J47" s="81"/>
       <c r="K47" s="81"/>
       <c r="L47" s="81"/>
-      <c r="M47" s="246" t="s">
+      <c r="M47" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="246"/>
-      <c r="O47" s="246"/>
-      <c r="P47" s="246"/>
-      <c r="Q47" s="246"/>
-      <c r="R47" s="246"/>
-      <c r="S47" s="246"/>
-      <c r="T47" s="246"/>
-      <c r="U47" s="246"/>
-      <c r="V47" s="246"/>
-      <c r="W47" s="246"/>
+      <c r="N47" s="226"/>
+      <c r="O47" s="226"/>
+      <c r="P47" s="226"/>
+      <c r="Q47" s="226"/>
+      <c r="R47" s="226"/>
+      <c r="S47" s="226"/>
+      <c r="T47" s="226"/>
+      <c r="U47" s="226"/>
+      <c r="V47" s="226"/>
+      <c r="W47" s="226"/>
     </row>
     <row r="48" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
@@ -5486,17 +5484,17 @@
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
-      <c r="M48" s="247"/>
-      <c r="N48" s="247"/>
-      <c r="O48" s="247"/>
-      <c r="P48" s="247"/>
-      <c r="Q48" s="247"/>
-      <c r="R48" s="247"/>
-      <c r="S48" s="247"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="247"/>
-      <c r="V48" s="247"/>
-      <c r="W48" s="247"/>
+      <c r="M48" s="227"/>
+      <c r="N48" s="227"/>
+      <c r="O48" s="227"/>
+      <c r="P48" s="227"/>
+      <c r="Q48" s="227"/>
+      <c r="R48" s="227"/>
+      <c r="S48" s="227"/>
+      <c r="T48" s="227"/>
+      <c r="U48" s="227"/>
+      <c r="V48" s="227"/>
+      <c r="W48" s="227"/>
     </row>
     <row r="49" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
@@ -5510,19 +5508,19 @@
       <c r="J49" s="81"/>
       <c r="K49" s="75"/>
       <c r="L49" s="75"/>
-      <c r="M49" s="241" t="s">
+      <c r="M49" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="242"/>
-      <c r="O49" s="242"/>
-      <c r="P49" s="242"/>
-      <c r="Q49" s="242"/>
-      <c r="R49" s="309"/>
-      <c r="S49" s="309"/>
-      <c r="T49" s="245"/>
-      <c r="U49" s="245"/>
-      <c r="V49" s="146"/>
-      <c r="W49" s="147"/>
+      <c r="N49" s="222"/>
+      <c r="O49" s="222"/>
+      <c r="P49" s="222"/>
+      <c r="Q49" s="222"/>
+      <c r="R49" s="174"/>
+      <c r="S49" s="174"/>
+      <c r="T49" s="225"/>
+      <c r="U49" s="225"/>
+      <c r="V49" s="313"/>
+      <c r="W49" s="314"/>
     </row>
     <row r="50" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
@@ -5536,19 +5534,19 @@
       <c r="J50" s="88"/>
       <c r="K50" s="19"/>
       <c r="L50" s="75"/>
-      <c r="M50" s="230" t="s">
+      <c r="M50" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="231"/>
-      <c r="O50" s="231"/>
-      <c r="P50" s="231"/>
-      <c r="Q50" s="231"/>
-      <c r="R50" s="281"/>
-      <c r="S50" s="281"/>
-      <c r="T50" s="248"/>
-      <c r="U50" s="248"/>
-      <c r="V50" s="239"/>
-      <c r="W50" s="240"/>
+      <c r="N50" s="199"/>
+      <c r="O50" s="199"/>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="199"/>
+      <c r="R50" s="196"/>
+      <c r="S50" s="196"/>
+      <c r="T50" s="228"/>
+      <c r="U50" s="228"/>
+      <c r="V50" s="219"/>
+      <c r="W50" s="220"/>
     </row>
     <row r="51" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
@@ -5562,19 +5560,19 @@
       <c r="J51" s="89"/>
       <c r="K51" s="19"/>
       <c r="L51" s="75"/>
-      <c r="M51" s="230" t="s">
+      <c r="M51" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="N51" s="231"/>
-      <c r="O51" s="231"/>
-      <c r="P51" s="231"/>
-      <c r="Q51" s="231"/>
-      <c r="R51" s="283"/>
-      <c r="S51" s="283"/>
-      <c r="T51" s="284"/>
-      <c r="U51" s="284"/>
-      <c r="V51" s="144"/>
-      <c r="W51" s="145"/>
+      <c r="N51" s="199"/>
+      <c r="O51" s="199"/>
+      <c r="P51" s="199"/>
+      <c r="Q51" s="199"/>
+      <c r="R51" s="200"/>
+      <c r="S51" s="200"/>
+      <c r="T51" s="201"/>
+      <c r="U51" s="201"/>
+      <c r="V51" s="179"/>
+      <c r="W51" s="180"/>
     </row>
     <row r="52" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
@@ -5588,19 +5586,19 @@
       <c r="J52" s="75"/>
       <c r="K52" s="19"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="230" t="s">
+      <c r="M52" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="231"/>
-      <c r="O52" s="231"/>
-      <c r="P52" s="231"/>
-      <c r="Q52" s="231"/>
-      <c r="R52" s="285"/>
-      <c r="S52" s="285"/>
-      <c r="T52" s="282"/>
-      <c r="U52" s="282"/>
-      <c r="V52" s="144"/>
-      <c r="W52" s="145"/>
+      <c r="N52" s="199"/>
+      <c r="O52" s="199"/>
+      <c r="P52" s="199"/>
+      <c r="Q52" s="199"/>
+      <c r="R52" s="202"/>
+      <c r="S52" s="202"/>
+      <c r="T52" s="197"/>
+      <c r="U52" s="197"/>
+      <c r="V52" s="179"/>
+      <c r="W52" s="180"/>
     </row>
     <row r="53" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
@@ -5614,21 +5612,21 @@
       <c r="J53" s="92"/>
       <c r="K53" s="92"/>
       <c r="L53" s="92"/>
-      <c r="M53" s="216" t="s">
+      <c r="M53" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="217"/>
-      <c r="O53" s="217"/>
-      <c r="P53" s="217"/>
-      <c r="Q53" s="217"/>
-      <c r="R53" s="268"/>
-      <c r="S53" s="268"/>
-      <c r="T53" s="267" t="s">
+      <c r="N53" s="178"/>
+      <c r="O53" s="178"/>
+      <c r="P53" s="178"/>
+      <c r="Q53" s="178"/>
+      <c r="R53" s="217"/>
+      <c r="S53" s="217"/>
+      <c r="T53" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="U53" s="267"/>
-      <c r="V53" s="288"/>
-      <c r="W53" s="289"/>
+      <c r="U53" s="216"/>
+      <c r="V53" s="181"/>
+      <c r="W53" s="182"/>
     </row>
     <row r="54" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
@@ -5641,19 +5639,19 @@
       <c r="I54" s="89"/>
       <c r="J54" s="89"/>
       <c r="L54" s="93"/>
-      <c r="M54" s="216" t="s">
+      <c r="M54" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="217"/>
-      <c r="O54" s="217"/>
-      <c r="P54" s="217"/>
-      <c r="Q54" s="217"/>
-      <c r="R54" s="233"/>
-      <c r="S54" s="233"/>
-      <c r="T54" s="277"/>
-      <c r="U54" s="277"/>
-      <c r="V54" s="290"/>
-      <c r="W54" s="291"/>
+      <c r="N54" s="178"/>
+      <c r="O54" s="178"/>
+      <c r="P54" s="178"/>
+      <c r="Q54" s="178"/>
+      <c r="R54" s="240"/>
+      <c r="S54" s="240"/>
+      <c r="T54" s="208"/>
+      <c r="U54" s="208"/>
+      <c r="V54" s="183"/>
+      <c r="W54" s="184"/>
     </row>
     <row r="55" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
@@ -5667,21 +5665,21 @@
       <c r="J55" s="88"/>
       <c r="K55" s="94"/>
       <c r="L55" s="86"/>
-      <c r="M55" s="230" t="s">
+      <c r="M55" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="231"/>
-      <c r="O55" s="231"/>
-      <c r="P55" s="231"/>
-      <c r="Q55" s="231"/>
-      <c r="R55" s="280"/>
-      <c r="S55" s="280"/>
-      <c r="T55" s="282" t="s">
+      <c r="N55" s="199"/>
+      <c r="O55" s="199"/>
+      <c r="P55" s="199"/>
+      <c r="Q55" s="199"/>
+      <c r="R55" s="195"/>
+      <c r="S55" s="195"/>
+      <c r="T55" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="282"/>
-      <c r="V55" s="278"/>
-      <c r="W55" s="279"/>
+      <c r="U55" s="197"/>
+      <c r="V55" s="209"/>
+      <c r="W55" s="210"/>
     </row>
     <row r="56" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
@@ -5695,19 +5693,19 @@
       <c r="J56" s="85"/>
       <c r="K56" s="18"/>
       <c r="L56" s="95"/>
-      <c r="M56" s="230" t="s">
+      <c r="M56" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="N56" s="231"/>
-      <c r="O56" s="231"/>
-      <c r="P56" s="231"/>
-      <c r="Q56" s="231"/>
-      <c r="R56" s="274"/>
-      <c r="S56" s="275"/>
-      <c r="T56" s="275"/>
-      <c r="U56" s="275"/>
-      <c r="V56" s="275"/>
-      <c r="W56" s="276"/>
+      <c r="N56" s="199"/>
+      <c r="O56" s="199"/>
+      <c r="P56" s="199"/>
+      <c r="Q56" s="199"/>
+      <c r="R56" s="205"/>
+      <c r="S56" s="206"/>
+      <c r="T56" s="206"/>
+      <c r="U56" s="206"/>
+      <c r="V56" s="206"/>
+      <c r="W56" s="207"/>
     </row>
     <row r="57" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
@@ -5721,19 +5719,19 @@
       <c r="J57" s="96"/>
       <c r="K57" s="75"/>
       <c r="L57" s="97"/>
-      <c r="M57" s="216" t="s">
+      <c r="M57" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="N57" s="217"/>
-      <c r="O57" s="217"/>
-      <c r="P57" s="217"/>
-      <c r="Q57" s="217"/>
-      <c r="R57" s="232"/>
-      <c r="S57" s="232"/>
-      <c r="T57" s="250"/>
-      <c r="U57" s="250"/>
-      <c r="V57" s="250"/>
-      <c r="W57" s="251"/>
+      <c r="N57" s="178"/>
+      <c r="O57" s="178"/>
+      <c r="P57" s="178"/>
+      <c r="Q57" s="178"/>
+      <c r="R57" s="211"/>
+      <c r="S57" s="211"/>
+      <c r="T57" s="215"/>
+      <c r="U57" s="215"/>
+      <c r="V57" s="215"/>
+      <c r="W57" s="230"/>
     </row>
     <row r="58" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
@@ -5747,19 +5745,19 @@
       <c r="J58" s="75"/>
       <c r="K58" s="75"/>
       <c r="L58" s="98"/>
-      <c r="M58" s="216" t="s">
+      <c r="M58" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="217"/>
-      <c r="O58" s="217"/>
-      <c r="P58" s="217"/>
-      <c r="Q58" s="217"/>
-      <c r="R58" s="232"/>
-      <c r="S58" s="232"/>
-      <c r="T58" s="269"/>
-      <c r="U58" s="269"/>
-      <c r="V58" s="250"/>
-      <c r="W58" s="251"/>
+      <c r="N58" s="178"/>
+      <c r="O58" s="178"/>
+      <c r="P58" s="178"/>
+      <c r="Q58" s="178"/>
+      <c r="R58" s="211"/>
+      <c r="S58" s="211"/>
+      <c r="T58" s="218"/>
+      <c r="U58" s="218"/>
+      <c r="V58" s="215"/>
+      <c r="W58" s="230"/>
     </row>
     <row r="59" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
@@ -5773,21 +5771,21 @@
       <c r="J59" s="76"/>
       <c r="K59" s="76"/>
       <c r="L59" s="76"/>
-      <c r="M59" s="216" t="s">
+      <c r="M59" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="N59" s="217"/>
-      <c r="O59" s="217"/>
-      <c r="P59" s="217"/>
-      <c r="Q59" s="217"/>
-      <c r="R59" s="256"/>
-      <c r="S59" s="256"/>
-      <c r="T59" s="232" t="s">
+      <c r="N59" s="178"/>
+      <c r="O59" s="178"/>
+      <c r="P59" s="178"/>
+      <c r="Q59" s="178"/>
+      <c r="R59" s="235"/>
+      <c r="S59" s="235"/>
+      <c r="T59" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="U59" s="232"/>
-      <c r="V59" s="252"/>
-      <c r="W59" s="253"/>
+      <c r="U59" s="211"/>
+      <c r="V59" s="231"/>
+      <c r="W59" s="232"/>
     </row>
     <row r="60" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
@@ -5801,19 +5799,19 @@
       <c r="J60" s="100"/>
       <c r="K60" s="100"/>
       <c r="L60" s="100"/>
-      <c r="M60" s="230" t="s">
+      <c r="M60" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="N60" s="231"/>
-      <c r="O60" s="231"/>
-      <c r="P60" s="231"/>
-      <c r="Q60" s="231"/>
-      <c r="R60" s="261"/>
-      <c r="S60" s="261"/>
-      <c r="T60" s="232"/>
-      <c r="U60" s="232"/>
-      <c r="V60" s="259"/>
-      <c r="W60" s="260"/>
+      <c r="N60" s="199"/>
+      <c r="O60" s="199"/>
+      <c r="P60" s="199"/>
+      <c r="Q60" s="199"/>
+      <c r="R60" s="170"/>
+      <c r="S60" s="170"/>
+      <c r="T60" s="211"/>
+      <c r="U60" s="211"/>
+      <c r="V60" s="172"/>
+      <c r="W60" s="173"/>
     </row>
     <row r="61" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
@@ -5827,19 +5825,19 @@
       <c r="J61" s="100"/>
       <c r="K61" s="100"/>
       <c r="L61" s="100"/>
-      <c r="M61" s="230" t="s">
+      <c r="M61" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="N61" s="231"/>
-      <c r="O61" s="231"/>
-      <c r="P61" s="231"/>
-      <c r="Q61" s="231"/>
-      <c r="R61" s="261"/>
-      <c r="S61" s="261"/>
-      <c r="T61" s="232"/>
-      <c r="U61" s="232"/>
-      <c r="V61" s="259"/>
-      <c r="W61" s="260"/>
+      <c r="N61" s="199"/>
+      <c r="O61" s="199"/>
+      <c r="P61" s="199"/>
+      <c r="Q61" s="199"/>
+      <c r="R61" s="170"/>
+      <c r="S61" s="170"/>
+      <c r="T61" s="211"/>
+      <c r="U61" s="211"/>
+      <c r="V61" s="172"/>
+      <c r="W61" s="173"/>
     </row>
     <row r="62" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
@@ -5849,25 +5847,25 @@
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
       <c r="H62" s="75"/>
-      <c r="I62" s="249" t="s">
+      <c r="I62" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="J62" s="249"/>
-      <c r="K62" s="249"/>
-      <c r="L62" s="249"/>
-      <c r="M62" s="230" t="s">
+      <c r="J62" s="229"/>
+      <c r="K62" s="229"/>
+      <c r="L62" s="229"/>
+      <c r="M62" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="231"/>
-      <c r="O62" s="231"/>
-      <c r="P62" s="231"/>
-      <c r="Q62" s="231"/>
-      <c r="R62" s="308"/>
-      <c r="S62" s="308"/>
-      <c r="T62" s="257"/>
-      <c r="U62" s="257"/>
-      <c r="V62" s="254"/>
-      <c r="W62" s="255"/>
+      <c r="N62" s="199"/>
+      <c r="O62" s="199"/>
+      <c r="P62" s="199"/>
+      <c r="Q62" s="199"/>
+      <c r="R62" s="171"/>
+      <c r="S62" s="171"/>
+      <c r="T62" s="236"/>
+      <c r="U62" s="236"/>
+      <c r="V62" s="233"/>
+      <c r="W62" s="234"/>
     </row>
     <row r="63" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
@@ -5877,23 +5875,23 @@
       <c r="F63" s="59"/>
       <c r="G63" s="60"/>
       <c r="H63" s="75"/>
-      <c r="I63" s="176"/>
-      <c r="J63" s="176"/>
-      <c r="K63" s="176"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="262" t="s">
+      <c r="I63" s="161"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="161"/>
+      <c r="L63" s="162"/>
+      <c r="M63" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="263"/>
-      <c r="O63" s="263"/>
-      <c r="P63" s="263"/>
-      <c r="Q63" s="263"/>
-      <c r="R63" s="264"/>
-      <c r="S63" s="264"/>
-      <c r="T63" s="258"/>
-      <c r="U63" s="258"/>
-      <c r="V63" s="265"/>
-      <c r="W63" s="266"/>
+      <c r="N63" s="239"/>
+      <c r="O63" s="239"/>
+      <c r="P63" s="239"/>
+      <c r="Q63" s="239"/>
+      <c r="R63" s="212"/>
+      <c r="S63" s="212"/>
+      <c r="T63" s="237"/>
+      <c r="U63" s="237"/>
+      <c r="V63" s="213"/>
+      <c r="W63" s="214"/>
     </row>
     <row r="64" spans="2:23" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
@@ -5920,92 +5918,92 @@
       <c r="W64" s="16"/>
     </row>
     <row r="65" spans="12:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L65" s="302" t="s">
+      <c r="L65" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="M65" s="303"/>
-      <c r="N65" s="303"/>
-      <c r="O65" s="303"/>
-      <c r="P65" s="303"/>
-      <c r="Q65" s="303"/>
-      <c r="R65" s="303"/>
-      <c r="S65" s="303"/>
-      <c r="T65" s="303"/>
-      <c r="U65" s="303"/>
-      <c r="V65" s="303"/>
-      <c r="W65" s="304"/>
+      <c r="M65" s="143"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="143"/>
+      <c r="R65" s="143"/>
+      <c r="S65" s="143"/>
+      <c r="T65" s="143"/>
+      <c r="U65" s="143"/>
+      <c r="V65" s="143"/>
+      <c r="W65" s="152"/>
     </row>
     <row r="66" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L66" s="313" t="s">
+      <c r="L66" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="M66" s="273" t="s">
+      <c r="M66" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="N66" s="273" t="s">
+      <c r="N66" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="O66" s="273" t="s">
+      <c r="O66" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="P66" s="273" t="s">
+      <c r="P66" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="Q66" s="273"/>
-      <c r="R66" s="273"/>
-      <c r="S66" s="273"/>
-      <c r="T66" s="273" t="s">
+      <c r="Q66" s="146"/>
+      <c r="R66" s="146"/>
+      <c r="S66" s="146"/>
+      <c r="T66" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="U66" s="273"/>
-      <c r="V66" s="273" t="s">
+      <c r="U66" s="146"/>
+      <c r="V66" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="W66" s="292"/>
+      <c r="W66" s="156"/>
     </row>
     <row r="67" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L67" s="313"/>
-      <c r="M67" s="273"/>
-      <c r="N67" s="273"/>
-      <c r="O67" s="273"/>
-      <c r="P67" s="312" t="s">
+      <c r="L67" s="148"/>
+      <c r="M67" s="146"/>
+      <c r="N67" s="146"/>
+      <c r="O67" s="146"/>
+      <c r="P67" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="Q67" s="312"/>
-      <c r="R67" s="273" t="s">
+      <c r="Q67" s="147"/>
+      <c r="R67" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="S67" s="273"/>
-      <c r="T67" s="273" t="s">
+      <c r="S67" s="146"/>
+      <c r="T67" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="273"/>
-      <c r="V67" s="273" t="s">
+      <c r="U67" s="146"/>
+      <c r="V67" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="292"/>
+      <c r="W67" s="156"/>
     </row>
     <row r="68" spans="12:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L68" s="53"/>
       <c r="M68" s="54"/>
       <c r="N68" s="54"/>
       <c r="O68" s="52"/>
-      <c r="P68" s="270"/>
-      <c r="Q68" s="270"/>
-      <c r="R68" s="270"/>
-      <c r="S68" s="270"/>
-      <c r="T68" s="270"/>
-      <c r="U68" s="270"/>
-      <c r="V68" s="270"/>
-      <c r="W68" s="271"/>
+      <c r="P68" s="153"/>
+      <c r="Q68" s="153"/>
+      <c r="R68" s="153"/>
+      <c r="S68" s="153"/>
+      <c r="T68" s="153"/>
+      <c r="U68" s="153"/>
+      <c r="V68" s="153"/>
+      <c r="W68" s="203"/>
     </row>
     <row r="69" spans="12:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L69" s="46"/>
       <c r="M69" s="46"/>
-      <c r="N69" s="272"/>
-      <c r="O69" s="272"/>
-      <c r="P69" s="272"/>
-      <c r="Q69" s="272"/>
+      <c r="N69" s="204"/>
+      <c r="O69" s="204"/>
+      <c r="P69" s="204"/>
+      <c r="Q69" s="204"/>
       <c r="R69" s="46"/>
       <c r="S69" s="46"/>
       <c r="T69" s="46"/>
@@ -6014,34 +6012,34 @@
       <c r="W69" s="46"/>
     </row>
     <row r="70" spans="12:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L70" s="302" t="s">
+      <c r="L70" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="M70" s="303"/>
-      <c r="N70" s="303" t="s">
+      <c r="M70" s="143"/>
+      <c r="N70" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="O70" s="303"/>
-      <c r="P70" s="303" t="s">
+      <c r="O70" s="143"/>
+      <c r="P70" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="304"/>
-      <c r="R70" s="314"/>
-      <c r="S70" s="314"/>
+      <c r="Q70" s="152"/>
+      <c r="R70" s="149"/>
+      <c r="S70" s="149"/>
       <c r="T70" s="46"/>
       <c r="U70" s="46"/>
       <c r="V70" s="46"/>
       <c r="W70" s="46"/>
     </row>
     <row r="71" spans="12:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L71" s="310"/>
-      <c r="M71" s="311"/>
-      <c r="N71" s="311"/>
-      <c r="O71" s="311"/>
-      <c r="P71" s="311"/>
-      <c r="Q71" s="315"/>
-      <c r="R71" s="316"/>
-      <c r="S71" s="316"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="145"/>
+      <c r="N71" s="145"/>
+      <c r="O71" s="145"/>
+      <c r="P71" s="145"/>
+      <c r="Q71" s="150"/>
+      <c r="R71" s="151"/>
+      <c r="S71" s="151"/>
       <c r="T71" s="46"/>
       <c r="U71" s="46"/>
       <c r="V71" s="46"/>
@@ -6052,21 +6050,181 @@
     <row r="118" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="P66:S66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="M23:W24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="M42:W43"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="M47:W48"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="L65:W65"/>
     <mergeCell ref="T67:U67"/>
@@ -6091,181 +6249,21 @@
     <mergeCell ref="R62:S62"/>
     <mergeCell ref="V60:W60"/>
     <mergeCell ref="R49:S49"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="R56:W56"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="M47:W48"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="M63:Q63"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="M42:W43"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="M23:W24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="P66:S66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R68:S68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -22,7 +22,7 @@
     <definedName name="забой">СХЕМА!$V$45</definedName>
     <definedName name="забой_">СХЕМА!$V$45</definedName>
     <definedName name="м">СХЕМА!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">СХЕМА!$B$1:$W$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">СХЕМА!$B$1:$W$77</definedName>
     <definedName name="объем_глушения">СХЕМА!$V$53</definedName>
     <definedName name="объем_трубного">СХЕМА!$W$17+СХЕМА!$W$18+СХЕМА!$W$19</definedName>
     <definedName name="пакер">СХЕМА!$U$19</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Плотность рабочей жидкости</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2436,7 @@
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2826,62 +2829,128 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2889,479 +2958,416 @@
     <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="440">
@@ -3831,13 +3837,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>602633</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4232,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y118"/>
+  <dimension ref="B1:Y119"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52:U52"/>
+      <selection activeCell="R52" sqref="R52:S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4280,10 +4286,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
@@ -4312,28 +4318,28 @@
       <c r="W2" s="4"/>
     </row>
     <row r="3" spans="2:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="265" t="s">
+      <c r="B3" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
-      <c r="N3" s="265"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="265"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
@@ -4349,19 +4355,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="13"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="244" t="s">
+      <c r="M4" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="244"/>
-      <c r="O4" s="244"/>
-      <c r="P4" s="244"/>
-      <c r="Q4" s="244"/>
-      <c r="R4" s="244"/>
-      <c r="S4" s="244"/>
-      <c r="T4" s="244"/>
-      <c r="U4" s="244"/>
-      <c r="V4" s="244"/>
-      <c r="W4" s="244"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="211"/>
     </row>
     <row r="5" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -4375,23 +4381,23 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="245"/>
-      <c r="N5" s="245"/>
-      <c r="O5" s="245"/>
-      <c r="P5" s="245"/>
-      <c r="Q5" s="245"/>
-      <c r="R5" s="245"/>
-      <c r="S5" s="245"/>
-      <c r="T5" s="245"/>
-      <c r="U5" s="245"/>
-      <c r="V5" s="245"/>
-      <c r="W5" s="245"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="212"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="212"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="212"/>
+      <c r="W5" s="212"/>
     </row>
     <row r="6" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="275"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="175"/>
       <c r="F6" s="61"/>
       <c r="G6" s="62"/>
       <c r="H6" s="65"/>
@@ -4399,25 +4405,25 @@
       <c r="J6" s="75"/>
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
-      <c r="M6" s="250" t="s">
+      <c r="M6" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="251"/>
-      <c r="O6" s="251"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="252"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="253"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="219"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="219"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="219"/>
+      <c r="W6" s="220"/>
     </row>
     <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="277"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="69"/>
       <c r="G7" s="68"/>
       <c r="H7" s="66"/>
@@ -4425,25 +4431,25 @@
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
       <c r="L7" s="76"/>
-      <c r="M7" s="177" t="s">
+      <c r="M7" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="246"/>
-      <c r="S7" s="246"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="246"/>
-      <c r="W7" s="247"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="214"/>
     </row>
     <row r="8" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="276"/>
-      <c r="E8" s="277"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
       <c r="F8" s="69"/>
       <c r="G8" s="68"/>
       <c r="H8" s="66"/>
@@ -4451,25 +4457,25 @@
       <c r="J8" s="75"/>
       <c r="K8" s="75"/>
       <c r="L8" s="76"/>
-      <c r="M8" s="254" t="s">
+      <c r="M8" s="223" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="248"/>
-      <c r="Q8" s="248"/>
-      <c r="R8" s="248"/>
-      <c r="S8" s="248"/>
-      <c r="T8" s="248"/>
-      <c r="U8" s="248"/>
-      <c r="V8" s="248"/>
-      <c r="W8" s="249"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="224"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="216"/>
     </row>
     <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="277"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="69"/>
       <c r="G9" s="68"/>
       <c r="H9" s="66"/>
@@ -4477,37 +4483,37 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="L9" s="77"/>
-      <c r="M9" s="260" t="s">
+      <c r="M9" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="261"/>
+      <c r="N9" s="230"/>
       <c r="O9" s="37"/>
-      <c r="P9" s="258" t="s">
+      <c r="P9" s="227" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="258" t="s">
+      <c r="Q9" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="258" t="s">
+      <c r="R9" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="256" t="s">
+      <c r="S9" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="256"/>
-      <c r="U9" s="258" t="s">
+      <c r="T9" s="225"/>
+      <c r="U9" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="258" t="s">
+      <c r="V9" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="262"/>
+      <c r="W9" s="231"/>
     </row>
     <row r="10" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="277"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
       <c r="F10" s="69"/>
       <c r="G10" s="68"/>
       <c r="H10" s="66"/>
@@ -4515,17 +4521,17 @@
       <c r="J10" s="78"/>
       <c r="K10" s="79"/>
       <c r="L10" s="78"/>
-      <c r="M10" s="263" t="s">
+      <c r="M10" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="264"/>
+      <c r="N10" s="233"/>
       <c r="O10" s="33"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="259"/>
-      <c r="S10" s="257"/>
-      <c r="T10" s="257"/>
-      <c r="U10" s="259"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="228"/>
+      <c r="R10" s="228"/>
+      <c r="S10" s="226"/>
+      <c r="T10" s="226"/>
+      <c r="U10" s="228"/>
       <c r="V10" s="70" t="s">
         <v>33</v>
       </c>
@@ -4536,8 +4542,8 @@
     <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="277"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="177"/>
       <c r="F11" s="69"/>
       <c r="G11" s="68"/>
       <c r="H11" s="66"/>
@@ -4545,11 +4551,11 @@
       <c r="J11" s="80"/>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="266" t="s">
+      <c r="M11" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="267"/>
-      <c r="O11" s="268"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="165"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="22"/>
@@ -4562,8 +4568,8 @@
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="279"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
       <c r="F12" s="69"/>
       <c r="G12" s="107"/>
       <c r="H12" s="108"/>
@@ -4571,11 +4577,11 @@
       <c r="J12" s="110"/>
       <c r="K12" s="111"/>
       <c r="L12" s="82"/>
-      <c r="M12" s="266" t="s">
+      <c r="M12" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="267"/>
-      <c r="O12" s="268"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="165"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="23"/>
@@ -4597,11 +4603,11 @@
       <c r="J13" s="83"/>
       <c r="K13" s="83"/>
       <c r="L13" s="84"/>
-      <c r="M13" s="266" t="s">
+      <c r="M13" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="267"/>
-      <c r="O13" s="268"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="165"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
@@ -4623,19 +4629,19 @@
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
-      <c r="M14" s="192" t="s">
+      <c r="M14" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="193"/>
-      <c r="O14" s="194"/>
-      <c r="P14" s="273"/>
-      <c r="Q14" s="293"/>
-      <c r="R14" s="293"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="299"/>
-      <c r="U14" s="272"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="188"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="192"/>
+      <c r="S14" s="195"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="169"/>
+      <c r="V14" s="297"/>
+      <c r="W14" s="300"/>
     </row>
     <row r="15" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4649,17 +4655,17 @@
       <c r="J15" s="81"/>
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="273"/>
-      <c r="Q15" s="294"/>
-      <c r="R15" s="294"/>
-      <c r="S15" s="297"/>
-      <c r="T15" s="300"/>
-      <c r="U15" s="272"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="189"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="193"/>
+      <c r="S15" s="196"/>
+      <c r="T15" s="199"/>
+      <c r="U15" s="169"/>
+      <c r="V15" s="298"/>
+      <c r="W15" s="301"/>
     </row>
     <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4673,17 +4679,17 @@
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
       <c r="L16" s="81"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="193"/>
-      <c r="O16" s="194"/>
-      <c r="P16" s="273"/>
-      <c r="Q16" s="294"/>
-      <c r="R16" s="294"/>
-      <c r="S16" s="297"/>
-      <c r="T16" s="300"/>
-      <c r="U16" s="272"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="190"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="196"/>
+      <c r="T16" s="199"/>
+      <c r="U16" s="169"/>
+      <c r="V16" s="298"/>
+      <c r="W16" s="302"/>
       <c r="X16" s="133"/>
     </row>
     <row r="17" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4698,17 +4704,17 @@
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="194"/>
-      <c r="P17" s="273"/>
-      <c r="Q17" s="295"/>
-      <c r="R17" s="295"/>
-      <c r="S17" s="298"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="272"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="191"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="197"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="299"/>
+      <c r="W17" s="303"/>
     </row>
     <row r="18" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4722,11 +4728,11 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81"/>
-      <c r="M18" s="269" t="s">
+      <c r="M18" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="270"/>
-      <c r="O18" s="271"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="168"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -4751,16 +4757,16 @@
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
-      <c r="M19" s="305" t="s">
+      <c r="M19" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="306"/>
-      <c r="O19" s="307"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="206"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="34"/>
-      <c r="S19" s="311"/>
-      <c r="T19" s="312"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="144"/>
       <c r="U19" s="36"/>
       <c r="V19" s="73"/>
       <c r="W19" s="74"/>
@@ -4777,11 +4783,11 @@
       <c r="J20" s="115"/>
       <c r="K20" s="115"/>
       <c r="L20" s="115"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="193"/>
-      <c r="P20" s="193"/>
-      <c r="Q20" s="194"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="171"/>
+      <c r="Q20" s="172"/>
       <c r="R20" s="24"/>
       <c r="S20" s="134"/>
       <c r="T20" s="135"/>
@@ -4801,9 +4807,9 @@
       <c r="J21" s="116"/>
       <c r="K21" s="117"/>
       <c r="L21" s="117"/>
-      <c r="M21" s="302"/>
-      <c r="N21" s="303"/>
-      <c r="O21" s="304"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="202"/>
+      <c r="O21" s="203"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="27"/>
@@ -4825,16 +4831,16 @@
       <c r="J22" s="126"/>
       <c r="K22" s="118"/>
       <c r="L22" s="118"/>
-      <c r="M22" s="308" t="s">
+      <c r="M22" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="309"/>
-      <c r="O22" s="310"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="209"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
       <c r="R22" s="102"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="155"/>
+      <c r="S22" s="304"/>
+      <c r="T22" s="305"/>
       <c r="U22" s="104"/>
       <c r="V22" s="105"/>
       <c r="W22" s="106"/>
@@ -4851,19 +4857,19 @@
       <c r="J23" s="119"/>
       <c r="K23" s="120"/>
       <c r="L23" s="121"/>
-      <c r="M23" s="287" t="s">
+      <c r="M23" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="287"/>
-      <c r="O23" s="287"/>
-      <c r="P23" s="287"/>
-      <c r="Q23" s="287"/>
-      <c r="R23" s="287"/>
-      <c r="S23" s="287"/>
-      <c r="T23" s="287"/>
-      <c r="U23" s="287"/>
-      <c r="V23" s="287"/>
-      <c r="W23" s="287"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
     </row>
     <row r="24" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -4879,17 +4885,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="115"/>
-      <c r="M24" s="287"/>
-      <c r="N24" s="287"/>
-      <c r="O24" s="287"/>
-      <c r="P24" s="287"/>
-      <c r="Q24" s="287"/>
-      <c r="R24" s="287"/>
-      <c r="S24" s="287"/>
-      <c r="T24" s="287"/>
-      <c r="U24" s="287"/>
-      <c r="V24" s="287"/>
-      <c r="W24" s="287"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
     </row>
     <row r="25" spans="2:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -4903,27 +4909,27 @@
       <c r="J25" s="125"/>
       <c r="K25" s="116"/>
       <c r="L25" s="117"/>
-      <c r="M25" s="289" t="s">
+      <c r="M25" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="290"/>
-      <c r="O25" s="286" t="s">
+      <c r="N25" s="189"/>
+      <c r="O25" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="286" t="s">
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="286"/>
-      <c r="S25" s="286"/>
-      <c r="T25" s="286"/>
-      <c r="U25" s="286" t="s">
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="157" t="s">
+      <c r="V25" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="159" t="s">
+      <c r="W25" s="310" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4936,24 +4942,24 @@
       <c r="G26" s="58"/>
       <c r="H26" s="124"/>
       <c r="I26" s="124"/>
-      <c r="J26" s="284"/>
-      <c r="K26" s="284"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="291"/>
-      <c r="N26" s="292"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="283" t="s">
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="283"/>
-      <c r="S26" s="283" t="s">
+      <c r="R26" s="162"/>
+      <c r="S26" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="283"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="160"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="311"/>
     </row>
     <row r="27" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -4967,14 +4973,14 @@
       <c r="J27" s="115"/>
       <c r="K27" s="115"/>
       <c r="L27" s="115"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="169"/>
-      <c r="T27" s="169"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
       <c r="U27" s="50"/>
       <c r="V27" s="55"/>
       <c r="W27" s="139"/>
@@ -4991,14 +4997,14 @@
       <c r="J28" s="81"/>
       <c r="K28" s="81"/>
       <c r="L28" s="81"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="169"/>
-      <c r="T28" s="169"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
       <c r="U28" s="50"/>
       <c r="V28" s="55"/>
       <c r="W28" s="139"/>
@@ -5012,17 +5018,17 @@
       <c r="G29" s="58"/>
       <c r="H29" s="3"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="280"/>
-      <c r="K29" s="280"/>
-      <c r="L29" s="280"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="169"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="169"/>
-      <c r="T29" s="169"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
       <c r="U29" s="50"/>
       <c r="V29" s="55"/>
       <c r="W29" s="139"/>
@@ -5036,17 +5042,17 @@
       <c r="G30" s="58"/>
       <c r="H30" s="3"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="169"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
-      <c r="T30" s="169"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
       <c r="U30" s="50"/>
       <c r="V30" s="55"/>
       <c r="W30" s="139"/>
@@ -5060,17 +5066,17 @@
       <c r="G31" s="58"/>
       <c r="H31" s="3"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="168"/>
-      <c r="Q31" s="169"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="169"/>
-      <c r="T31" s="169"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
       <c r="U31" s="50"/>
       <c r="V31" s="55"/>
       <c r="W31" s="139"/>
@@ -5084,17 +5090,17 @@
       <c r="G32" s="58"/>
       <c r="H32" s="75"/>
       <c r="I32" s="86"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="168"/>
-      <c r="Q32" s="169"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="169"/>
-      <c r="T32" s="169"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="150"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="151"/>
       <c r="U32" s="50"/>
       <c r="V32" s="55"/>
       <c r="W32" s="139"/>
@@ -5108,17 +5114,17 @@
       <c r="G33" s="58"/>
       <c r="H33" s="75"/>
       <c r="I33" s="86"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="168"/>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="169"/>
-      <c r="T33" s="169"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="151"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="151"/>
       <c r="U33" s="50"/>
       <c r="V33" s="55"/>
       <c r="W33" s="139"/>
@@ -5132,17 +5138,17 @@
       <c r="G34" s="58"/>
       <c r="H34" s="75"/>
       <c r="I34" s="86"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="168"/>
-      <c r="Q34" s="169"/>
-      <c r="R34" s="169"/>
-      <c r="S34" s="169"/>
-      <c r="T34" s="169"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="184"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="150"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="151"/>
+      <c r="S34" s="151"/>
+      <c r="T34" s="151"/>
       <c r="U34" s="50"/>
       <c r="V34" s="55"/>
       <c r="W34" s="139"/>
@@ -5156,17 +5162,17 @@
       <c r="G35" s="58"/>
       <c r="H35" s="75"/>
       <c r="I35" s="86"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="166"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="168"/>
-      <c r="P35" s="168"/>
-      <c r="Q35" s="169"/>
-      <c r="R35" s="169"/>
-      <c r="S35" s="169"/>
-      <c r="T35" s="169"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="184"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="150"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="151"/>
+      <c r="S35" s="151"/>
+      <c r="T35" s="151"/>
       <c r="U35" s="50"/>
       <c r="V35" s="55"/>
       <c r="W35" s="139"/>
@@ -5180,17 +5186,17 @@
       <c r="G36" s="58"/>
       <c r="H36" s="75"/>
       <c r="I36" s="86"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="168"/>
-      <c r="Q36" s="169"/>
-      <c r="R36" s="169"/>
-      <c r="S36" s="169"/>
-      <c r="T36" s="169"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="150"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="151"/>
       <c r="U36" s="50"/>
       <c r="V36" s="55"/>
       <c r="W36" s="139"/>
@@ -5204,17 +5210,17 @@
       <c r="G37" s="58"/>
       <c r="H37" s="75"/>
       <c r="I37" s="86"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="168"/>
-      <c r="P37" s="168"/>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="169"/>
-      <c r="S37" s="169"/>
-      <c r="T37" s="169"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="150"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
       <c r="U37" s="50"/>
       <c r="V37" s="55"/>
       <c r="W37" s="139"/>
@@ -5228,17 +5234,17 @@
       <c r="G38" s="58"/>
       <c r="H38" s="75"/>
       <c r="I38" s="86"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="166"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="168"/>
-      <c r="P38" s="168"/>
-      <c r="Q38" s="169"/>
-      <c r="R38" s="169"/>
-      <c r="S38" s="169"/>
-      <c r="T38" s="169"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="184"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
       <c r="U38" s="50"/>
       <c r="V38" s="55"/>
       <c r="W38" s="139"/>
@@ -5252,17 +5258,17 @@
       <c r="G39" s="58"/>
       <c r="H39" s="75"/>
       <c r="I39" s="86"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="167"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="169"/>
-      <c r="R39" s="169"/>
-      <c r="S39" s="169"/>
-      <c r="T39" s="169"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="151"/>
       <c r="U39" s="50"/>
       <c r="V39" s="55"/>
       <c r="W39" s="139"/>
@@ -5276,11 +5282,11 @@
       <c r="G40" s="58"/>
       <c r="H40" s="75"/>
       <c r="I40" s="86"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="164"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="184"/>
+      <c r="M40" s="239"/>
+      <c r="N40" s="240"/>
       <c r="O40" s="241"/>
       <c r="P40" s="241"/>
       <c r="Q40" s="242"/>
@@ -5300,17 +5306,17 @@
       <c r="G41" s="58"/>
       <c r="H41" s="75"/>
       <c r="I41" s="86"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="164"/>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="165"/>
-      <c r="R41" s="165"/>
-      <c r="S41" s="165"/>
-      <c r="T41" s="165"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="239"/>
+      <c r="N41" s="240"/>
+      <c r="O41" s="240"/>
+      <c r="P41" s="240"/>
+      <c r="Q41" s="312"/>
+      <c r="R41" s="312"/>
+      <c r="S41" s="312"/>
+      <c r="T41" s="312"/>
       <c r="U41" s="51"/>
       <c r="V41" s="56"/>
       <c r="W41" s="140"/>
@@ -5327,19 +5333,19 @@
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="287" t="s">
+      <c r="M42" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="N42" s="287"/>
-      <c r="O42" s="287"/>
-      <c r="P42" s="287"/>
-      <c r="Q42" s="287"/>
-      <c r="R42" s="287"/>
-      <c r="S42" s="287"/>
-      <c r="T42" s="287"/>
-      <c r="U42" s="287"/>
-      <c r="V42" s="287"/>
-      <c r="W42" s="287"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="149"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="149"/>
+      <c r="R42" s="149"/>
+      <c r="S42" s="149"/>
+      <c r="T42" s="149"/>
+      <c r="U42" s="149"/>
+      <c r="V42" s="149"/>
+      <c r="W42" s="149"/>
     </row>
     <row r="43" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -5355,17 +5361,17 @@
       <c r="J43" s="85"/>
       <c r="K43" s="87"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="288"/>
-      <c r="N43" s="288"/>
-      <c r="O43" s="288"/>
-      <c r="P43" s="288"/>
-      <c r="Q43" s="288"/>
-      <c r="R43" s="288"/>
-      <c r="S43" s="288"/>
-      <c r="T43" s="288"/>
-      <c r="U43" s="288"/>
-      <c r="V43" s="288"/>
-      <c r="W43" s="288"/>
+      <c r="M43" s="187"/>
+      <c r="N43" s="187"/>
+      <c r="O43" s="187"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
+      <c r="R43" s="187"/>
+      <c r="S43" s="187"/>
+      <c r="T43" s="187"/>
+      <c r="U43" s="187"/>
+      <c r="V43" s="187"/>
+      <c r="W43" s="187"/>
       <c r="Y43" s="141"/>
     </row>
     <row r="44" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5380,19 +5386,19 @@
       <c r="J44" s="85"/>
       <c r="K44" s="87"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="319" t="s">
+      <c r="M44" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="320"/>
-      <c r="O44" s="320"/>
-      <c r="P44" s="320"/>
-      <c r="Q44" s="320"/>
-      <c r="R44" s="320"/>
-      <c r="S44" s="320"/>
-      <c r="T44" s="320"/>
-      <c r="U44" s="320"/>
-      <c r="V44" s="315"/>
-      <c r="W44" s="316"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="161"/>
+      <c r="U44" s="161"/>
+      <c r="V44" s="154"/>
+      <c r="W44" s="155"/>
     </row>
     <row r="45" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
@@ -5406,19 +5412,19 @@
       <c r="J45" s="85"/>
       <c r="K45" s="87"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="223" t="s">
+      <c r="M45" s="247" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="224"/>
-      <c r="O45" s="224"/>
-      <c r="P45" s="224"/>
-      <c r="Q45" s="224"/>
-      <c r="R45" s="224"/>
-      <c r="S45" s="224"/>
-      <c r="T45" s="224"/>
-      <c r="U45" s="224"/>
-      <c r="V45" s="317"/>
-      <c r="W45" s="318"/>
+      <c r="N45" s="248"/>
+      <c r="O45" s="248"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="248"/>
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
+      <c r="T45" s="248"/>
+      <c r="U45" s="248"/>
+      <c r="V45" s="156"/>
+      <c r="W45" s="157"/>
     </row>
     <row r="46" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
@@ -5432,19 +5438,19 @@
       <c r="J46" s="85"/>
       <c r="K46" s="76"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="281" t="s">
+      <c r="M46" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="282"/>
-      <c r="O46" s="282"/>
-      <c r="P46" s="282"/>
-      <c r="Q46" s="282"/>
-      <c r="R46" s="282"/>
-      <c r="S46" s="282"/>
-      <c r="T46" s="282"/>
-      <c r="U46" s="282"/>
-      <c r="V46" s="175"/>
-      <c r="W46" s="176"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="182"/>
+      <c r="P46" s="182"/>
+      <c r="Q46" s="182"/>
+      <c r="R46" s="182"/>
+      <c r="S46" s="182"/>
+      <c r="T46" s="182"/>
+      <c r="U46" s="182"/>
+      <c r="V46" s="290"/>
+      <c r="W46" s="291"/>
     </row>
     <row r="47" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
@@ -5458,19 +5464,19 @@
       <c r="J47" s="81"/>
       <c r="K47" s="81"/>
       <c r="L47" s="81"/>
-      <c r="M47" s="226" t="s">
+      <c r="M47" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="226"/>
-      <c r="O47" s="226"/>
-      <c r="P47" s="226"/>
-      <c r="Q47" s="226"/>
-      <c r="R47" s="226"/>
-      <c r="S47" s="226"/>
-      <c r="T47" s="226"/>
-      <c r="U47" s="226"/>
-      <c r="V47" s="226"/>
-      <c r="W47" s="226"/>
+      <c r="N47" s="250"/>
+      <c r="O47" s="250"/>
+      <c r="P47" s="250"/>
+      <c r="Q47" s="250"/>
+      <c r="R47" s="250"/>
+      <c r="S47" s="250"/>
+      <c r="T47" s="250"/>
+      <c r="U47" s="250"/>
+      <c r="V47" s="250"/>
+      <c r="W47" s="250"/>
     </row>
     <row r="48" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
@@ -5484,17 +5490,17 @@
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
-      <c r="M48" s="227"/>
-      <c r="N48" s="227"/>
-      <c r="O48" s="227"/>
-      <c r="P48" s="227"/>
-      <c r="Q48" s="227"/>
-      <c r="R48" s="227"/>
-      <c r="S48" s="227"/>
-      <c r="T48" s="227"/>
-      <c r="U48" s="227"/>
-      <c r="V48" s="227"/>
-      <c r="W48" s="227"/>
+      <c r="M48" s="251"/>
+      <c r="N48" s="251"/>
+      <c r="O48" s="251"/>
+      <c r="P48" s="251"/>
+      <c r="Q48" s="251"/>
+      <c r="R48" s="251"/>
+      <c r="S48" s="251"/>
+      <c r="T48" s="251"/>
+      <c r="U48" s="251"/>
+      <c r="V48" s="251"/>
+      <c r="W48" s="251"/>
     </row>
     <row r="49" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
@@ -5508,19 +5514,19 @@
       <c r="J49" s="81"/>
       <c r="K49" s="75"/>
       <c r="L49" s="75"/>
-      <c r="M49" s="221" t="s">
+      <c r="M49" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="222"/>
-      <c r="O49" s="222"/>
-      <c r="P49" s="222"/>
-      <c r="Q49" s="222"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="174"/>
-      <c r="T49" s="225"/>
-      <c r="U49" s="225"/>
-      <c r="V49" s="313"/>
-      <c r="W49" s="314"/>
+      <c r="N49" s="246"/>
+      <c r="O49" s="246"/>
+      <c r="P49" s="246"/>
+      <c r="Q49" s="246"/>
+      <c r="R49" s="314"/>
+      <c r="S49" s="314"/>
+      <c r="T49" s="249"/>
+      <c r="U49" s="249"/>
+      <c r="V49" s="147"/>
+      <c r="W49" s="148"/>
     </row>
     <row r="50" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
@@ -5534,19 +5540,19 @@
       <c r="J50" s="88"/>
       <c r="K50" s="19"/>
       <c r="L50" s="75"/>
-      <c r="M50" s="198" t="s">
+      <c r="M50" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="199"/>
-      <c r="O50" s="199"/>
-      <c r="P50" s="199"/>
-      <c r="Q50" s="199"/>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="228"/>
-      <c r="U50" s="228"/>
-      <c r="V50" s="219"/>
-      <c r="W50" s="220"/>
+      <c r="N50" s="236"/>
+      <c r="O50" s="236"/>
+      <c r="P50" s="236"/>
+      <c r="Q50" s="236"/>
+      <c r="R50" s="283"/>
+      <c r="S50" s="283"/>
+      <c r="T50" s="252"/>
+      <c r="U50" s="252"/>
+      <c r="V50" s="243"/>
+      <c r="W50" s="244"/>
     </row>
     <row r="51" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
@@ -5560,19 +5566,19 @@
       <c r="J51" s="89"/>
       <c r="K51" s="19"/>
       <c r="L51" s="75"/>
-      <c r="M51" s="198" t="s">
+      <c r="M51" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="N51" s="199"/>
-      <c r="O51" s="199"/>
-      <c r="P51" s="199"/>
-      <c r="Q51" s="199"/>
-      <c r="R51" s="200"/>
-      <c r="S51" s="200"/>
-      <c r="T51" s="201"/>
-      <c r="U51" s="201"/>
-      <c r="V51" s="179"/>
-      <c r="W51" s="180"/>
+      <c r="N51" s="236"/>
+      <c r="O51" s="236"/>
+      <c r="P51" s="236"/>
+      <c r="Q51" s="236"/>
+      <c r="R51" s="285"/>
+      <c r="S51" s="285"/>
+      <c r="T51" s="286"/>
+      <c r="U51" s="286"/>
+      <c r="V51" s="145"/>
+      <c r="W51" s="146"/>
     </row>
     <row r="52" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
@@ -5586,19 +5592,19 @@
       <c r="J52" s="75"/>
       <c r="K52" s="19"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="198" t="s">
+      <c r="M52" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="199"/>
-      <c r="O52" s="199"/>
-      <c r="P52" s="199"/>
-      <c r="Q52" s="199"/>
-      <c r="R52" s="202"/>
-      <c r="S52" s="202"/>
-      <c r="T52" s="197"/>
-      <c r="U52" s="197"/>
-      <c r="V52" s="179"/>
-      <c r="W52" s="180"/>
+      <c r="N52" s="236"/>
+      <c r="O52" s="236"/>
+      <c r="P52" s="236"/>
+      <c r="Q52" s="236"/>
+      <c r="R52" s="287"/>
+      <c r="S52" s="287"/>
+      <c r="T52" s="284"/>
+      <c r="U52" s="284"/>
+      <c r="V52" s="145"/>
+      <c r="W52" s="146"/>
     </row>
     <row r="53" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
@@ -5612,46 +5618,47 @@
       <c r="J53" s="92"/>
       <c r="K53" s="92"/>
       <c r="L53" s="92"/>
-      <c r="M53" s="177" t="s">
+      <c r="M53" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="178"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="178"/>
-      <c r="Q53" s="178"/>
-      <c r="R53" s="217"/>
-      <c r="S53" s="217"/>
-      <c r="T53" s="216" t="s">
+      <c r="N53" s="222"/>
+      <c r="O53" s="222"/>
+      <c r="P53" s="222"/>
+      <c r="Q53" s="222"/>
+      <c r="R53" s="289"/>
+      <c r="S53" s="289"/>
+      <c r="T53" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="U53" s="216"/>
-      <c r="V53" s="181"/>
-      <c r="W53" s="182"/>
-    </row>
-    <row r="54" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="288"/>
+      <c r="V53" s="292"/>
+      <c r="W53" s="293"/>
+    </row>
+    <row r="54" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="57"/>
       <c r="G54" s="58"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="N54" s="178"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="178"/>
-      <c r="Q54" s="178"/>
-      <c r="R54" s="240"/>
-      <c r="S54" s="240"/>
-      <c r="T54" s="208"/>
-      <c r="U54" s="208"/>
-      <c r="V54" s="183"/>
-      <c r="W54" s="184"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="221" t="s">
+        <v>65</v>
+      </c>
+      <c r="N54" s="222"/>
+      <c r="O54" s="222"/>
+      <c r="P54" s="222"/>
+      <c r="Q54" s="222"/>
+      <c r="R54" s="289"/>
+      <c r="S54" s="289"/>
+      <c r="T54" s="288"/>
+      <c r="U54" s="288"/>
+      <c r="V54" s="292"/>
+      <c r="W54" s="293"/>
     </row>
     <row r="55" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
@@ -5660,80 +5667,79 @@
       <c r="E55" s="3"/>
       <c r="F55" s="57"/>
       <c r="G55" s="58"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="198" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="199"/>
-      <c r="O55" s="199"/>
-      <c r="P55" s="199"/>
-      <c r="Q55" s="199"/>
-      <c r="R55" s="195"/>
-      <c r="S55" s="195"/>
-      <c r="T55" s="197" t="s">
-        <v>7</v>
-      </c>
-      <c r="U55" s="197"/>
-      <c r="V55" s="209"/>
-      <c r="W55" s="210"/>
-    </row>
-    <row r="56" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="221" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="222"/>
+      <c r="O55" s="222"/>
+      <c r="P55" s="222"/>
+      <c r="Q55" s="222"/>
+      <c r="R55" s="238"/>
+      <c r="S55" s="238"/>
+      <c r="T55" s="275"/>
+      <c r="U55" s="275"/>
+      <c r="V55" s="294"/>
+      <c r="W55" s="295"/>
+    </row>
+    <row r="56" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="57"/>
       <c r="G56" s="58"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="95"/>
-      <c r="M56" s="198" t="s">
-        <v>39</v>
-      </c>
-      <c r="N56" s="199"/>
-      <c r="O56" s="199"/>
-      <c r="P56" s="199"/>
-      <c r="Q56" s="199"/>
-      <c r="R56" s="205"/>
-      <c r="S56" s="206"/>
-      <c r="T56" s="206"/>
-      <c r="U56" s="206"/>
-      <c r="V56" s="206"/>
-      <c r="W56" s="207"/>
-    </row>
-    <row r="57" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="235" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="236"/>
+      <c r="O56" s="236"/>
+      <c r="P56" s="236"/>
+      <c r="Q56" s="236"/>
+      <c r="R56" s="282"/>
+      <c r="S56" s="282"/>
+      <c r="T56" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="U56" s="284"/>
+      <c r="V56" s="276"/>
+      <c r="W56" s="277"/>
+    </row>
+    <row r="57" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="57"/>
       <c r="G57" s="58"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="97"/>
-      <c r="M57" s="177" t="s">
-        <v>44</v>
-      </c>
-      <c r="N57" s="178"/>
-      <c r="O57" s="178"/>
-      <c r="P57" s="178"/>
-      <c r="Q57" s="178"/>
-      <c r="R57" s="211"/>
-      <c r="S57" s="211"/>
-      <c r="T57" s="215"/>
-      <c r="U57" s="215"/>
-      <c r="V57" s="215"/>
-      <c r="W57" s="230"/>
-    </row>
-    <row r="58" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="235" t="s">
+        <v>39</v>
+      </c>
+      <c r="N57" s="236"/>
+      <c r="O57" s="236"/>
+      <c r="P57" s="236"/>
+      <c r="Q57" s="236"/>
+      <c r="R57" s="272"/>
+      <c r="S57" s="273"/>
+      <c r="T57" s="273"/>
+      <c r="U57" s="273"/>
+      <c r="V57" s="273"/>
+      <c r="W57" s="274"/>
+    </row>
+    <row r="58" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5741,23 +5747,23 @@
       <c r="F58" s="57"/>
       <c r="G58" s="58"/>
       <c r="H58" s="75"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="75"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
       <c r="K58" s="75"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="177" t="s">
-        <v>22</v>
-      </c>
-      <c r="N58" s="178"/>
-      <c r="O58" s="178"/>
-      <c r="P58" s="178"/>
-      <c r="Q58" s="178"/>
-      <c r="R58" s="211"/>
-      <c r="S58" s="211"/>
-      <c r="T58" s="218"/>
-      <c r="U58" s="218"/>
-      <c r="V58" s="215"/>
-      <c r="W58" s="230"/>
+      <c r="L58" s="97"/>
+      <c r="M58" s="221" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" s="222"/>
+      <c r="O58" s="222"/>
+      <c r="P58" s="222"/>
+      <c r="Q58" s="222"/>
+      <c r="R58" s="237"/>
+      <c r="S58" s="237"/>
+      <c r="T58" s="254"/>
+      <c r="U58" s="254"/>
+      <c r="V58" s="254"/>
+      <c r="W58" s="255"/>
     </row>
     <row r="59" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
@@ -5766,26 +5772,24 @@
       <c r="E59" s="3"/>
       <c r="F59" s="57"/>
       <c r="G59" s="58"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" s="178"/>
-      <c r="O59" s="178"/>
-      <c r="P59" s="178"/>
-      <c r="Q59" s="178"/>
-      <c r="R59" s="235"/>
-      <c r="S59" s="235"/>
-      <c r="T59" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="U59" s="211"/>
-      <c r="V59" s="231"/>
-      <c r="W59" s="232"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="221" t="s">
+        <v>22</v>
+      </c>
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
+      <c r="P59" s="222"/>
+      <c r="Q59" s="222"/>
+      <c r="R59" s="237"/>
+      <c r="S59" s="237"/>
+      <c r="T59" s="281"/>
+      <c r="U59" s="281"/>
+      <c r="V59" s="254"/>
+      <c r="W59" s="255"/>
     </row>
     <row r="60" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
@@ -5794,24 +5798,26 @@
       <c r="E60" s="3"/>
       <c r="F60" s="57"/>
       <c r="G60" s="58"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="198" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="199"/>
-      <c r="O60" s="199"/>
-      <c r="P60" s="199"/>
-      <c r="Q60" s="199"/>
-      <c r="R60" s="170"/>
-      <c r="S60" s="170"/>
-      <c r="T60" s="211"/>
-      <c r="U60" s="211"/>
-      <c r="V60" s="172"/>
-      <c r="W60" s="173"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="221" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" s="222"/>
+      <c r="O60" s="222"/>
+      <c r="P60" s="222"/>
+      <c r="Q60" s="222"/>
+      <c r="R60" s="260"/>
+      <c r="S60" s="260"/>
+      <c r="T60" s="237" t="s">
+        <v>0</v>
+      </c>
+      <c r="U60" s="237"/>
+      <c r="V60" s="256"/>
+      <c r="W60" s="257"/>
     </row>
     <row r="61" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
@@ -5825,231 +5831,451 @@
       <c r="J61" s="100"/>
       <c r="K61" s="100"/>
       <c r="L61" s="100"/>
-      <c r="M61" s="198" t="s">
-        <v>47</v>
-      </c>
-      <c r="N61" s="199"/>
-      <c r="O61" s="199"/>
-      <c r="P61" s="199"/>
-      <c r="Q61" s="199"/>
-      <c r="R61" s="170"/>
-      <c r="S61" s="170"/>
-      <c r="T61" s="211"/>
-      <c r="U61" s="211"/>
-      <c r="V61" s="172"/>
-      <c r="W61" s="173"/>
+      <c r="M61" s="235" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="236"/>
+      <c r="O61" s="236"/>
+      <c r="P61" s="236"/>
+      <c r="Q61" s="236"/>
+      <c r="R61" s="265"/>
+      <c r="S61" s="265"/>
+      <c r="T61" s="237"/>
+      <c r="U61" s="237"/>
+      <c r="V61" s="263"/>
+      <c r="W61" s="264"/>
     </row>
     <row r="62" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="57"/>
       <c r="G62" s="58"/>
       <c r="H62" s="75"/>
-      <c r="I62" s="229" t="s">
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="235" t="s">
+        <v>47</v>
+      </c>
+      <c r="N62" s="236"/>
+      <c r="O62" s="236"/>
+      <c r="P62" s="236"/>
+      <c r="Q62" s="236"/>
+      <c r="R62" s="265"/>
+      <c r="S62" s="265"/>
+      <c r="T62" s="237"/>
+      <c r="U62" s="237"/>
+      <c r="V62" s="263"/>
+      <c r="W62" s="264"/>
+    </row>
+    <row r="63" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="J62" s="229"/>
-      <c r="K62" s="229"/>
-      <c r="L62" s="229"/>
-      <c r="M62" s="198" t="s">
+      <c r="J63" s="253"/>
+      <c r="K63" s="253"/>
+      <c r="L63" s="253"/>
+      <c r="M63" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="199"/>
-      <c r="O62" s="199"/>
-      <c r="P62" s="199"/>
-      <c r="Q62" s="199"/>
-      <c r="R62" s="171"/>
-      <c r="S62" s="171"/>
-      <c r="T62" s="236"/>
-      <c r="U62" s="236"/>
-      <c r="V62" s="233"/>
-      <c r="W62" s="234"/>
-    </row>
-    <row r="63" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="161"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="162"/>
-      <c r="M63" s="238" t="s">
+      <c r="N63" s="236"/>
+      <c r="O63" s="236"/>
+      <c r="P63" s="236"/>
+      <c r="Q63" s="236"/>
+      <c r="R63" s="313"/>
+      <c r="S63" s="313"/>
+      <c r="T63" s="261"/>
+      <c r="U63" s="261"/>
+      <c r="V63" s="258"/>
+      <c r="W63" s="259"/>
+    </row>
+    <row r="64" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="183"/>
+      <c r="J64" s="183"/>
+      <c r="K64" s="183"/>
+      <c r="L64" s="184"/>
+      <c r="M64" s="266" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="239"/>
-      <c r="O63" s="239"/>
-      <c r="P63" s="239"/>
-      <c r="Q63" s="239"/>
-      <c r="R63" s="212"/>
-      <c r="S63" s="212"/>
-      <c r="T63" s="237"/>
-      <c r="U63" s="237"/>
-      <c r="V63" s="213"/>
-      <c r="W63" s="214"/>
-    </row>
-    <row r="64" spans="2:23" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="M64" s="48" t="s">
+      <c r="N64" s="267"/>
+      <c r="O64" s="267"/>
+      <c r="P64" s="267"/>
+      <c r="Q64" s="267"/>
+      <c r="R64" s="278"/>
+      <c r="S64" s="278"/>
+      <c r="T64" s="262"/>
+      <c r="U64" s="262"/>
+      <c r="V64" s="279"/>
+      <c r="W64" s="280"/>
+    </row>
+    <row r="65" spans="2:23" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="M65" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N64" s="49"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="48"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-    </row>
-    <row r="65" spans="12:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L65" s="142" t="s">
+      <c r="N65" s="49"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="48"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+    </row>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="143"/>
-      <c r="R65" s="143"/>
-      <c r="S65" s="143"/>
-      <c r="T65" s="143"/>
-      <c r="U65" s="143"/>
-      <c r="V65" s="143"/>
-      <c r="W65" s="152"/>
-    </row>
-    <row r="66" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L66" s="148" t="s">
+      <c r="M66" s="307"/>
+      <c r="N66" s="307"/>
+      <c r="O66" s="307"/>
+      <c r="P66" s="307"/>
+      <c r="Q66" s="307"/>
+      <c r="R66" s="307"/>
+      <c r="S66" s="307"/>
+      <c r="T66" s="307"/>
+      <c r="U66" s="307"/>
+      <c r="V66" s="307"/>
+      <c r="W66" s="308"/>
+    </row>
+    <row r="67" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="318" t="s">
         <v>50</v>
       </c>
-      <c r="M66" s="146" t="s">
+      <c r="M67" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N66" s="146" t="s">
+      <c r="N67" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="O66" s="146" t="s">
+      <c r="O67" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="P66" s="146" t="s">
+      <c r="P67" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="Q66" s="146"/>
-      <c r="R66" s="146"/>
-      <c r="S66" s="146"/>
-      <c r="T66" s="146" t="s">
+      <c r="Q67" s="271"/>
+      <c r="R67" s="271"/>
+      <c r="S67" s="271"/>
+      <c r="T67" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="U66" s="146"/>
-      <c r="V66" s="146" t="s">
+      <c r="U67" s="271"/>
+      <c r="V67" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="W66" s="156"/>
-    </row>
-    <row r="67" spans="12:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L67" s="148"/>
-      <c r="M67" s="146"/>
-      <c r="N67" s="146"/>
-      <c r="O67" s="146"/>
-      <c r="P67" s="147" t="s">
+      <c r="W67" s="296"/>
+    </row>
+    <row r="68" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="318"/>
+      <c r="M68" s="271"/>
+      <c r="N68" s="271"/>
+      <c r="O68" s="271"/>
+      <c r="P68" s="317" t="s">
         <v>33</v>
       </c>
-      <c r="Q67" s="147"/>
-      <c r="R67" s="146" t="s">
+      <c r="Q68" s="317"/>
+      <c r="R68" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="S67" s="146"/>
-      <c r="T67" s="146" t="s">
+      <c r="S68" s="271"/>
+      <c r="T68" s="271" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="146"/>
-      <c r="V67" s="146" t="s">
+      <c r="U68" s="271"/>
+      <c r="V68" s="271" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="156"/>
-    </row>
-    <row r="68" spans="12:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L68" s="53"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="153"/>
-      <c r="Q68" s="153"/>
-      <c r="R68" s="153"/>
-      <c r="S68" s="153"/>
-      <c r="T68" s="153"/>
-      <c r="U68" s="153"/>
-      <c r="V68" s="153"/>
-      <c r="W68" s="203"/>
-    </row>
-    <row r="69" spans="12:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="204"/>
-      <c r="O69" s="204"/>
-      <c r="P69" s="204"/>
-      <c r="Q69" s="204"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
-    </row>
-    <row r="70" spans="12:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L70" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="M70" s="143"/>
-      <c r="N70" s="143" t="s">
-        <v>54</v>
-      </c>
-      <c r="O70" s="143"/>
-      <c r="P70" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q70" s="152"/>
-      <c r="R70" s="149"/>
-      <c r="S70" s="149"/>
+      <c r="W68" s="296"/>
+    </row>
+    <row r="69" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="53"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="268"/>
+      <c r="Q69" s="268"/>
+      <c r="R69" s="268"/>
+      <c r="S69" s="268"/>
+      <c r="T69" s="268"/>
+      <c r="U69" s="268"/>
+      <c r="V69" s="268"/>
+      <c r="W69" s="269"/>
+    </row>
+    <row r="70" spans="2:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="270"/>
+      <c r="O70" s="270"/>
+      <c r="P70" s="270"/>
+      <c r="Q70" s="270"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
       <c r="T70" s="46"/>
       <c r="U70" s="46"/>
       <c r="V70" s="46"/>
       <c r="W70" s="46"/>
     </row>
-    <row r="71" spans="12:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L71" s="144"/>
-      <c r="M71" s="145"/>
-      <c r="N71" s="145"/>
-      <c r="O71" s="145"/>
-      <c r="P71" s="145"/>
-      <c r="Q71" s="150"/>
-      <c r="R71" s="151"/>
-      <c r="S71" s="151"/>
+    <row r="71" spans="2:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71" s="306" t="s">
+        <v>53</v>
+      </c>
+      <c r="M71" s="307"/>
+      <c r="N71" s="307" t="s">
+        <v>54</v>
+      </c>
+      <c r="O71" s="307"/>
+      <c r="P71" s="307" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q71" s="308"/>
+      <c r="R71" s="319"/>
+      <c r="S71" s="319"/>
       <c r="T71" s="46"/>
       <c r="U71" s="46"/>
       <c r="V71" s="46"/>
       <c r="W71" s="46"/>
     </row>
-    <row r="116" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="315"/>
+      <c r="M72" s="316"/>
+      <c r="N72" s="316"/>
+      <c r="O72" s="316"/>
+      <c r="P72" s="316"/>
+      <c r="Q72" s="320"/>
+      <c r="R72" s="321"/>
+      <c r="S72" s="321"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+    </row>
     <row r="117" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="218">
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="P67:S67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="L66:W66"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="M47:W48"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="M64:Q64"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="M56:Q56"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="M4:W5"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="D6:E12"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="M42:W43"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="V51:W51"/>
     <mergeCell ref="V49:W49"/>
@@ -6074,196 +6300,6 @@
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="S28:T28"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="D6:E12"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="M42:W43"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="M4:W5"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="M56:Q56"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="M47:W48"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="M63:Q63"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="R56:W56"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="M54:Q54"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="L65:W65"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="P66:S66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R68:S68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>

--- a/property_excel/tepmpale_gnkt_osv_grp.xlsx
+++ b/property_excel/tepmpale_gnkt_osv_grp.xlsx
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="30">
+  <numFmts count="29">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -319,7 +319,6 @@
     <numFmt numFmtId="190" formatCode="0.0_ ;\-0.0\ "/>
     <numFmt numFmtId="191" formatCode="0.0&quot; м3&quot;"/>
     <numFmt numFmtId="192" formatCode="0.0&quot;-&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.0&quot; мг/дм3&quot;"/>
   </numFmts>
   <fonts count="64" x14ac:knownFonts="1">
     <font>
@@ -2832,25 +2831,91 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2859,28 +2924,421 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="36" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="9" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2889,484 +3347,25 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="48" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="46" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="15" xfId="392" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4240,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52:S52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4286,10 +4285,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
@@ -4318,28 +4317,28 @@
       <c r="W2" s="4"/>
     </row>
     <row r="3" spans="2:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="263" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="263"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
@@ -4355,19 +4354,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="13"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="211"/>
-      <c r="S4" s="211"/>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
-      <c r="W4" s="211"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="242"/>
+      <c r="U4" s="242"/>
+      <c r="V4" s="242"/>
+      <c r="W4" s="242"/>
     </row>
     <row r="5" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -4381,23 +4380,23 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="212"/>
-      <c r="O5" s="212"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="212"/>
-      <c r="W5" s="212"/>
+      <c r="M5" s="243"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="243"/>
+      <c r="R5" s="243"/>
+      <c r="S5" s="243"/>
+      <c r="T5" s="243"/>
+      <c r="U5" s="243"/>
+      <c r="V5" s="243"/>
+      <c r="W5" s="243"/>
     </row>
     <row r="6" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="175"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="273"/>
       <c r="F6" s="61"/>
       <c r="G6" s="62"/>
       <c r="H6" s="65"/>
@@ -4405,25 +4404,25 @@
       <c r="J6" s="75"/>
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
-      <c r="M6" s="217" t="s">
+      <c r="M6" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="218"/>
-      <c r="O6" s="218"/>
-      <c r="P6" s="219"/>
-      <c r="Q6" s="219"/>
-      <c r="R6" s="219"/>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="219"/>
-      <c r="V6" s="219"/>
-      <c r="W6" s="220"/>
+      <c r="N6" s="249"/>
+      <c r="O6" s="249"/>
+      <c r="P6" s="250"/>
+      <c r="Q6" s="250"/>
+      <c r="R6" s="250"/>
+      <c r="S6" s="250"/>
+      <c r="T6" s="250"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="250"/>
+      <c r="W6" s="251"/>
     </row>
     <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="177"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="275"/>
       <c r="F7" s="69"/>
       <c r="G7" s="68"/>
       <c r="H7" s="66"/>
@@ -4431,25 +4430,25 @@
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
       <c r="L7" s="76"/>
-      <c r="M7" s="221" t="s">
+      <c r="M7" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="213"/>
-      <c r="Q7" s="213"/>
-      <c r="R7" s="213"/>
-      <c r="S7" s="213"/>
-      <c r="T7" s="213"/>
-      <c r="U7" s="213"/>
-      <c r="V7" s="213"/>
-      <c r="W7" s="214"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="244"/>
+      <c r="R7" s="244"/>
+      <c r="S7" s="244"/>
+      <c r="T7" s="244"/>
+      <c r="U7" s="244"/>
+      <c r="V7" s="244"/>
+      <c r="W7" s="245"/>
     </row>
     <row r="8" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="275"/>
       <c r="F8" s="69"/>
       <c r="G8" s="68"/>
       <c r="H8" s="66"/>
@@ -4457,25 +4456,25 @@
       <c r="J8" s="75"/>
       <c r="K8" s="75"/>
       <c r="L8" s="76"/>
-      <c r="M8" s="223" t="s">
+      <c r="M8" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="215"/>
-      <c r="Q8" s="215"/>
-      <c r="R8" s="215"/>
-      <c r="S8" s="215"/>
-      <c r="T8" s="215"/>
-      <c r="U8" s="215"/>
-      <c r="V8" s="215"/>
-      <c r="W8" s="216"/>
+      <c r="N8" s="253"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="247"/>
     </row>
     <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="275"/>
       <c r="F9" s="69"/>
       <c r="G9" s="68"/>
       <c r="H9" s="66"/>
@@ -4483,37 +4482,37 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="L9" s="77"/>
-      <c r="M9" s="229" t="s">
+      <c r="M9" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="230"/>
+      <c r="N9" s="259"/>
       <c r="O9" s="37"/>
-      <c r="P9" s="227" t="s">
+      <c r="P9" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="227" t="s">
+      <c r="Q9" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="227" t="s">
+      <c r="R9" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="225" t="s">
+      <c r="S9" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="225"/>
-      <c r="U9" s="227" t="s">
+      <c r="T9" s="254"/>
+      <c r="U9" s="256" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="227" t="s">
+      <c r="V9" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="231"/>
+      <c r="W9" s="260"/>
     </row>
     <row r="10" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
+      <c r="D10" s="274"/>
+      <c r="E10" s="275"/>
       <c r="F10" s="69"/>
       <c r="G10" s="68"/>
       <c r="H10" s="66"/>
@@ -4521,17 +4520,17 @@
       <c r="J10" s="78"/>
       <c r="K10" s="79"/>
       <c r="L10" s="78"/>
-      <c r="M10" s="232" t="s">
+      <c r="M10" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="233"/>
+      <c r="N10" s="262"/>
       <c r="O10" s="33"/>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="228"/>
-      <c r="R10" s="228"/>
-      <c r="S10" s="226"/>
-      <c r="T10" s="226"/>
-      <c r="U10" s="228"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="257"/>
+      <c r="R10" s="257"/>
+      <c r="S10" s="255"/>
+      <c r="T10" s="255"/>
+      <c r="U10" s="257"/>
       <c r="V10" s="70" t="s">
         <v>33</v>
       </c>
@@ -4542,8 +4541,8 @@
     <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
+      <c r="D11" s="274"/>
+      <c r="E11" s="275"/>
       <c r="F11" s="69"/>
       <c r="G11" s="68"/>
       <c r="H11" s="66"/>
@@ -4551,11 +4550,11 @@
       <c r="J11" s="80"/>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
-      <c r="M11" s="163" t="s">
+      <c r="M11" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="164"/>
-      <c r="O11" s="165"/>
+      <c r="N11" s="265"/>
+      <c r="O11" s="266"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="22"/>
@@ -4568,8 +4567,8 @@
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179"/>
+      <c r="D12" s="276"/>
+      <c r="E12" s="277"/>
       <c r="F12" s="69"/>
       <c r="G12" s="107"/>
       <c r="H12" s="108"/>
@@ -4577,11 +4576,11 @@
       <c r="J12" s="110"/>
       <c r="K12" s="111"/>
       <c r="L12" s="82"/>
-      <c r="M12" s="163" t="s">
+      <c r="M12" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="164"/>
-      <c r="O12" s="165"/>
+      <c r="N12" s="265"/>
+      <c r="O12" s="266"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="23"/>
@@ -4603,11 +4602,11 @@
       <c r="J13" s="83"/>
       <c r="K13" s="83"/>
       <c r="L13" s="84"/>
-      <c r="M13" s="163" t="s">
+      <c r="M13" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="164"/>
-      <c r="O13" s="165"/>
+      <c r="N13" s="265"/>
+      <c r="O13" s="266"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
@@ -4629,19 +4628,19 @@
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
-      <c r="M14" s="170" t="s">
+      <c r="M14" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="171"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="192"/>
-      <c r="R14" s="192"/>
-      <c r="S14" s="195"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="169"/>
-      <c r="V14" s="297"/>
-      <c r="W14" s="300"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="271"/>
+      <c r="Q14" s="291"/>
+      <c r="R14" s="291"/>
+      <c r="S14" s="294"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="270"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="188"/>
     </row>
     <row r="15" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -4655,17 +4654,17 @@
       <c r="J15" s="81"/>
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="193"/>
-      <c r="S15" s="196"/>
-      <c r="T15" s="199"/>
-      <c r="U15" s="169"/>
-      <c r="V15" s="298"/>
-      <c r="W15" s="301"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="271"/>
+      <c r="Q15" s="292"/>
+      <c r="R15" s="292"/>
+      <c r="S15" s="295"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="270"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="189"/>
     </row>
     <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -4679,17 +4678,17 @@
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
       <c r="L16" s="81"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="193"/>
-      <c r="S16" s="196"/>
-      <c r="T16" s="199"/>
-      <c r="U16" s="169"/>
-      <c r="V16" s="298"/>
-      <c r="W16" s="302"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="271"/>
+      <c r="Q16" s="292"/>
+      <c r="R16" s="292"/>
+      <c r="S16" s="295"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="270"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="190"/>
       <c r="X16" s="133"/>
     </row>
     <row r="17" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4704,17 +4703,17 @@
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="194"/>
-      <c r="S17" s="197"/>
-      <c r="T17" s="200"/>
-      <c r="U17" s="169"/>
-      <c r="V17" s="299"/>
-      <c r="W17" s="303"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="271"/>
+      <c r="Q17" s="293"/>
+      <c r="R17" s="293"/>
+      <c r="S17" s="296"/>
+      <c r="T17" s="299"/>
+      <c r="U17" s="270"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="191"/>
     </row>
     <row r="18" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -4728,11 +4727,11 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81"/>
-      <c r="M18" s="166" t="s">
+      <c r="M18" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="269"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -4757,16 +4756,16 @@
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
-      <c r="M19" s="204" t="s">
+      <c r="M19" s="303" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="205"/>
-      <c r="O19" s="206"/>
+      <c r="N19" s="304"/>
+      <c r="O19" s="305"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="34"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="144"/>
+      <c r="S19" s="309"/>
+      <c r="T19" s="310"/>
       <c r="U19" s="36"/>
       <c r="V19" s="73"/>
       <c r="W19" s="74"/>
@@ -4783,11 +4782,11 @@
       <c r="J20" s="115"/>
       <c r="K20" s="115"/>
       <c r="L20" s="115"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="171"/>
-      <c r="Q20" s="172"/>
+      <c r="M20" s="192"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="193"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="194"/>
       <c r="R20" s="24"/>
       <c r="S20" s="134"/>
       <c r="T20" s="135"/>
@@ -4807,9 +4806,9 @@
       <c r="J21" s="116"/>
       <c r="K21" s="117"/>
       <c r="L21" s="117"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="203"/>
+      <c r="M21" s="300"/>
+      <c r="N21" s="301"/>
+      <c r="O21" s="302"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="27"/>
@@ -4831,16 +4830,16 @@
       <c r="J22" s="126"/>
       <c r="K22" s="118"/>
       <c r="L22" s="118"/>
-      <c r="M22" s="207" t="s">
+      <c r="M22" s="306" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="208"/>
-      <c r="O22" s="209"/>
+      <c r="N22" s="307"/>
+      <c r="O22" s="308"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="103"/>
       <c r="R22" s="102"/>
-      <c r="S22" s="304"/>
-      <c r="T22" s="305"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="159"/>
       <c r="U22" s="104"/>
       <c r="V22" s="105"/>
       <c r="W22" s="106"/>
@@ -4857,19 +4856,19 @@
       <c r="J23" s="119"/>
       <c r="K23" s="120"/>
       <c r="L23" s="121"/>
-      <c r="M23" s="149" t="s">
+      <c r="M23" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="149"/>
-      <c r="W23" s="149"/>
+      <c r="N23" s="285"/>
+      <c r="O23" s="285"/>
+      <c r="P23" s="285"/>
+      <c r="Q23" s="285"/>
+      <c r="R23" s="285"/>
+      <c r="S23" s="285"/>
+      <c r="T23" s="285"/>
+      <c r="U23" s="285"/>
+      <c r="V23" s="285"/>
+      <c r="W23" s="285"/>
     </row>
     <row r="24" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -4885,17 +4884,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="115"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="149"/>
-      <c r="W24" s="149"/>
+      <c r="M24" s="285"/>
+      <c r="N24" s="285"/>
+      <c r="O24" s="285"/>
+      <c r="P24" s="285"/>
+      <c r="Q24" s="285"/>
+      <c r="R24" s="285"/>
+      <c r="S24" s="285"/>
+      <c r="T24" s="285"/>
+      <c r="U24" s="285"/>
+      <c r="V24" s="285"/>
+      <c r="W24" s="285"/>
     </row>
     <row r="25" spans="2:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -4909,27 +4908,27 @@
       <c r="J25" s="125"/>
       <c r="K25" s="116"/>
       <c r="L25" s="117"/>
-      <c r="M25" s="188" t="s">
+      <c r="M25" s="287" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="189"/>
-      <c r="O25" s="158" t="s">
+      <c r="N25" s="288"/>
+      <c r="O25" s="284" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158" t="s">
+      <c r="P25" s="284"/>
+      <c r="Q25" s="284" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158" t="s">
+      <c r="R25" s="284"/>
+      <c r="S25" s="284"/>
+      <c r="T25" s="284"/>
+      <c r="U25" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="309" t="s">
+      <c r="V25" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="310" t="s">
+      <c r="W25" s="163" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4942,24 +4941,24 @@
       <c r="G26" s="58"/>
       <c r="H26" s="124"/>
       <c r="I26" s="124"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
-      <c r="L26" s="186"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="191"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="162" t="s">
+      <c r="J26" s="282"/>
+      <c r="K26" s="282"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="289"/>
+      <c r="N26" s="290"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162" t="s">
+      <c r="R26" s="281"/>
+      <c r="S26" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="162"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="311"/>
+      <c r="T26" s="281"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="164"/>
     </row>
     <row r="27" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -4973,14 +4972,14 @@
       <c r="J27" s="115"/>
       <c r="K27" s="115"/>
       <c r="L27" s="115"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="173"/>
+      <c r="T27" s="173"/>
       <c r="U27" s="50"/>
       <c r="V27" s="55"/>
       <c r="W27" s="139"/>
@@ -4997,14 +4996,14 @@
       <c r="J28" s="81"/>
       <c r="K28" s="81"/>
       <c r="L28" s="81"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
       <c r="U28" s="50"/>
       <c r="V28" s="55"/>
       <c r="W28" s="139"/>
@@ -5018,17 +5017,17 @@
       <c r="G29" s="58"/>
       <c r="H29" s="3"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
+      <c r="J29" s="278"/>
+      <c r="K29" s="278"/>
+      <c r="L29" s="278"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
       <c r="U29" s="50"/>
       <c r="V29" s="55"/>
       <c r="W29" s="139"/>
@@ -5042,17 +5041,17 @@
       <c r="G30" s="58"/>
       <c r="H30" s="3"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="151"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
       <c r="U30" s="50"/>
       <c r="V30" s="55"/>
       <c r="W30" s="139"/>
@@ -5066,17 +5065,17 @@
       <c r="G31" s="58"/>
       <c r="H31" s="3"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="150"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="151"/>
-      <c r="T31" s="151"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="173"/>
+      <c r="S31" s="173"/>
+      <c r="T31" s="173"/>
       <c r="U31" s="50"/>
       <c r="V31" s="55"/>
       <c r="W31" s="139"/>
@@ -5090,17 +5089,17 @@
       <c r="G32" s="58"/>
       <c r="H32" s="75"/>
       <c r="I32" s="86"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="150"/>
-      <c r="Q32" s="151"/>
-      <c r="R32" s="151"/>
-      <c r="S32" s="151"/>
-      <c r="T32" s="151"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
       <c r="U32" s="50"/>
       <c r="V32" s="55"/>
       <c r="W32" s="139"/>
@@ -5114,17 +5113,17 @@
       <c r="G33" s="58"/>
       <c r="H33" s="75"/>
       <c r="I33" s="86"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="150"/>
-      <c r="P33" s="150"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="151"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
       <c r="U33" s="50"/>
       <c r="V33" s="55"/>
       <c r="W33" s="139"/>
@@ -5138,17 +5137,17 @@
       <c r="G34" s="58"/>
       <c r="H34" s="75"/>
       <c r="I34" s="86"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="184"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="150"/>
-      <c r="P34" s="150"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="171"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
       <c r="U34" s="50"/>
       <c r="V34" s="55"/>
       <c r="W34" s="139"/>
@@ -5162,17 +5161,17 @@
       <c r="G35" s="58"/>
       <c r="H35" s="75"/>
       <c r="I35" s="86"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="150"/>
-      <c r="P35" s="150"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="172"/>
+      <c r="Q35" s="173"/>
+      <c r="R35" s="173"/>
+      <c r="S35" s="173"/>
+      <c r="T35" s="173"/>
       <c r="U35" s="50"/>
       <c r="V35" s="55"/>
       <c r="W35" s="139"/>
@@ -5186,17 +5185,17 @@
       <c r="G36" s="58"/>
       <c r="H36" s="75"/>
       <c r="I36" s="86"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="150"/>
-      <c r="P36" s="150"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="171"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="173"/>
+      <c r="R36" s="173"/>
+      <c r="S36" s="173"/>
+      <c r="T36" s="173"/>
       <c r="U36" s="50"/>
       <c r="V36" s="55"/>
       <c r="W36" s="139"/>
@@ -5210,17 +5209,17 @@
       <c r="G37" s="58"/>
       <c r="H37" s="75"/>
       <c r="I37" s="86"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="150"/>
-      <c r="P37" s="150"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="172"/>
+      <c r="P37" s="172"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="173"/>
+      <c r="S37" s="173"/>
+      <c r="T37" s="173"/>
       <c r="U37" s="50"/>
       <c r="V37" s="55"/>
       <c r="W37" s="139"/>
@@ -5234,17 +5233,17 @@
       <c r="G38" s="58"/>
       <c r="H38" s="75"/>
       <c r="I38" s="86"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183"/>
-      <c r="L38" s="184"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="150"/>
-      <c r="P38" s="150"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="172"/>
+      <c r="P38" s="172"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="173"/>
+      <c r="S38" s="173"/>
+      <c r="T38" s="173"/>
       <c r="U38" s="50"/>
       <c r="V38" s="55"/>
       <c r="W38" s="139"/>
@@ -5258,17 +5257,17 @@
       <c r="G39" s="58"/>
       <c r="H39" s="75"/>
       <c r="I39" s="86"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="152"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="166"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="173"/>
       <c r="U39" s="50"/>
       <c r="V39" s="55"/>
       <c r="W39" s="139"/>
@@ -5282,17 +5281,17 @@
       <c r="G40" s="58"/>
       <c r="H40" s="75"/>
       <c r="I40" s="86"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="183"/>
-      <c r="L40" s="184"/>
-      <c r="M40" s="239"/>
-      <c r="N40" s="240"/>
-      <c r="O40" s="241"/>
-      <c r="P40" s="241"/>
-      <c r="Q40" s="242"/>
-      <c r="R40" s="242"/>
-      <c r="S40" s="242"/>
-      <c r="T40" s="242"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="168"/>
+      <c r="O40" s="239"/>
+      <c r="P40" s="239"/>
+      <c r="Q40" s="240"/>
+      <c r="R40" s="240"/>
+      <c r="S40" s="240"/>
+      <c r="T40" s="240"/>
       <c r="U40" s="51"/>
       <c r="V40" s="56"/>
       <c r="W40" s="140"/>
@@ -5306,17 +5305,17 @@
       <c r="G41" s="58"/>
       <c r="H41" s="75"/>
       <c r="I41" s="86"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="183"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="239"/>
-      <c r="N41" s="240"/>
-      <c r="O41" s="240"/>
-      <c r="P41" s="240"/>
-      <c r="Q41" s="312"/>
-      <c r="R41" s="312"/>
-      <c r="S41" s="312"/>
-      <c r="T41" s="312"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="168"/>
+      <c r="O41" s="168"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="169"/>
+      <c r="R41" s="169"/>
+      <c r="S41" s="169"/>
+      <c r="T41" s="169"/>
       <c r="U41" s="51"/>
       <c r="V41" s="56"/>
       <c r="W41" s="140"/>
@@ -5333,19 +5332,19 @@
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="149" t="s">
+      <c r="M42" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="149"/>
-      <c r="S42" s="149"/>
-      <c r="T42" s="149"/>
-      <c r="U42" s="149"/>
-      <c r="V42" s="149"/>
-      <c r="W42" s="149"/>
+      <c r="N42" s="285"/>
+      <c r="O42" s="285"/>
+      <c r="P42" s="285"/>
+      <c r="Q42" s="285"/>
+      <c r="R42" s="285"/>
+      <c r="S42" s="285"/>
+      <c r="T42" s="285"/>
+      <c r="U42" s="285"/>
+      <c r="V42" s="285"/>
+      <c r="W42" s="285"/>
     </row>
     <row r="43" spans="2:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -5361,17 +5360,17 @@
       <c r="J43" s="85"/>
       <c r="K43" s="87"/>
       <c r="L43" s="76"/>
-      <c r="M43" s="187"/>
-      <c r="N43" s="187"/>
-      <c r="O43" s="187"/>
-      <c r="P43" s="187"/>
-      <c r="Q43" s="187"/>
-      <c r="R43" s="187"/>
-      <c r="S43" s="187"/>
-      <c r="T43" s="187"/>
-      <c r="U43" s="187"/>
-      <c r="V43" s="187"/>
-      <c r="W43" s="187"/>
+      <c r="M43" s="286"/>
+      <c r="N43" s="286"/>
+      <c r="O43" s="286"/>
+      <c r="P43" s="286"/>
+      <c r="Q43" s="286"/>
+      <c r="R43" s="286"/>
+      <c r="S43" s="286"/>
+      <c r="T43" s="286"/>
+      <c r="U43" s="286"/>
+      <c r="V43" s="286"/>
+      <c r="W43" s="286"/>
       <c r="Y43" s="141"/>
     </row>
     <row r="44" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5386,19 +5385,19 @@
       <c r="J44" s="85"/>
       <c r="K44" s="87"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="160" t="s">
+      <c r="M44" s="313" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="161"/>
-      <c r="R44" s="161"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="161"/>
-      <c r="U44" s="161"/>
-      <c r="V44" s="154"/>
-      <c r="W44" s="155"/>
+      <c r="N44" s="314"/>
+      <c r="O44" s="314"/>
+      <c r="P44" s="314"/>
+      <c r="Q44" s="314"/>
+      <c r="R44" s="314"/>
+      <c r="S44" s="314"/>
+      <c r="T44" s="314"/>
+      <c r="U44" s="314"/>
+      <c r="V44" s="315"/>
+      <c r="W44" s="316"/>
     </row>
     <row r="45" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
@@ -5412,19 +5411,19 @@
       <c r="J45" s="85"/>
       <c r="K45" s="87"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="247" t="s">
+      <c r="M45" s="221" t="s">
         <v>62</v>
    